--- a/fuentes/contenidos/grado07/guion01/Escaleta_LE_07_01_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion01/Escaleta_LE_07_01_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado07\guion01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\Lenguaje\fuentes\contenidos\grado07\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20492" windowHeight="7758"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="302">
   <si>
     <t>Asignatura</t>
   </si>
@@ -301,9 +301,6 @@
   </si>
   <si>
     <t>FQ_10_13_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mapa conceptual </t>
   </si>
   <si>
     <t>Evaluación</t>
@@ -1090,6 +1087,9 @@
   <si>
     <t>Antología de textos: recursos literarios</t>
   </si>
+  <si>
+    <t>Fin del tema</t>
+  </si>
 </sst>
 </file>
 
@@ -1491,13 +1491,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1790,98 +1790,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GX333"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="Q49" sqref="A49:XFD49"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.46484375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.86328125" style="48" customWidth="1"/>
-    <col min="6" max="6" width="10.86328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.73046875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="7.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.265625" style="46" customWidth="1"/>
-    <col min="11" max="11" width="13.46484375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="11.73046875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="7.59765625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="4.6640625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="59.9296875" style="48" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.46484375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.19921875" style="48" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.9296875" style="48" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="48.86328125" style="48" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.53125" style="48" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="10.86328125" style="48"/>
-    <col min="25" max="206" width="10.86328125" style="52"/>
-    <col min="207" max="16384" width="10.86328125" style="48"/>
+    <col min="5" max="5" width="35.85546875" style="48" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.28515625" style="46" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="4.7109375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="60" style="48" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" style="48" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="48.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="10.85546875" style="48"/>
+    <col min="25" max="206" width="10.85546875" style="52"/>
+    <col min="207" max="16384" width="10.85546875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:206" x14ac:dyDescent="0.45">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="72" t="s">
+      <c r="M1" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72" t="s">
+      <c r="N1" s="73"/>
+      <c r="O1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="72" t="s">
+      <c r="P1" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="72" t="s">
+      <c r="Q1" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="72" t="s">
+      <c r="R1" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="72" t="s">
+      <c r="S1" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="72" t="s">
+      <c r="T1" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="72" t="s">
+      <c r="U1" s="73" t="s">
         <v>18</v>
       </c>
       <c r="Y1" s="49"/>
@@ -2033,32 +2033,32 @@
       <c r="FO1" s="50"/>
       <c r="FP1" s="51"/>
     </row>
-    <row r="2" spans="1:206" s="53" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
+    <row r="2" spans="1:206" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
       <c r="M2" s="47" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
       <c r="Y2" s="54"/>
       <c r="Z2" s="55"/>
       <c r="AA2" s="55"/>
@@ -2242,23 +2242,23 @@
       <c r="GW2" s="57"/>
       <c r="GX2" s="57"/>
     </row>
-    <row r="3" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
       <c r="G3" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H3" s="13">
         <v>1</v>
@@ -2267,7 +2267,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>69</v>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P3" s="13" t="s">
         <v>19</v>
@@ -2289,16 +2289,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="S3" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="T3" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="U3" s="13" t="s">
         <v>271</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>272</v>
       </c>
       <c r="Y3" s="49"/>
       <c r="Z3" s="50"/>
@@ -2449,23 +2449,23 @@
       <c r="FO3" s="50"/>
       <c r="FP3" s="51"/>
     </row>
-    <row r="4" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
       <c r="G4" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H4" s="13">
         <v>2</v>
@@ -2474,7 +2474,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>69</v>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="N4" s="13"/>
       <c r="O4" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P4" s="13" t="s">
         <v>19</v>
@@ -2496,16 +2496,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="S4" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="S4" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="T4" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U4" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y4" s="49"/>
       <c r="Z4" s="50"/>
@@ -2656,23 +2656,23 @@
       <c r="FO4" s="50"/>
       <c r="FP4" s="51"/>
     </row>
-    <row r="5" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
       <c r="G5" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H5" s="13">
         <v>3</v>
@@ -2681,7 +2681,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>69</v>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>19</v>
@@ -2703,16 +2703,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="S5" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="S5" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="T5" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U5" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y5" s="49"/>
       <c r="Z5" s="50"/>
@@ -2863,23 +2863,23 @@
       <c r="FO5" s="50"/>
       <c r="FP5" s="51"/>
     </row>
-    <row r="6" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H6" s="13">
         <v>4</v>
@@ -2888,7 +2888,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>69</v>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P6" s="13" t="s">
         <v>19</v>
@@ -2910,16 +2910,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="S6" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="S6" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="T6" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y6" s="49"/>
       <c r="Z6" s="50"/>
@@ -3070,23 +3070,23 @@
       <c r="FO6" s="50"/>
       <c r="FP6" s="51"/>
     </row>
-    <row r="7" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
       <c r="G7" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H7" s="13">
         <v>5</v>
@@ -3095,7 +3095,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>69</v>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P7" s="13" t="s">
         <v>19</v>
@@ -3117,16 +3117,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="S7" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="S7" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="T7" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U7" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y7" s="49"/>
       <c r="Z7" s="50"/>
@@ -3277,23 +3277,23 @@
       <c r="FO7" s="50"/>
       <c r="FP7" s="51"/>
     </row>
-    <row r="8" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
       <c r="G8" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H8" s="13">
         <v>6</v>
@@ -3302,7 +3302,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>69</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P8" s="13" t="s">
         <v>19</v>
@@ -3324,16 +3324,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="S8" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="S8" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="T8" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U8" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y8" s="49"/>
       <c r="Z8" s="50"/>
@@ -3484,23 +3484,23 @@
       <c r="FO8" s="50"/>
       <c r="FP8" s="51"/>
     </row>
-    <row r="9" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9" s="20">
         <v>7</v>
@@ -3509,7 +3509,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K9" s="20" t="s">
         <v>70</v>
@@ -3520,25 +3520,25 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S9" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="T9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="T9" s="20" t="s">
-        <v>98</v>
-      </c>
       <c r="U9" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y9" s="49"/>
       <c r="Z9" s="50"/>
@@ -3689,25 +3689,25 @@
       <c r="FO9" s="50"/>
       <c r="FP9" s="51"/>
     </row>
-    <row r="10" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H10" s="20">
         <v>8</v>
@@ -3716,7 +3716,7 @@
         <v>19</v>
       </c>
       <c r="J10" s="60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K10" s="20" t="s">
         <v>70</v>
@@ -3727,25 +3727,25 @@
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R10" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T10" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="U10" s="20" t="s">
         <v>95</v>
-      </c>
-      <c r="U10" s="20" t="s">
-        <v>96</v>
       </c>
       <c r="Y10" s="49"/>
       <c r="Z10" s="50"/>
@@ -3896,25 +3896,25 @@
       <c r="FO10" s="50"/>
       <c r="FP10" s="51"/>
     </row>
-    <row r="11" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H11" s="20">
         <v>9</v>
@@ -3923,7 +3923,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K11" s="20" t="s">
         <v>70</v>
@@ -3934,25 +3934,25 @@
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
       <c r="O11" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P11" s="20" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T11" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U11" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y11" s="49"/>
       <c r="Z11" s="50"/>
@@ -4103,25 +4103,25 @@
       <c r="FO11" s="50"/>
       <c r="FP11" s="51"/>
     </row>
-    <row r="12" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H12" s="20">
         <v>10</v>
@@ -4130,7 +4130,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K12" s="20" t="s">
         <v>69</v>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="N12" s="20"/>
       <c r="O12" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P12" s="20" t="s">
         <v>20</v>
@@ -4152,16 +4152,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="S12" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="S12" s="20" t="s">
-        <v>270</v>
-      </c>
       <c r="T12" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U12" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y12" s="49"/>
       <c r="Z12" s="50"/>
@@ -4312,25 +4312,25 @@
       <c r="FO12" s="50"/>
       <c r="FP12" s="51"/>
     </row>
-    <row r="13" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H13" s="20">
         <v>11</v>
@@ -4339,7 +4339,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K13" s="20" t="s">
         <v>70</v>
@@ -4350,25 +4350,25 @@
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P13" s="20" t="s">
         <v>20</v>
       </c>
       <c r="Q13" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R13" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S13" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T13" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U13" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y13" s="49"/>
       <c r="Z13" s="50"/>
@@ -4519,25 +4519,25 @@
       <c r="FO13" s="50"/>
       <c r="FP13" s="51"/>
     </row>
-    <row r="14" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H14" s="20">
         <v>12</v>
@@ -4546,7 +4546,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K14" s="20" t="s">
         <v>69</v>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="N14" s="20"/>
       <c r="O14" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P14" s="20" t="s">
         <v>19</v>
@@ -4568,16 +4568,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="S14" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="S14" s="20" t="s">
-        <v>270</v>
-      </c>
       <c r="T14" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U14" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y14" s="49"/>
       <c r="Z14" s="50"/>
@@ -4728,25 +4728,25 @@
       <c r="FO14" s="50"/>
       <c r="FP14" s="51"/>
     </row>
-    <row r="15" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H15" s="20">
         <v>13</v>
@@ -4755,7 +4755,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K15" s="20" t="s">
         <v>70</v>
@@ -4766,25 +4766,25 @@
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
       <c r="O15" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P15" s="20" t="s">
         <v>19</v>
       </c>
       <c r="Q15" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R15" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S15" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T15" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U15" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y15" s="49"/>
       <c r="Z15" s="50"/>
@@ -4935,25 +4935,25 @@
       <c r="FO15" s="50"/>
       <c r="FP15" s="51"/>
     </row>
-    <row r="16" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H16" s="20">
         <v>14</v>
@@ -4962,7 +4962,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K16" s="20" t="s">
         <v>70</v>
@@ -4973,25 +4973,25 @@
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P16" s="20" t="s">
         <v>19</v>
       </c>
       <c r="Q16" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R16" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S16" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T16" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U16" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y16" s="49"/>
       <c r="Z16" s="50"/>
@@ -5142,25 +5142,25 @@
       <c r="FO16" s="50"/>
       <c r="FP16" s="51"/>
     </row>
-    <row r="17" spans="1:172" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H17" s="20">
         <v>15</v>
@@ -5169,7 +5169,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K17" s="20" t="s">
         <v>69</v>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="N17" s="20"/>
       <c r="O17" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P17" s="20" t="s">
         <v>19</v>
@@ -5191,16 +5191,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="S17" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="S17" s="20" t="s">
-        <v>270</v>
-      </c>
       <c r="T17" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U17" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y17" s="49"/>
       <c r="Z17" s="50"/>
@@ -5351,25 +5351,25 @@
       <c r="FO17" s="50"/>
       <c r="FP17" s="51"/>
     </row>
-    <row r="18" spans="1:172" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H18" s="20">
         <v>16</v>
@@ -5378,7 +5378,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K18" s="20" t="s">
         <v>70</v>
@@ -5389,25 +5389,25 @@
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
       <c r="O18" s="64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P18" s="20" t="s">
         <v>19</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R18" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S18" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T18" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U18" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y18" s="49"/>
       <c r="Z18" s="50"/>
@@ -5558,25 +5558,25 @@
       <c r="FO18" s="50"/>
       <c r="FP18" s="51"/>
     </row>
-    <row r="19" spans="1:172" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H19" s="20">
         <v>17</v>
@@ -5585,7 +5585,7 @@
         <v>19</v>
       </c>
       <c r="J19" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K19" s="20" t="s">
         <v>70</v>
@@ -5596,25 +5596,25 @@
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
       <c r="O19" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P19" s="20" t="s">
         <v>19</v>
       </c>
       <c r="Q19" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="R19" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="S19" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="T19" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="U19" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="R19" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="S19" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="T19" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="U19" s="20" t="s">
-        <v>121</v>
       </c>
       <c r="Y19" s="49"/>
       <c r="Z19" s="50"/>
@@ -5765,25 +5765,25 @@
       <c r="FO19" s="50"/>
       <c r="FP19" s="51"/>
     </row>
-    <row r="20" spans="1:172" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H20" s="20">
         <v>18</v>
@@ -5792,7 +5792,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K20" s="20" t="s">
         <v>69</v>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="N20" s="20"/>
       <c r="O20" s="65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P20" s="20" t="s">
         <v>20</v>
@@ -5814,16 +5814,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="S20" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="S20" s="20" t="s">
-        <v>270</v>
-      </c>
       <c r="T20" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U20" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y20" s="49"/>
       <c r="Z20" s="50"/>
@@ -5974,25 +5974,25 @@
       <c r="FO20" s="50"/>
       <c r="FP20" s="51"/>
     </row>
-    <row r="21" spans="1:172" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H21" s="20">
         <v>19</v>
@@ -6001,7 +6001,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K21" s="20" t="s">
         <v>70</v>
@@ -6012,25 +6012,25 @@
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
       <c r="O21" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P21" s="20" t="s">
         <v>20</v>
       </c>
       <c r="Q21" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="R21" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="S21" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="T21" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="U21" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="R21" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="S21" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="T21" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="U21" s="20" t="s">
-        <v>121</v>
       </c>
       <c r="Y21" s="49"/>
       <c r="Z21" s="50"/>
@@ -6181,25 +6181,25 @@
       <c r="FO21" s="50"/>
       <c r="FP21" s="51"/>
     </row>
-    <row r="22" spans="1:172" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H22" s="20">
         <v>20</v>
@@ -6208,7 +6208,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K22" s="20" t="s">
         <v>70</v>
@@ -6219,25 +6219,25 @@
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
       <c r="O22" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P22" s="20" t="s">
         <v>20</v>
       </c>
       <c r="Q22" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="R22" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="S22" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="T22" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="U22" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="R22" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="S22" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="T22" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="U22" s="20" t="s">
-        <v>121</v>
       </c>
       <c r="Y22" s="49"/>
       <c r="Z22" s="50"/>
@@ -6388,25 +6388,25 @@
       <c r="FO22" s="50"/>
       <c r="FP22" s="51"/>
     </row>
-    <row r="23" spans="1:172" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H23" s="20">
         <v>21</v>
@@ -6415,7 +6415,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K23" s="20" t="s">
         <v>70</v>
@@ -6426,25 +6426,25 @@
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
       <c r="O23" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P23" s="20" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="R23" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="S23" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="T23" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="U23" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="R23" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="S23" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="T23" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="U23" s="20" t="s">
-        <v>121</v>
       </c>
       <c r="Y23" s="49"/>
       <c r="Z23" s="50"/>
@@ -6595,25 +6595,25 @@
       <c r="FO23" s="50"/>
       <c r="FP23" s="51"/>
     </row>
-    <row r="24" spans="1:172" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H24" s="20">
         <v>22</v>
@@ -6622,7 +6622,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K24" s="20" t="s">
         <v>70</v>
@@ -6633,25 +6633,25 @@
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
       <c r="O24" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P24" s="20" t="s">
         <v>19</v>
       </c>
       <c r="Q24" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="R24" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="S24" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="T24" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="U24" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="R24" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="S24" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="T24" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="U24" s="20" t="s">
-        <v>121</v>
       </c>
       <c r="Y24" s="49"/>
       <c r="Z24" s="50"/>
@@ -6802,25 +6802,25 @@
       <c r="FO24" s="50"/>
       <c r="FP24" s="51"/>
     </row>
-    <row r="25" spans="1:172" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H25" s="20">
         <v>23</v>
@@ -6829,7 +6829,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K25" s="20" t="s">
         <v>69</v>
@@ -6842,7 +6842,7 @@
       </c>
       <c r="N25" s="20"/>
       <c r="O25" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P25" s="20" t="s">
         <v>19</v>
@@ -6851,16 +6851,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="S25" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="S25" s="20" t="s">
-        <v>270</v>
-      </c>
       <c r="T25" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U25" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y25" s="49"/>
       <c r="Z25" s="50"/>
@@ -7011,25 +7011,25 @@
       <c r="FO25" s="50"/>
       <c r="FP25" s="51"/>
     </row>
-    <row r="26" spans="1:172" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H26" s="20">
         <v>24</v>
@@ -7038,7 +7038,7 @@
         <v>19</v>
       </c>
       <c r="J26" s="60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K26" s="20" t="s">
         <v>69</v>
@@ -7051,7 +7051,7 @@
         <v>37</v>
       </c>
       <c r="O26" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P26" s="20" t="s">
         <v>19</v>
@@ -7060,16 +7060,16 @@
         <v>6</v>
       </c>
       <c r="R26" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="S26" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="S26" s="20" t="s">
+      <c r="T26" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="T26" s="20" t="s">
+      <c r="U26" s="20" t="s">
         <v>285</v>
-      </c>
-      <c r="U26" s="20" t="s">
-        <v>286</v>
       </c>
       <c r="Y26" s="49"/>
       <c r="Z26" s="50"/>
@@ -7220,25 +7220,25 @@
       <c r="FO26" s="50"/>
       <c r="FP26" s="51"/>
     </row>
-    <row r="27" spans="1:172" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H27" s="13">
         <v>25</v>
@@ -7247,7 +7247,7 @@
         <v>19</v>
       </c>
       <c r="J27" s="59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K27" s="13" t="s">
         <v>70</v>
@@ -7258,25 +7258,25 @@
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P27" s="13" t="s">
         <v>19</v>
       </c>
       <c r="Q27" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="S27" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="R27" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="S27" s="13" t="s">
+      <c r="T27" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="U27" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="T27" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="U27" s="13" t="s">
-        <v>135</v>
       </c>
       <c r="Y27" s="49"/>
       <c r="Z27" s="50"/>
@@ -7427,25 +7427,25 @@
       <c r="FO27" s="50"/>
       <c r="FP27" s="51"/>
     </row>
-    <row r="28" spans="1:172" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H28" s="13">
         <v>26</v>
@@ -7454,7 +7454,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K28" s="13" t="s">
         <v>70</v>
@@ -7465,25 +7465,25 @@
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
       <c r="O28" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P28" s="13" t="s">
         <v>19</v>
       </c>
       <c r="Q28" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="S28" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="R28" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="S28" s="13" t="s">
+      <c r="T28" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="U28" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="T28" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="U28" s="13" t="s">
-        <v>135</v>
       </c>
       <c r="Y28" s="49"/>
       <c r="Z28" s="50"/>
@@ -7634,25 +7634,25 @@
       <c r="FO28" s="50"/>
       <c r="FP28" s="51"/>
     </row>
-    <row r="29" spans="1:172" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A29" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H29" s="13">
         <v>27</v>
@@ -7661,7 +7661,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K29" s="13" t="s">
         <v>70</v>
@@ -7672,25 +7672,25 @@
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
       <c r="O29" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P29" s="13" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="S29" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="R29" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="S29" s="13" t="s">
+      <c r="T29" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="U29" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="T29" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="U29" s="13" t="s">
-        <v>135</v>
       </c>
       <c r="Y29" s="49"/>
       <c r="Z29" s="50"/>
@@ -7841,21 +7841,21 @@
       <c r="FO29" s="50"/>
       <c r="FP29" s="51"/>
     </row>
-    <row r="30" spans="1:172" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="14"/>
@@ -8021,27 +8021,27 @@
       <c r="FO30" s="50"/>
       <c r="FP30" s="51"/>
     </row>
-    <row r="31" spans="1:172" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H31" s="13">
         <v>28</v>
@@ -8050,7 +8050,7 @@
         <v>19</v>
       </c>
       <c r="J31" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K31" s="13" t="s">
         <v>70</v>
@@ -8061,25 +8061,25 @@
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
       <c r="O31" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P31" s="13" t="s">
         <v>19</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T31" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U31" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y31" s="49"/>
       <c r="Z31" s="50"/>
@@ -8230,25 +8230,27 @@
       <c r="FO31" s="50"/>
       <c r="FP31" s="51"/>
     </row>
-    <row r="32" spans="1:172" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E32" s="39"/>
+        <v>244</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>257</v>
+      </c>
       <c r="F32" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H32" s="13">
         <v>29</v>
@@ -8257,7 +8259,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K32" s="13" t="s">
         <v>70</v>
@@ -8268,25 +8270,25 @@
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
       <c r="O32" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P32" s="13" t="s">
         <v>20</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S32" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T32" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U32" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y32" s="49"/>
       <c r="Z32" s="50"/>
@@ -8437,27 +8439,27 @@
       <c r="FO32" s="50"/>
       <c r="FP32" s="51"/>
     </row>
-    <row r="33" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H33" s="13">
         <v>30</v>
@@ -8466,7 +8468,7 @@
         <v>19</v>
       </c>
       <c r="J33" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K33" s="13" t="s">
         <v>70</v>
@@ -8477,25 +8479,25 @@
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P33" s="13" t="s">
         <v>19</v>
       </c>
       <c r="Q33" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R33" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S33" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T33" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U33" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y33" s="49"/>
       <c r="Z33" s="50"/>
@@ -8646,25 +8648,27 @@
       <c r="FO33" s="50"/>
       <c r="FP33" s="51"/>
     </row>
-    <row r="34" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E34" s="39"/>
+        <v>244</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>257</v>
+      </c>
       <c r="F34" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H34" s="13">
         <v>31</v>
@@ -8673,7 +8677,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K34" s="13" t="s">
         <v>70</v>
@@ -8684,25 +8688,25 @@
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P34" s="13" t="s">
         <v>19</v>
       </c>
       <c r="Q34" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R34" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S34" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T34" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U34" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y34" s="49"/>
       <c r="Z34" s="50"/>
@@ -8853,25 +8857,25 @@
       <c r="FO34" s="50"/>
       <c r="FP34" s="51"/>
     </row>
-    <row r="35" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H35" s="13">
         <v>32</v>
@@ -8880,7 +8884,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K35" s="13" t="s">
         <v>70</v>
@@ -8891,25 +8895,25 @@
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P35" s="13" t="s">
         <v>19</v>
       </c>
       <c r="Q35" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="S35" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="R35" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="S35" s="13" t="s">
+      <c r="T35" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="U35" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="T35" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="U35" s="13" t="s">
-        <v>135</v>
       </c>
       <c r="Y35" s="49"/>
       <c r="Z35" s="50"/>
@@ -9060,25 +9064,25 @@
       <c r="FO35" s="50"/>
       <c r="FP35" s="51"/>
     </row>
-    <row r="36" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H36" s="13">
         <v>33</v>
@@ -9087,7 +9091,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K36" s="13" t="s">
         <v>69</v>
@@ -9100,7 +9104,7 @@
       </c>
       <c r="N36" s="13"/>
       <c r="O36" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P36" s="13" t="s">
         <v>19</v>
@@ -9109,16 +9113,16 @@
         <v>6</v>
       </c>
       <c r="R36" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="S36" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="S36" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="T36" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y36" s="49"/>
       <c r="Z36" s="50"/>
@@ -9269,25 +9273,25 @@
       <c r="FO36" s="50"/>
       <c r="FP36" s="51"/>
     </row>
-    <row r="37" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H37" s="13">
         <v>34</v>
@@ -9296,7 +9300,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K37" s="13" t="s">
         <v>69</v>
@@ -9309,7 +9313,7 @@
       </c>
       <c r="N37" s="13"/>
       <c r="O37" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P37" s="13" t="s">
         <v>19</v>
@@ -9318,16 +9322,16 @@
         <v>6</v>
       </c>
       <c r="R37" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="S37" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="S37" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="T37" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U37" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y37" s="49"/>
       <c r="Z37" s="50"/>
@@ -9478,25 +9482,25 @@
       <c r="FO37" s="50"/>
       <c r="FP37" s="51"/>
     </row>
-    <row r="38" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H38" s="13">
         <v>35</v>
@@ -9505,7 +9509,7 @@
         <v>19</v>
       </c>
       <c r="J38" s="59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>70</v>
@@ -9516,25 +9520,25 @@
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
       <c r="O38" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P38" s="13" t="s">
         <v>19</v>
       </c>
       <c r="Q38" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R38" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S38" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T38" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="U38" s="13" t="s">
         <v>159</v>
-      </c>
-      <c r="U38" s="13" t="s">
-        <v>160</v>
       </c>
       <c r="Y38" s="49"/>
       <c r="Z38" s="50"/>
@@ -9685,25 +9689,25 @@
       <c r="FO38" s="50"/>
       <c r="FP38" s="51"/>
     </row>
-    <row r="39" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H39" s="13">
         <v>36</v>
@@ -9712,7 +9716,7 @@
         <v>20</v>
       </c>
       <c r="J39" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K39" s="13" t="s">
         <v>70</v>
@@ -9723,25 +9727,25 @@
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
       <c r="O39" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P39" s="13" t="s">
         <v>19</v>
       </c>
       <c r="Q39" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R39" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S39" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T39" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U39" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y39" s="49"/>
       <c r="Z39" s="50"/>
@@ -9892,25 +9896,25 @@
       <c r="FO39" s="50"/>
       <c r="FP39" s="51"/>
     </row>
-    <row r="40" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H40" s="13">
         <v>37</v>
@@ -9919,7 +9923,7 @@
         <v>20</v>
       </c>
       <c r="J40" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K40" s="13" t="s">
         <v>70</v>
@@ -9930,25 +9934,25 @@
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
       <c r="O40" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P40" s="13" t="s">
         <v>20</v>
       </c>
       <c r="Q40" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R40" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S40" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T40" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U40" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y40" s="49"/>
       <c r="Z40" s="50"/>
@@ -10099,25 +10103,25 @@
       <c r="FO40" s="50"/>
       <c r="FP40" s="51"/>
     </row>
-    <row r="41" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H41" s="13">
         <v>38</v>
@@ -10126,7 +10130,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K41" s="13" t="s">
         <v>69</v>
@@ -10139,7 +10143,7 @@
       </c>
       <c r="N41" s="13"/>
       <c r="O41" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P41" s="13" t="s">
         <v>19</v>
@@ -10148,16 +10152,16 @@
         <v>6</v>
       </c>
       <c r="R41" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="S41" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="S41" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="T41" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U41" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y41" s="49"/>
       <c r="Z41" s="50"/>
@@ -10308,25 +10312,25 @@
       <c r="FO41" s="50"/>
       <c r="FP41" s="51"/>
     </row>
-    <row r="42" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H42" s="13">
         <v>39</v>
@@ -10335,7 +10339,7 @@
         <v>19</v>
       </c>
       <c r="J42" s="58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K42" s="13" t="s">
         <v>69</v>
@@ -10348,7 +10352,7 @@
         <v>37</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P42" s="13" t="s">
         <v>19</v>
@@ -10357,16 +10361,16 @@
         <v>6</v>
       </c>
       <c r="R42" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="S42" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="S42" s="13" t="s">
-        <v>284</v>
-      </c>
       <c r="T42" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U42" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y42" s="49"/>
       <c r="Z42" s="50"/>
@@ -10517,25 +10521,25 @@
       <c r="FO42" s="50"/>
       <c r="FP42" s="51"/>
     </row>
-    <row r="43" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H43" s="13">
         <v>40</v>
@@ -10544,7 +10548,7 @@
         <v>20</v>
       </c>
       <c r="J43" s="59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K43" s="13" t="s">
         <v>69</v>
@@ -10557,7 +10561,7 @@
       </c>
       <c r="N43" s="13"/>
       <c r="O43" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P43" s="13" t="s">
         <v>20</v>
@@ -10566,16 +10570,16 @@
         <v>6</v>
       </c>
       <c r="R43" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="S43" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="S43" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="T43" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U43" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y43" s="49"/>
       <c r="Z43" s="50"/>
@@ -10726,25 +10730,25 @@
       <c r="FO43" s="50"/>
       <c r="FP43" s="51"/>
     </row>
-    <row r="44" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H44" s="26">
         <v>41</v>
@@ -10753,7 +10757,7 @@
         <v>20</v>
       </c>
       <c r="J44" s="61" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K44" s="20" t="s">
         <v>69</v>
@@ -10766,7 +10770,7 @@
       </c>
       <c r="N44" s="21"/>
       <c r="O44" s="66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P44" s="20" t="s">
         <v>19</v>
@@ -10775,16 +10779,16 @@
         <v>6</v>
       </c>
       <c r="R44" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="S44" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="S44" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="T44" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U44" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y44" s="49"/>
       <c r="Z44" s="50"/>
@@ -10935,25 +10939,25 @@
       <c r="FO44" s="50"/>
       <c r="FP44" s="51"/>
     </row>
-    <row r="45" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H45" s="13">
         <v>42</v>
@@ -10962,7 +10966,7 @@
         <v>20</v>
       </c>
       <c r="J45" s="58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K45" s="13" t="s">
         <v>69</v>
@@ -10975,7 +10979,7 @@
       </c>
       <c r="N45" s="13"/>
       <c r="O45" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P45" s="13" t="s">
         <v>19</v>
@@ -10984,16 +10988,16 @@
         <v>6</v>
       </c>
       <c r="R45" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="S45" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="S45" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="T45" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U45" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y45" s="49"/>
       <c r="Z45" s="50"/>
@@ -11144,25 +11148,25 @@
       <c r="FO45" s="50"/>
       <c r="FP45" s="51"/>
     </row>
-    <row r="46" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H46" s="13">
         <v>43</v>
@@ -11171,7 +11175,7 @@
         <v>20</v>
       </c>
       <c r="J46" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K46" s="13" t="s">
         <v>69</v>
@@ -11184,7 +11188,7 @@
       </c>
       <c r="N46" s="13"/>
       <c r="O46" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P46" s="13" t="s">
         <v>20</v>
@@ -11193,16 +11197,16 @@
         <v>6</v>
       </c>
       <c r="R46" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="S46" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="S46" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="T46" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U46" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y46" s="49"/>
       <c r="Z46" s="50"/>
@@ -11353,25 +11357,25 @@
       <c r="FO46" s="50"/>
       <c r="FP46" s="51"/>
     </row>
-    <row r="47" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H47" s="13">
         <v>44</v>
@@ -11380,7 +11384,7 @@
         <v>19</v>
       </c>
       <c r="J47" s="58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K47" s="13" t="s">
         <v>69</v>
@@ -11393,7 +11397,7 @@
         <v>45</v>
       </c>
       <c r="O47" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P47" s="13" t="s">
         <v>20</v>
@@ -11402,16 +11406,16 @@
         <v>6</v>
       </c>
       <c r="R47" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="S47" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="S47" s="13" t="s">
-        <v>284</v>
-      </c>
       <c r="T47" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U47" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V47" s="52"/>
       <c r="W47" s="52"/>
@@ -11565,23 +11569,23 @@
       <c r="FO47" s="50"/>
       <c r="FP47" s="51"/>
     </row>
-    <row r="48" spans="1:206" s="68" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:206" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="40"/>
       <c r="G48" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H48" s="13">
         <v>45</v>
@@ -11590,7 +11594,7 @@
         <v>20</v>
       </c>
       <c r="J48" s="58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K48" s="13" t="s">
         <v>70</v>
@@ -11601,25 +11605,25 @@
       <c r="M48" s="16"/>
       <c r="N48" s="67"/>
       <c r="O48" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P48" s="13" t="s">
         <v>19</v>
       </c>
       <c r="Q48" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R48" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S48" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T48" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U48" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V48" s="52"/>
       <c r="W48" s="52"/>
@@ -11807,23 +11811,23 @@
       <c r="GW48" s="52"/>
       <c r="GX48" s="52"/>
     </row>
-    <row r="49" spans="1:206" s="68" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:206" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="40"/>
       <c r="G49" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H49" s="13">
         <v>46</v>
@@ -11832,7 +11836,7 @@
         <v>19</v>
       </c>
       <c r="J49" s="58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K49" s="13" t="s">
         <v>70</v>
@@ -11843,25 +11847,25 @@
       <c r="M49" s="16"/>
       <c r="N49" s="67"/>
       <c r="O49" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P49" s="13" t="s">
         <v>19</v>
       </c>
       <c r="Q49" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R49" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T49" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U49" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V49" s="52"/>
       <c r="W49" s="52"/>
@@ -12049,23 +12053,23 @@
       <c r="GW49" s="52"/>
       <c r="GX49" s="52"/>
     </row>
-    <row r="50" spans="1:206" s="68" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:206" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E50" s="15"/>
       <c r="F50" s="40"/>
       <c r="G50" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H50" s="13">
         <v>47</v>
@@ -12074,7 +12078,7 @@
         <v>20</v>
       </c>
       <c r="J50" s="58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K50" s="13" t="s">
         <v>70</v>
@@ -12085,25 +12089,25 @@
       <c r="M50" s="16"/>
       <c r="N50" s="67"/>
       <c r="O50" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P50" s="13" t="s">
         <v>19</v>
       </c>
       <c r="Q50" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R50" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S50" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="T50" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="T50" s="13" t="s">
+      <c r="U50" s="13" t="s">
         <v>144</v>
-      </c>
-      <c r="U50" s="13" t="s">
-        <v>145</v>
       </c>
       <c r="V50" s="52"/>
       <c r="W50" s="52"/>
@@ -12291,23 +12295,23 @@
       <c r="GW50" s="52"/>
       <c r="GX50" s="52"/>
     </row>
-    <row r="51" spans="1:206" s="68" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:206" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="40"/>
       <c r="G51" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H51" s="13">
         <v>48</v>
@@ -12316,7 +12320,7 @@
         <v>20</v>
       </c>
       <c r="J51" s="58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K51" s="13" t="s">
         <v>70</v>
@@ -12327,25 +12331,25 @@
       <c r="M51" s="16"/>
       <c r="N51" s="67"/>
       <c r="O51" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P51" s="13" t="s">
         <v>19</v>
       </c>
       <c r="Q51" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R51" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S51" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T51" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U51" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V51" s="52"/>
       <c r="W51" s="52"/>
@@ -12533,23 +12537,23 @@
       <c r="GW51" s="52"/>
       <c r="GX51" s="52"/>
     </row>
-    <row r="52" spans="1:206" s="68" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:206" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="40"/>
       <c r="G52" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H52" s="26">
         <v>49</v>
@@ -12558,7 +12562,7 @@
         <v>20</v>
       </c>
       <c r="J52" s="61" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K52" s="26" t="s">
         <v>69</v>
@@ -12571,7 +12575,7 @@
       </c>
       <c r="N52" s="11"/>
       <c r="O52" s="66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P52" s="26" t="s">
         <v>19</v>
@@ -12580,16 +12584,16 @@
         <v>6</v>
       </c>
       <c r="R52" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="S52" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="S52" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="T52" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U52" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V52" s="52"/>
       <c r="W52" s="52"/>
@@ -12777,23 +12781,23 @@
       <c r="GW52" s="52"/>
       <c r="GX52" s="52"/>
     </row>
-    <row r="53" spans="1:206" s="68" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:206" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="40"/>
       <c r="G53" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H53" s="26">
         <v>50</v>
@@ -12802,7 +12806,7 @@
         <v>20</v>
       </c>
       <c r="J53" s="61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K53" s="26" t="s">
         <v>69</v>
@@ -12815,7 +12819,7 @@
         <v>46</v>
       </c>
       <c r="O53" s="66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P53" s="26" t="s">
         <v>19</v>
@@ -12824,16 +12828,16 @@
         <v>6</v>
       </c>
       <c r="R53" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="S53" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="S53" s="13" t="s">
-        <v>284</v>
-      </c>
       <c r="T53" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U53" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V53" s="52"/>
       <c r="W53" s="52"/>
@@ -13021,23 +13025,23 @@
       <c r="GW53" s="52"/>
       <c r="GX53" s="52"/>
     </row>
-    <row r="54" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>90</v>
+        <v>301</v>
       </c>
       <c r="E54" s="15"/>
       <c r="F54" s="12"/>
       <c r="G54" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H54" s="26">
         <v>51</v>
@@ -13046,7 +13050,7 @@
         <v>20</v>
       </c>
       <c r="J54" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K54" s="69"/>
       <c r="L54" s="69"/>
@@ -13210,23 +13214,23 @@
       <c r="FO54" s="50"/>
       <c r="FP54" s="51"/>
     </row>
-    <row r="55" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>91</v>
+        <v>301</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="12"/>
       <c r="G55" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H55" s="26">
         <v>52</v>
@@ -13235,7 +13239,7 @@
         <v>20</v>
       </c>
       <c r="J55" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K55" s="26" t="s">
         <v>69</v>
@@ -13255,16 +13259,16 @@
         <v>6</v>
       </c>
       <c r="R55" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="S55" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="S55" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="T55" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U55" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y55" s="49"/>
       <c r="Z55" s="50"/>
@@ -13415,7 +13419,7 @@
       <c r="FO55" s="50"/>
       <c r="FP55" s="51"/>
     </row>
-    <row r="56" spans="1:206" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:206" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="36"/>
       <c r="B56" s="36"/>
       <c r="C56" s="36"/>
@@ -13589,7 +13593,7 @@
       <c r="FO56" s="50"/>
       <c r="FP56" s="51"/>
     </row>
-    <row r="57" spans="1:206" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:206" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="36"/>
       <c r="B57" s="36"/>
       <c r="C57" s="36"/>
@@ -13763,7 +13767,7 @@
       <c r="FO57" s="50"/>
       <c r="FP57" s="51"/>
     </row>
-    <row r="58" spans="1:206" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:206" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
       <c r="C58" s="36"/>
@@ -13937,7 +13941,7 @@
       <c r="FO58" s="50"/>
       <c r="FP58" s="51"/>
     </row>
-    <row r="59" spans="1:206" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:206" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="36"/>
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
@@ -14111,7 +14115,7 @@
       <c r="FO59" s="50"/>
       <c r="FP59" s="51"/>
     </row>
-    <row r="60" spans="1:206" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:206" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="36"/>
       <c r="B60" s="36"/>
       <c r="C60" s="36"/>
@@ -14285,7 +14289,7 @@
       <c r="FO60" s="50"/>
       <c r="FP60" s="51"/>
     </row>
-    <row r="61" spans="1:206" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:206" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="36"/>
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
@@ -14459,7 +14463,7 @@
       <c r="FO61" s="50"/>
       <c r="FP61" s="51"/>
     </row>
-    <row r="62" spans="1:206" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:206" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="36"/>
       <c r="B62" s="36"/>
       <c r="C62" s="36"/>
@@ -14633,7 +14637,7 @@
       <c r="FO62" s="50"/>
       <c r="FP62" s="51"/>
     </row>
-    <row r="63" spans="1:206" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:206" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="36"/>
       <c r="B63" s="36"/>
       <c r="C63" s="36"/>
@@ -14807,7 +14811,7 @@
       <c r="FO63" s="50"/>
       <c r="FP63" s="51"/>
     </row>
-    <row r="64" spans="1:206" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:206" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="36"/>
       <c r="B64" s="36"/>
       <c r="C64" s="36"/>
@@ -14981,7 +14985,7 @@
       <c r="FO64" s="50"/>
       <c r="FP64" s="51"/>
     </row>
-    <row r="65" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="36"/>
       <c r="B65" s="36"/>
       <c r="C65" s="36"/>
@@ -15155,7 +15159,7 @@
       <c r="FO65" s="50"/>
       <c r="FP65" s="51"/>
     </row>
-    <row r="66" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="36"/>
       <c r="B66" s="36"/>
       <c r="C66" s="36"/>
@@ -15329,7 +15333,7 @@
       <c r="FO66" s="50"/>
       <c r="FP66" s="51"/>
     </row>
-    <row r="67" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="36"/>
       <c r="B67" s="36"/>
       <c r="C67" s="36"/>
@@ -15503,7 +15507,7 @@
       <c r="FO67" s="50"/>
       <c r="FP67" s="51"/>
     </row>
-    <row r="68" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="36"/>
       <c r="B68" s="36"/>
       <c r="C68" s="36"/>
@@ -15677,7 +15681,7 @@
       <c r="FO68" s="50"/>
       <c r="FP68" s="51"/>
     </row>
-    <row r="69" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="36"/>
       <c r="B69" s="36"/>
       <c r="C69" s="36"/>
@@ -15850,7 +15854,7 @@
       <c r="FN69" s="71"/>
       <c r="FO69" s="71"/>
     </row>
-    <row r="70" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="36"/>
       <c r="B70" s="36"/>
       <c r="C70" s="36"/>
@@ -15917,7 +15921,7 @@
       <c r="BL70" s="50"/>
       <c r="BM70" s="51"/>
     </row>
-    <row r="71" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="36"/>
       <c r="B71" s="36"/>
       <c r="C71" s="36"/>
@@ -15984,7 +15988,7 @@
       <c r="BL71" s="50"/>
       <c r="BM71" s="51"/>
     </row>
-    <row r="72" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="36"/>
       <c r="B72" s="36"/>
       <c r="C72" s="36"/>
@@ -16051,7 +16055,7 @@
       <c r="BL72" s="50"/>
       <c r="BM72" s="51"/>
     </row>
-    <row r="73" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="36"/>
       <c r="B73" s="36"/>
       <c r="C73" s="36"/>
@@ -16118,7 +16122,7 @@
       <c r="BL73" s="50"/>
       <c r="BM73" s="51"/>
     </row>
-    <row r="74" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="36"/>
       <c r="B74" s="36"/>
       <c r="C74" s="36"/>
@@ -16185,7 +16189,7 @@
       <c r="BL74" s="50"/>
       <c r="BM74" s="51"/>
     </row>
-    <row r="75" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="36"/>
       <c r="B75" s="36"/>
       <c r="C75" s="36"/>
@@ -16252,7 +16256,7 @@
       <c r="BL75" s="50"/>
       <c r="BM75" s="51"/>
     </row>
-    <row r="76" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="36"/>
       <c r="B76" s="36"/>
       <c r="C76" s="36"/>
@@ -16319,7 +16323,7 @@
       <c r="BL76" s="50"/>
       <c r="BM76" s="51"/>
     </row>
-    <row r="77" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="36"/>
       <c r="B77" s="36"/>
       <c r="C77" s="36"/>
@@ -16386,7 +16390,7 @@
       <c r="BL77" s="50"/>
       <c r="BM77" s="51"/>
     </row>
-    <row r="78" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="36"/>
       <c r="B78" s="36"/>
       <c r="C78" s="36"/>
@@ -16453,7 +16457,7 @@
       <c r="BL78" s="50"/>
       <c r="BM78" s="51"/>
     </row>
-    <row r="79" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="36"/>
       <c r="B79" s="36"/>
       <c r="C79" s="36"/>
@@ -16520,7 +16524,7 @@
       <c r="BL79" s="50"/>
       <c r="BM79" s="51"/>
     </row>
-    <row r="80" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:172" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="36"/>
       <c r="B80" s="36"/>
       <c r="C80" s="36"/>
@@ -16587,7 +16591,7 @@
       <c r="BL80" s="50"/>
       <c r="BM80" s="51"/>
     </row>
-    <row r="81" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36"/>
       <c r="B81" s="36"/>
       <c r="C81" s="36"/>
@@ -16654,7 +16658,7 @@
       <c r="BL81" s="50"/>
       <c r="BM81" s="51"/>
     </row>
-    <row r="82" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="36"/>
       <c r="B82" s="36"/>
       <c r="C82" s="36"/>
@@ -16721,7 +16725,7 @@
       <c r="BL82" s="50"/>
       <c r="BM82" s="51"/>
     </row>
-    <row r="83" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="36"/>
       <c r="B83" s="36"/>
       <c r="C83" s="36"/>
@@ -16788,7 +16792,7 @@
       <c r="BL83" s="50"/>
       <c r="BM83" s="51"/>
     </row>
-    <row r="84" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="36"/>
       <c r="B84" s="36"/>
       <c r="C84" s="36"/>
@@ -16855,7 +16859,7 @@
       <c r="BL84" s="50"/>
       <c r="BM84" s="51"/>
     </row>
-    <row r="85" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="36"/>
       <c r="B85" s="36"/>
       <c r="C85" s="36"/>
@@ -16922,7 +16926,7 @@
       <c r="BL85" s="50"/>
       <c r="BM85" s="51"/>
     </row>
-    <row r="86" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="36"/>
       <c r="B86" s="36"/>
       <c r="C86" s="36"/>
@@ -16989,7 +16993,7 @@
       <c r="BL86" s="50"/>
       <c r="BM86" s="51"/>
     </row>
-    <row r="87" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="36"/>
       <c r="B87" s="36"/>
       <c r="C87" s="36"/>
@@ -17056,7 +17060,7 @@
       <c r="BL87" s="50"/>
       <c r="BM87" s="51"/>
     </row>
-    <row r="88" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="36"/>
       <c r="B88" s="36"/>
       <c r="C88" s="36"/>
@@ -17123,7 +17127,7 @@
       <c r="BL88" s="50"/>
       <c r="BM88" s="51"/>
     </row>
-    <row r="89" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="36"/>
       <c r="B89" s="36"/>
       <c r="C89" s="36"/>
@@ -17190,7 +17194,7 @@
       <c r="BL89" s="50"/>
       <c r="BM89" s="51"/>
     </row>
-    <row r="90" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="36"/>
       <c r="B90" s="36"/>
       <c r="C90" s="36"/>
@@ -17257,7 +17261,7 @@
       <c r="BL90" s="50"/>
       <c r="BM90" s="51"/>
     </row>
-    <row r="91" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="36"/>
       <c r="B91" s="36"/>
       <c r="C91" s="36"/>
@@ -17324,7 +17328,7 @@
       <c r="BL91" s="50"/>
       <c r="BM91" s="51"/>
     </row>
-    <row r="92" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="36"/>
       <c r="B92" s="36"/>
       <c r="C92" s="36"/>
@@ -17391,7 +17395,7 @@
       <c r="BL92" s="50"/>
       <c r="BM92" s="51"/>
     </row>
-    <row r="93" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="36"/>
       <c r="B93" s="36"/>
       <c r="C93" s="36"/>
@@ -17458,7 +17462,7 @@
       <c r="BL93" s="50"/>
       <c r="BM93" s="51"/>
     </row>
-    <row r="94" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="36"/>
       <c r="B94" s="36"/>
       <c r="C94" s="36"/>
@@ -17525,7 +17529,7 @@
       <c r="BL94" s="50"/>
       <c r="BM94" s="51"/>
     </row>
-    <row r="95" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="36"/>
       <c r="B95" s="36"/>
       <c r="C95" s="36"/>
@@ -17592,7 +17596,7 @@
       <c r="BL95" s="50"/>
       <c r="BM95" s="51"/>
     </row>
-    <row r="96" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="36"/>
       <c r="B96" s="36"/>
       <c r="C96" s="36"/>
@@ -17659,7 +17663,7 @@
       <c r="BL96" s="50"/>
       <c r="BM96" s="51"/>
     </row>
-    <row r="97" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="36"/>
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
@@ -17726,7 +17730,7 @@
       <c r="BL97" s="50"/>
       <c r="BM97" s="51"/>
     </row>
-    <row r="98" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="36"/>
       <c r="B98" s="36"/>
       <c r="C98" s="36"/>
@@ -17793,7 +17797,7 @@
       <c r="BL98" s="50"/>
       <c r="BM98" s="51"/>
     </row>
-    <row r="99" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36"/>
       <c r="B99" s="36"/>
       <c r="C99" s="36"/>
@@ -17860,7 +17864,7 @@
       <c r="BL99" s="50"/>
       <c r="BM99" s="51"/>
     </row>
-    <row r="100" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="36"/>
       <c r="B100" s="36"/>
       <c r="C100" s="36"/>
@@ -17927,7 +17931,7 @@
       <c r="BL100" s="50"/>
       <c r="BM100" s="51"/>
     </row>
-    <row r="101" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="36"/>
       <c r="B101" s="36"/>
       <c r="C101" s="36"/>
@@ -17994,7 +17998,7 @@
       <c r="BL101" s="50"/>
       <c r="BM101" s="51"/>
     </row>
-    <row r="102" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="36"/>
       <c r="B102" s="36"/>
       <c r="C102" s="36"/>
@@ -18061,7 +18065,7 @@
       <c r="BL102" s="50"/>
       <c r="BM102" s="51"/>
     </row>
-    <row r="103" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="36"/>
       <c r="B103" s="36"/>
       <c r="C103" s="36"/>
@@ -18128,7 +18132,7 @@
       <c r="BL103" s="50"/>
       <c r="BM103" s="51"/>
     </row>
-    <row r="104" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="36"/>
       <c r="B104" s="36"/>
       <c r="C104" s="36"/>
@@ -18195,7 +18199,7 @@
       <c r="BL104" s="50"/>
       <c r="BM104" s="51"/>
     </row>
-    <row r="105" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="36"/>
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
@@ -18262,7 +18266,7 @@
       <c r="BL105" s="50"/>
       <c r="BM105" s="51"/>
     </row>
-    <row r="106" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="36"/>
       <c r="B106" s="36"/>
       <c r="C106" s="36"/>
@@ -18329,7 +18333,7 @@
       <c r="BL106" s="50"/>
       <c r="BM106" s="51"/>
     </row>
-    <row r="107" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="36"/>
       <c r="B107" s="36"/>
       <c r="C107" s="36"/>
@@ -18396,7 +18400,7 @@
       <c r="BL107" s="50"/>
       <c r="BM107" s="51"/>
     </row>
-    <row r="108" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="36"/>
       <c r="B108" s="36"/>
       <c r="C108" s="36"/>
@@ -18463,7 +18467,7 @@
       <c r="BL108" s="50"/>
       <c r="BM108" s="51"/>
     </row>
-    <row r="109" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="36"/>
       <c r="B109" s="36"/>
       <c r="C109" s="36"/>
@@ -18530,7 +18534,7 @@
       <c r="BL109" s="50"/>
       <c r="BM109" s="51"/>
     </row>
-    <row r="110" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="36"/>
       <c r="B110" s="36"/>
       <c r="C110" s="36"/>
@@ -18597,7 +18601,7 @@
       <c r="BL110" s="50"/>
       <c r="BM110" s="51"/>
     </row>
-    <row r="111" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="36"/>
       <c r="B111" s="36"/>
       <c r="C111" s="36"/>
@@ -18664,7 +18668,7 @@
       <c r="BL111" s="50"/>
       <c r="BM111" s="51"/>
     </row>
-    <row r="112" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="36"/>
       <c r="B112" s="36"/>
       <c r="C112" s="36"/>
@@ -18731,7 +18735,7 @@
       <c r="BL112" s="50"/>
       <c r="BM112" s="51"/>
     </row>
-    <row r="113" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="36"/>
       <c r="B113" s="36"/>
       <c r="C113" s="36"/>
@@ -18798,7 +18802,7 @@
       <c r="BL113" s="50"/>
       <c r="BM113" s="51"/>
     </row>
-    <row r="114" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="36"/>
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
@@ -18865,7 +18869,7 @@
       <c r="BL114" s="50"/>
       <c r="BM114" s="51"/>
     </row>
-    <row r="115" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="36"/>
       <c r="B115" s="36"/>
       <c r="C115" s="36"/>
@@ -18932,7 +18936,7 @@
       <c r="BL115" s="50"/>
       <c r="BM115" s="51"/>
     </row>
-    <row r="116" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="36"/>
       <c r="B116" s="36"/>
       <c r="C116" s="36"/>
@@ -18999,7 +19003,7 @@
       <c r="BL116" s="50"/>
       <c r="BM116" s="51"/>
     </row>
-    <row r="117" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="36"/>
       <c r="B117" s="36"/>
       <c r="C117" s="36"/>
@@ -19066,7 +19070,7 @@
       <c r="BL117" s="50"/>
       <c r="BM117" s="51"/>
     </row>
-    <row r="118" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="36"/>
       <c r="B118" s="36"/>
       <c r="C118" s="36"/>
@@ -19133,7 +19137,7 @@
       <c r="BL118" s="50"/>
       <c r="BM118" s="51"/>
     </row>
-    <row r="119" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="36"/>
       <c r="B119" s="36"/>
       <c r="C119" s="36"/>
@@ -19200,7 +19204,7 @@
       <c r="BL119" s="50"/>
       <c r="BM119" s="51"/>
     </row>
-    <row r="120" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="36"/>
       <c r="B120" s="36"/>
       <c r="C120" s="36"/>
@@ -19267,7 +19271,7 @@
       <c r="BL120" s="50"/>
       <c r="BM120" s="51"/>
     </row>
-    <row r="121" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="36"/>
       <c r="B121" s="36"/>
       <c r="C121" s="36"/>
@@ -19334,7 +19338,7 @@
       <c r="BL121" s="50"/>
       <c r="BM121" s="51"/>
     </row>
-    <row r="122" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="36"/>
       <c r="B122" s="36"/>
       <c r="C122" s="36"/>
@@ -19401,7 +19405,7 @@
       <c r="BL122" s="50"/>
       <c r="BM122" s="51"/>
     </row>
-    <row r="123" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="36"/>
       <c r="B123" s="36"/>
       <c r="C123" s="36"/>
@@ -19468,7 +19472,7 @@
       <c r="BL123" s="50"/>
       <c r="BM123" s="51"/>
     </row>
-    <row r="124" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="36"/>
       <c r="B124" s="36"/>
       <c r="C124" s="36"/>
@@ -19535,7 +19539,7 @@
       <c r="BL124" s="50"/>
       <c r="BM124" s="51"/>
     </row>
-    <row r="125" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="36"/>
       <c r="B125" s="36"/>
       <c r="C125" s="36"/>
@@ -19602,7 +19606,7 @@
       <c r="BL125" s="50"/>
       <c r="BM125" s="51"/>
     </row>
-    <row r="126" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="36"/>
       <c r="B126" s="36"/>
       <c r="C126" s="36"/>
@@ -19669,7 +19673,7 @@
       <c r="BL126" s="50"/>
       <c r="BM126" s="51"/>
     </row>
-    <row r="127" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="36"/>
       <c r="B127" s="36"/>
       <c r="C127" s="36"/>
@@ -19736,7 +19740,7 @@
       <c r="BL127" s="50"/>
       <c r="BM127" s="51"/>
     </row>
-    <row r="128" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="36"/>
       <c r="B128" s="36"/>
       <c r="C128" s="36"/>
@@ -19803,7 +19807,7 @@
       <c r="BL128" s="50"/>
       <c r="BM128" s="51"/>
     </row>
-    <row r="129" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="36"/>
       <c r="B129" s="36"/>
       <c r="C129" s="36"/>
@@ -19870,7 +19874,7 @@
       <c r="BL129" s="50"/>
       <c r="BM129" s="51"/>
     </row>
-    <row r="130" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="36"/>
       <c r="B130" s="36"/>
       <c r="C130" s="36"/>
@@ -19937,7 +19941,7 @@
       <c r="BL130" s="50"/>
       <c r="BM130" s="51"/>
     </row>
-    <row r="131" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="36"/>
       <c r="B131" s="36"/>
       <c r="C131" s="36"/>
@@ -20004,7 +20008,7 @@
       <c r="BL131" s="50"/>
       <c r="BM131" s="51"/>
     </row>
-    <row r="132" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="36"/>
       <c r="B132" s="36"/>
       <c r="C132" s="36"/>
@@ -20071,7 +20075,7 @@
       <c r="BL132" s="50"/>
       <c r="BM132" s="51"/>
     </row>
-    <row r="133" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="36"/>
       <c r="B133" s="36"/>
       <c r="C133" s="36"/>
@@ -20138,7 +20142,7 @@
       <c r="BL133" s="50"/>
       <c r="BM133" s="51"/>
     </row>
-    <row r="134" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="36"/>
       <c r="B134" s="36"/>
       <c r="C134" s="36"/>
@@ -20205,7 +20209,7 @@
       <c r="BL134" s="50"/>
       <c r="BM134" s="51"/>
     </row>
-    <row r="135" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="36"/>
       <c r="B135" s="36"/>
       <c r="C135" s="36"/>
@@ -20272,7 +20276,7 @@
       <c r="BL135" s="50"/>
       <c r="BM135" s="51"/>
     </row>
-    <row r="136" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="36"/>
       <c r="B136" s="36"/>
       <c r="C136" s="36"/>
@@ -20339,7 +20343,7 @@
       <c r="BL136" s="50"/>
       <c r="BM136" s="51"/>
     </row>
-    <row r="137" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="36"/>
       <c r="B137" s="36"/>
       <c r="C137" s="36"/>
@@ -20406,7 +20410,7 @@
       <c r="BL137" s="50"/>
       <c r="BM137" s="51"/>
     </row>
-    <row r="138" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="36"/>
       <c r="B138" s="36"/>
       <c r="C138" s="36"/>
@@ -20473,7 +20477,7 @@
       <c r="BL138" s="50"/>
       <c r="BM138" s="51"/>
     </row>
-    <row r="139" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="36"/>
       <c r="B139" s="36"/>
       <c r="C139" s="36"/>
@@ -20540,7 +20544,7 @@
       <c r="BL139" s="50"/>
       <c r="BM139" s="51"/>
     </row>
-    <row r="140" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="36"/>
       <c r="B140" s="36"/>
       <c r="C140" s="36"/>
@@ -20607,7 +20611,7 @@
       <c r="BL140" s="50"/>
       <c r="BM140" s="51"/>
     </row>
-    <row r="141" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="36"/>
       <c r="B141" s="36"/>
       <c r="C141" s="36"/>
@@ -20674,7 +20678,7 @@
       <c r="BL141" s="50"/>
       <c r="BM141" s="51"/>
     </row>
-    <row r="142" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="36"/>
       <c r="B142" s="36"/>
       <c r="C142" s="36"/>
@@ -20741,7 +20745,7 @@
       <c r="BL142" s="50"/>
       <c r="BM142" s="51"/>
     </row>
-    <row r="143" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="36"/>
       <c r="B143" s="36"/>
       <c r="C143" s="36"/>
@@ -20808,7 +20812,7 @@
       <c r="BL143" s="50"/>
       <c r="BM143" s="51"/>
     </row>
-    <row r="144" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="36"/>
       <c r="B144" s="36"/>
       <c r="C144" s="36"/>
@@ -20875,7 +20879,7 @@
       <c r="BL144" s="50"/>
       <c r="BM144" s="51"/>
     </row>
-    <row r="145" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="36"/>
       <c r="B145" s="36"/>
       <c r="C145" s="36"/>
@@ -20942,7 +20946,7 @@
       <c r="BL145" s="50"/>
       <c r="BM145" s="51"/>
     </row>
-    <row r="146" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="36"/>
       <c r="B146" s="36"/>
       <c r="C146" s="36"/>
@@ -21009,7 +21013,7 @@
       <c r="BL146" s="50"/>
       <c r="BM146" s="51"/>
     </row>
-    <row r="147" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="36"/>
       <c r="B147" s="36"/>
       <c r="C147" s="36"/>
@@ -21076,7 +21080,7 @@
       <c r="BL147" s="50"/>
       <c r="BM147" s="51"/>
     </row>
-    <row r="148" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="36"/>
       <c r="B148" s="36"/>
       <c r="C148" s="36"/>
@@ -21143,7 +21147,7 @@
       <c r="BL148" s="50"/>
       <c r="BM148" s="51"/>
     </row>
-    <row r="149" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="36"/>
       <c r="B149" s="36"/>
       <c r="C149" s="36"/>
@@ -21210,7 +21214,7 @@
       <c r="BL149" s="50"/>
       <c r="BM149" s="51"/>
     </row>
-    <row r="150" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="36"/>
       <c r="B150" s="36"/>
       <c r="C150" s="36"/>
@@ -21277,7 +21281,7 @@
       <c r="BL150" s="50"/>
       <c r="BM150" s="51"/>
     </row>
-    <row r="151" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="36"/>
       <c r="B151" s="36"/>
       <c r="C151" s="36"/>
@@ -21344,7 +21348,7 @@
       <c r="BL151" s="50"/>
       <c r="BM151" s="51"/>
     </row>
-    <row r="152" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="36"/>
       <c r="B152" s="36"/>
       <c r="C152" s="36"/>
@@ -21411,7 +21415,7 @@
       <c r="BL152" s="50"/>
       <c r="BM152" s="51"/>
     </row>
-    <row r="153" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="36"/>
       <c r="B153" s="36"/>
       <c r="C153" s="36"/>
@@ -21478,7 +21482,7 @@
       <c r="BL153" s="50"/>
       <c r="BM153" s="51"/>
     </row>
-    <row r="154" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="36"/>
       <c r="B154" s="36"/>
       <c r="C154" s="36"/>
@@ -21545,7 +21549,7 @@
       <c r="BL154" s="50"/>
       <c r="BM154" s="51"/>
     </row>
-    <row r="155" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="36"/>
       <c r="B155" s="36"/>
       <c r="C155" s="36"/>
@@ -21612,7 +21616,7 @@
       <c r="BL155" s="50"/>
       <c r="BM155" s="51"/>
     </row>
-    <row r="156" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="36"/>
       <c r="B156" s="36"/>
       <c r="C156" s="36"/>
@@ -21679,7 +21683,7 @@
       <c r="BL156" s="50"/>
       <c r="BM156" s="51"/>
     </row>
-    <row r="157" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="36"/>
       <c r="B157" s="36"/>
       <c r="C157" s="36"/>
@@ -21746,7 +21750,7 @@
       <c r="BL157" s="50"/>
       <c r="BM157" s="51"/>
     </row>
-    <row r="158" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="36"/>
       <c r="B158" s="36"/>
       <c r="C158" s="36"/>
@@ -21813,7 +21817,7 @@
       <c r="BL158" s="50"/>
       <c r="BM158" s="51"/>
     </row>
-    <row r="159" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="36"/>
       <c r="B159" s="36"/>
       <c r="C159" s="36"/>
@@ -21880,7 +21884,7 @@
       <c r="BL159" s="50"/>
       <c r="BM159" s="51"/>
     </row>
-    <row r="160" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="36"/>
       <c r="B160" s="36"/>
       <c r="C160" s="36"/>
@@ -21947,7 +21951,7 @@
       <c r="BL160" s="50"/>
       <c r="BM160" s="51"/>
     </row>
-    <row r="161" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="36"/>
       <c r="B161" s="36"/>
       <c r="C161" s="36"/>
@@ -22014,7 +22018,7 @@
       <c r="BL161" s="50"/>
       <c r="BM161" s="51"/>
     </row>
-    <row r="162" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="36"/>
       <c r="B162" s="36"/>
       <c r="C162" s="36"/>
@@ -22081,7 +22085,7 @@
       <c r="BL162" s="50"/>
       <c r="BM162" s="51"/>
     </row>
-    <row r="163" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="36"/>
       <c r="B163" s="36"/>
       <c r="C163" s="36"/>
@@ -22148,7 +22152,7 @@
       <c r="BL163" s="50"/>
       <c r="BM163" s="51"/>
     </row>
-    <row r="164" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="36"/>
       <c r="B164" s="36"/>
       <c r="C164" s="36"/>
@@ -22215,7 +22219,7 @@
       <c r="BL164" s="50"/>
       <c r="BM164" s="51"/>
     </row>
-    <row r="165" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="36"/>
       <c r="B165" s="36"/>
       <c r="C165" s="36"/>
@@ -22282,7 +22286,7 @@
       <c r="BL165" s="50"/>
       <c r="BM165" s="51"/>
     </row>
-    <row r="166" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="36"/>
       <c r="B166" s="36"/>
       <c r="C166" s="36"/>
@@ -22349,7 +22353,7 @@
       <c r="BL166" s="50"/>
       <c r="BM166" s="51"/>
     </row>
-    <row r="167" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="36"/>
       <c r="B167" s="36"/>
       <c r="C167" s="36"/>
@@ -22416,7 +22420,7 @@
       <c r="BL167" s="50"/>
       <c r="BM167" s="51"/>
     </row>
-    <row r="168" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="36"/>
       <c r="B168" s="36"/>
       <c r="C168" s="36"/>
@@ -22483,7 +22487,7 @@
       <c r="BL168" s="50"/>
       <c r="BM168" s="51"/>
     </row>
-    <row r="169" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="36"/>
       <c r="B169" s="36"/>
       <c r="C169" s="36"/>
@@ -22550,7 +22554,7 @@
       <c r="BL169" s="50"/>
       <c r="BM169" s="51"/>
     </row>
-    <row r="170" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="36"/>
       <c r="B170" s="36"/>
       <c r="C170" s="36"/>
@@ -22617,7 +22621,7 @@
       <c r="BL170" s="50"/>
       <c r="BM170" s="51"/>
     </row>
-    <row r="171" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="36"/>
       <c r="B171" s="36"/>
       <c r="C171" s="36"/>
@@ -22684,7 +22688,7 @@
       <c r="BL171" s="50"/>
       <c r="BM171" s="51"/>
     </row>
-    <row r="172" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="36"/>
       <c r="B172" s="36"/>
       <c r="C172" s="36"/>
@@ -22751,7 +22755,7 @@
       <c r="BL172" s="50"/>
       <c r="BM172" s="51"/>
     </row>
-    <row r="173" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="36"/>
       <c r="B173" s="36"/>
       <c r="C173" s="36"/>
@@ -22818,7 +22822,7 @@
       <c r="BL173" s="50"/>
       <c r="BM173" s="51"/>
     </row>
-    <row r="174" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="36"/>
       <c r="B174" s="36"/>
       <c r="C174" s="36"/>
@@ -22885,7 +22889,7 @@
       <c r="BL174" s="50"/>
       <c r="BM174" s="51"/>
     </row>
-    <row r="175" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="36"/>
       <c r="B175" s="36"/>
       <c r="C175" s="36"/>
@@ -22952,7 +22956,7 @@
       <c r="BL175" s="50"/>
       <c r="BM175" s="51"/>
     </row>
-    <row r="176" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="36"/>
       <c r="B176" s="36"/>
       <c r="C176" s="36"/>
@@ -23019,7 +23023,7 @@
       <c r="BL176" s="50"/>
       <c r="BM176" s="51"/>
     </row>
-    <row r="177" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="36"/>
       <c r="B177" s="36"/>
       <c r="C177" s="36"/>
@@ -23086,7 +23090,7 @@
       <c r="BL177" s="50"/>
       <c r="BM177" s="51"/>
     </row>
-    <row r="178" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="36"/>
       <c r="B178" s="36"/>
       <c r="C178" s="36"/>
@@ -23153,7 +23157,7 @@
       <c r="BL178" s="50"/>
       <c r="BM178" s="51"/>
     </row>
-    <row r="179" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="36"/>
       <c r="B179" s="36"/>
       <c r="C179" s="36"/>
@@ -23220,7 +23224,7 @@
       <c r="BL179" s="50"/>
       <c r="BM179" s="51"/>
     </row>
-    <row r="180" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="36"/>
       <c r="B180" s="36"/>
       <c r="C180" s="36"/>
@@ -23287,7 +23291,7 @@
       <c r="BL180" s="50"/>
       <c r="BM180" s="51"/>
     </row>
-    <row r="181" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="36"/>
       <c r="B181" s="36"/>
       <c r="C181" s="36"/>
@@ -23354,7 +23358,7 @@
       <c r="BL181" s="50"/>
       <c r="BM181" s="51"/>
     </row>
-    <row r="182" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="36"/>
       <c r="B182" s="36"/>
       <c r="C182" s="36"/>
@@ -23421,7 +23425,7 @@
       <c r="BL182" s="50"/>
       <c r="BM182" s="51"/>
     </row>
-    <row r="183" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="36"/>
       <c r="B183" s="36"/>
       <c r="C183" s="36"/>
@@ -23488,7 +23492,7 @@
       <c r="BL183" s="50"/>
       <c r="BM183" s="51"/>
     </row>
-    <row r="184" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="36"/>
       <c r="B184" s="36"/>
       <c r="C184" s="36"/>
@@ -23555,7 +23559,7 @@
       <c r="BL184" s="50"/>
       <c r="BM184" s="51"/>
     </row>
-    <row r="185" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="36"/>
       <c r="B185" s="36"/>
       <c r="C185" s="36"/>
@@ -23622,7 +23626,7 @@
       <c r="BL185" s="50"/>
       <c r="BM185" s="51"/>
     </row>
-    <row r="186" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="36"/>
       <c r="B186" s="36"/>
       <c r="C186" s="36"/>
@@ -23689,7 +23693,7 @@
       <c r="BL186" s="50"/>
       <c r="BM186" s="51"/>
     </row>
-    <row r="187" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="36"/>
       <c r="B187" s="36"/>
       <c r="C187" s="36"/>
@@ -23756,7 +23760,7 @@
       <c r="BL187" s="50"/>
       <c r="BM187" s="51"/>
     </row>
-    <row r="188" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="36"/>
       <c r="B188" s="36"/>
       <c r="C188" s="36"/>
@@ -23823,7 +23827,7 @@
       <c r="BL188" s="50"/>
       <c r="BM188" s="51"/>
     </row>
-    <row r="189" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="36"/>
       <c r="B189" s="36"/>
       <c r="C189" s="36"/>
@@ -23890,7 +23894,7 @@
       <c r="BL189" s="50"/>
       <c r="BM189" s="51"/>
     </row>
-    <row r="190" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="36"/>
       <c r="B190" s="36"/>
       <c r="C190" s="36"/>
@@ -23957,7 +23961,7 @@
       <c r="BL190" s="50"/>
       <c r="BM190" s="51"/>
     </row>
-    <row r="191" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="36"/>
       <c r="B191" s="36"/>
       <c r="C191" s="36"/>
@@ -24024,7 +24028,7 @@
       <c r="BL191" s="50"/>
       <c r="BM191" s="51"/>
     </row>
-    <row r="192" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="36"/>
       <c r="B192" s="36"/>
       <c r="C192" s="36"/>
@@ -24091,7 +24095,7 @@
       <c r="BL192" s="50"/>
       <c r="BM192" s="51"/>
     </row>
-    <row r="193" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="36"/>
       <c r="B193" s="36"/>
       <c r="C193" s="36"/>
@@ -24158,7 +24162,7 @@
       <c r="BL193" s="50"/>
       <c r="BM193" s="51"/>
     </row>
-    <row r="194" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="36"/>
       <c r="B194" s="36"/>
       <c r="C194" s="36"/>
@@ -24225,7 +24229,7 @@
       <c r="BL194" s="50"/>
       <c r="BM194" s="51"/>
     </row>
-    <row r="195" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="36"/>
       <c r="B195" s="36"/>
       <c r="C195" s="36"/>
@@ -24292,7 +24296,7 @@
       <c r="BL195" s="50"/>
       <c r="BM195" s="51"/>
     </row>
-    <row r="196" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="36"/>
       <c r="B196" s="36"/>
       <c r="C196" s="36"/>
@@ -24359,7 +24363,7 @@
       <c r="BL196" s="50"/>
       <c r="BM196" s="51"/>
     </row>
-    <row r="197" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="36"/>
       <c r="B197" s="36"/>
       <c r="C197" s="36"/>
@@ -24426,7 +24430,7 @@
       <c r="BL197" s="50"/>
       <c r="BM197" s="51"/>
     </row>
-    <row r="198" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="36"/>
       <c r="B198" s="36"/>
       <c r="C198" s="36"/>
@@ -24493,7 +24497,7 @@
       <c r="BL198" s="50"/>
       <c r="BM198" s="51"/>
     </row>
-    <row r="199" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="36"/>
       <c r="B199" s="36"/>
       <c r="C199" s="36"/>
@@ -24560,7 +24564,7 @@
       <c r="BL199" s="50"/>
       <c r="BM199" s="51"/>
     </row>
-    <row r="200" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="36"/>
       <c r="B200" s="36"/>
       <c r="C200" s="36"/>
@@ -24627,7 +24631,7 @@
       <c r="BL200" s="50"/>
       <c r="BM200" s="51"/>
     </row>
-    <row r="201" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="36"/>
       <c r="B201" s="36"/>
       <c r="C201" s="36"/>
@@ -24694,7 +24698,7 @@
       <c r="BL201" s="50"/>
       <c r="BM201" s="51"/>
     </row>
-    <row r="202" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="36"/>
       <c r="B202" s="36"/>
       <c r="C202" s="36"/>
@@ -24761,7 +24765,7 @@
       <c r="BL202" s="50"/>
       <c r="BM202" s="51"/>
     </row>
-    <row r="203" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="36"/>
       <c r="B203" s="36"/>
       <c r="C203" s="36"/>
@@ -24828,7 +24832,7 @@
       <c r="BL203" s="50"/>
       <c r="BM203" s="51"/>
     </row>
-    <row r="204" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="36"/>
       <c r="B204" s="36"/>
       <c r="C204" s="36"/>
@@ -24895,7 +24899,7 @@
       <c r="BL204" s="50"/>
       <c r="BM204" s="51"/>
     </row>
-    <row r="205" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="36"/>
       <c r="B205" s="36"/>
       <c r="C205" s="36"/>
@@ -24962,7 +24966,7 @@
       <c r="BL205" s="50"/>
       <c r="BM205" s="51"/>
     </row>
-    <row r="206" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="36"/>
       <c r="B206" s="36"/>
       <c r="C206" s="36"/>
@@ -25029,7 +25033,7 @@
       <c r="BL206" s="50"/>
       <c r="BM206" s="51"/>
     </row>
-    <row r="207" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="36"/>
       <c r="B207" s="36"/>
       <c r="C207" s="36"/>
@@ -25096,7 +25100,7 @@
       <c r="BL207" s="50"/>
       <c r="BM207" s="51"/>
     </row>
-    <row r="208" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="36"/>
       <c r="B208" s="36"/>
       <c r="C208" s="36"/>
@@ -25163,7 +25167,7 @@
       <c r="BL208" s="50"/>
       <c r="BM208" s="51"/>
     </row>
-    <row r="209" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="36"/>
       <c r="B209" s="36"/>
       <c r="C209" s="36"/>
@@ -25230,7 +25234,7 @@
       <c r="BL209" s="50"/>
       <c r="BM209" s="51"/>
     </row>
-    <row r="210" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="36"/>
       <c r="B210" s="36"/>
       <c r="C210" s="36"/>
@@ -25297,7 +25301,7 @@
       <c r="BL210" s="50"/>
       <c r="BM210" s="51"/>
     </row>
-    <row r="211" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="36"/>
       <c r="B211" s="36"/>
       <c r="C211" s="36"/>
@@ -25364,7 +25368,7 @@
       <c r="BL211" s="50"/>
       <c r="BM211" s="51"/>
     </row>
-    <row r="212" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="36"/>
       <c r="B212" s="36"/>
       <c r="C212" s="36"/>
@@ -25431,7 +25435,7 @@
       <c r="BL212" s="50"/>
       <c r="BM212" s="51"/>
     </row>
-    <row r="213" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="36"/>
       <c r="B213" s="36"/>
       <c r="C213" s="36"/>
@@ -25498,7 +25502,7 @@
       <c r="BL213" s="50"/>
       <c r="BM213" s="51"/>
     </row>
-    <row r="214" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="36"/>
       <c r="B214" s="36"/>
       <c r="C214" s="36"/>
@@ -25565,7 +25569,7 @@
       <c r="BL214" s="50"/>
       <c r="BM214" s="51"/>
     </row>
-    <row r="215" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="36"/>
       <c r="B215" s="36"/>
       <c r="C215" s="36"/>
@@ -25632,7 +25636,7 @@
       <c r="BL215" s="50"/>
       <c r="BM215" s="51"/>
     </row>
-    <row r="216" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="36"/>
       <c r="B216" s="36"/>
       <c r="C216" s="36"/>
@@ -25699,7 +25703,7 @@
       <c r="BL216" s="50"/>
       <c r="BM216" s="51"/>
     </row>
-    <row r="217" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="36"/>
       <c r="B217" s="36"/>
       <c r="C217" s="36"/>
@@ -25766,7 +25770,7 @@
       <c r="BL217" s="50"/>
       <c r="BM217" s="51"/>
     </row>
-    <row r="218" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="36"/>
       <c r="B218" s="36"/>
       <c r="C218" s="36"/>
@@ -25833,7 +25837,7 @@
       <c r="BL218" s="50"/>
       <c r="BM218" s="51"/>
     </row>
-    <row r="219" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="36"/>
       <c r="B219" s="36"/>
       <c r="C219" s="36"/>
@@ -25900,7 +25904,7 @@
       <c r="BL219" s="50"/>
       <c r="BM219" s="51"/>
     </row>
-    <row r="220" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="36"/>
       <c r="B220" s="36"/>
       <c r="C220" s="36"/>
@@ -25967,7 +25971,7 @@
       <c r="BL220" s="50"/>
       <c r="BM220" s="51"/>
     </row>
-    <row r="221" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="36"/>
       <c r="B221" s="36"/>
       <c r="C221" s="36"/>
@@ -26034,7 +26038,7 @@
       <c r="BL221" s="50"/>
       <c r="BM221" s="51"/>
     </row>
-    <row r="222" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="36"/>
       <c r="B222" s="36"/>
       <c r="C222" s="36"/>
@@ -26101,7 +26105,7 @@
       <c r="BL222" s="50"/>
       <c r="BM222" s="51"/>
     </row>
-    <row r="223" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="36"/>
       <c r="B223" s="36"/>
       <c r="C223" s="36"/>
@@ -26168,7 +26172,7 @@
       <c r="BL223" s="50"/>
       <c r="BM223" s="51"/>
     </row>
-    <row r="224" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="36"/>
       <c r="B224" s="36"/>
       <c r="C224" s="36"/>
@@ -26235,7 +26239,7 @@
       <c r="BL224" s="50"/>
       <c r="BM224" s="51"/>
     </row>
-    <row r="225" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="36"/>
       <c r="B225" s="36"/>
       <c r="C225" s="36"/>
@@ -26302,7 +26306,7 @@
       <c r="BL225" s="50"/>
       <c r="BM225" s="51"/>
     </row>
-    <row r="226" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="36"/>
       <c r="B226" s="36"/>
       <c r="C226" s="36"/>
@@ -26369,7 +26373,7 @@
       <c r="BL226" s="50"/>
       <c r="BM226" s="51"/>
     </row>
-    <row r="227" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="36"/>
       <c r="B227" s="36"/>
       <c r="C227" s="36"/>
@@ -26436,7 +26440,7 @@
       <c r="BL227" s="50"/>
       <c r="BM227" s="51"/>
     </row>
-    <row r="228" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="36"/>
       <c r="B228" s="36"/>
       <c r="C228" s="36"/>
@@ -26503,7 +26507,7 @@
       <c r="BL228" s="50"/>
       <c r="BM228" s="51"/>
     </row>
-    <row r="229" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="36"/>
       <c r="B229" s="36"/>
       <c r="C229" s="36"/>
@@ -26570,7 +26574,7 @@
       <c r="BL229" s="50"/>
       <c r="BM229" s="51"/>
     </row>
-    <row r="230" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="36"/>
       <c r="B230" s="36"/>
       <c r="C230" s="36"/>
@@ -26637,7 +26641,7 @@
       <c r="BL230" s="50"/>
       <c r="BM230" s="51"/>
     </row>
-    <row r="231" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="36"/>
       <c r="B231" s="36"/>
       <c r="C231" s="36"/>
@@ -26704,7 +26708,7 @@
       <c r="BL231" s="50"/>
       <c r="BM231" s="51"/>
     </row>
-    <row r="232" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="36"/>
       <c r="B232" s="36"/>
       <c r="C232" s="36"/>
@@ -26771,7 +26775,7 @@
       <c r="BL232" s="50"/>
       <c r="BM232" s="51"/>
     </row>
-    <row r="233" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="36"/>
       <c r="B233" s="36"/>
       <c r="C233" s="36"/>
@@ -26838,7 +26842,7 @@
       <c r="BL233" s="50"/>
       <c r="BM233" s="51"/>
     </row>
-    <row r="234" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="36"/>
       <c r="B234" s="36"/>
       <c r="C234" s="36"/>
@@ -26905,7 +26909,7 @@
       <c r="BL234" s="50"/>
       <c r="BM234" s="51"/>
     </row>
-    <row r="235" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="36"/>
       <c r="B235" s="36"/>
       <c r="C235" s="36"/>
@@ -26972,7 +26976,7 @@
       <c r="BL235" s="50"/>
       <c r="BM235" s="51"/>
     </row>
-    <row r="236" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="36"/>
       <c r="B236" s="36"/>
       <c r="C236" s="36"/>
@@ -27039,7 +27043,7 @@
       <c r="BL236" s="50"/>
       <c r="BM236" s="51"/>
     </row>
-    <row r="237" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="36"/>
       <c r="B237" s="36"/>
       <c r="C237" s="36"/>
@@ -27106,7 +27110,7 @@
       <c r="BL237" s="50"/>
       <c r="BM237" s="51"/>
     </row>
-    <row r="238" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="36"/>
       <c r="B238" s="36"/>
       <c r="C238" s="36"/>
@@ -27173,7 +27177,7 @@
       <c r="BL238" s="50"/>
       <c r="BM238" s="51"/>
     </row>
-    <row r="239" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="36"/>
       <c r="B239" s="36"/>
       <c r="C239" s="36"/>
@@ -27240,7 +27244,7 @@
       <c r="BL239" s="50"/>
       <c r="BM239" s="51"/>
     </row>
-    <row r="240" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="36"/>
       <c r="B240" s="36"/>
       <c r="C240" s="36"/>
@@ -27307,7 +27311,7 @@
       <c r="BL240" s="50"/>
       <c r="BM240" s="51"/>
     </row>
-    <row r="241" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="36"/>
       <c r="B241" s="36"/>
       <c r="C241" s="36"/>
@@ -27374,7 +27378,7 @@
       <c r="BL241" s="50"/>
       <c r="BM241" s="51"/>
     </row>
-    <row r="242" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="36"/>
       <c r="B242" s="36"/>
       <c r="C242" s="36"/>
@@ -27441,7 +27445,7 @@
       <c r="BL242" s="50"/>
       <c r="BM242" s="51"/>
     </row>
-    <row r="243" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="36"/>
       <c r="B243" s="36"/>
       <c r="C243" s="36"/>
@@ -27508,7 +27512,7 @@
       <c r="BL243" s="50"/>
       <c r="BM243" s="51"/>
     </row>
-    <row r="244" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="36"/>
       <c r="B244" s="36"/>
       <c r="C244" s="36"/>
@@ -27575,7 +27579,7 @@
       <c r="BL244" s="50"/>
       <c r="BM244" s="51"/>
     </row>
-    <row r="245" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="36"/>
       <c r="B245" s="36"/>
       <c r="C245" s="36"/>
@@ -27642,7 +27646,7 @@
       <c r="BL245" s="50"/>
       <c r="BM245" s="51"/>
     </row>
-    <row r="246" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="36"/>
       <c r="B246" s="36"/>
       <c r="C246" s="36"/>
@@ -27709,7 +27713,7 @@
       <c r="BL246" s="50"/>
       <c r="BM246" s="51"/>
     </row>
-    <row r="247" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="36"/>
       <c r="B247" s="36"/>
       <c r="C247" s="36"/>
@@ -27776,7 +27780,7 @@
       <c r="BL247" s="50"/>
       <c r="BM247" s="51"/>
     </row>
-    <row r="248" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="36"/>
       <c r="B248" s="36"/>
       <c r="C248" s="36"/>
@@ -27843,7 +27847,7 @@
       <c r="BL248" s="50"/>
       <c r="BM248" s="51"/>
     </row>
-    <row r="249" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="36"/>
       <c r="B249" s="36"/>
       <c r="C249" s="36"/>
@@ -27910,7 +27914,7 @@
       <c r="BL249" s="50"/>
       <c r="BM249" s="51"/>
     </row>
-    <row r="250" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="36"/>
       <c r="B250" s="36"/>
       <c r="C250" s="36"/>
@@ -27977,7 +27981,7 @@
       <c r="BL250" s="50"/>
       <c r="BM250" s="51"/>
     </row>
-    <row r="251" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="36"/>
       <c r="B251" s="36"/>
       <c r="C251" s="36"/>
@@ -28044,7 +28048,7 @@
       <c r="BL251" s="50"/>
       <c r="BM251" s="51"/>
     </row>
-    <row r="252" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="36"/>
       <c r="B252" s="36"/>
       <c r="C252" s="36"/>
@@ -28111,7 +28115,7 @@
       <c r="BL252" s="50"/>
       <c r="BM252" s="51"/>
     </row>
-    <row r="253" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="36"/>
       <c r="B253" s="36"/>
       <c r="C253" s="36"/>
@@ -28178,7 +28182,7 @@
       <c r="BL253" s="50"/>
       <c r="BM253" s="51"/>
     </row>
-    <row r="254" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="36"/>
       <c r="B254" s="36"/>
       <c r="C254" s="36"/>
@@ -28245,7 +28249,7 @@
       <c r="BL254" s="50"/>
       <c r="BM254" s="51"/>
     </row>
-    <row r="255" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="36"/>
       <c r="B255" s="36"/>
       <c r="C255" s="36"/>
@@ -28312,7 +28316,7 @@
       <c r="BL255" s="50"/>
       <c r="BM255" s="51"/>
     </row>
-    <row r="256" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="36"/>
       <c r="B256" s="36"/>
       <c r="C256" s="36"/>
@@ -28379,7 +28383,7 @@
       <c r="BL256" s="50"/>
       <c r="BM256" s="51"/>
     </row>
-    <row r="257" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="36"/>
       <c r="B257" s="36"/>
       <c r="C257" s="36"/>
@@ -28446,7 +28450,7 @@
       <c r="BL257" s="50"/>
       <c r="BM257" s="51"/>
     </row>
-    <row r="258" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="36"/>
       <c r="B258" s="36"/>
       <c r="C258" s="36"/>
@@ -28513,7 +28517,7 @@
       <c r="BL258" s="50"/>
       <c r="BM258" s="51"/>
     </row>
-    <row r="259" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="36"/>
       <c r="B259" s="36"/>
       <c r="C259" s="36"/>
@@ -28580,7 +28584,7 @@
       <c r="BL259" s="50"/>
       <c r="BM259" s="51"/>
     </row>
-    <row r="260" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="36"/>
       <c r="B260" s="36"/>
       <c r="C260" s="36"/>
@@ -28647,7 +28651,7 @@
       <c r="BL260" s="50"/>
       <c r="BM260" s="51"/>
     </row>
-    <row r="261" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="36"/>
       <c r="B261" s="36"/>
       <c r="C261" s="36"/>
@@ -28714,7 +28718,7 @@
       <c r="BL261" s="50"/>
       <c r="BM261" s="51"/>
     </row>
-    <row r="262" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="36"/>
       <c r="B262" s="36"/>
       <c r="C262" s="36"/>
@@ -28781,7 +28785,7 @@
       <c r="BL262" s="50"/>
       <c r="BM262" s="51"/>
     </row>
-    <row r="263" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="36"/>
       <c r="B263" s="36"/>
       <c r="C263" s="36"/>
@@ -28848,7 +28852,7 @@
       <c r="BL263" s="50"/>
       <c r="BM263" s="51"/>
     </row>
-    <row r="264" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="36"/>
       <c r="B264" s="36"/>
       <c r="C264" s="36"/>
@@ -28915,7 +28919,7 @@
       <c r="BL264" s="50"/>
       <c r="BM264" s="51"/>
     </row>
-    <row r="265" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="36"/>
       <c r="B265" s="36"/>
       <c r="C265" s="36"/>
@@ -28982,7 +28986,7 @@
       <c r="BL265" s="50"/>
       <c r="BM265" s="51"/>
     </row>
-    <row r="266" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="36"/>
       <c r="B266" s="36"/>
       <c r="C266" s="36"/>
@@ -29049,7 +29053,7 @@
       <c r="BL266" s="50"/>
       <c r="BM266" s="51"/>
     </row>
-    <row r="267" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="36"/>
       <c r="B267" s="36"/>
       <c r="C267" s="36"/>
@@ -29116,7 +29120,7 @@
       <c r="BL267" s="50"/>
       <c r="BM267" s="51"/>
     </row>
-    <row r="268" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="36"/>
       <c r="B268" s="36"/>
       <c r="C268" s="36"/>
@@ -29183,7 +29187,7 @@
       <c r="BL268" s="50"/>
       <c r="BM268" s="51"/>
     </row>
-    <row r="269" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="36"/>
       <c r="B269" s="36"/>
       <c r="C269" s="36"/>
@@ -29250,7 +29254,7 @@
       <c r="BL269" s="50"/>
       <c r="BM269" s="51"/>
     </row>
-    <row r="270" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="36"/>
       <c r="B270" s="36"/>
       <c r="C270" s="36"/>
@@ -29317,7 +29321,7 @@
       <c r="BL270" s="50"/>
       <c r="BM270" s="51"/>
     </row>
-    <row r="271" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="36"/>
       <c r="B271" s="36"/>
       <c r="C271" s="36"/>
@@ -29384,7 +29388,7 @@
       <c r="BL271" s="50"/>
       <c r="BM271" s="51"/>
     </row>
-    <row r="272" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="36"/>
       <c r="B272" s="36"/>
       <c r="C272" s="36"/>
@@ -29451,7 +29455,7 @@
       <c r="BL272" s="50"/>
       <c r="BM272" s="51"/>
     </row>
-    <row r="273" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="36"/>
       <c r="B273" s="36"/>
       <c r="C273" s="36"/>
@@ -29518,7 +29522,7 @@
       <c r="BL273" s="50"/>
       <c r="BM273" s="51"/>
     </row>
-    <row r="274" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="36"/>
       <c r="B274" s="36"/>
       <c r="C274" s="36"/>
@@ -29585,7 +29589,7 @@
       <c r="BL274" s="50"/>
       <c r="BM274" s="51"/>
     </row>
-    <row r="275" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="36"/>
       <c r="B275" s="36"/>
       <c r="C275" s="36"/>
@@ -29652,7 +29656,7 @@
       <c r="BL275" s="50"/>
       <c r="BM275" s="51"/>
     </row>
-    <row r="276" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="36"/>
       <c r="B276" s="36"/>
       <c r="C276" s="36"/>
@@ -29719,7 +29723,7 @@
       <c r="BL276" s="50"/>
       <c r="BM276" s="51"/>
     </row>
-    <row r="277" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="36"/>
       <c r="B277" s="36"/>
       <c r="C277" s="36"/>
@@ -29786,7 +29790,7 @@
       <c r="BL277" s="50"/>
       <c r="BM277" s="51"/>
     </row>
-    <row r="278" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="36"/>
       <c r="B278" s="36"/>
       <c r="C278" s="36"/>
@@ -29853,7 +29857,7 @@
       <c r="BL278" s="50"/>
       <c r="BM278" s="51"/>
     </row>
-    <row r="279" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="36"/>
       <c r="B279" s="36"/>
       <c r="C279" s="36"/>
@@ -29920,7 +29924,7 @@
       <c r="BL279" s="50"/>
       <c r="BM279" s="51"/>
     </row>
-    <row r="280" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="36"/>
       <c r="B280" s="36"/>
       <c r="C280" s="36"/>
@@ -29987,7 +29991,7 @@
       <c r="BL280" s="50"/>
       <c r="BM280" s="51"/>
     </row>
-    <row r="281" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="36"/>
       <c r="B281" s="36"/>
       <c r="C281" s="36"/>
@@ -30054,7 +30058,7 @@
       <c r="BL281" s="50"/>
       <c r="BM281" s="51"/>
     </row>
-    <row r="282" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="36"/>
       <c r="B282" s="36"/>
       <c r="C282" s="36"/>
@@ -30121,7 +30125,7 @@
       <c r="BL282" s="50"/>
       <c r="BM282" s="51"/>
     </row>
-    <row r="283" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="36"/>
       <c r="B283" s="36"/>
       <c r="C283" s="36"/>
@@ -30188,7 +30192,7 @@
       <c r="BL283" s="50"/>
       <c r="BM283" s="51"/>
     </row>
-    <row r="284" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="36"/>
       <c r="B284" s="36"/>
       <c r="C284" s="36"/>
@@ -30255,7 +30259,7 @@
       <c r="BL284" s="50"/>
       <c r="BM284" s="51"/>
     </row>
-    <row r="285" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="36"/>
       <c r="B285" s="36"/>
       <c r="C285" s="36"/>
@@ -30322,7 +30326,7 @@
       <c r="BL285" s="50"/>
       <c r="BM285" s="51"/>
     </row>
-    <row r="286" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="36"/>
       <c r="B286" s="36"/>
       <c r="C286" s="36"/>
@@ -30389,7 +30393,7 @@
       <c r="BL286" s="50"/>
       <c r="BM286" s="51"/>
     </row>
-    <row r="287" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="36"/>
       <c r="B287" s="36"/>
       <c r="C287" s="36"/>
@@ -30456,7 +30460,7 @@
       <c r="BL287" s="50"/>
       <c r="BM287" s="51"/>
     </row>
-    <row r="288" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="36"/>
       <c r="B288" s="36"/>
       <c r="C288" s="36"/>
@@ -30523,7 +30527,7 @@
       <c r="BL288" s="50"/>
       <c r="BM288" s="51"/>
     </row>
-    <row r="289" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="36"/>
       <c r="B289" s="36"/>
       <c r="C289" s="36"/>
@@ -30590,7 +30594,7 @@
       <c r="BL289" s="50"/>
       <c r="BM289" s="51"/>
     </row>
-    <row r="290" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="36"/>
       <c r="B290" s="36"/>
       <c r="C290" s="36"/>
@@ -30657,7 +30661,7 @@
       <c r="BL290" s="50"/>
       <c r="BM290" s="51"/>
     </row>
-    <row r="291" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="36"/>
       <c r="B291" s="36"/>
       <c r="C291" s="36"/>
@@ -30724,7 +30728,7 @@
       <c r="BL291" s="50"/>
       <c r="BM291" s="51"/>
     </row>
-    <row r="292" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="36"/>
       <c r="B292" s="36"/>
       <c r="C292" s="36"/>
@@ -30791,7 +30795,7 @@
       <c r="BL292" s="50"/>
       <c r="BM292" s="51"/>
     </row>
-    <row r="293" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="36"/>
       <c r="B293" s="36"/>
       <c r="C293" s="36"/>
@@ -30858,7 +30862,7 @@
       <c r="BL293" s="50"/>
       <c r="BM293" s="51"/>
     </row>
-    <row r="294" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="36"/>
       <c r="B294" s="36"/>
       <c r="C294" s="36"/>
@@ -30925,7 +30929,7 @@
       <c r="BL294" s="50"/>
       <c r="BM294" s="51"/>
     </row>
-    <row r="295" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="36"/>
       <c r="B295" s="36"/>
       <c r="C295" s="36"/>
@@ -30992,7 +30996,7 @@
       <c r="BL295" s="50"/>
       <c r="BM295" s="51"/>
     </row>
-    <row r="296" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="36"/>
       <c r="B296" s="36"/>
       <c r="C296" s="36"/>
@@ -31059,7 +31063,7 @@
       <c r="BL296" s="50"/>
       <c r="BM296" s="51"/>
     </row>
-    <row r="297" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="36"/>
       <c r="B297" s="36"/>
       <c r="C297" s="36"/>
@@ -31126,7 +31130,7 @@
       <c r="BL297" s="50"/>
       <c r="BM297" s="51"/>
     </row>
-    <row r="298" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="36"/>
       <c r="B298" s="36"/>
       <c r="C298" s="36"/>
@@ -31193,7 +31197,7 @@
       <c r="BL298" s="50"/>
       <c r="BM298" s="51"/>
     </row>
-    <row r="299" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="36"/>
       <c r="B299" s="36"/>
       <c r="C299" s="36"/>
@@ -31260,7 +31264,7 @@
       <c r="BL299" s="50"/>
       <c r="BM299" s="51"/>
     </row>
-    <row r="300" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="36"/>
       <c r="B300" s="36"/>
       <c r="C300" s="36"/>
@@ -31327,7 +31331,7 @@
       <c r="BL300" s="50"/>
       <c r="BM300" s="51"/>
     </row>
-    <row r="301" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="36"/>
       <c r="B301" s="36"/>
       <c r="C301" s="36"/>
@@ -31394,7 +31398,7 @@
       <c r="BL301" s="50"/>
       <c r="BM301" s="51"/>
     </row>
-    <row r="302" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="36"/>
       <c r="B302" s="36"/>
       <c r="C302" s="36"/>
@@ -31461,7 +31465,7 @@
       <c r="BL302" s="50"/>
       <c r="BM302" s="51"/>
     </row>
-    <row r="303" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="36"/>
       <c r="B303" s="36"/>
       <c r="C303" s="36"/>
@@ -31528,7 +31532,7 @@
       <c r="BL303" s="50"/>
       <c r="BM303" s="51"/>
     </row>
-    <row r="304" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="36"/>
       <c r="B304" s="36"/>
       <c r="C304" s="36"/>
@@ -31595,7 +31599,7 @@
       <c r="BL304" s="50"/>
       <c r="BM304" s="51"/>
     </row>
-    <row r="305" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="36"/>
       <c r="B305" s="36"/>
       <c r="C305" s="36"/>
@@ -31662,7 +31666,7 @@
       <c r="BL305" s="50"/>
       <c r="BM305" s="51"/>
     </row>
-    <row r="306" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="36"/>
       <c r="B306" s="36"/>
       <c r="C306" s="36"/>
@@ -31729,7 +31733,7 @@
       <c r="BL306" s="50"/>
       <c r="BM306" s="51"/>
     </row>
-    <row r="307" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="36"/>
       <c r="B307" s="36"/>
       <c r="C307" s="36"/>
@@ -31796,7 +31800,7 @@
       <c r="BL307" s="50"/>
       <c r="BM307" s="51"/>
     </row>
-    <row r="308" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="36"/>
       <c r="B308" s="36"/>
       <c r="C308" s="36"/>
@@ -31863,7 +31867,7 @@
       <c r="BL308" s="50"/>
       <c r="BM308" s="51"/>
     </row>
-    <row r="309" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="36"/>
       <c r="B309" s="36"/>
       <c r="C309" s="36"/>
@@ -31930,7 +31934,7 @@
       <c r="BL309" s="50"/>
       <c r="BM309" s="51"/>
     </row>
-    <row r="310" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="36"/>
       <c r="B310" s="36"/>
       <c r="C310" s="36"/>
@@ -31997,7 +32001,7 @@
       <c r="BL310" s="50"/>
       <c r="BM310" s="51"/>
     </row>
-    <row r="311" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="36"/>
       <c r="B311" s="36"/>
       <c r="C311" s="36"/>
@@ -32064,7 +32068,7 @@
       <c r="BL311" s="50"/>
       <c r="BM311" s="51"/>
     </row>
-    <row r="312" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="36"/>
       <c r="B312" s="36"/>
       <c r="C312" s="36"/>
@@ -32131,7 +32135,7 @@
       <c r="BL312" s="50"/>
       <c r="BM312" s="51"/>
     </row>
-    <row r="313" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="36"/>
       <c r="B313" s="36"/>
       <c r="C313" s="36"/>
@@ -32198,7 +32202,7 @@
       <c r="BL313" s="50"/>
       <c r="BM313" s="51"/>
     </row>
-    <row r="314" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="36"/>
       <c r="B314" s="36"/>
       <c r="C314" s="36"/>
@@ -32265,7 +32269,7 @@
       <c r="BL314" s="50"/>
       <c r="BM314" s="51"/>
     </row>
-    <row r="315" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="36"/>
       <c r="B315" s="36"/>
       <c r="C315" s="36"/>
@@ -32332,7 +32336,7 @@
       <c r="BL315" s="50"/>
       <c r="BM315" s="51"/>
     </row>
-    <row r="316" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="36"/>
       <c r="B316" s="36"/>
       <c r="C316" s="36"/>
@@ -32399,7 +32403,7 @@
       <c r="BL316" s="50"/>
       <c r="BM316" s="51"/>
     </row>
-    <row r="317" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="36"/>
       <c r="B317" s="36"/>
       <c r="C317" s="36"/>
@@ -32466,7 +32470,7 @@
       <c r="BL317" s="50"/>
       <c r="BM317" s="51"/>
     </row>
-    <row r="318" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="36"/>
       <c r="B318" s="36"/>
       <c r="C318" s="36"/>
@@ -32533,7 +32537,7 @@
       <c r="BL318" s="50"/>
       <c r="BM318" s="51"/>
     </row>
-    <row r="319" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="36"/>
       <c r="B319" s="36"/>
       <c r="C319" s="36"/>
@@ -32600,7 +32604,7 @@
       <c r="BL319" s="50"/>
       <c r="BM319" s="51"/>
     </row>
-    <row r="320" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="36"/>
       <c r="B320" s="36"/>
       <c r="C320" s="36"/>
@@ -32667,7 +32671,7 @@
       <c r="BL320" s="50"/>
       <c r="BM320" s="51"/>
     </row>
-    <row r="321" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="36"/>
       <c r="B321" s="36"/>
       <c r="C321" s="36"/>
@@ -32734,7 +32738,7 @@
       <c r="BL321" s="50"/>
       <c r="BM321" s="51"/>
     </row>
-    <row r="322" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="36"/>
       <c r="B322" s="36"/>
       <c r="C322" s="36"/>
@@ -32801,7 +32805,7 @@
       <c r="BL322" s="50"/>
       <c r="BM322" s="51"/>
     </row>
-    <row r="323" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="36"/>
       <c r="B323" s="36"/>
       <c r="C323" s="36"/>
@@ -32868,7 +32872,7 @@
       <c r="BL323" s="50"/>
       <c r="BM323" s="51"/>
     </row>
-    <row r="324" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="36"/>
       <c r="B324" s="36"/>
       <c r="C324" s="36"/>
@@ -32935,7 +32939,7 @@
       <c r="BL324" s="50"/>
       <c r="BM324" s="51"/>
     </row>
-    <row r="325" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="36"/>
       <c r="B325" s="36"/>
       <c r="C325" s="36"/>
@@ -33002,7 +33006,7 @@
       <c r="BL325" s="50"/>
       <c r="BM325" s="51"/>
     </row>
-    <row r="326" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="36"/>
       <c r="B326" s="36"/>
       <c r="C326" s="36"/>
@@ -33069,7 +33073,7 @@
       <c r="BL326" s="50"/>
       <c r="BM326" s="51"/>
     </row>
-    <row r="327" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="36"/>
       <c r="B327" s="36"/>
       <c r="C327" s="36"/>
@@ -33136,7 +33140,7 @@
       <c r="BL327" s="50"/>
       <c r="BM327" s="51"/>
     </row>
-    <row r="328" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="33"/>
       <c r="B328" s="33"/>
       <c r="C328" s="33"/>
@@ -33202,7 +33206,7 @@
       <c r="BK328" s="71"/>
       <c r="BL328" s="71"/>
     </row>
-    <row r="329" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="30"/>
       <c r="B329" s="30"/>
       <c r="C329" s="30"/>
@@ -33219,7 +33223,7 @@
       <c r="P329" s="32"/>
       <c r="Q329" s="32"/>
     </row>
-    <row r="330" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="30"/>
       <c r="B330" s="30"/>
       <c r="C330" s="30"/>
@@ -33236,7 +33240,7 @@
       <c r="P330" s="32"/>
       <c r="Q330" s="32"/>
     </row>
-    <row r="331" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="30"/>
       <c r="B331" s="30"/>
       <c r="C331" s="30"/>
@@ -33253,7 +33257,7 @@
       <c r="P331" s="32"/>
       <c r="Q331" s="32"/>
     </row>
-    <row r="332" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="30"/>
       <c r="B332" s="30"/>
       <c r="C332" s="30"/>
@@ -33270,7 +33274,7 @@
       <c r="P332" s="32"/>
       <c r="Q332" s="32"/>
     </row>
-    <row r="333" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:65" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="30"/>
       <c r="B333" s="30"/>
       <c r="C333" s="30"/>
@@ -33292,6 +33296,14 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="U1:U2"/>
@@ -33304,14 +33316,6 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33371,16 +33375,16 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.3984375" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -33403,7 +33407,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -33424,7 +33428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>35</v>
@@ -33445,7 +33449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>36</v>
@@ -33462,7 +33466,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>37</v>
@@ -33479,7 +33483,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>38</v>
@@ -33494,7 +33498,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>39</v>
@@ -33507,7 +33511,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>40</v>
@@ -33520,7 +33524,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>41</v>
@@ -33533,7 +33537,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>42</v>
@@ -33546,7 +33550,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>43</v>
@@ -33561,7 +33565,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>44</v>
@@ -33576,7 +33580,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>45</v>
@@ -33591,7 +33595,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>46</v>
@@ -33606,7 +33610,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -33619,7 +33623,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -33632,7 +33636,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -33645,7 +33649,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -33658,7 +33662,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
@@ -33671,7 +33675,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
@@ -33684,7 +33688,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -33697,7 +33701,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
@@ -33710,7 +33714,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
@@ -33723,7 +33727,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
@@ -33736,7 +33740,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
@@ -33747,7 +33751,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
@@ -33758,7 +33762,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
@@ -33769,7 +33773,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
@@ -33780,7 +33784,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
@@ -33791,7 +33795,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
@@ -33802,7 +33806,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
@@ -33813,7 +33817,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
@@ -33824,7 +33828,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
@@ -33835,7 +33839,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
@@ -33846,7 +33850,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
@@ -33857,7 +33861,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
@@ -33868,7 +33872,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4" t="s">
@@ -33879,7 +33883,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
@@ -33890,7 +33894,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
@@ -33901,7 +33905,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -33910,7 +33914,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -33919,7 +33923,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -33928,7 +33932,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -33937,7 +33941,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -33946,7 +33950,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -33955,7 +33959,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -33964,7 +33968,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -33973,7 +33977,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -33982,7 +33986,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -33991,7 +33995,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>

--- a/fuentes/contenidos/grado07/guion01/Escaleta_LE_07_01_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion01/Escaleta_LE_07_01_CO.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,20 +13,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="310">
   <si>
     <t>Asignatura</t>
   </si>
@@ -849,9 +844,6 @@
     <t>Actividad para completar las frases</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Antología de textos poéticos</t>
-  </si>
-  <si>
     <t>Actividad para leer textos líricos (poemas) en los que reconoce afinidades y distancias con su propia experiencia y efectos posibles a
 partir del uso particular del lenguaje. Además de fortalecer el reconocimiento de los recursos literarios: fónico, semántico y sintáctico</t>
   </si>
@@ -878,15 +870,6 @@
   </si>
   <si>
     <t>Actividad sobre los recursos fónicos: aliteración, onomatopeya o paronomasia</t>
-  </si>
-  <si>
-    <t>Se citan fragmentos de varios textos poéticos relacionados con la época y se enfatiza con los contextos sociales, culturales, políticos y económicos en que se han producido.                                                              DBA : Realiza conexiones que pueden establecerse entre
-textos de diferentes géneros, épocas y orígenes, identificando
-similitudes y diferencias entre personajes, ideas y
-eventos.</t>
-  </si>
-  <si>
-    <t>Interactivo para realiza conexiones que pueden establecerse entre textos de diferentes géneros, épocas y orígenes, identificando similitudes y diferencias entre personajes, ideas y eventos</t>
   </si>
   <si>
     <t>Mapa conceptual del tema El diario Personal</t>
@@ -1028,9 +1011,6 @@
     <t>Recursos F</t>
   </si>
   <si>
-    <t>Recurso F6B-01</t>
-  </si>
-  <si>
     <t>RF_01_01_CO</t>
   </si>
   <si>
@@ -1122,6 +1102,9 @@
   </si>
   <si>
     <t>Debe incluirse 10 preguntas abiertas:3 sobre la función estética; 2 sobre los enunciados, 3 sobre  los grafemas g y j , 2 sobre el diario personal.Debe marcarse en el greco Gestor de actividades como actividad didáctica</t>
+  </si>
+  <si>
+    <t>Antología de recursos literarios</t>
   </si>
 </sst>
 </file>
@@ -1304,14 +1287,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1480,15 +1475,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1549,12 +1535,37 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="17">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1830,7 +1841,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1840,126 +1851,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" style="48" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.28515625" style="46" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="35.83203125" style="48" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.33203125" style="46" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="6" customWidth="1"/>
     <col min="15" max="15" width="60" style="48" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" style="48" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" style="48" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="48.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="48" bestFit="1" customWidth="1"/>
-    <col min="22" max="52" width="10.85546875" style="50"/>
-    <col min="53" max="16384" width="10.85546875" style="48"/>
+    <col min="20" max="20" width="48.83203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="22" max="52" width="10.83203125" style="50"/>
+    <col min="53" max="16384" width="10.83203125" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:52">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66" t="s">
+      <c r="N1" s="87"/>
+      <c r="O1" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="66" t="s">
+      <c r="S1" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="66" t="s">
+      <c r="T1" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="66" t="s">
+      <c r="U1" s="87" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
+    <row r="2" spans="1:52" s="51" customFormat="1">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
       <c r="M2" s="47" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
       <c r="V2" s="52"/>
       <c r="W2" s="52"/>
       <c r="X2" s="52"/>
@@ -1992,18 +2003,18 @@
       <c r="AY2" s="52"/>
       <c r="AZ2" s="52"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52">
       <c r="A3" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
@@ -2017,7 +2028,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>69</v>
@@ -2030,7 +2041,7 @@
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P3" s="13" t="s">
         <v>19</v>
@@ -2039,30 +2050,30 @@
         <v>6</v>
       </c>
       <c r="R3" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="U3" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="S3" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:52">
       <c r="A4" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
@@ -2076,7 +2087,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>69</v>
@@ -2098,30 +2109,30 @@
         <v>6</v>
       </c>
       <c r="R4" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="U4" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="S4" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:52">
       <c r="A5" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
@@ -2157,30 +2168,30 @@
         <v>6</v>
       </c>
       <c r="R5" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="U5" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="S5" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:52">
       <c r="A6" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
@@ -2194,7 +2205,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="54" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>69</v>
@@ -2216,30 +2227,30 @@
         <v>6</v>
       </c>
       <c r="R6" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="U6" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="S6" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:52">
       <c r="A7" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
@@ -2275,30 +2286,30 @@
         <v>6</v>
       </c>
       <c r="R7" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="U7" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="S7" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:52">
       <c r="A8" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
@@ -2320,12 +2331,12 @@
       <c r="L8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="69" t="s">
+      <c r="M8" s="66" t="s">
         <v>62</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P8" s="13" t="s">
         <v>19</v>
@@ -2334,30 +2345,30 @@
         <v>6</v>
       </c>
       <c r="R8" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="U8" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="S8" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="T8" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="U8" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:52">
       <c r="A9" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -2403,21 +2414,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52">
       <c r="A10" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17" t="s">
@@ -2462,21 +2473,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52">
       <c r="A11" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17" t="s">
@@ -2521,21 +2532,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52">
       <c r="A12" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17" t="s">
@@ -2570,33 +2581,33 @@
         <v>6</v>
       </c>
       <c r="R12" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="S12" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="T12" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="U12" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="S12" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="T12" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="U12" s="20" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:52">
       <c r="A13" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
@@ -2641,21 +2652,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52">
       <c r="A14" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17" t="s">
@@ -2690,33 +2701,33 @@
         <v>6</v>
       </c>
       <c r="R14" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="S14" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="T14" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="U14" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="S14" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="T14" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="U14" s="20" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:52">
       <c r="A15" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17" t="s">
@@ -2761,21 +2772,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52">
       <c r="A16" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17" t="s">
@@ -2820,21 +2831,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21">
       <c r="A17" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17" t="s">
@@ -2858,7 +2869,7 @@
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
       <c r="O17" s="59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P17" s="20" t="s">
         <v>19</v>
@@ -2879,21 +2890,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21">
       <c r="A18" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17" t="s">
@@ -2938,21 +2949,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21">
       <c r="A19" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17" t="s">
@@ -2987,33 +2998,33 @@
         <v>6</v>
       </c>
       <c r="R19" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="S19" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="T19" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="U19" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="S19" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="T19" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="U19" s="20" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17" t="s">
@@ -3026,7 +3037,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K20" s="20" t="s">
         <v>70</v>
@@ -3058,21 +3069,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21">
       <c r="A21" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17" t="s">
@@ -3117,21 +3128,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="A22" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17" t="s">
@@ -3176,21 +3187,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21">
       <c r="A23" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17" t="s">
@@ -3235,21 +3246,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21">
       <c r="A24" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17" t="s">
@@ -3284,155 +3295,153 @@
         <v>6</v>
       </c>
       <c r="R24" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="S24" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="T24" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="U24" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="S24" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="T24" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="U24" s="20" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F25" s="17"/>
-      <c r="G25" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="H25" s="20">
+      <c r="G25" s="71" t="s">
+        <v>309</v>
+      </c>
+      <c r="H25" s="72">
         <v>23</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="55" t="s">
+      <c r="J25" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="89"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="P25" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="R25" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="S25" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="T25" s="74" t="s">
+        <v>293</v>
+      </c>
+      <c r="U25" s="74" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="E26" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="H26" s="72">
+        <v>24</v>
+      </c>
+      <c r="I26" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="73" t="s">
+        <v>296</v>
+      </c>
+      <c r="K26" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="L25" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="O25" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="P25" s="20" t="s">
+      <c r="L26" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="N26" s="72"/>
+      <c r="O26" s="71" t="s">
+        <v>297</v>
+      </c>
+      <c r="P26" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="20">
+      <c r="Q26" s="74">
         <v>6</v>
       </c>
-      <c r="R25" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="S25" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="T25" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="U25" s="20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="71" t="s">
-        <v>296</v>
-      </c>
-      <c r="C26" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="73" t="s">
-        <v>241</v>
-      </c>
-      <c r="E26" s="74" t="s">
-        <v>252</v>
-      </c>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74" t="s">
-        <v>299</v>
-      </c>
-      <c r="H26" s="75">
-        <v>24</v>
-      </c>
-      <c r="I26" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="76" t="s">
-        <v>300</v>
-      </c>
-      <c r="K26" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="L26" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="N26" s="75"/>
-      <c r="O26" s="74" t="s">
-        <v>301</v>
-      </c>
-      <c r="P26" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="77">
-        <v>6</v>
-      </c>
-      <c r="R26" s="77" t="s">
+      <c r="R26" s="74" t="s">
+        <v>262</v>
+      </c>
+      <c r="S26" s="74" t="s">
+        <v>263</v>
+      </c>
+      <c r="T26" s="74" t="s">
+        <v>273</v>
+      </c>
+      <c r="U26" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="S26" s="77" t="s">
-        <v>266</v>
-      </c>
-      <c r="T26" s="77" t="s">
-        <v>276</v>
-      </c>
-      <c r="U26" s="77" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="14" t="s">
@@ -3477,21 +3486,21 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21">
       <c r="A28" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="14" t="s">
@@ -3536,21 +3545,21 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21">
       <c r="A29" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="14" t="s">
@@ -3595,21 +3604,21 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21">
       <c r="A30" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F30" s="22" t="s">
         <v>144</v>
@@ -3656,21 +3665,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21">
       <c r="A31" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>144</v>
@@ -3717,24 +3726,24 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21">
       <c r="A32" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>148</v>
@@ -3778,24 +3787,24 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21">
       <c r="A33" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>151</v>
@@ -3839,21 +3848,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21">
       <c r="A34" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="24" t="s">
@@ -3898,25 +3907,25 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="70" t="s">
+    <row r="35" spans="1:21">
+      <c r="A35" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="71" t="s">
-        <v>296</v>
-      </c>
-      <c r="C35" s="71" t="s">
+      <c r="B35" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="C35" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="78" t="s">
-        <v>242</v>
-      </c>
-      <c r="E35" s="79" t="s">
-        <v>252</v>
+      <c r="D35" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="E35" s="76" t="s">
+        <v>249</v>
       </c>
       <c r="F35" s="13"/>
-      <c r="G35" s="79" t="s">
-        <v>302</v>
+      <c r="G35" s="76" t="s">
+        <v>298</v>
       </c>
       <c r="H35" s="13">
         <v>33</v>
@@ -3924,56 +3933,56 @@
       <c r="I35" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="80" t="s">
-        <v>303</v>
-      </c>
-      <c r="K35" s="77" t="s">
+      <c r="J35" s="77" t="s">
+        <v>299</v>
+      </c>
+      <c r="K35" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="L35" s="77" t="s">
+      <c r="L35" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="M35" s="77" t="s">
+      <c r="M35" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="N35" s="77"/>
+      <c r="N35" s="74"/>
       <c r="O35" s="63" t="s">
-        <v>304</v>
-      </c>
-      <c r="P35" s="77" t="s">
+        <v>300</v>
+      </c>
+      <c r="P35" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="77">
+      <c r="Q35" s="74">
         <v>6</v>
       </c>
-      <c r="R35" s="77" t="s">
+      <c r="R35" s="74" t="s">
+        <v>262</v>
+      </c>
+      <c r="S35" s="74" t="s">
+        <v>263</v>
+      </c>
+      <c r="T35" s="74" t="s">
+        <v>284</v>
+      </c>
+      <c r="U35" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="S35" s="77" t="s">
-        <v>266</v>
-      </c>
-      <c r="T35" s="77" t="s">
-        <v>288</v>
-      </c>
-      <c r="U35" s="77" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="24" t="s">
@@ -4008,33 +4017,33 @@
         <v>6</v>
       </c>
       <c r="R36" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="S36" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T36" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="U36" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="S36" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="T36" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="U36" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="14" t="s">
@@ -4069,33 +4078,33 @@
         <v>6</v>
       </c>
       <c r="R37" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="S37" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T37" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="U37" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="S37" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="T37" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="U37" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>93</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="24" t="s">
@@ -4131,7 +4140,7 @@
         <v>91</v>
       </c>
       <c r="S38" s="13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="T38" s="13" t="s">
         <v>156</v>
@@ -4140,21 +4149,21 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21">
       <c r="A39" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>93</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="24" t="s">
@@ -4190,7 +4199,7 @@
         <v>91</v>
       </c>
       <c r="S39" s="13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="T39" s="16" t="s">
         <v>158</v>
@@ -4199,21 +4208,21 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21">
       <c r="A40" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C40" s="29" t="s">
         <v>93</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="24" t="s">
@@ -4249,7 +4258,7 @@
         <v>91</v>
       </c>
       <c r="S40" s="13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="T40" s="16" t="s">
         <v>159</v>
@@ -4258,21 +4267,21 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21">
       <c r="A41" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="14" t="s">
@@ -4307,33 +4316,33 @@
         <v>6</v>
       </c>
       <c r="R41" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="S41" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T41" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="U41" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="S41" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="T41" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="U41" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="14" t="s">
@@ -4368,33 +4377,33 @@
         <v>6</v>
       </c>
       <c r="R42" s="13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="S42" s="13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="T42" s="13" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="U42" s="13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="14" t="s">
@@ -4429,33 +4438,33 @@
         <v>6</v>
       </c>
       <c r="R43" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="S43" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T43" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="U43" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="S43" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="T43" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="U43" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="25" t="s">
@@ -4468,7 +4477,7 @@
         <v>20</v>
       </c>
       <c r="J44" s="56" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K44" s="20" t="s">
         <v>69</v>
@@ -4490,33 +4499,33 @@
         <v>6</v>
       </c>
       <c r="R44" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="S44" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T44" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="U44" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="S44" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="T44" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="U44" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="17" t="s">
@@ -4551,33 +4560,33 @@
         <v>6</v>
       </c>
       <c r="R45" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="S45" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T45" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="U45" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="S45" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="T45" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="U45" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="14" t="s">
@@ -4612,33 +4621,33 @@
         <v>6</v>
       </c>
       <c r="R46" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="S46" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T46" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="U46" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="S46" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="T46" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="U46" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="14" t="s">
@@ -4673,91 +4682,91 @@
         <v>6</v>
       </c>
       <c r="R47" s="13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="S47" s="13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="T47" s="13" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="U47" s="13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="70" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="71" t="s">
-        <v>296</v>
-      </c>
-      <c r="C48" s="71" t="s">
+      <c r="B48" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="C48" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="81" t="s">
-        <v>245</v>
-      </c>
-      <c r="E48" s="82" t="s">
-        <v>252</v>
-      </c>
-      <c r="F48" s="71"/>
-      <c r="G48" s="70" t="s">
-        <v>306</v>
+      <c r="D48" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="E48" s="79" t="s">
+        <v>249</v>
+      </c>
+      <c r="F48" s="68"/>
+      <c r="G48" s="67" t="s">
+        <v>302</v>
       </c>
       <c r="H48" s="13">
         <v>46</v>
       </c>
-      <c r="I48" s="77" t="s">
+      <c r="I48" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="83" t="s">
-        <v>307</v>
-      </c>
-      <c r="K48" s="77" t="s">
+      <c r="J48" s="80" t="s">
+        <v>303</v>
+      </c>
+      <c r="K48" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="L48" s="77" t="s">
+      <c r="L48" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="M48" s="77" t="s">
+      <c r="M48" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="N48" s="77"/>
+      <c r="N48" s="74"/>
       <c r="O48" s="63" t="s">
-        <v>308</v>
-      </c>
-      <c r="P48" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="P48" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Q48" s="77">
+      <c r="Q48" s="74">
         <v>6</v>
       </c>
-      <c r="R48" s="77" t="s">
+      <c r="R48" s="74" t="s">
+        <v>262</v>
+      </c>
+      <c r="S48" s="74" t="s">
+        <v>263</v>
+      </c>
+      <c r="T48" s="74" t="s">
+        <v>301</v>
+      </c>
+      <c r="U48" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="S48" s="77" t="s">
-        <v>266</v>
-      </c>
-      <c r="T48" s="77" t="s">
-        <v>305</v>
-      </c>
-      <c r="U48" s="77" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="49" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:52" s="63" customFormat="1">
       <c r="A49" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="40"/>
@@ -4771,7 +4780,7 @@
         <v>20</v>
       </c>
       <c r="J49" s="53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K49" s="13" t="s">
         <v>70</v>
@@ -4782,7 +4791,7 @@
       <c r="M49" s="16"/>
       <c r="N49" s="62"/>
       <c r="O49" s="15" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P49" s="13" t="s">
         <v>19</v>
@@ -4834,38 +4843,38 @@
       <c r="AY49" s="50"/>
       <c r="AZ49" s="50"/>
     </row>
-    <row r="50" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:52" s="63" customFormat="1">
       <c r="A50" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E50" s="15"/>
       <c r="F50" s="40"/>
       <c r="G50" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="H50" s="13">
+        <v>167</v>
+      </c>
+      <c r="H50" s="74">
         <v>48</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J50" s="53" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="K50" s="13" t="s">
         <v>70</v>
       </c>
       <c r="L50" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M50" s="16"/>
       <c r="N50" s="62"/>
@@ -4876,19 +4885,19 @@
         <v>19</v>
       </c>
       <c r="Q50" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="R50" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R50" s="16" t="s">
         <v>91</v>
       </c>
       <c r="S50" s="13" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="T50" s="13" t="s">
-        <v>297</v>
+        <v>141</v>
       </c>
       <c r="U50" s="13" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="V50" s="50"/>
       <c r="W50" s="50"/>
@@ -4922,23 +4931,23 @@
       <c r="AY50" s="50"/>
       <c r="AZ50" s="50"/>
     </row>
-    <row r="51" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:52" s="63" customFormat="1">
       <c r="A51" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="40"/>
       <c r="G51" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H51" s="13">
         <v>49</v>
@@ -4947,7 +4956,7 @@
         <v>20</v>
       </c>
       <c r="J51" s="53" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="K51" s="13" t="s">
         <v>70</v>
@@ -4957,7 +4966,7 @@
       </c>
       <c r="M51" s="16"/>
       <c r="N51" s="62"/>
-      <c r="O51" s="15" t="s">
+      <c r="O51" s="59" t="s">
         <v>199</v>
       </c>
       <c r="P51" s="13" t="s">
@@ -4966,14 +4975,14 @@
       <c r="Q51" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="R51" s="16" t="s">
+      <c r="R51" s="13" t="s">
         <v>91</v>
       </c>
       <c r="S51" s="13" t="s">
         <v>140</v>
       </c>
       <c r="T51" s="13" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="U51" s="13" t="s">
         <v>142</v>
@@ -5010,61 +5019,63 @@
       <c r="AY51" s="50"/>
       <c r="AZ51" s="50"/>
     </row>
-    <row r="52" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:52" s="63" customFormat="1">
       <c r="A52" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="40"/>
-      <c r="G52" s="14" t="s">
-        <v>168</v>
+      <c r="G52" s="25" t="s">
+        <v>202</v>
       </c>
       <c r="H52" s="13">
         <v>50</v>
       </c>
-      <c r="I52" s="13" t="s">
+      <c r="I52" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L52" s="13" t="s">
+      <c r="J52" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="K52" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="L52" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="M52" s="16"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="59" t="s">
-        <v>199</v>
-      </c>
-      <c r="P52" s="13" t="s">
+      <c r="M52" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="N52" s="11"/>
+      <c r="O52" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="P52" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q52" s="13" t="s">
-        <v>92</v>
+      <c r="Q52" s="13">
+        <v>6</v>
       </c>
       <c r="R52" s="13" t="s">
-        <v>91</v>
+        <v>262</v>
       </c>
       <c r="S52" s="13" t="s">
-        <v>140</v>
+        <v>263</v>
       </c>
       <c r="T52" s="13" t="s">
-        <v>164</v>
+        <v>288</v>
       </c>
       <c r="U52" s="13" t="s">
-        <v>142</v>
+        <v>265</v>
       </c>
       <c r="V52" s="50"/>
       <c r="W52" s="50"/>
@@ -5098,23 +5109,23 @@
       <c r="AY52" s="50"/>
       <c r="AZ52" s="50"/>
     </row>
-    <row r="53" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:52" s="63" customFormat="1">
       <c r="A53" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="40"/>
       <c r="G53" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H53" s="13">
         <v>51</v>
@@ -5123,7 +5134,7 @@
         <v>20</v>
       </c>
       <c r="J53" s="56" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="K53" s="26" t="s">
         <v>69</v>
@@ -5131,12 +5142,12 @@
       <c r="L53" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="M53" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="N53" s="11"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="O53" s="61" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="P53" s="26" t="s">
         <v>19</v>
@@ -5145,16 +5156,16 @@
         <v>6</v>
       </c>
       <c r="R53" s="13" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="S53" s="13" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="T53" s="13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="U53" s="13" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="V53" s="50"/>
       <c r="W53" s="50"/>
@@ -5188,23 +5199,23 @@
       <c r="AY53" s="50"/>
       <c r="AZ53" s="50"/>
     </row>
-    <row r="54" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:52" s="63" customFormat="1">
       <c r="A54" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D54" s="28" t="s">
-        <v>246</v>
+      <c r="D54" s="10" t="s">
+        <v>294</v>
       </c>
       <c r="E54" s="15"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="25" t="s">
-        <v>201</v>
+      <c r="F54" s="12"/>
+      <c r="G54" s="23" t="s">
+        <v>163</v>
       </c>
       <c r="H54" s="13">
         <v>52</v>
@@ -5212,40 +5223,22 @@
       <c r="I54" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="K54" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="L54" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="O54" s="61" t="s">
-        <v>206</v>
-      </c>
+      <c r="J54" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="K54" s="64"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="64"/>
+      <c r="O54" s="64"/>
       <c r="P54" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q54" s="13">
-        <v>6</v>
-      </c>
-      <c r="R54" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="S54" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="T54" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="U54" s="13" t="s">
-        <v>282</v>
-      </c>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
       <c r="V54" s="50"/>
       <c r="W54" s="50"/>
       <c r="X54" s="50"/>
@@ -5278,23 +5271,23 @@
       <c r="AY54" s="50"/>
       <c r="AZ54" s="50"/>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:52">
       <c r="A55" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="12"/>
       <c r="G55" s="23" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="H55" s="13">
         <v>53</v>
@@ -5303,168 +5296,129 @@
         <v>20</v>
       </c>
       <c r="J55" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="K55" s="64"/>
-      <c r="L55" s="64"/>
-      <c r="M55" s="64"/>
+        <v>165</v>
+      </c>
+      <c r="K55" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="L55" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="N55" s="64"/>
       <c r="O55" s="64"/>
       <c r="P55" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="13"/>
-    </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="Q55" s="13">
+        <v>6</v>
+      </c>
+      <c r="R55" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="S55" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T55" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="U55" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:52">
       <c r="A56" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D56" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="23" t="s">
-        <v>90</v>
-      </c>
+      <c r="D56" s="81" t="s">
+        <v>305</v>
+      </c>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
       <c r="H56" s="13">
         <v>54</v>
       </c>
-      <c r="I56" s="26" t="s">
+      <c r="I56" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="J56" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="K56" s="26" t="s">
+      <c r="J56" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="K56" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="L56" s="26" t="s">
+      <c r="L56" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M56" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="N56" s="64"/>
-      <c r="O56" s="64"/>
-      <c r="P56" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q56" s="13">
+      <c r="M56" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="N56" s="41"/>
+      <c r="O56" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="P56" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="82">
         <v>6</v>
       </c>
-      <c r="R56" s="13" t="s">
+      <c r="R56" s="82" t="s">
+        <v>262</v>
+      </c>
+      <c r="S56" s="82" t="s">
+        <v>263</v>
+      </c>
+      <c r="T56" s="82" t="s">
+        <v>306</v>
+      </c>
+      <c r="U56" s="82" t="s">
         <v>265</v>
       </c>
-      <c r="S56" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="T56" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="U56" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="57" spans="1:52" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="84" t="s">
-        <v>309</v>
-      </c>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="13">
-        <v>55</v>
-      </c>
-      <c r="I57" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="86" t="s">
-        <v>311</v>
-      </c>
-      <c r="K57" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="L57" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="M57" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="N57" s="41"/>
-      <c r="O57" s="41" t="s">
-        <v>312</v>
-      </c>
-      <c r="P57" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q57" s="85">
-        <v>6</v>
-      </c>
-      <c r="R57" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="S57" s="85" t="s">
-        <v>266</v>
-      </c>
-      <c r="T57" s="85" t="s">
-        <v>310</v>
-      </c>
-      <c r="U57" s="85" t="s">
-        <v>268</v>
-      </c>
-      <c r="V57" s="88"/>
-      <c r="W57" s="88"/>
-      <c r="X57" s="88"/>
-      <c r="Y57" s="88"/>
-      <c r="Z57" s="88"/>
-      <c r="AA57" s="88"/>
-      <c r="AB57" s="88"/>
-      <c r="AC57" s="88"/>
-      <c r="AD57" s="88"/>
-      <c r="AE57" s="88"/>
-      <c r="AF57" s="88"/>
-      <c r="AG57" s="88"/>
-      <c r="AH57" s="88"/>
-      <c r="AI57" s="88"/>
-      <c r="AJ57" s="88"/>
-      <c r="AK57" s="88"/>
-      <c r="AL57" s="88"/>
-      <c r="AM57" s="88"/>
-      <c r="AN57" s="88"/>
-      <c r="AO57" s="88"/>
-      <c r="AP57" s="88"/>
-      <c r="AQ57" s="88"/>
-      <c r="AR57" s="88"/>
-      <c r="AS57" s="88"/>
-      <c r="AT57" s="88"/>
-      <c r="AU57" s="88"/>
-      <c r="AV57" s="88"/>
-      <c r="AW57" s="88"/>
-      <c r="AX57" s="88"/>
-      <c r="AY57" s="88"/>
-      <c r="AZ57" s="88"/>
-    </row>
-    <row r="58" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:52" s="84" customFormat="1">
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
+      <c r="X57" s="85"/>
+      <c r="Y57" s="85"/>
+      <c r="Z57" s="85"/>
+      <c r="AA57" s="85"/>
+      <c r="AB57" s="85"/>
+      <c r="AC57" s="85"/>
+      <c r="AD57" s="85"/>
+      <c r="AE57" s="85"/>
+      <c r="AF57" s="85"/>
+      <c r="AG57" s="85"/>
+      <c r="AH57" s="85"/>
+      <c r="AI57" s="85"/>
+      <c r="AJ57" s="85"/>
+      <c r="AK57" s="85"/>
+      <c r="AL57" s="85"/>
+      <c r="AM57" s="85"/>
+      <c r="AN57" s="85"/>
+      <c r="AO57" s="85"/>
+      <c r="AP57" s="85"/>
+      <c r="AQ57" s="85"/>
+      <c r="AR57" s="85"/>
+      <c r="AS57" s="85"/>
+      <c r="AT57" s="85"/>
+      <c r="AU57" s="85"/>
+      <c r="AV57" s="85"/>
+      <c r="AW57" s="85"/>
+      <c r="AX57" s="85"/>
+      <c r="AY57" s="85"/>
+      <c r="AZ57" s="85"/>
+    </row>
+    <row r="58" spans="1:52" s="49" customFormat="1">
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
       <c r="C58" s="36"/>
@@ -5481,7 +5435,7 @@
       <c r="P58" s="38"/>
       <c r="Q58" s="38"/>
     </row>
-    <row r="59" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:52" s="49" customFormat="1">
       <c r="A59" s="36"/>
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
@@ -5498,7 +5452,7 @@
       <c r="P59" s="38"/>
       <c r="Q59" s="38"/>
     </row>
-    <row r="60" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:52" s="49" customFormat="1">
       <c r="A60" s="36"/>
       <c r="B60" s="36"/>
       <c r="C60" s="36"/>
@@ -5515,7 +5469,7 @@
       <c r="P60" s="38"/>
       <c r="Q60" s="38"/>
     </row>
-    <row r="61" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:52" s="49" customFormat="1">
       <c r="A61" s="36"/>
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
@@ -5532,7 +5486,7 @@
       <c r="P61" s="38"/>
       <c r="Q61" s="38"/>
     </row>
-    <row r="62" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:52" s="49" customFormat="1">
       <c r="A62" s="36"/>
       <c r="B62" s="36"/>
       <c r="C62" s="36"/>
@@ -5549,7 +5503,7 @@
       <c r="P62" s="38"/>
       <c r="Q62" s="38"/>
     </row>
-    <row r="63" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:52" s="49" customFormat="1">
       <c r="A63" s="36"/>
       <c r="B63" s="36"/>
       <c r="C63" s="36"/>
@@ -5566,7 +5520,7 @@
       <c r="P63" s="38"/>
       <c r="Q63" s="38"/>
     </row>
-    <row r="64" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:52" s="49" customFormat="1">
       <c r="A64" s="36"/>
       <c r="B64" s="36"/>
       <c r="C64" s="36"/>
@@ -5583,7 +5537,7 @@
       <c r="P64" s="38"/>
       <c r="Q64" s="38"/>
     </row>
-    <row r="65" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" s="49" customFormat="1">
       <c r="A65" s="36"/>
       <c r="B65" s="36"/>
       <c r="C65" s="36"/>
@@ -5600,7 +5554,7 @@
       <c r="P65" s="38"/>
       <c r="Q65" s="38"/>
     </row>
-    <row r="66" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" s="49" customFormat="1">
       <c r="A66" s="36"/>
       <c r="B66" s="36"/>
       <c r="C66" s="36"/>
@@ -5617,7 +5571,7 @@
       <c r="P66" s="38"/>
       <c r="Q66" s="38"/>
     </row>
-    <row r="67" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" s="49" customFormat="1">
       <c r="A67" s="36"/>
       <c r="B67" s="36"/>
       <c r="C67" s="36"/>
@@ -5634,7 +5588,7 @@
       <c r="P67" s="38"/>
       <c r="Q67" s="38"/>
     </row>
-    <row r="68" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" s="49" customFormat="1">
       <c r="A68" s="36"/>
       <c r="B68" s="36"/>
       <c r="C68" s="36"/>
@@ -5651,7 +5605,7 @@
       <c r="P68" s="38"/>
       <c r="Q68" s="38"/>
     </row>
-    <row r="69" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" s="49" customFormat="1">
       <c r="A69" s="36"/>
       <c r="B69" s="36"/>
       <c r="C69" s="36"/>
@@ -5668,7 +5622,7 @@
       <c r="P69" s="38"/>
       <c r="Q69" s="38"/>
     </row>
-    <row r="70" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" s="65" customFormat="1">
       <c r="A70" s="36"/>
       <c r="B70" s="36"/>
       <c r="C70" s="36"/>
@@ -5691,7 +5645,7 @@
       <c r="T70" s="49"/>
       <c r="U70" s="49"/>
     </row>
-    <row r="71" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" s="50" customFormat="1">
       <c r="A71" s="36"/>
       <c r="B71" s="36"/>
       <c r="C71" s="36"/>
@@ -5714,7 +5668,7 @@
       <c r="T71" s="49"/>
       <c r="U71" s="49"/>
     </row>
-    <row r="72" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" s="50" customFormat="1">
       <c r="A72" s="36"/>
       <c r="B72" s="36"/>
       <c r="C72" s="36"/>
@@ -5737,7 +5691,7 @@
       <c r="T72" s="49"/>
       <c r="U72" s="49"/>
     </row>
-    <row r="73" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" s="50" customFormat="1">
       <c r="A73" s="36"/>
       <c r="B73" s="36"/>
       <c r="C73" s="36"/>
@@ -5760,7 +5714,7 @@
       <c r="T73" s="49"/>
       <c r="U73" s="49"/>
     </row>
-    <row r="74" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" s="50" customFormat="1">
       <c r="A74" s="36"/>
       <c r="B74" s="36"/>
       <c r="C74" s="36"/>
@@ -5783,7 +5737,7 @@
       <c r="T74" s="49"/>
       <c r="U74" s="49"/>
     </row>
-    <row r="75" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" s="50" customFormat="1">
       <c r="A75" s="36"/>
       <c r="B75" s="36"/>
       <c r="C75" s="36"/>
@@ -5806,7 +5760,7 @@
       <c r="T75" s="49"/>
       <c r="U75" s="49"/>
     </row>
-    <row r="76" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" s="50" customFormat="1">
       <c r="A76" s="36"/>
       <c r="B76" s="36"/>
       <c r="C76" s="36"/>
@@ -5829,7 +5783,7 @@
       <c r="T76" s="49"/>
       <c r="U76" s="49"/>
     </row>
-    <row r="77" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" s="50" customFormat="1">
       <c r="A77" s="36"/>
       <c r="B77" s="36"/>
       <c r="C77" s="36"/>
@@ -5852,7 +5806,7 @@
       <c r="T77" s="49"/>
       <c r="U77" s="49"/>
     </row>
-    <row r="78" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" s="50" customFormat="1">
       <c r="A78" s="36"/>
       <c r="B78" s="36"/>
       <c r="C78" s="36"/>
@@ -5875,7 +5829,7 @@
       <c r="T78" s="49"/>
       <c r="U78" s="49"/>
     </row>
-    <row r="79" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" s="50" customFormat="1">
       <c r="A79" s="36"/>
       <c r="B79" s="36"/>
       <c r="C79" s="36"/>
@@ -5898,7 +5852,7 @@
       <c r="T79" s="49"/>
       <c r="U79" s="49"/>
     </row>
-    <row r="80" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" s="50" customFormat="1">
       <c r="A80" s="36"/>
       <c r="B80" s="36"/>
       <c r="C80" s="36"/>
@@ -5921,7 +5875,7 @@
       <c r="T80" s="49"/>
       <c r="U80" s="49"/>
     </row>
-    <row r="81" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" s="50" customFormat="1">
       <c r="A81" s="36"/>
       <c r="B81" s="36"/>
       <c r="C81" s="36"/>
@@ -5944,7 +5898,7 @@
       <c r="T81" s="49"/>
       <c r="U81" s="49"/>
     </row>
-    <row r="82" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" s="50" customFormat="1">
       <c r="A82" s="36"/>
       <c r="B82" s="36"/>
       <c r="C82" s="36"/>
@@ -5967,7 +5921,7 @@
       <c r="T82" s="49"/>
       <c r="U82" s="49"/>
     </row>
-    <row r="83" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" s="50" customFormat="1">
       <c r="A83" s="36"/>
       <c r="B83" s="36"/>
       <c r="C83" s="36"/>
@@ -5990,7 +5944,7 @@
       <c r="T83" s="49"/>
       <c r="U83" s="49"/>
     </row>
-    <row r="84" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" s="50" customFormat="1">
       <c r="A84" s="36"/>
       <c r="B84" s="36"/>
       <c r="C84" s="36"/>
@@ -6013,7 +5967,7 @@
       <c r="T84" s="49"/>
       <c r="U84" s="49"/>
     </row>
-    <row r="85" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" s="50" customFormat="1">
       <c r="A85" s="36"/>
       <c r="B85" s="36"/>
       <c r="C85" s="36"/>
@@ -6036,7 +5990,7 @@
       <c r="T85" s="49"/>
       <c r="U85" s="49"/>
     </row>
-    <row r="86" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" s="50" customFormat="1">
       <c r="A86" s="36"/>
       <c r="B86" s="36"/>
       <c r="C86" s="36"/>
@@ -6059,7 +6013,7 @@
       <c r="T86" s="49"/>
       <c r="U86" s="49"/>
     </row>
-    <row r="87" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" s="50" customFormat="1">
       <c r="A87" s="36"/>
       <c r="B87" s="36"/>
       <c r="C87" s="36"/>
@@ -6082,7 +6036,7 @@
       <c r="T87" s="49"/>
       <c r="U87" s="49"/>
     </row>
-    <row r="88" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" s="50" customFormat="1">
       <c r="A88" s="36"/>
       <c r="B88" s="36"/>
       <c r="C88" s="36"/>
@@ -6105,7 +6059,7 @@
       <c r="T88" s="49"/>
       <c r="U88" s="49"/>
     </row>
-    <row r="89" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" s="50" customFormat="1">
       <c r="A89" s="36"/>
       <c r="B89" s="36"/>
       <c r="C89" s="36"/>
@@ -6128,7 +6082,7 @@
       <c r="T89" s="49"/>
       <c r="U89" s="49"/>
     </row>
-    <row r="90" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" s="50" customFormat="1">
       <c r="A90" s="36"/>
       <c r="B90" s="36"/>
       <c r="C90" s="36"/>
@@ -6151,7 +6105,7 @@
       <c r="T90" s="49"/>
       <c r="U90" s="49"/>
     </row>
-    <row r="91" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" s="50" customFormat="1">
       <c r="A91" s="36"/>
       <c r="B91" s="36"/>
       <c r="C91" s="36"/>
@@ -6174,7 +6128,7 @@
       <c r="T91" s="49"/>
       <c r="U91" s="49"/>
     </row>
-    <row r="92" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" s="50" customFormat="1">
       <c r="A92" s="36"/>
       <c r="B92" s="36"/>
       <c r="C92" s="36"/>
@@ -6197,7 +6151,7 @@
       <c r="T92" s="49"/>
       <c r="U92" s="49"/>
     </row>
-    <row r="93" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" s="50" customFormat="1">
       <c r="A93" s="36"/>
       <c r="B93" s="36"/>
       <c r="C93" s="36"/>
@@ -6220,7 +6174,7 @@
       <c r="T93" s="49"/>
       <c r="U93" s="49"/>
     </row>
-    <row r="94" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" s="50" customFormat="1">
       <c r="A94" s="36"/>
       <c r="B94" s="36"/>
       <c r="C94" s="36"/>
@@ -6243,7 +6197,7 @@
       <c r="T94" s="49"/>
       <c r="U94" s="49"/>
     </row>
-    <row r="95" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" s="50" customFormat="1">
       <c r="A95" s="36"/>
       <c r="B95" s="36"/>
       <c r="C95" s="36"/>
@@ -6266,7 +6220,7 @@
       <c r="T95" s="49"/>
       <c r="U95" s="49"/>
     </row>
-    <row r="96" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" s="50" customFormat="1">
       <c r="A96" s="36"/>
       <c r="B96" s="36"/>
       <c r="C96" s="36"/>
@@ -6289,7 +6243,7 @@
       <c r="T96" s="49"/>
       <c r="U96" s="49"/>
     </row>
-    <row r="97" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" s="50" customFormat="1">
       <c r="A97" s="36"/>
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
@@ -6312,7 +6266,7 @@
       <c r="T97" s="49"/>
       <c r="U97" s="49"/>
     </row>
-    <row r="98" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" s="50" customFormat="1">
       <c r="A98" s="36"/>
       <c r="B98" s="36"/>
       <c r="C98" s="36"/>
@@ -6335,7 +6289,7 @@
       <c r="T98" s="49"/>
       <c r="U98" s="49"/>
     </row>
-    <row r="99" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" s="50" customFormat="1">
       <c r="A99" s="36"/>
       <c r="B99" s="36"/>
       <c r="C99" s="36"/>
@@ -6358,7 +6312,7 @@
       <c r="T99" s="49"/>
       <c r="U99" s="49"/>
     </row>
-    <row r="100" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" s="50" customFormat="1">
       <c r="A100" s="36"/>
       <c r="B100" s="36"/>
       <c r="C100" s="36"/>
@@ -6381,7 +6335,7 @@
       <c r="T100" s="49"/>
       <c r="U100" s="49"/>
     </row>
-    <row r="101" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" s="50" customFormat="1">
       <c r="A101" s="36"/>
       <c r="B101" s="36"/>
       <c r="C101" s="36"/>
@@ -6404,7 +6358,7 @@
       <c r="T101" s="49"/>
       <c r="U101" s="49"/>
     </row>
-    <row r="102" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" s="50" customFormat="1">
       <c r="A102" s="36"/>
       <c r="B102" s="36"/>
       <c r="C102" s="36"/>
@@ -6427,7 +6381,7 @@
       <c r="T102" s="49"/>
       <c r="U102" s="49"/>
     </row>
-    <row r="103" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" s="50" customFormat="1">
       <c r="A103" s="36"/>
       <c r="B103" s="36"/>
       <c r="C103" s="36"/>
@@ -6450,7 +6404,7 @@
       <c r="T103" s="49"/>
       <c r="U103" s="49"/>
     </row>
-    <row r="104" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" s="50" customFormat="1">
       <c r="A104" s="36"/>
       <c r="B104" s="36"/>
       <c r="C104" s="36"/>
@@ -6473,7 +6427,7 @@
       <c r="T104" s="49"/>
       <c r="U104" s="49"/>
     </row>
-    <row r="105" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" s="50" customFormat="1">
       <c r="A105" s="36"/>
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
@@ -6496,7 +6450,7 @@
       <c r="T105" s="49"/>
       <c r="U105" s="49"/>
     </row>
-    <row r="106" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" s="50" customFormat="1">
       <c r="A106" s="36"/>
       <c r="B106" s="36"/>
       <c r="C106" s="36"/>
@@ -6519,7 +6473,7 @@
       <c r="T106" s="49"/>
       <c r="U106" s="49"/>
     </row>
-    <row r="107" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" s="50" customFormat="1">
       <c r="A107" s="36"/>
       <c r="B107" s="36"/>
       <c r="C107" s="36"/>
@@ -6542,7 +6496,7 @@
       <c r="T107" s="49"/>
       <c r="U107" s="49"/>
     </row>
-    <row r="108" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" s="50" customFormat="1">
       <c r="A108" s="36"/>
       <c r="B108" s="36"/>
       <c r="C108" s="36"/>
@@ -6565,7 +6519,7 @@
       <c r="T108" s="49"/>
       <c r="U108" s="49"/>
     </row>
-    <row r="109" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" s="50" customFormat="1">
       <c r="A109" s="36"/>
       <c r="B109" s="36"/>
       <c r="C109" s="36"/>
@@ -6588,7 +6542,7 @@
       <c r="T109" s="49"/>
       <c r="U109" s="49"/>
     </row>
-    <row r="110" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" s="50" customFormat="1">
       <c r="A110" s="36"/>
       <c r="B110" s="36"/>
       <c r="C110" s="36"/>
@@ -6611,7 +6565,7 @@
       <c r="T110" s="49"/>
       <c r="U110" s="49"/>
     </row>
-    <row r="111" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" s="50" customFormat="1">
       <c r="A111" s="36"/>
       <c r="B111" s="36"/>
       <c r="C111" s="36"/>
@@ -6634,7 +6588,7 @@
       <c r="T111" s="49"/>
       <c r="U111" s="49"/>
     </row>
-    <row r="112" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" s="50" customFormat="1">
       <c r="A112" s="36"/>
       <c r="B112" s="36"/>
       <c r="C112" s="36"/>
@@ -6657,7 +6611,7 @@
       <c r="T112" s="49"/>
       <c r="U112" s="49"/>
     </row>
-    <row r="113" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" s="50" customFormat="1">
       <c r="A113" s="36"/>
       <c r="B113" s="36"/>
       <c r="C113" s="36"/>
@@ -6680,7 +6634,7 @@
       <c r="T113" s="49"/>
       <c r="U113" s="49"/>
     </row>
-    <row r="114" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" s="50" customFormat="1">
       <c r="A114" s="36"/>
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
@@ -6703,7 +6657,7 @@
       <c r="T114" s="49"/>
       <c r="U114" s="49"/>
     </row>
-    <row r="115" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" s="50" customFormat="1">
       <c r="A115" s="36"/>
       <c r="B115" s="36"/>
       <c r="C115" s="36"/>
@@ -6726,7 +6680,7 @@
       <c r="T115" s="49"/>
       <c r="U115" s="49"/>
     </row>
-    <row r="116" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" s="50" customFormat="1">
       <c r="A116" s="36"/>
       <c r="B116" s="36"/>
       <c r="C116" s="36"/>
@@ -6749,7 +6703,7 @@
       <c r="T116" s="49"/>
       <c r="U116" s="49"/>
     </row>
-    <row r="117" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" s="50" customFormat="1">
       <c r="A117" s="36"/>
       <c r="B117" s="36"/>
       <c r="C117" s="36"/>
@@ -6772,7 +6726,7 @@
       <c r="T117" s="49"/>
       <c r="U117" s="49"/>
     </row>
-    <row r="118" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" s="50" customFormat="1">
       <c r="A118" s="36"/>
       <c r="B118" s="36"/>
       <c r="C118" s="36"/>
@@ -6795,7 +6749,7 @@
       <c r="T118" s="49"/>
       <c r="U118" s="49"/>
     </row>
-    <row r="119" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" s="50" customFormat="1">
       <c r="A119" s="36"/>
       <c r="B119" s="36"/>
       <c r="C119" s="36"/>
@@ -6818,7 +6772,7 @@
       <c r="T119" s="49"/>
       <c r="U119" s="49"/>
     </row>
-    <row r="120" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" s="50" customFormat="1">
       <c r="A120" s="36"/>
       <c r="B120" s="36"/>
       <c r="C120" s="36"/>
@@ -6841,7 +6795,7 @@
       <c r="T120" s="49"/>
       <c r="U120" s="49"/>
     </row>
-    <row r="121" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" s="50" customFormat="1">
       <c r="A121" s="36"/>
       <c r="B121" s="36"/>
       <c r="C121" s="36"/>
@@ -6864,7 +6818,7 @@
       <c r="T121" s="49"/>
       <c r="U121" s="49"/>
     </row>
-    <row r="122" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" s="50" customFormat="1">
       <c r="A122" s="36"/>
       <c r="B122" s="36"/>
       <c r="C122" s="36"/>
@@ -6887,7 +6841,7 @@
       <c r="T122" s="49"/>
       <c r="U122" s="49"/>
     </row>
-    <row r="123" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" s="50" customFormat="1">
       <c r="A123" s="36"/>
       <c r="B123" s="36"/>
       <c r="C123" s="36"/>
@@ -6910,7 +6864,7 @@
       <c r="T123" s="49"/>
       <c r="U123" s="49"/>
     </row>
-    <row r="124" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" s="50" customFormat="1">
       <c r="A124" s="36"/>
       <c r="B124" s="36"/>
       <c r="C124" s="36"/>
@@ -6933,7 +6887,7 @@
       <c r="T124" s="49"/>
       <c r="U124" s="49"/>
     </row>
-    <row r="125" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" s="50" customFormat="1">
       <c r="A125" s="36"/>
       <c r="B125" s="36"/>
       <c r="C125" s="36"/>
@@ -6956,7 +6910,7 @@
       <c r="T125" s="49"/>
       <c r="U125" s="49"/>
     </row>
-    <row r="126" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" s="50" customFormat="1">
       <c r="A126" s="36"/>
       <c r="B126" s="36"/>
       <c r="C126" s="36"/>
@@ -6979,7 +6933,7 @@
       <c r="T126" s="49"/>
       <c r="U126" s="49"/>
     </row>
-    <row r="127" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" s="50" customFormat="1">
       <c r="A127" s="36"/>
       <c r="B127" s="36"/>
       <c r="C127" s="36"/>
@@ -7002,7 +6956,7 @@
       <c r="T127" s="49"/>
       <c r="U127" s="49"/>
     </row>
-    <row r="128" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" s="50" customFormat="1">
       <c r="A128" s="36"/>
       <c r="B128" s="36"/>
       <c r="C128" s="36"/>
@@ -7025,7 +6979,7 @@
       <c r="T128" s="49"/>
       <c r="U128" s="49"/>
     </row>
-    <row r="129" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" s="50" customFormat="1">
       <c r="A129" s="36"/>
       <c r="B129" s="36"/>
       <c r="C129" s="36"/>
@@ -7048,7 +7002,7 @@
       <c r="T129" s="49"/>
       <c r="U129" s="49"/>
     </row>
-    <row r="130" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" s="50" customFormat="1">
       <c r="A130" s="36"/>
       <c r="B130" s="36"/>
       <c r="C130" s="36"/>
@@ -7071,7 +7025,7 @@
       <c r="T130" s="49"/>
       <c r="U130" s="49"/>
     </row>
-    <row r="131" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" s="50" customFormat="1">
       <c r="A131" s="36"/>
       <c r="B131" s="36"/>
       <c r="C131" s="36"/>
@@ -7094,7 +7048,7 @@
       <c r="T131" s="49"/>
       <c r="U131" s="49"/>
     </row>
-    <row r="132" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" s="50" customFormat="1">
       <c r="A132" s="36"/>
       <c r="B132" s="36"/>
       <c r="C132" s="36"/>
@@ -7117,7 +7071,7 @@
       <c r="T132" s="49"/>
       <c r="U132" s="49"/>
     </row>
-    <row r="133" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" s="50" customFormat="1">
       <c r="A133" s="36"/>
       <c r="B133" s="36"/>
       <c r="C133" s="36"/>
@@ -7140,7 +7094,7 @@
       <c r="T133" s="49"/>
       <c r="U133" s="49"/>
     </row>
-    <row r="134" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" s="50" customFormat="1">
       <c r="A134" s="36"/>
       <c r="B134" s="36"/>
       <c r="C134" s="36"/>
@@ -7163,7 +7117,7 @@
       <c r="T134" s="49"/>
       <c r="U134" s="49"/>
     </row>
-    <row r="135" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" s="50" customFormat="1">
       <c r="A135" s="36"/>
       <c r="B135" s="36"/>
       <c r="C135" s="36"/>
@@ -7186,7 +7140,7 @@
       <c r="T135" s="49"/>
       <c r="U135" s="49"/>
     </row>
-    <row r="136" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" s="50" customFormat="1">
       <c r="A136" s="36"/>
       <c r="B136" s="36"/>
       <c r="C136" s="36"/>
@@ -7209,7 +7163,7 @@
       <c r="T136" s="49"/>
       <c r="U136" s="49"/>
     </row>
-    <row r="137" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" s="50" customFormat="1">
       <c r="A137" s="36"/>
       <c r="B137" s="36"/>
       <c r="C137" s="36"/>
@@ -7232,7 +7186,7 @@
       <c r="T137" s="49"/>
       <c r="U137" s="49"/>
     </row>
-    <row r="138" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" s="50" customFormat="1">
       <c r="A138" s="36"/>
       <c r="B138" s="36"/>
       <c r="C138" s="36"/>
@@ -7255,7 +7209,7 @@
       <c r="T138" s="49"/>
       <c r="U138" s="49"/>
     </row>
-    <row r="139" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" s="50" customFormat="1">
       <c r="A139" s="36"/>
       <c r="B139" s="36"/>
       <c r="C139" s="36"/>
@@ -7278,7 +7232,7 @@
       <c r="T139" s="49"/>
       <c r="U139" s="49"/>
     </row>
-    <row r="140" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" s="50" customFormat="1">
       <c r="A140" s="36"/>
       <c r="B140" s="36"/>
       <c r="C140" s="36"/>
@@ -7301,7 +7255,7 @@
       <c r="T140" s="49"/>
       <c r="U140" s="49"/>
     </row>
-    <row r="141" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" s="50" customFormat="1">
       <c r="A141" s="36"/>
       <c r="B141" s="36"/>
       <c r="C141" s="36"/>
@@ -7324,7 +7278,7 @@
       <c r="T141" s="49"/>
       <c r="U141" s="49"/>
     </row>
-    <row r="142" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" s="50" customFormat="1">
       <c r="A142" s="36"/>
       <c r="B142" s="36"/>
       <c r="C142" s="36"/>
@@ -7347,7 +7301,7 @@
       <c r="T142" s="49"/>
       <c r="U142" s="49"/>
     </row>
-    <row r="143" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" s="50" customFormat="1">
       <c r="A143" s="36"/>
       <c r="B143" s="36"/>
       <c r="C143" s="36"/>
@@ -7370,7 +7324,7 @@
       <c r="T143" s="49"/>
       <c r="U143" s="49"/>
     </row>
-    <row r="144" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" s="50" customFormat="1">
       <c r="A144" s="36"/>
       <c r="B144" s="36"/>
       <c r="C144" s="36"/>
@@ -7393,7 +7347,7 @@
       <c r="T144" s="49"/>
       <c r="U144" s="49"/>
     </row>
-    <row r="145" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" s="50" customFormat="1">
       <c r="A145" s="36"/>
       <c r="B145" s="36"/>
       <c r="C145" s="36"/>
@@ -7416,7 +7370,7 @@
       <c r="T145" s="49"/>
       <c r="U145" s="49"/>
     </row>
-    <row r="146" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" s="50" customFormat="1">
       <c r="A146" s="36"/>
       <c r="B146" s="36"/>
       <c r="C146" s="36"/>
@@ -7439,7 +7393,7 @@
       <c r="T146" s="49"/>
       <c r="U146" s="49"/>
     </row>
-    <row r="147" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" s="50" customFormat="1">
       <c r="A147" s="36"/>
       <c r="B147" s="36"/>
       <c r="C147" s="36"/>
@@ -7462,7 +7416,7 @@
       <c r="T147" s="49"/>
       <c r="U147" s="49"/>
     </row>
-    <row r="148" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" s="50" customFormat="1">
       <c r="A148" s="36"/>
       <c r="B148" s="36"/>
       <c r="C148" s="36"/>
@@ -7485,7 +7439,7 @@
       <c r="T148" s="49"/>
       <c r="U148" s="49"/>
     </row>
-    <row r="149" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" s="50" customFormat="1">
       <c r="A149" s="36"/>
       <c r="B149" s="36"/>
       <c r="C149" s="36"/>
@@ -7508,7 +7462,7 @@
       <c r="T149" s="49"/>
       <c r="U149" s="49"/>
     </row>
-    <row r="150" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" s="50" customFormat="1">
       <c r="A150" s="36"/>
       <c r="B150" s="36"/>
       <c r="C150" s="36"/>
@@ -7531,7 +7485,7 @@
       <c r="T150" s="49"/>
       <c r="U150" s="49"/>
     </row>
-    <row r="151" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" s="50" customFormat="1">
       <c r="A151" s="36"/>
       <c r="B151" s="36"/>
       <c r="C151" s="36"/>
@@ -7554,7 +7508,7 @@
       <c r="T151" s="49"/>
       <c r="U151" s="49"/>
     </row>
-    <row r="152" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" s="50" customFormat="1">
       <c r="A152" s="36"/>
       <c r="B152" s="36"/>
       <c r="C152" s="36"/>
@@ -7577,7 +7531,7 @@
       <c r="T152" s="49"/>
       <c r="U152" s="49"/>
     </row>
-    <row r="153" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" s="50" customFormat="1">
       <c r="A153" s="36"/>
       <c r="B153" s="36"/>
       <c r="C153" s="36"/>
@@ -7600,7 +7554,7 @@
       <c r="T153" s="49"/>
       <c r="U153" s="49"/>
     </row>
-    <row r="154" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" s="50" customFormat="1">
       <c r="A154" s="36"/>
       <c r="B154" s="36"/>
       <c r="C154" s="36"/>
@@ -7623,7 +7577,7 @@
       <c r="T154" s="49"/>
       <c r="U154" s="49"/>
     </row>
-    <row r="155" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" s="50" customFormat="1">
       <c r="A155" s="36"/>
       <c r="B155" s="36"/>
       <c r="C155" s="36"/>
@@ -7646,7 +7600,7 @@
       <c r="T155" s="49"/>
       <c r="U155" s="49"/>
     </row>
-    <row r="156" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" s="50" customFormat="1">
       <c r="A156" s="36"/>
       <c r="B156" s="36"/>
       <c r="C156" s="36"/>
@@ -7669,7 +7623,7 @@
       <c r="T156" s="49"/>
       <c r="U156" s="49"/>
     </row>
-    <row r="157" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" s="50" customFormat="1">
       <c r="A157" s="36"/>
       <c r="B157" s="36"/>
       <c r="C157" s="36"/>
@@ -7692,7 +7646,7 @@
       <c r="T157" s="49"/>
       <c r="U157" s="49"/>
     </row>
-    <row r="158" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" s="50" customFormat="1">
       <c r="A158" s="36"/>
       <c r="B158" s="36"/>
       <c r="C158" s="36"/>
@@ -7715,7 +7669,7 @@
       <c r="T158" s="49"/>
       <c r="U158" s="49"/>
     </row>
-    <row r="159" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" s="50" customFormat="1">
       <c r="A159" s="36"/>
       <c r="B159" s="36"/>
       <c r="C159" s="36"/>
@@ -7738,7 +7692,7 @@
       <c r="T159" s="49"/>
       <c r="U159" s="49"/>
     </row>
-    <row r="160" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" s="50" customFormat="1">
       <c r="A160" s="36"/>
       <c r="B160" s="36"/>
       <c r="C160" s="36"/>
@@ -7761,7 +7715,7 @@
       <c r="T160" s="49"/>
       <c r="U160" s="49"/>
     </row>
-    <row r="161" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" s="50" customFormat="1">
       <c r="A161" s="36"/>
       <c r="B161" s="36"/>
       <c r="C161" s="36"/>
@@ -7784,7 +7738,7 @@
       <c r="T161" s="49"/>
       <c r="U161" s="49"/>
     </row>
-    <row r="162" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" s="50" customFormat="1">
       <c r="A162" s="36"/>
       <c r="B162" s="36"/>
       <c r="C162" s="36"/>
@@ -7807,7 +7761,7 @@
       <c r="T162" s="49"/>
       <c r="U162" s="49"/>
     </row>
-    <row r="163" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" s="50" customFormat="1">
       <c r="A163" s="36"/>
       <c r="B163" s="36"/>
       <c r="C163" s="36"/>
@@ -7830,7 +7784,7 @@
       <c r="T163" s="49"/>
       <c r="U163" s="49"/>
     </row>
-    <row r="164" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" s="50" customFormat="1">
       <c r="A164" s="36"/>
       <c r="B164" s="36"/>
       <c r="C164" s="36"/>
@@ -7853,7 +7807,7 @@
       <c r="T164" s="49"/>
       <c r="U164" s="49"/>
     </row>
-    <row r="165" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" s="50" customFormat="1">
       <c r="A165" s="36"/>
       <c r="B165" s="36"/>
       <c r="C165" s="36"/>
@@ -7876,7 +7830,7 @@
       <c r="T165" s="49"/>
       <c r="U165" s="49"/>
     </row>
-    <row r="166" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" s="50" customFormat="1">
       <c r="A166" s="36"/>
       <c r="B166" s="36"/>
       <c r="C166" s="36"/>
@@ -7899,7 +7853,7 @@
       <c r="T166" s="49"/>
       <c r="U166" s="49"/>
     </row>
-    <row r="167" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" s="50" customFormat="1">
       <c r="A167" s="36"/>
       <c r="B167" s="36"/>
       <c r="C167" s="36"/>
@@ -7922,7 +7876,7 @@
       <c r="T167" s="49"/>
       <c r="U167" s="49"/>
     </row>
-    <row r="168" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" s="50" customFormat="1">
       <c r="A168" s="36"/>
       <c r="B168" s="36"/>
       <c r="C168" s="36"/>
@@ -7945,7 +7899,7 @@
       <c r="T168" s="49"/>
       <c r="U168" s="49"/>
     </row>
-    <row r="169" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" s="50" customFormat="1">
       <c r="A169" s="36"/>
       <c r="B169" s="36"/>
       <c r="C169" s="36"/>
@@ -7968,7 +7922,7 @@
       <c r="T169" s="49"/>
       <c r="U169" s="49"/>
     </row>
-    <row r="170" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" s="50" customFormat="1">
       <c r="A170" s="36"/>
       <c r="B170" s="36"/>
       <c r="C170" s="36"/>
@@ -7991,7 +7945,7 @@
       <c r="T170" s="49"/>
       <c r="U170" s="49"/>
     </row>
-    <row r="171" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" s="50" customFormat="1">
       <c r="A171" s="36"/>
       <c r="B171" s="36"/>
       <c r="C171" s="36"/>
@@ -8014,7 +7968,7 @@
       <c r="T171" s="49"/>
       <c r="U171" s="49"/>
     </row>
-    <row r="172" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" s="50" customFormat="1">
       <c r="A172" s="36"/>
       <c r="B172" s="36"/>
       <c r="C172" s="36"/>
@@ -8037,7 +7991,7 @@
       <c r="T172" s="49"/>
       <c r="U172" s="49"/>
     </row>
-    <row r="173" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" s="50" customFormat="1">
       <c r="A173" s="36"/>
       <c r="B173" s="36"/>
       <c r="C173" s="36"/>
@@ -8060,7 +8014,7 @@
       <c r="T173" s="49"/>
       <c r="U173" s="49"/>
     </row>
-    <row r="174" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" s="50" customFormat="1">
       <c r="A174" s="36"/>
       <c r="B174" s="36"/>
       <c r="C174" s="36"/>
@@ -8083,7 +8037,7 @@
       <c r="T174" s="49"/>
       <c r="U174" s="49"/>
     </row>
-    <row r="175" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" s="50" customFormat="1">
       <c r="A175" s="36"/>
       <c r="B175" s="36"/>
       <c r="C175" s="36"/>
@@ -8106,7 +8060,7 @@
       <c r="T175" s="49"/>
       <c r="U175" s="49"/>
     </row>
-    <row r="176" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" s="50" customFormat="1">
       <c r="A176" s="36"/>
       <c r="B176" s="36"/>
       <c r="C176" s="36"/>
@@ -8129,7 +8083,7 @@
       <c r="T176" s="49"/>
       <c r="U176" s="49"/>
     </row>
-    <row r="177" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" s="50" customFormat="1">
       <c r="A177" s="36"/>
       <c r="B177" s="36"/>
       <c r="C177" s="36"/>
@@ -8152,7 +8106,7 @@
       <c r="T177" s="49"/>
       <c r="U177" s="49"/>
     </row>
-    <row r="178" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" s="50" customFormat="1">
       <c r="A178" s="36"/>
       <c r="B178" s="36"/>
       <c r="C178" s="36"/>
@@ -8175,7 +8129,7 @@
       <c r="T178" s="49"/>
       <c r="U178" s="49"/>
     </row>
-    <row r="179" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" s="50" customFormat="1">
       <c r="A179" s="36"/>
       <c r="B179" s="36"/>
       <c r="C179" s="36"/>
@@ -8198,7 +8152,7 @@
       <c r="T179" s="49"/>
       <c r="U179" s="49"/>
     </row>
-    <row r="180" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" s="50" customFormat="1">
       <c r="A180" s="36"/>
       <c r="B180" s="36"/>
       <c r="C180" s="36"/>
@@ -8221,7 +8175,7 @@
       <c r="T180" s="49"/>
       <c r="U180" s="49"/>
     </row>
-    <row r="181" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" s="50" customFormat="1">
       <c r="A181" s="36"/>
       <c r="B181" s="36"/>
       <c r="C181" s="36"/>
@@ -8244,7 +8198,7 @@
       <c r="T181" s="49"/>
       <c r="U181" s="49"/>
     </row>
-    <row r="182" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" s="50" customFormat="1">
       <c r="A182" s="36"/>
       <c r="B182" s="36"/>
       <c r="C182" s="36"/>
@@ -8267,7 +8221,7 @@
       <c r="T182" s="49"/>
       <c r="U182" s="49"/>
     </row>
-    <row r="183" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" s="50" customFormat="1">
       <c r="A183" s="36"/>
       <c r="B183" s="36"/>
       <c r="C183" s="36"/>
@@ -8290,7 +8244,7 @@
       <c r="T183" s="49"/>
       <c r="U183" s="49"/>
     </row>
-    <row r="184" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" s="50" customFormat="1">
       <c r="A184" s="36"/>
       <c r="B184" s="36"/>
       <c r="C184" s="36"/>
@@ -8313,7 +8267,7 @@
       <c r="T184" s="49"/>
       <c r="U184" s="49"/>
     </row>
-    <row r="185" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" s="50" customFormat="1">
       <c r="A185" s="36"/>
       <c r="B185" s="36"/>
       <c r="C185" s="36"/>
@@ -8336,7 +8290,7 @@
       <c r="T185" s="49"/>
       <c r="U185" s="49"/>
     </row>
-    <row r="186" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" s="50" customFormat="1">
       <c r="A186" s="36"/>
       <c r="B186" s="36"/>
       <c r="C186" s="36"/>
@@ -8359,7 +8313,7 @@
       <c r="T186" s="49"/>
       <c r="U186" s="49"/>
     </row>
-    <row r="187" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" s="50" customFormat="1">
       <c r="A187" s="36"/>
       <c r="B187" s="36"/>
       <c r="C187" s="36"/>
@@ -8382,7 +8336,7 @@
       <c r="T187" s="49"/>
       <c r="U187" s="49"/>
     </row>
-    <row r="188" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" s="50" customFormat="1">
       <c r="A188" s="36"/>
       <c r="B188" s="36"/>
       <c r="C188" s="36"/>
@@ -8405,7 +8359,7 @@
       <c r="T188" s="49"/>
       <c r="U188" s="49"/>
     </row>
-    <row r="189" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" s="50" customFormat="1">
       <c r="A189" s="36"/>
       <c r="B189" s="36"/>
       <c r="C189" s="36"/>
@@ -8428,7 +8382,7 @@
       <c r="T189" s="49"/>
       <c r="U189" s="49"/>
     </row>
-    <row r="190" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" s="50" customFormat="1">
       <c r="A190" s="36"/>
       <c r="B190" s="36"/>
       <c r="C190" s="36"/>
@@ -8451,7 +8405,7 @@
       <c r="T190" s="49"/>
       <c r="U190" s="49"/>
     </row>
-    <row r="191" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" s="50" customFormat="1">
       <c r="A191" s="36"/>
       <c r="B191" s="36"/>
       <c r="C191" s="36"/>
@@ -8474,7 +8428,7 @@
       <c r="T191" s="49"/>
       <c r="U191" s="49"/>
     </row>
-    <row r="192" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" s="50" customFormat="1">
       <c r="A192" s="36"/>
       <c r="B192" s="36"/>
       <c r="C192" s="36"/>
@@ -8497,7 +8451,7 @@
       <c r="T192" s="49"/>
       <c r="U192" s="49"/>
     </row>
-    <row r="193" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" s="50" customFormat="1">
       <c r="A193" s="36"/>
       <c r="B193" s="36"/>
       <c r="C193" s="36"/>
@@ -8520,7 +8474,7 @@
       <c r="T193" s="49"/>
       <c r="U193" s="49"/>
     </row>
-    <row r="194" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" s="50" customFormat="1">
       <c r="A194" s="36"/>
       <c r="B194" s="36"/>
       <c r="C194" s="36"/>
@@ -8543,7 +8497,7 @@
       <c r="T194" s="49"/>
       <c r="U194" s="49"/>
     </row>
-    <row r="195" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" s="50" customFormat="1">
       <c r="A195" s="36"/>
       <c r="B195" s="36"/>
       <c r="C195" s="36"/>
@@ -8566,7 +8520,7 @@
       <c r="T195" s="49"/>
       <c r="U195" s="49"/>
     </row>
-    <row r="196" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" s="50" customFormat="1">
       <c r="A196" s="36"/>
       <c r="B196" s="36"/>
       <c r="C196" s="36"/>
@@ -8589,7 +8543,7 @@
       <c r="T196" s="49"/>
       <c r="U196" s="49"/>
     </row>
-    <row r="197" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" s="50" customFormat="1">
       <c r="A197" s="36"/>
       <c r="B197" s="36"/>
       <c r="C197" s="36"/>
@@ -8612,7 +8566,7 @@
       <c r="T197" s="49"/>
       <c r="U197" s="49"/>
     </row>
-    <row r="198" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" s="50" customFormat="1">
       <c r="A198" s="36"/>
       <c r="B198" s="36"/>
       <c r="C198" s="36"/>
@@ -8635,7 +8589,7 @@
       <c r="T198" s="49"/>
       <c r="U198" s="49"/>
     </row>
-    <row r="199" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" s="50" customFormat="1">
       <c r="A199" s="36"/>
       <c r="B199" s="36"/>
       <c r="C199" s="36"/>
@@ -8658,7 +8612,7 @@
       <c r="T199" s="49"/>
       <c r="U199" s="49"/>
     </row>
-    <row r="200" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" s="50" customFormat="1">
       <c r="A200" s="36"/>
       <c r="B200" s="36"/>
       <c r="C200" s="36"/>
@@ -8681,7 +8635,7 @@
       <c r="T200" s="49"/>
       <c r="U200" s="49"/>
     </row>
-    <row r="201" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" s="50" customFormat="1">
       <c r="A201" s="36"/>
       <c r="B201" s="36"/>
       <c r="C201" s="36"/>
@@ -8704,7 +8658,7 @@
       <c r="T201" s="49"/>
       <c r="U201" s="49"/>
     </row>
-    <row r="202" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" s="50" customFormat="1">
       <c r="A202" s="36"/>
       <c r="B202" s="36"/>
       <c r="C202" s="36"/>
@@ -8727,7 +8681,7 @@
       <c r="T202" s="49"/>
       <c r="U202" s="49"/>
     </row>
-    <row r="203" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" s="50" customFormat="1">
       <c r="A203" s="36"/>
       <c r="B203" s="36"/>
       <c r="C203" s="36"/>
@@ -8750,7 +8704,7 @@
       <c r="T203" s="49"/>
       <c r="U203" s="49"/>
     </row>
-    <row r="204" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" s="50" customFormat="1">
       <c r="A204" s="36"/>
       <c r="B204" s="36"/>
       <c r="C204" s="36"/>
@@ -8773,7 +8727,7 @@
       <c r="T204" s="49"/>
       <c r="U204" s="49"/>
     </row>
-    <row r="205" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" s="50" customFormat="1">
       <c r="A205" s="36"/>
       <c r="B205" s="36"/>
       <c r="C205" s="36"/>
@@ -8796,7 +8750,7 @@
       <c r="T205" s="49"/>
       <c r="U205" s="49"/>
     </row>
-    <row r="206" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" s="50" customFormat="1">
       <c r="A206" s="36"/>
       <c r="B206" s="36"/>
       <c r="C206" s="36"/>
@@ -8819,7 +8773,7 @@
       <c r="T206" s="49"/>
       <c r="U206" s="49"/>
     </row>
-    <row r="207" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" s="50" customFormat="1">
       <c r="A207" s="36"/>
       <c r="B207" s="36"/>
       <c r="C207" s="36"/>
@@ -8842,7 +8796,7 @@
       <c r="T207" s="49"/>
       <c r="U207" s="49"/>
     </row>
-    <row r="208" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" s="50" customFormat="1">
       <c r="A208" s="36"/>
       <c r="B208" s="36"/>
       <c r="C208" s="36"/>
@@ -8865,7 +8819,7 @@
       <c r="T208" s="49"/>
       <c r="U208" s="49"/>
     </row>
-    <row r="209" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" s="50" customFormat="1">
       <c r="A209" s="36"/>
       <c r="B209" s="36"/>
       <c r="C209" s="36"/>
@@ -8888,7 +8842,7 @@
       <c r="T209" s="49"/>
       <c r="U209" s="49"/>
     </row>
-    <row r="210" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" s="50" customFormat="1">
       <c r="A210" s="36"/>
       <c r="B210" s="36"/>
       <c r="C210" s="36"/>
@@ -8911,7 +8865,7 @@
       <c r="T210" s="49"/>
       <c r="U210" s="49"/>
     </row>
-    <row r="211" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" s="50" customFormat="1">
       <c r="A211" s="36"/>
       <c r="B211" s="36"/>
       <c r="C211" s="36"/>
@@ -8934,7 +8888,7 @@
       <c r="T211" s="49"/>
       <c r="U211" s="49"/>
     </row>
-    <row r="212" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" s="50" customFormat="1">
       <c r="A212" s="36"/>
       <c r="B212" s="36"/>
       <c r="C212" s="36"/>
@@ -8957,7 +8911,7 @@
       <c r="T212" s="49"/>
       <c r="U212" s="49"/>
     </row>
-    <row r="213" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" s="50" customFormat="1">
       <c r="A213" s="36"/>
       <c r="B213" s="36"/>
       <c r="C213" s="36"/>
@@ -8980,7 +8934,7 @@
       <c r="T213" s="49"/>
       <c r="U213" s="49"/>
     </row>
-    <row r="214" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" s="50" customFormat="1">
       <c r="A214" s="36"/>
       <c r="B214" s="36"/>
       <c r="C214" s="36"/>
@@ -9003,7 +8957,7 @@
       <c r="T214" s="49"/>
       <c r="U214" s="49"/>
     </row>
-    <row r="215" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" s="50" customFormat="1">
       <c r="A215" s="36"/>
       <c r="B215" s="36"/>
       <c r="C215" s="36"/>
@@ -9026,7 +8980,7 @@
       <c r="T215" s="49"/>
       <c r="U215" s="49"/>
     </row>
-    <row r="216" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" s="50" customFormat="1">
       <c r="A216" s="36"/>
       <c r="B216" s="36"/>
       <c r="C216" s="36"/>
@@ -9049,7 +9003,7 @@
       <c r="T216" s="49"/>
       <c r="U216" s="49"/>
     </row>
-    <row r="217" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" s="50" customFormat="1">
       <c r="A217" s="36"/>
       <c r="B217" s="36"/>
       <c r="C217" s="36"/>
@@ -9072,7 +9026,7 @@
       <c r="T217" s="49"/>
       <c r="U217" s="49"/>
     </row>
-    <row r="218" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" s="50" customFormat="1">
       <c r="A218" s="36"/>
       <c r="B218" s="36"/>
       <c r="C218" s="36"/>
@@ -9095,7 +9049,7 @@
       <c r="T218" s="49"/>
       <c r="U218" s="49"/>
     </row>
-    <row r="219" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" s="50" customFormat="1">
       <c r="A219" s="36"/>
       <c r="B219" s="36"/>
       <c r="C219" s="36"/>
@@ -9118,7 +9072,7 @@
       <c r="T219" s="49"/>
       <c r="U219" s="49"/>
     </row>
-    <row r="220" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" s="50" customFormat="1">
       <c r="A220" s="36"/>
       <c r="B220" s="36"/>
       <c r="C220" s="36"/>
@@ -9141,7 +9095,7 @@
       <c r="T220" s="49"/>
       <c r="U220" s="49"/>
     </row>
-    <row r="221" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" s="50" customFormat="1">
       <c r="A221" s="36"/>
       <c r="B221" s="36"/>
       <c r="C221" s="36"/>
@@ -9164,7 +9118,7 @@
       <c r="T221" s="49"/>
       <c r="U221" s="49"/>
     </row>
-    <row r="222" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" s="50" customFormat="1">
       <c r="A222" s="36"/>
       <c r="B222" s="36"/>
       <c r="C222" s="36"/>
@@ -9187,7 +9141,7 @@
       <c r="T222" s="49"/>
       <c r="U222" s="49"/>
     </row>
-    <row r="223" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" s="50" customFormat="1">
       <c r="A223" s="36"/>
       <c r="B223" s="36"/>
       <c r="C223" s="36"/>
@@ -9210,7 +9164,7 @@
       <c r="T223" s="49"/>
       <c r="U223" s="49"/>
     </row>
-    <row r="224" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" s="50" customFormat="1">
       <c r="A224" s="36"/>
       <c r="B224" s="36"/>
       <c r="C224" s="36"/>
@@ -9233,7 +9187,7 @@
       <c r="T224" s="49"/>
       <c r="U224" s="49"/>
     </row>
-    <row r="225" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" s="50" customFormat="1">
       <c r="A225" s="36"/>
       <c r="B225" s="36"/>
       <c r="C225" s="36"/>
@@ -9256,7 +9210,7 @@
       <c r="T225" s="49"/>
       <c r="U225" s="49"/>
     </row>
-    <row r="226" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" s="50" customFormat="1">
       <c r="A226" s="36"/>
       <c r="B226" s="36"/>
       <c r="C226" s="36"/>
@@ -9279,7 +9233,7 @@
       <c r="T226" s="49"/>
       <c r="U226" s="49"/>
     </row>
-    <row r="227" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" s="50" customFormat="1">
       <c r="A227" s="36"/>
       <c r="B227" s="36"/>
       <c r="C227" s="36"/>
@@ -9302,7 +9256,7 @@
       <c r="T227" s="49"/>
       <c r="U227" s="49"/>
     </row>
-    <row r="228" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" s="50" customFormat="1">
       <c r="A228" s="36"/>
       <c r="B228" s="36"/>
       <c r="C228" s="36"/>
@@ -9325,7 +9279,7 @@
       <c r="T228" s="49"/>
       <c r="U228" s="49"/>
     </row>
-    <row r="229" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" s="50" customFormat="1">
       <c r="A229" s="36"/>
       <c r="B229" s="36"/>
       <c r="C229" s="36"/>
@@ -9348,7 +9302,7 @@
       <c r="T229" s="49"/>
       <c r="U229" s="49"/>
     </row>
-    <row r="230" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" s="50" customFormat="1">
       <c r="A230" s="36"/>
       <c r="B230" s="36"/>
       <c r="C230" s="36"/>
@@ -9371,7 +9325,7 @@
       <c r="T230" s="49"/>
       <c r="U230" s="49"/>
     </row>
-    <row r="231" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" s="50" customFormat="1">
       <c r="A231" s="36"/>
       <c r="B231" s="36"/>
       <c r="C231" s="36"/>
@@ -9394,7 +9348,7 @@
       <c r="T231" s="49"/>
       <c r="U231" s="49"/>
     </row>
-    <row r="232" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" s="50" customFormat="1">
       <c r="A232" s="36"/>
       <c r="B232" s="36"/>
       <c r="C232" s="36"/>
@@ -9417,7 +9371,7 @@
       <c r="T232" s="49"/>
       <c r="U232" s="49"/>
     </row>
-    <row r="233" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" s="50" customFormat="1">
       <c r="A233" s="36"/>
       <c r="B233" s="36"/>
       <c r="C233" s="36"/>
@@ -9440,7 +9394,7 @@
       <c r="T233" s="49"/>
       <c r="U233" s="49"/>
     </row>
-    <row r="234" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" s="50" customFormat="1">
       <c r="A234" s="36"/>
       <c r="B234" s="36"/>
       <c r="C234" s="36"/>
@@ -9463,7 +9417,7 @@
       <c r="T234" s="49"/>
       <c r="U234" s="49"/>
     </row>
-    <row r="235" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" s="50" customFormat="1">
       <c r="A235" s="36"/>
       <c r="B235" s="36"/>
       <c r="C235" s="36"/>
@@ -9486,7 +9440,7 @@
       <c r="T235" s="49"/>
       <c r="U235" s="49"/>
     </row>
-    <row r="236" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" s="50" customFormat="1">
       <c r="A236" s="36"/>
       <c r="B236" s="36"/>
       <c r="C236" s="36"/>
@@ -9509,7 +9463,7 @@
       <c r="T236" s="49"/>
       <c r="U236" s="49"/>
     </row>
-    <row r="237" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" s="50" customFormat="1">
       <c r="A237" s="36"/>
       <c r="B237" s="36"/>
       <c r="C237" s="36"/>
@@ -9532,7 +9486,7 @@
       <c r="T237" s="49"/>
       <c r="U237" s="49"/>
     </row>
-    <row r="238" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" s="50" customFormat="1">
       <c r="A238" s="36"/>
       <c r="B238" s="36"/>
       <c r="C238" s="36"/>
@@ -9555,7 +9509,7 @@
       <c r="T238" s="49"/>
       <c r="U238" s="49"/>
     </row>
-    <row r="239" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" s="50" customFormat="1">
       <c r="A239" s="36"/>
       <c r="B239" s="36"/>
       <c r="C239" s="36"/>
@@ -9578,7 +9532,7 @@
       <c r="T239" s="49"/>
       <c r="U239" s="49"/>
     </row>
-    <row r="240" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" s="50" customFormat="1">
       <c r="A240" s="36"/>
       <c r="B240" s="36"/>
       <c r="C240" s="36"/>
@@ -9601,7 +9555,7 @@
       <c r="T240" s="49"/>
       <c r="U240" s="49"/>
     </row>
-    <row r="241" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" s="50" customFormat="1">
       <c r="A241" s="36"/>
       <c r="B241" s="36"/>
       <c r="C241" s="36"/>
@@ -9624,7 +9578,7 @@
       <c r="T241" s="49"/>
       <c r="U241" s="49"/>
     </row>
-    <row r="242" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" s="50" customFormat="1">
       <c r="A242" s="36"/>
       <c r="B242" s="36"/>
       <c r="C242" s="36"/>
@@ -9647,7 +9601,7 @@
       <c r="T242" s="49"/>
       <c r="U242" s="49"/>
     </row>
-    <row r="243" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" s="50" customFormat="1">
       <c r="A243" s="36"/>
       <c r="B243" s="36"/>
       <c r="C243" s="36"/>
@@ -9670,7 +9624,7 @@
       <c r="T243" s="49"/>
       <c r="U243" s="49"/>
     </row>
-    <row r="244" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" s="50" customFormat="1">
       <c r="A244" s="36"/>
       <c r="B244" s="36"/>
       <c r="C244" s="36"/>
@@ -9693,7 +9647,7 @@
       <c r="T244" s="49"/>
       <c r="U244" s="49"/>
     </row>
-    <row r="245" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" s="50" customFormat="1">
       <c r="A245" s="36"/>
       <c r="B245" s="36"/>
       <c r="C245" s="36"/>
@@ -9716,7 +9670,7 @@
       <c r="T245" s="49"/>
       <c r="U245" s="49"/>
     </row>
-    <row r="246" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" s="50" customFormat="1">
       <c r="A246" s="36"/>
       <c r="B246" s="36"/>
       <c r="C246" s="36"/>
@@ -9739,7 +9693,7 @@
       <c r="T246" s="49"/>
       <c r="U246" s="49"/>
     </row>
-    <row r="247" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" s="50" customFormat="1">
       <c r="A247" s="36"/>
       <c r="B247" s="36"/>
       <c r="C247" s="36"/>
@@ -9762,7 +9716,7 @@
       <c r="T247" s="49"/>
       <c r="U247" s="49"/>
     </row>
-    <row r="248" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" s="50" customFormat="1">
       <c r="A248" s="36"/>
       <c r="B248" s="36"/>
       <c r="C248" s="36"/>
@@ -9785,7 +9739,7 @@
       <c r="T248" s="49"/>
       <c r="U248" s="49"/>
     </row>
-    <row r="249" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" s="50" customFormat="1">
       <c r="A249" s="36"/>
       <c r="B249" s="36"/>
       <c r="C249" s="36"/>
@@ -9808,7 +9762,7 @@
       <c r="T249" s="49"/>
       <c r="U249" s="49"/>
     </row>
-    <row r="250" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" s="50" customFormat="1">
       <c r="A250" s="36"/>
       <c r="B250" s="36"/>
       <c r="C250" s="36"/>
@@ -9831,7 +9785,7 @@
       <c r="T250" s="49"/>
       <c r="U250" s="49"/>
     </row>
-    <row r="251" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" s="50" customFormat="1">
       <c r="A251" s="36"/>
       <c r="B251" s="36"/>
       <c r="C251" s="36"/>
@@ -9854,7 +9808,7 @@
       <c r="T251" s="49"/>
       <c r="U251" s="49"/>
     </row>
-    <row r="252" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" s="50" customFormat="1">
       <c r="A252" s="36"/>
       <c r="B252" s="36"/>
       <c r="C252" s="36"/>
@@ -9877,7 +9831,7 @@
       <c r="T252" s="49"/>
       <c r="U252" s="49"/>
     </row>
-    <row r="253" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" s="50" customFormat="1">
       <c r="A253" s="36"/>
       <c r="B253" s="36"/>
       <c r="C253" s="36"/>
@@ -9900,7 +9854,7 @@
       <c r="T253" s="49"/>
       <c r="U253" s="49"/>
     </row>
-    <row r="254" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" s="50" customFormat="1">
       <c r="A254" s="36"/>
       <c r="B254" s="36"/>
       <c r="C254" s="36"/>
@@ -9923,7 +9877,7 @@
       <c r="T254" s="49"/>
       <c r="U254" s="49"/>
     </row>
-    <row r="255" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" s="50" customFormat="1">
       <c r="A255" s="36"/>
       <c r="B255" s="36"/>
       <c r="C255" s="36"/>
@@ -9946,7 +9900,7 @@
       <c r="T255" s="49"/>
       <c r="U255" s="49"/>
     </row>
-    <row r="256" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" s="50" customFormat="1">
       <c r="A256" s="36"/>
       <c r="B256" s="36"/>
       <c r="C256" s="36"/>
@@ -9969,7 +9923,7 @@
       <c r="T256" s="49"/>
       <c r="U256" s="49"/>
     </row>
-    <row r="257" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" s="50" customFormat="1">
       <c r="A257" s="36"/>
       <c r="B257" s="36"/>
       <c r="C257" s="36"/>
@@ -9992,7 +9946,7 @@
       <c r="T257" s="49"/>
       <c r="U257" s="49"/>
     </row>
-    <row r="258" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" s="50" customFormat="1">
       <c r="A258" s="36"/>
       <c r="B258" s="36"/>
       <c r="C258" s="36"/>
@@ -10015,7 +9969,7 @@
       <c r="T258" s="49"/>
       <c r="U258" s="49"/>
     </row>
-    <row r="259" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" s="50" customFormat="1">
       <c r="A259" s="36"/>
       <c r="B259" s="36"/>
       <c r="C259" s="36"/>
@@ -10038,7 +9992,7 @@
       <c r="T259" s="49"/>
       <c r="U259" s="49"/>
     </row>
-    <row r="260" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" s="50" customFormat="1">
       <c r="A260" s="36"/>
       <c r="B260" s="36"/>
       <c r="C260" s="36"/>
@@ -10061,7 +10015,7 @@
       <c r="T260" s="49"/>
       <c r="U260" s="49"/>
     </row>
-    <row r="261" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" s="50" customFormat="1">
       <c r="A261" s="36"/>
       <c r="B261" s="36"/>
       <c r="C261" s="36"/>
@@ -10084,7 +10038,7 @@
       <c r="T261" s="49"/>
       <c r="U261" s="49"/>
     </row>
-    <row r="262" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" s="50" customFormat="1">
       <c r="A262" s="36"/>
       <c r="B262" s="36"/>
       <c r="C262" s="36"/>
@@ -10107,7 +10061,7 @@
       <c r="T262" s="49"/>
       <c r="U262" s="49"/>
     </row>
-    <row r="263" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" s="50" customFormat="1">
       <c r="A263" s="36"/>
       <c r="B263" s="36"/>
       <c r="C263" s="36"/>
@@ -10130,7 +10084,7 @@
       <c r="T263" s="49"/>
       <c r="U263" s="49"/>
     </row>
-    <row r="264" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" s="50" customFormat="1">
       <c r="A264" s="36"/>
       <c r="B264" s="36"/>
       <c r="C264" s="36"/>
@@ -10153,7 +10107,7 @@
       <c r="T264" s="49"/>
       <c r="U264" s="49"/>
     </row>
-    <row r="265" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" s="50" customFormat="1">
       <c r="A265" s="36"/>
       <c r="B265" s="36"/>
       <c r="C265" s="36"/>
@@ -10176,7 +10130,7 @@
       <c r="T265" s="49"/>
       <c r="U265" s="49"/>
     </row>
-    <row r="266" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" s="50" customFormat="1">
       <c r="A266" s="36"/>
       <c r="B266" s="36"/>
       <c r="C266" s="36"/>
@@ -10199,7 +10153,7 @@
       <c r="T266" s="49"/>
       <c r="U266" s="49"/>
     </row>
-    <row r="267" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" s="50" customFormat="1">
       <c r="A267" s="36"/>
       <c r="B267" s="36"/>
       <c r="C267" s="36"/>
@@ -10222,7 +10176,7 @@
       <c r="T267" s="49"/>
       <c r="U267" s="49"/>
     </row>
-    <row r="268" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" s="50" customFormat="1">
       <c r="A268" s="36"/>
       <c r="B268" s="36"/>
       <c r="C268" s="36"/>
@@ -10245,7 +10199,7 @@
       <c r="T268" s="49"/>
       <c r="U268" s="49"/>
     </row>
-    <row r="269" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" s="50" customFormat="1">
       <c r="A269" s="36"/>
       <c r="B269" s="36"/>
       <c r="C269" s="36"/>
@@ -10268,7 +10222,7 @@
       <c r="T269" s="49"/>
       <c r="U269" s="49"/>
     </row>
-    <row r="270" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" s="50" customFormat="1">
       <c r="A270" s="36"/>
       <c r="B270" s="36"/>
       <c r="C270" s="36"/>
@@ -10291,7 +10245,7 @@
       <c r="T270" s="49"/>
       <c r="U270" s="49"/>
     </row>
-    <row r="271" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" s="50" customFormat="1">
       <c r="A271" s="36"/>
       <c r="B271" s="36"/>
       <c r="C271" s="36"/>
@@ -10314,7 +10268,7 @@
       <c r="T271" s="49"/>
       <c r="U271" s="49"/>
     </row>
-    <row r="272" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" s="50" customFormat="1">
       <c r="A272" s="36"/>
       <c r="B272" s="36"/>
       <c r="C272" s="36"/>
@@ -10337,7 +10291,7 @@
       <c r="T272" s="49"/>
       <c r="U272" s="49"/>
     </row>
-    <row r="273" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" s="50" customFormat="1">
       <c r="A273" s="36"/>
       <c r="B273" s="36"/>
       <c r="C273" s="36"/>
@@ -10360,7 +10314,7 @@
       <c r="T273" s="49"/>
       <c r="U273" s="49"/>
     </row>
-    <row r="274" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" s="50" customFormat="1">
       <c r="A274" s="36"/>
       <c r="B274" s="36"/>
       <c r="C274" s="36"/>
@@ -10383,7 +10337,7 @@
       <c r="T274" s="49"/>
       <c r="U274" s="49"/>
     </row>
-    <row r="275" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" s="50" customFormat="1">
       <c r="A275" s="36"/>
       <c r="B275" s="36"/>
       <c r="C275" s="36"/>
@@ -10406,7 +10360,7 @@
       <c r="T275" s="49"/>
       <c r="U275" s="49"/>
     </row>
-    <row r="276" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" s="50" customFormat="1">
       <c r="A276" s="36"/>
       <c r="B276" s="36"/>
       <c r="C276" s="36"/>
@@ -10429,7 +10383,7 @@
       <c r="T276" s="49"/>
       <c r="U276" s="49"/>
     </row>
-    <row r="277" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" s="50" customFormat="1">
       <c r="A277" s="36"/>
       <c r="B277" s="36"/>
       <c r="C277" s="36"/>
@@ -10452,7 +10406,7 @@
       <c r="T277" s="49"/>
       <c r="U277" s="49"/>
     </row>
-    <row r="278" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" s="50" customFormat="1">
       <c r="A278" s="36"/>
       <c r="B278" s="36"/>
       <c r="C278" s="36"/>
@@ -10475,7 +10429,7 @@
       <c r="T278" s="49"/>
       <c r="U278" s="49"/>
     </row>
-    <row r="279" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" s="50" customFormat="1">
       <c r="A279" s="36"/>
       <c r="B279" s="36"/>
       <c r="C279" s="36"/>
@@ -10498,7 +10452,7 @@
       <c r="T279" s="49"/>
       <c r="U279" s="49"/>
     </row>
-    <row r="280" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" s="50" customFormat="1">
       <c r="A280" s="36"/>
       <c r="B280" s="36"/>
       <c r="C280" s="36"/>
@@ -10521,7 +10475,7 @@
       <c r="T280" s="49"/>
       <c r="U280" s="49"/>
     </row>
-    <row r="281" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" s="50" customFormat="1">
       <c r="A281" s="36"/>
       <c r="B281" s="36"/>
       <c r="C281" s="36"/>
@@ -10544,7 +10498,7 @@
       <c r="T281" s="49"/>
       <c r="U281" s="49"/>
     </row>
-    <row r="282" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" s="50" customFormat="1">
       <c r="A282" s="36"/>
       <c r="B282" s="36"/>
       <c r="C282" s="36"/>
@@ -10567,7 +10521,7 @@
       <c r="T282" s="49"/>
       <c r="U282" s="49"/>
     </row>
-    <row r="283" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" s="50" customFormat="1">
       <c r="A283" s="36"/>
       <c r="B283" s="36"/>
       <c r="C283" s="36"/>
@@ -10590,7 +10544,7 @@
       <c r="T283" s="49"/>
       <c r="U283" s="49"/>
     </row>
-    <row r="284" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" s="50" customFormat="1">
       <c r="A284" s="36"/>
       <c r="B284" s="36"/>
       <c r="C284" s="36"/>
@@ -10613,7 +10567,7 @@
       <c r="T284" s="49"/>
       <c r="U284" s="49"/>
     </row>
-    <row r="285" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" s="50" customFormat="1">
       <c r="A285" s="36"/>
       <c r="B285" s="36"/>
       <c r="C285" s="36"/>
@@ -10636,7 +10590,7 @@
       <c r="T285" s="49"/>
       <c r="U285" s="49"/>
     </row>
-    <row r="286" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" s="50" customFormat="1">
       <c r="A286" s="36"/>
       <c r="B286" s="36"/>
       <c r="C286" s="36"/>
@@ -10659,7 +10613,7 @@
       <c r="T286" s="49"/>
       <c r="U286" s="49"/>
     </row>
-    <row r="287" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" s="50" customFormat="1">
       <c r="A287" s="36"/>
       <c r="B287" s="36"/>
       <c r="C287" s="36"/>
@@ -10682,7 +10636,7 @@
       <c r="T287" s="49"/>
       <c r="U287" s="49"/>
     </row>
-    <row r="288" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" s="50" customFormat="1">
       <c r="A288" s="36"/>
       <c r="B288" s="36"/>
       <c r="C288" s="36"/>
@@ -10705,7 +10659,7 @@
       <c r="T288" s="49"/>
       <c r="U288" s="49"/>
     </row>
-    <row r="289" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" s="50" customFormat="1">
       <c r="A289" s="36"/>
       <c r="B289" s="36"/>
       <c r="C289" s="36"/>
@@ -10728,7 +10682,7 @@
       <c r="T289" s="49"/>
       <c r="U289" s="49"/>
     </row>
-    <row r="290" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" s="50" customFormat="1">
       <c r="A290" s="36"/>
       <c r="B290" s="36"/>
       <c r="C290" s="36"/>
@@ -10751,7 +10705,7 @@
       <c r="T290" s="49"/>
       <c r="U290" s="49"/>
     </row>
-    <row r="291" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" s="50" customFormat="1">
       <c r="A291" s="36"/>
       <c r="B291" s="36"/>
       <c r="C291" s="36"/>
@@ -10774,7 +10728,7 @@
       <c r="T291" s="49"/>
       <c r="U291" s="49"/>
     </row>
-    <row r="292" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" s="50" customFormat="1">
       <c r="A292" s="36"/>
       <c r="B292" s="36"/>
       <c r="C292" s="36"/>
@@ -10797,7 +10751,7 @@
       <c r="T292" s="49"/>
       <c r="U292" s="49"/>
     </row>
-    <row r="293" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" s="50" customFormat="1">
       <c r="A293" s="36"/>
       <c r="B293" s="36"/>
       <c r="C293" s="36"/>
@@ -10820,7 +10774,7 @@
       <c r="T293" s="49"/>
       <c r="U293" s="49"/>
     </row>
-    <row r="294" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" s="50" customFormat="1">
       <c r="A294" s="36"/>
       <c r="B294" s="36"/>
       <c r="C294" s="36"/>
@@ -10843,7 +10797,7 @@
       <c r="T294" s="49"/>
       <c r="U294" s="49"/>
     </row>
-    <row r="295" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" s="50" customFormat="1">
       <c r="A295" s="36"/>
       <c r="B295" s="36"/>
       <c r="C295" s="36"/>
@@ -10866,7 +10820,7 @@
       <c r="T295" s="49"/>
       <c r="U295" s="49"/>
     </row>
-    <row r="296" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" s="50" customFormat="1">
       <c r="A296" s="36"/>
       <c r="B296" s="36"/>
       <c r="C296" s="36"/>
@@ -10889,7 +10843,7 @@
       <c r="T296" s="49"/>
       <c r="U296" s="49"/>
     </row>
-    <row r="297" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" s="50" customFormat="1">
       <c r="A297" s="36"/>
       <c r="B297" s="36"/>
       <c r="C297" s="36"/>
@@ -10912,7 +10866,7 @@
       <c r="T297" s="49"/>
       <c r="U297" s="49"/>
     </row>
-    <row r="298" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" s="50" customFormat="1">
       <c r="A298" s="36"/>
       <c r="B298" s="36"/>
       <c r="C298" s="36"/>
@@ -10935,7 +10889,7 @@
       <c r="T298" s="49"/>
       <c r="U298" s="49"/>
     </row>
-    <row r="299" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" s="50" customFormat="1">
       <c r="A299" s="36"/>
       <c r="B299" s="36"/>
       <c r="C299" s="36"/>
@@ -10958,7 +10912,7 @@
       <c r="T299" s="49"/>
       <c r="U299" s="49"/>
     </row>
-    <row r="300" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" s="50" customFormat="1">
       <c r="A300" s="36"/>
       <c r="B300" s="36"/>
       <c r="C300" s="36"/>
@@ -10981,7 +10935,7 @@
       <c r="T300" s="49"/>
       <c r="U300" s="49"/>
     </row>
-    <row r="301" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" s="50" customFormat="1">
       <c r="A301" s="36"/>
       <c r="B301" s="36"/>
       <c r="C301" s="36"/>
@@ -11004,7 +10958,7 @@
       <c r="T301" s="49"/>
       <c r="U301" s="49"/>
     </row>
-    <row r="302" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" s="50" customFormat="1">
       <c r="A302" s="36"/>
       <c r="B302" s="36"/>
       <c r="C302" s="36"/>
@@ -11027,7 +10981,7 @@
       <c r="T302" s="49"/>
       <c r="U302" s="49"/>
     </row>
-    <row r="303" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" s="50" customFormat="1">
       <c r="A303" s="36"/>
       <c r="B303" s="36"/>
       <c r="C303" s="36"/>
@@ -11050,7 +11004,7 @@
       <c r="T303" s="49"/>
       <c r="U303" s="49"/>
     </row>
-    <row r="304" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" s="50" customFormat="1">
       <c r="A304" s="36"/>
       <c r="B304" s="36"/>
       <c r="C304" s="36"/>
@@ -11073,7 +11027,7 @@
       <c r="T304" s="49"/>
       <c r="U304" s="49"/>
     </row>
-    <row r="305" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" s="50" customFormat="1">
       <c r="A305" s="36"/>
       <c r="B305" s="36"/>
       <c r="C305" s="36"/>
@@ -11096,7 +11050,7 @@
       <c r="T305" s="49"/>
       <c r="U305" s="49"/>
     </row>
-    <row r="306" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" s="50" customFormat="1">
       <c r="A306" s="36"/>
       <c r="B306" s="36"/>
       <c r="C306" s="36"/>
@@ -11119,7 +11073,7 @@
       <c r="T306" s="49"/>
       <c r="U306" s="49"/>
     </row>
-    <row r="307" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" s="50" customFormat="1">
       <c r="A307" s="36"/>
       <c r="B307" s="36"/>
       <c r="C307" s="36"/>
@@ -11142,7 +11096,7 @@
       <c r="T307" s="49"/>
       <c r="U307" s="49"/>
     </row>
-    <row r="308" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" s="50" customFormat="1">
       <c r="A308" s="36"/>
       <c r="B308" s="36"/>
       <c r="C308" s="36"/>
@@ -11165,7 +11119,7 @@
       <c r="T308" s="49"/>
       <c r="U308" s="49"/>
     </row>
-    <row r="309" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" s="50" customFormat="1">
       <c r="A309" s="36"/>
       <c r="B309" s="36"/>
       <c r="C309" s="36"/>
@@ -11188,7 +11142,7 @@
       <c r="T309" s="49"/>
       <c r="U309" s="49"/>
     </row>
-    <row r="310" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" s="50" customFormat="1">
       <c r="A310" s="36"/>
       <c r="B310" s="36"/>
       <c r="C310" s="36"/>
@@ -11211,7 +11165,7 @@
       <c r="T310" s="49"/>
       <c r="U310" s="49"/>
     </row>
-    <row r="311" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" s="50" customFormat="1">
       <c r="A311" s="36"/>
       <c r="B311" s="36"/>
       <c r="C311" s="36"/>
@@ -11234,7 +11188,7 @@
       <c r="T311" s="49"/>
       <c r="U311" s="49"/>
     </row>
-    <row r="312" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" s="50" customFormat="1">
       <c r="A312" s="36"/>
       <c r="B312" s="36"/>
       <c r="C312" s="36"/>
@@ -11257,7 +11211,7 @@
       <c r="T312" s="49"/>
       <c r="U312" s="49"/>
     </row>
-    <row r="313" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" s="50" customFormat="1">
       <c r="A313" s="36"/>
       <c r="B313" s="36"/>
       <c r="C313" s="36"/>
@@ -11280,7 +11234,7 @@
       <c r="T313" s="49"/>
       <c r="U313" s="49"/>
     </row>
-    <row r="314" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" s="50" customFormat="1">
       <c r="A314" s="36"/>
       <c r="B314" s="36"/>
       <c r="C314" s="36"/>
@@ -11303,7 +11257,7 @@
       <c r="T314" s="49"/>
       <c r="U314" s="49"/>
     </row>
-    <row r="315" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" s="50" customFormat="1">
       <c r="A315" s="36"/>
       <c r="B315" s="36"/>
       <c r="C315" s="36"/>
@@ -11326,7 +11280,7 @@
       <c r="T315" s="49"/>
       <c r="U315" s="49"/>
     </row>
-    <row r="316" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" s="50" customFormat="1">
       <c r="A316" s="36"/>
       <c r="B316" s="36"/>
       <c r="C316" s="36"/>
@@ -11349,7 +11303,7 @@
       <c r="T316" s="49"/>
       <c r="U316" s="49"/>
     </row>
-    <row r="317" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" s="50" customFormat="1">
       <c r="A317" s="36"/>
       <c r="B317" s="36"/>
       <c r="C317" s="36"/>
@@ -11372,7 +11326,7 @@
       <c r="T317" s="49"/>
       <c r="U317" s="49"/>
     </row>
-    <row r="318" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" s="50" customFormat="1">
       <c r="A318" s="36"/>
       <c r="B318" s="36"/>
       <c r="C318" s="36"/>
@@ -11395,7 +11349,7 @@
       <c r="T318" s="49"/>
       <c r="U318" s="49"/>
     </row>
-    <row r="319" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" s="50" customFormat="1">
       <c r="A319" s="36"/>
       <c r="B319" s="36"/>
       <c r="C319" s="36"/>
@@ -11418,7 +11372,7 @@
       <c r="T319" s="49"/>
       <c r="U319" s="49"/>
     </row>
-    <row r="320" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" s="50" customFormat="1">
       <c r="A320" s="36"/>
       <c r="B320" s="36"/>
       <c r="C320" s="36"/>
@@ -11441,7 +11395,7 @@
       <c r="T320" s="49"/>
       <c r="U320" s="49"/>
     </row>
-    <row r="321" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" s="50" customFormat="1">
       <c r="A321" s="36"/>
       <c r="B321" s="36"/>
       <c r="C321" s="36"/>
@@ -11464,7 +11418,7 @@
       <c r="T321" s="49"/>
       <c r="U321" s="49"/>
     </row>
-    <row r="322" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" s="50" customFormat="1">
       <c r="A322" s="36"/>
       <c r="B322" s="36"/>
       <c r="C322" s="36"/>
@@ -11487,7 +11441,7 @@
       <c r="T322" s="49"/>
       <c r="U322" s="49"/>
     </row>
-    <row r="323" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" s="50" customFormat="1">
       <c r="A323" s="36"/>
       <c r="B323" s="36"/>
       <c r="C323" s="36"/>
@@ -11510,7 +11464,7 @@
       <c r="T323" s="49"/>
       <c r="U323" s="49"/>
     </row>
-    <row r="324" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" s="50" customFormat="1">
       <c r="A324" s="36"/>
       <c r="B324" s="36"/>
       <c r="C324" s="36"/>
@@ -11533,7 +11487,7 @@
       <c r="T324" s="49"/>
       <c r="U324" s="49"/>
     </row>
-    <row r="325" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" s="50" customFormat="1">
       <c r="A325" s="36"/>
       <c r="B325" s="36"/>
       <c r="C325" s="36"/>
@@ -11556,7 +11510,7 @@
       <c r="T325" s="49"/>
       <c r="U325" s="49"/>
     </row>
-    <row r="326" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" s="50" customFormat="1">
       <c r="A326" s="36"/>
       <c r="B326" s="36"/>
       <c r="C326" s="36"/>
@@ -11579,7 +11533,7 @@
       <c r="T326" s="49"/>
       <c r="U326" s="49"/>
     </row>
-    <row r="327" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" s="50" customFormat="1">
       <c r="A327" s="36"/>
       <c r="B327" s="36"/>
       <c r="C327" s="36"/>
@@ -11602,7 +11556,7 @@
       <c r="T327" s="49"/>
       <c r="U327" s="49"/>
     </row>
-    <row r="328" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" s="50" customFormat="1">
       <c r="A328" s="36"/>
       <c r="B328" s="36"/>
       <c r="C328" s="36"/>
@@ -11625,7 +11579,7 @@
       <c r="T328" s="49"/>
       <c r="U328" s="49"/>
     </row>
-    <row r="329" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" s="50" customFormat="1">
       <c r="A329" s="33"/>
       <c r="B329" s="33"/>
       <c r="C329" s="33"/>
@@ -11648,7 +11602,7 @@
       <c r="T329" s="65"/>
       <c r="U329" s="65"/>
     </row>
-    <row r="330" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" s="50" customFormat="1">
       <c r="A330" s="30"/>
       <c r="B330" s="30"/>
       <c r="C330" s="30"/>
@@ -11665,7 +11619,7 @@
       <c r="P330" s="32"/>
       <c r="Q330" s="32"/>
     </row>
-    <row r="331" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" s="50" customFormat="1">
       <c r="A331" s="30"/>
       <c r="B331" s="30"/>
       <c r="C331" s="30"/>
@@ -11682,7 +11636,7 @@
       <c r="P331" s="32"/>
       <c r="Q331" s="32"/>
     </row>
-    <row r="332" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" s="50" customFormat="1">
       <c r="A332" s="30"/>
       <c r="B332" s="30"/>
       <c r="C332" s="30"/>
@@ -11699,7 +11653,7 @@
       <c r="P332" s="32"/>
       <c r="Q332" s="32"/>
     </row>
-    <row r="333" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" s="50" customFormat="1">
       <c r="A333" s="30"/>
       <c r="B333" s="30"/>
       <c r="C333" s="30"/>
@@ -11716,7 +11670,7 @@
       <c r="P333" s="32"/>
       <c r="Q333" s="32"/>
     </row>
-    <row r="334" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" s="50" customFormat="1">
       <c r="A334" s="30"/>
       <c r="B334" s="30"/>
       <c r="C334" s="30"/>
@@ -11738,6 +11692,14 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="U1:U2"/>
@@ -11750,17 +11712,9 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
@@ -11768,37 +11722,37 @@
           <x14:formula1>
             <xm:f>DATOS!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K11 K45:K56 K13:K26 K30:K43</xm:sqref>
+          <xm:sqref>K3:K11 K13:K26 K30:K43 K45:K49 K50:K55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$F$2:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L11 L45:L56 L13:L26 L30:L43</xm:sqref>
+          <xm:sqref>L3:L11 L13:L26 L30:L43 L45:L49 L50:L55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P11 P45:P56 P13:P26 P30:P43</xm:sqref>
+          <xm:sqref>P3:P11 P30:P43 P13:P26 P45:P49 P50:P55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$C$2:$C$39</xm:f>
           </x14:formula1>
-          <xm:sqref>M45:M56 M3:M26 M30:M43</xm:sqref>
+          <xm:sqref>M3:M26 M30:M43 M45:M49 M50:M55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$2:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>N45:N56 N3:N26 N30:N43</xm:sqref>
+          <xm:sqref>N3:N26 N30:N43 N45:N49 N50:N55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A56</xm:sqref>
+          <xm:sqref>A3:A49 A50:A55</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11817,16 +11771,16 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -11849,7 +11803,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -11870,7 +11824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>35</v>
@@ -11891,7 +11845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>36</v>
@@ -11908,7 +11862,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>37</v>
@@ -11925,7 +11879,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>38</v>
@@ -11940,7 +11894,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>39</v>
@@ -11953,7 +11907,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>40</v>
@@ -11966,7 +11920,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>41</v>
@@ -11979,7 +11933,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>42</v>
@@ -11992,7 +11946,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>43</v>
@@ -12007,7 +11961,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>44</v>
@@ -12022,7 +11976,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>45</v>
@@ -12037,7 +11991,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>46</v>
@@ -12052,7 +12006,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -12065,7 +12019,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -12078,7 +12032,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -12091,7 +12045,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -12104,7 +12058,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
@@ -12117,7 +12071,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
@@ -12130,7 +12084,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -12143,7 +12097,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
@@ -12156,7 +12110,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
@@ -12169,7 +12123,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
@@ -12182,7 +12136,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
@@ -12193,7 +12147,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
@@ -12204,7 +12158,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
@@ -12215,7 +12169,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
@@ -12226,7 +12180,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
@@ -12237,7 +12191,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
@@ -12248,7 +12202,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
@@ -12259,7 +12213,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
@@ -12270,7 +12224,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
@@ -12281,7 +12235,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
@@ -12292,7 +12246,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
@@ -12303,7 +12257,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
@@ -12314,7 +12268,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4" t="s">
@@ -12325,7 +12279,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
@@ -12336,7 +12290,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
@@ -12347,7 +12301,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -12356,7 +12310,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -12365,7 +12319,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -12374,7 +12328,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -12383,7 +12337,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -12392,7 +12346,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -12401,7 +12355,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -12410,7 +12364,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -12419,7 +12373,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -12428,7 +12382,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -12437,7 +12391,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -12449,7 +12403,6 @@
   </sheetData>
   <sheetProtection password="C9E9" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/fuentes/contenidos/grado07/guion01/Escaleta_LE_07_01_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion01/Escaleta_LE_07_01_CO.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado07\guion01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25603" windowHeight="14483"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -13,13 +18,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1535,19 +1540,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1841,7 +1846,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1851,126 +1856,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="R29" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3:U56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.46484375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.46484375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.83203125" style="48" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.796875" style="48" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.46484375" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="47.33203125" style="46" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="20.46484375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.46484375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1328125" style="7" customWidth="1"/>
     <col min="14" max="14" width="4.6640625" style="6" customWidth="1"/>
     <col min="15" max="15" width="60" style="48" customWidth="1"/>
     <col min="16" max="16" width="18.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.1640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.46484375" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.73046875" style="48" customWidth="1"/>
     <col min="19" max="19" width="18" style="48" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="48.83203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5" style="48" bestFit="1" customWidth="1"/>
-    <col min="22" max="52" width="10.83203125" style="50"/>
-    <col min="53" max="16384" width="10.83203125" style="48"/>
+    <col min="20" max="20" width="48.796875" style="48" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.46484375" style="48" bestFit="1" customWidth="1"/>
+    <col min="22" max="52" width="10.796875" style="50"/>
+    <col min="53" max="16384" width="10.796875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="87" t="s">
+      <c r="I1" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="87" t="s">
+      <c r="L1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="87" t="s">
+      <c r="M1" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87" t="s">
+      <c r="N1" s="88"/>
+      <c r="O1" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="87" t="s">
+      <c r="P1" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="87" t="s">
+      <c r="Q1" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="87" t="s">
+      <c r="R1" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="87" t="s">
+      <c r="S1" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="87" t="s">
+      <c r="T1" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="87" t="s">
+      <c r="U1" s="88" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="51" customFormat="1">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
+    <row r="2" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
       <c r="M2" s="47" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
       <c r="V2" s="52"/>
       <c r="W2" s="52"/>
       <c r="X2" s="52"/>
@@ -2003,7 +2008,7 @@
       <c r="AY2" s="52"/>
       <c r="AZ2" s="52"/>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A3" s="41" t="s">
         <v>68</v>
       </c>
@@ -2049,20 +2054,20 @@
       <c r="Q3" s="13">
         <v>6</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A4" s="41" t="s">
         <v>68</v>
       </c>
@@ -2108,20 +2113,20 @@
       <c r="Q4" s="13">
         <v>6</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="S4" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="U4" s="14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A5" s="41" t="s">
         <v>68</v>
       </c>
@@ -2167,20 +2172,20 @@
       <c r="Q5" s="13">
         <v>6</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A6" s="41" t="s">
         <v>68</v>
       </c>
@@ -2226,20 +2231,20 @@
       <c r="Q6" s="13">
         <v>6</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="T6" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="U6" s="14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A7" s="41" t="s">
         <v>68</v>
       </c>
@@ -2285,20 +2290,20 @@
       <c r="Q7" s="13">
         <v>6</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="S7" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="T7" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="U7" s="13" t="s">
+      <c r="U7" s="14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A8" s="41" t="s">
         <v>68</v>
       </c>
@@ -2344,20 +2349,20 @@
       <c r="Q8" s="13">
         <v>6</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="R8" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="S8" s="13" t="s">
+      <c r="S8" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="T8" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="U8" s="13" t="s">
+      <c r="U8" s="14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A9" s="41" t="s">
         <v>68</v>
       </c>
@@ -2401,20 +2406,20 @@
       <c r="Q9" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="R9" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="S9" s="20" t="s">
+      <c r="S9" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="T9" s="20" t="s">
+      <c r="T9" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="U9" s="20" t="s">
+      <c r="U9" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A10" s="41" t="s">
         <v>68</v>
       </c>
@@ -2460,20 +2465,20 @@
       <c r="Q10" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="R10" s="20" t="s">
+      <c r="R10" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="S10" s="20" t="s">
+      <c r="S10" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="T10" s="20" t="s">
+      <c r="T10" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="U10" s="20" t="s">
+      <c r="U10" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A11" s="41" t="s">
         <v>68</v>
       </c>
@@ -2519,20 +2524,20 @@
       <c r="Q11" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="R11" s="20" t="s">
+      <c r="R11" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="S11" s="20" t="s">
+      <c r="S11" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="T11" s="20" t="s">
+      <c r="T11" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="U11" s="20" t="s">
+      <c r="U11" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A12" s="41" t="s">
         <v>68</v>
       </c>
@@ -2580,20 +2585,20 @@
       <c r="Q12" s="20">
         <v>6</v>
       </c>
-      <c r="R12" s="20" t="s">
+      <c r="R12" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="S12" s="20" t="s">
+      <c r="S12" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="T12" s="20" t="s">
+      <c r="T12" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="17" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A13" s="41" t="s">
         <v>68</v>
       </c>
@@ -2639,20 +2644,20 @@
       <c r="Q13" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="R13" s="20" t="s">
+      <c r="R13" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="S13" s="20" t="s">
+      <c r="S13" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="T13" s="20" t="s">
+      <c r="T13" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="U13" s="20" t="s">
+      <c r="U13" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A14" s="41" t="s">
         <v>68</v>
       </c>
@@ -2700,20 +2705,20 @@
       <c r="Q14" s="20">
         <v>6</v>
       </c>
-      <c r="R14" s="20" t="s">
+      <c r="R14" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="S14" s="20" t="s">
+      <c r="S14" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="T14" s="20" t="s">
+      <c r="T14" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="U14" s="20" t="s">
+      <c r="U14" s="17" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A15" s="41" t="s">
         <v>68</v>
       </c>
@@ -2759,20 +2764,20 @@
       <c r="Q15" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="R15" s="20" t="s">
+      <c r="R15" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="S15" s="20" t="s">
+      <c r="S15" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="T15" s="20" t="s">
+      <c r="T15" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="U15" s="20" t="s">
+      <c r="U15" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A16" s="41" t="s">
         <v>68</v>
       </c>
@@ -2818,20 +2823,20 @@
       <c r="Q16" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="R16" s="20" t="s">
+      <c r="R16" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="S16" s="20" t="s">
+      <c r="S16" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="T16" s="20" t="s">
+      <c r="T16" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="U16" s="20" t="s">
+      <c r="U16" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" s="41" t="s">
         <v>68</v>
       </c>
@@ -2877,20 +2882,20 @@
       <c r="Q17" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="R17" s="20" t="s">
+      <c r="R17" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="S17" s="20" t="s">
+      <c r="S17" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="T17" s="20" t="s">
+      <c r="T17" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="U17" s="20" t="s">
+      <c r="U17" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" s="41" t="s">
         <v>68</v>
       </c>
@@ -2936,20 +2941,20 @@
       <c r="Q18" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="R18" s="20" t="s">
+      <c r="R18" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="S18" s="20" t="s">
+      <c r="S18" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="T18" s="20" t="s">
+      <c r="T18" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="U18" s="20" t="s">
+      <c r="U18" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" s="41" t="s">
         <v>68</v>
       </c>
@@ -2997,20 +3002,20 @@
       <c r="Q19" s="20">
         <v>6</v>
       </c>
-      <c r="R19" s="20" t="s">
+      <c r="R19" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="S19" s="20" t="s">
+      <c r="S19" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="T19" s="20" t="s">
+      <c r="T19" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="U19" s="20" t="s">
+      <c r="U19" s="17" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="41" t="s">
         <v>68</v>
       </c>
@@ -3056,20 +3061,20 @@
       <c r="Q20" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="R20" s="20" t="s">
+      <c r="R20" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="S20" s="20" t="s">
+      <c r="S20" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="T20" s="20" t="s">
+      <c r="T20" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="U20" s="20" t="s">
+      <c r="U20" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" s="41" t="s">
         <v>68</v>
       </c>
@@ -3115,20 +3120,20 @@
       <c r="Q21" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="R21" s="20" t="s">
+      <c r="R21" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="S21" s="20" t="s">
+      <c r="S21" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="T21" s="20" t="s">
+      <c r="T21" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="U21" s="20" t="s">
+      <c r="U21" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22" s="41" t="s">
         <v>68</v>
       </c>
@@ -3174,20 +3179,20 @@
       <c r="Q22" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="R22" s="20" t="s">
+      <c r="R22" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="S22" s="20" t="s">
+      <c r="S22" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="T22" s="20" t="s">
+      <c r="T22" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="U22" s="20" t="s">
+      <c r="U22" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23" s="41" t="s">
         <v>68</v>
       </c>
@@ -3233,20 +3238,20 @@
       <c r="Q23" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="R23" s="20" t="s">
+      <c r="R23" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="S23" s="20" t="s">
+      <c r="S23" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="T23" s="20" t="s">
+      <c r="T23" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="U23" s="20" t="s">
+      <c r="U23" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" s="41" t="s">
         <v>68</v>
       </c>
@@ -3294,20 +3299,20 @@
       <c r="Q24" s="20">
         <v>6</v>
       </c>
-      <c r="R24" s="20" t="s">
+      <c r="R24" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="S24" s="20" t="s">
+      <c r="S24" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="T24" s="20" t="s">
+      <c r="T24" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="U24" s="20" t="s">
+      <c r="U24" s="17" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25" s="41" t="s">
         <v>68</v>
       </c>
@@ -3342,8 +3347,8 @@
       <c r="L25" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="M25" s="89"/>
-      <c r="N25" s="90"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="87"/>
       <c r="O25" s="63" t="s">
         <v>199</v>
       </c>
@@ -3353,20 +3358,20 @@
       <c r="Q25" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="R25" s="74" t="s">
+      <c r="R25" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="S25" s="74" t="s">
+      <c r="S25" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="T25" s="74" t="s">
+      <c r="T25" s="67" t="s">
         <v>293</v>
       </c>
-      <c r="U25" s="74" t="s">
+      <c r="U25" s="67" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" s="67" t="s">
         <v>68</v>
       </c>
@@ -3414,20 +3419,20 @@
       <c r="Q26" s="74">
         <v>6</v>
       </c>
-      <c r="R26" s="74" t="s">
+      <c r="R26" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="S26" s="74" t="s">
+      <c r="S26" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="T26" s="74" t="s">
+      <c r="T26" s="67" t="s">
         <v>273</v>
       </c>
-      <c r="U26" s="74" t="s">
+      <c r="U26" s="67" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" s="41" t="s">
         <v>68</v>
       </c>
@@ -3473,20 +3478,20 @@
       <c r="Q27" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="R27" s="13" t="s">
+      <c r="R27" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="S27" s="13" t="s">
+      <c r="S27" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="T27" s="13" t="s">
+      <c r="T27" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="U27" s="13" t="s">
+      <c r="U27" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" s="41" t="s">
         <v>68</v>
       </c>
@@ -3532,20 +3537,20 @@
       <c r="Q28" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="R28" s="13" t="s">
+      <c r="R28" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="S28" s="13" t="s">
+      <c r="S28" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="T28" s="13" t="s">
+      <c r="T28" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="U28" s="13" t="s">
+      <c r="U28" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" s="41" t="s">
         <v>68</v>
       </c>
@@ -3591,20 +3596,20 @@
       <c r="Q29" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="R29" s="13" t="s">
+      <c r="R29" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="S29" s="13" t="s">
+      <c r="S29" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="T29" s="13" t="s">
+      <c r="T29" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="U29" s="13" t="s">
+      <c r="U29" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30" s="41" t="s">
         <v>68</v>
       </c>
@@ -3652,20 +3657,20 @@
       <c r="Q30" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="R30" s="13" t="s">
+      <c r="R30" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="S30" s="13" t="s">
+      <c r="S30" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="T30" s="13" t="s">
+      <c r="T30" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="U30" s="13" t="s">
+      <c r="U30" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" s="41" t="s">
         <v>68</v>
       </c>
@@ -3713,20 +3718,20 @@
       <c r="Q31" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="R31" s="13" t="s">
+      <c r="R31" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="S31" s="13" t="s">
+      <c r="S31" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="T31" s="13" t="s">
+      <c r="T31" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="U31" s="13" t="s">
+      <c r="U31" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32" s="41" t="s">
         <v>68</v>
       </c>
@@ -3774,20 +3779,20 @@
       <c r="Q32" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="R32" s="13" t="s">
+      <c r="R32" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="S32" s="13" t="s">
+      <c r="S32" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="T32" s="13" t="s">
+      <c r="T32" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="U32" s="13" t="s">
+      <c r="U32" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33" s="41" t="s">
         <v>68</v>
       </c>
@@ -3835,20 +3840,20 @@
       <c r="Q33" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="R33" s="13" t="s">
+      <c r="R33" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="S33" s="13" t="s">
+      <c r="S33" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="T33" s="13" t="s">
+      <c r="T33" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="U33" s="13" t="s">
+      <c r="U33" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34" s="41" t="s">
         <v>68</v>
       </c>
@@ -3894,20 +3899,20 @@
       <c r="Q34" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="R34" s="13" t="s">
+      <c r="R34" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="S34" s="13" t="s">
+      <c r="S34" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="T34" s="13" t="s">
+      <c r="T34" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="U34" s="13" t="s">
+      <c r="U34" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A35" s="67" t="s">
         <v>68</v>
       </c>
@@ -3955,20 +3960,20 @@
       <c r="Q35" s="74">
         <v>6</v>
       </c>
-      <c r="R35" s="74" t="s">
+      <c r="R35" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="S35" s="74" t="s">
+      <c r="S35" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="T35" s="74" t="s">
+      <c r="T35" s="67" t="s">
         <v>284</v>
       </c>
-      <c r="U35" s="74" t="s">
+      <c r="U35" s="67" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36" s="41" t="s">
         <v>68</v>
       </c>
@@ -4016,20 +4021,20 @@
       <c r="Q36" s="13">
         <v>6</v>
       </c>
-      <c r="R36" s="13" t="s">
+      <c r="R36" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="S36" s="13" t="s">
+      <c r="S36" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="T36" s="13" t="s">
+      <c r="T36" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="U36" s="13" t="s">
+      <c r="U36" s="14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A37" s="41" t="s">
         <v>68</v>
       </c>
@@ -4077,20 +4082,20 @@
       <c r="Q37" s="13">
         <v>6</v>
       </c>
-      <c r="R37" s="13" t="s">
+      <c r="R37" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="S37" s="13" t="s">
+      <c r="S37" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="T37" s="13" t="s">
+      <c r="T37" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="U37" s="13" t="s">
+      <c r="U37" s="14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38" s="41" t="s">
         <v>68</v>
       </c>
@@ -4136,20 +4141,20 @@
       <c r="Q38" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="R38" s="13" t="s">
+      <c r="R38" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="S38" s="13" t="s">
+      <c r="S38" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="T38" s="13" t="s">
+      <c r="T38" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="U38" s="13" t="s">
+      <c r="U38" s="14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A39" s="41" t="s">
         <v>68</v>
       </c>
@@ -4195,20 +4200,20 @@
       <c r="Q39" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="R39" s="13" t="s">
+      <c r="R39" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="S39" s="13" t="s">
+      <c r="S39" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="T39" s="16" t="s">
+      <c r="T39" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="U39" s="16" t="s">
+      <c r="U39" s="15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A40" s="41" t="s">
         <v>68</v>
       </c>
@@ -4254,20 +4259,20 @@
       <c r="Q40" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="R40" s="13" t="s">
+      <c r="R40" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="S40" s="13" t="s">
+      <c r="S40" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="T40" s="16" t="s">
+      <c r="T40" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="U40" s="16" t="s">
+      <c r="U40" s="15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A41" s="41" t="s">
         <v>68</v>
       </c>
@@ -4315,20 +4320,20 @@
       <c r="Q41" s="13">
         <v>6</v>
       </c>
-      <c r="R41" s="13" t="s">
+      <c r="R41" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="S41" s="13" t="s">
+      <c r="S41" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="T41" s="13" t="s">
+      <c r="T41" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="U41" s="13" t="s">
+      <c r="U41" s="14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A42" s="41" t="s">
         <v>68</v>
       </c>
@@ -4376,20 +4381,20 @@
       <c r="Q42" s="13">
         <v>6</v>
       </c>
-      <c r="R42" s="13" t="s">
+      <c r="R42" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="S42" s="13" t="s">
+      <c r="S42" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="T42" s="13" t="s">
+      <c r="T42" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="U42" s="13" t="s">
+      <c r="U42" s="14" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43" s="41" t="s">
         <v>68</v>
       </c>
@@ -4437,20 +4442,20 @@
       <c r="Q43" s="13">
         <v>6</v>
       </c>
-      <c r="R43" s="13" t="s">
+      <c r="R43" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="S43" s="13" t="s">
+      <c r="S43" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="T43" s="13" t="s">
+      <c r="T43" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="U43" s="13" t="s">
+      <c r="U43" s="14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A44" s="41" t="s">
         <v>68</v>
       </c>
@@ -4498,20 +4503,20 @@
       <c r="Q44" s="13">
         <v>6</v>
       </c>
-      <c r="R44" s="13" t="s">
+      <c r="R44" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="S44" s="13" t="s">
+      <c r="S44" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="T44" s="13" t="s">
+      <c r="T44" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="U44" s="13" t="s">
+      <c r="U44" s="14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45" s="41" t="s">
         <v>68</v>
       </c>
@@ -4559,20 +4564,20 @@
       <c r="Q45" s="13">
         <v>6</v>
       </c>
-      <c r="R45" s="13" t="s">
+      <c r="R45" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="S45" s="13" t="s">
+      <c r="S45" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="T45" s="13" t="s">
+      <c r="T45" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="U45" s="13" t="s">
+      <c r="U45" s="14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46" s="41" t="s">
         <v>68</v>
       </c>
@@ -4620,20 +4625,20 @@
       <c r="Q46" s="13">
         <v>6</v>
       </c>
-      <c r="R46" s="13" t="s">
+      <c r="R46" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="S46" s="13" t="s">
+      <c r="S46" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="T46" s="13" t="s">
+      <c r="T46" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="U46" s="13" t="s">
+      <c r="U46" s="14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A47" s="41" t="s">
         <v>68</v>
       </c>
@@ -4681,20 +4686,20 @@
       <c r="Q47" s="13">
         <v>6</v>
       </c>
-      <c r="R47" s="13" t="s">
+      <c r="R47" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="S47" s="13" t="s">
+      <c r="S47" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="T47" s="13" t="s">
+      <c r="T47" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="U47" s="13" t="s">
+      <c r="U47" s="14" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A48" s="67" t="s">
         <v>68</v>
       </c>
@@ -4742,20 +4747,20 @@
       <c r="Q48" s="74">
         <v>6</v>
       </c>
-      <c r="R48" s="74" t="s">
+      <c r="R48" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="S48" s="74" t="s">
+      <c r="S48" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="T48" s="74" t="s">
+      <c r="T48" s="67" t="s">
         <v>301</v>
       </c>
-      <c r="U48" s="74" t="s">
+      <c r="U48" s="67" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="49" spans="1:52" s="63" customFormat="1">
+    <row r="49" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="41" t="s">
         <v>68</v>
       </c>
@@ -4799,16 +4804,16 @@
       <c r="Q49" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="R49" s="13" t="s">
+      <c r="R49" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="S49" s="13" t="s">
+      <c r="S49" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="T49" s="13" t="s">
+      <c r="T49" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="U49" s="13" t="s">
+      <c r="U49" s="14" t="s">
         <v>95</v>
       </c>
       <c r="V49" s="50"/>
@@ -4843,7 +4848,7 @@
       <c r="AY49" s="50"/>
       <c r="AZ49" s="50"/>
     </row>
-    <row r="50" spans="1:52" s="63" customFormat="1">
+    <row r="50" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="41" t="s">
         <v>68</v>
       </c>
@@ -4887,16 +4892,16 @@
       <c r="Q50" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="R50" s="16" t="s">
+      <c r="R50" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="S50" s="13" t="s">
+      <c r="S50" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="T50" s="13" t="s">
+      <c r="T50" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="U50" s="13" t="s">
+      <c r="U50" s="14" t="s">
         <v>142</v>
       </c>
       <c r="V50" s="50"/>
@@ -4931,7 +4936,7 @@
       <c r="AY50" s="50"/>
       <c r="AZ50" s="50"/>
     </row>
-    <row r="51" spans="1:52" s="63" customFormat="1">
+    <row r="51" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="41" t="s">
         <v>68</v>
       </c>
@@ -4975,16 +4980,16 @@
       <c r="Q51" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="R51" s="13" t="s">
+      <c r="R51" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="S51" s="13" t="s">
+      <c r="S51" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="T51" s="13" t="s">
+      <c r="T51" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="U51" s="13" t="s">
+      <c r="U51" s="14" t="s">
         <v>142</v>
       </c>
       <c r="V51" s="50"/>
@@ -5019,7 +5024,7 @@
       <c r="AY51" s="50"/>
       <c r="AZ51" s="50"/>
     </row>
-    <row r="52" spans="1:52" s="63" customFormat="1">
+    <row r="52" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="41" t="s">
         <v>68</v>
       </c>
@@ -5065,16 +5070,16 @@
       <c r="Q52" s="13">
         <v>6</v>
       </c>
-      <c r="R52" s="13" t="s">
+      <c r="R52" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="S52" s="13" t="s">
+      <c r="S52" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="T52" s="13" t="s">
+      <c r="T52" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="U52" s="13" t="s">
+      <c r="U52" s="14" t="s">
         <v>265</v>
       </c>
       <c r="V52" s="50"/>
@@ -5109,7 +5114,7 @@
       <c r="AY52" s="50"/>
       <c r="AZ52" s="50"/>
     </row>
-    <row r="53" spans="1:52" s="63" customFormat="1">
+    <row r="53" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="41" t="s">
         <v>68</v>
       </c>
@@ -5155,16 +5160,16 @@
       <c r="Q53" s="13">
         <v>6</v>
       </c>
-      <c r="R53" s="13" t="s">
+      <c r="R53" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="S53" s="13" t="s">
+      <c r="S53" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="T53" s="13" t="s">
+      <c r="T53" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="U53" s="13" t="s">
+      <c r="U53" s="14" t="s">
         <v>278</v>
       </c>
       <c r="V53" s="50"/>
@@ -5199,7 +5204,7 @@
       <c r="AY53" s="50"/>
       <c r="AZ53" s="50"/>
     </row>
-    <row r="54" spans="1:52" s="63" customFormat="1">
+    <row r="54" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="41" t="s">
         <v>68</v>
       </c>
@@ -5235,10 +5240,10 @@
         <v>19</v>
       </c>
       <c r="Q54" s="13"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="13"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
       <c r="V54" s="50"/>
       <c r="W54" s="50"/>
       <c r="X54" s="50"/>
@@ -5271,7 +5276,7 @@
       <c r="AY54" s="50"/>
       <c r="AZ54" s="50"/>
     </row>
-    <row r="55" spans="1:52">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A55" s="41" t="s">
         <v>68</v>
       </c>
@@ -5315,20 +5320,20 @@
       <c r="Q55" s="13">
         <v>6</v>
       </c>
-      <c r="R55" s="13" t="s">
+      <c r="R55" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="S55" s="13" t="s">
+      <c r="S55" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="T55" s="13" t="s">
+      <c r="T55" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="U55" s="13" t="s">
+      <c r="U55" s="14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="56" spans="1:52">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A56" s="41" t="s">
         <v>68</v>
       </c>
@@ -5372,20 +5377,20 @@
       <c r="Q56" s="82">
         <v>6</v>
       </c>
-      <c r="R56" s="82" t="s">
+      <c r="R56" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="S56" s="82" t="s">
+      <c r="S56" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="T56" s="82" t="s">
+      <c r="T56" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="U56" s="82" t="s">
+      <c r="U56" s="41" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="57" spans="1:52" s="84" customFormat="1">
+    <row r="57" spans="1:52" s="84" customFormat="1" x14ac:dyDescent="0.45">
       <c r="V57" s="85"/>
       <c r="W57" s="85"/>
       <c r="X57" s="85"/>
@@ -5418,7 +5423,7 @@
       <c r="AY57" s="85"/>
       <c r="AZ57" s="85"/>
     </row>
-    <row r="58" spans="1:52" s="49" customFormat="1">
+    <row r="58" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
       <c r="C58" s="36"/>
@@ -5435,7 +5440,7 @@
       <c r="P58" s="38"/>
       <c r="Q58" s="38"/>
     </row>
-    <row r="59" spans="1:52" s="49" customFormat="1">
+    <row r="59" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="36"/>
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
@@ -5452,7 +5457,7 @@
       <c r="P59" s="38"/>
       <c r="Q59" s="38"/>
     </row>
-    <row r="60" spans="1:52" s="49" customFormat="1">
+    <row r="60" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="36"/>
       <c r="B60" s="36"/>
       <c r="C60" s="36"/>
@@ -5469,7 +5474,7 @@
       <c r="P60" s="38"/>
       <c r="Q60" s="38"/>
     </row>
-    <row r="61" spans="1:52" s="49" customFormat="1">
+    <row r="61" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="36"/>
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
@@ -5486,7 +5491,7 @@
       <c r="P61" s="38"/>
       <c r="Q61" s="38"/>
     </row>
-    <row r="62" spans="1:52" s="49" customFormat="1">
+    <row r="62" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="36"/>
       <c r="B62" s="36"/>
       <c r="C62" s="36"/>
@@ -5503,7 +5508,7 @@
       <c r="P62" s="38"/>
       <c r="Q62" s="38"/>
     </row>
-    <row r="63" spans="1:52" s="49" customFormat="1">
+    <row r="63" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="36"/>
       <c r="B63" s="36"/>
       <c r="C63" s="36"/>
@@ -5520,7 +5525,7 @@
       <c r="P63" s="38"/>
       <c r="Q63" s="38"/>
     </row>
-    <row r="64" spans="1:52" s="49" customFormat="1">
+    <row r="64" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A64" s="36"/>
       <c r="B64" s="36"/>
       <c r="C64" s="36"/>
@@ -5537,7 +5542,7 @@
       <c r="P64" s="38"/>
       <c r="Q64" s="38"/>
     </row>
-    <row r="65" spans="1:21" s="49" customFormat="1">
+    <row r="65" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="36"/>
       <c r="B65" s="36"/>
       <c r="C65" s="36"/>
@@ -5554,7 +5559,7 @@
       <c r="P65" s="38"/>
       <c r="Q65" s="38"/>
     </row>
-    <row r="66" spans="1:21" s="49" customFormat="1">
+    <row r="66" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="36"/>
       <c r="B66" s="36"/>
       <c r="C66" s="36"/>
@@ -5571,7 +5576,7 @@
       <c r="P66" s="38"/>
       <c r="Q66" s="38"/>
     </row>
-    <row r="67" spans="1:21" s="49" customFormat="1">
+    <row r="67" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A67" s="36"/>
       <c r="B67" s="36"/>
       <c r="C67" s="36"/>
@@ -5588,7 +5593,7 @@
       <c r="P67" s="38"/>
       <c r="Q67" s="38"/>
     </row>
-    <row r="68" spans="1:21" s="49" customFormat="1">
+    <row r="68" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="36"/>
       <c r="B68" s="36"/>
       <c r="C68" s="36"/>
@@ -5605,7 +5610,7 @@
       <c r="P68" s="38"/>
       <c r="Q68" s="38"/>
     </row>
-    <row r="69" spans="1:21" s="49" customFormat="1">
+    <row r="69" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="36"/>
       <c r="B69" s="36"/>
       <c r="C69" s="36"/>
@@ -5622,7 +5627,7 @@
       <c r="P69" s="38"/>
       <c r="Q69" s="38"/>
     </row>
-    <row r="70" spans="1:21" s="65" customFormat="1">
+    <row r="70" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="36"/>
       <c r="B70" s="36"/>
       <c r="C70" s="36"/>
@@ -5645,7 +5650,7 @@
       <c r="T70" s="49"/>
       <c r="U70" s="49"/>
     </row>
-    <row r="71" spans="1:21" s="50" customFormat="1">
+    <row r="71" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="36"/>
       <c r="B71" s="36"/>
       <c r="C71" s="36"/>
@@ -5668,7 +5673,7 @@
       <c r="T71" s="49"/>
       <c r="U71" s="49"/>
     </row>
-    <row r="72" spans="1:21" s="50" customFormat="1">
+    <row r="72" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="36"/>
       <c r="B72" s="36"/>
       <c r="C72" s="36"/>
@@ -5691,7 +5696,7 @@
       <c r="T72" s="49"/>
       <c r="U72" s="49"/>
     </row>
-    <row r="73" spans="1:21" s="50" customFormat="1">
+    <row r="73" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="36"/>
       <c r="B73" s="36"/>
       <c r="C73" s="36"/>
@@ -5714,7 +5719,7 @@
       <c r="T73" s="49"/>
       <c r="U73" s="49"/>
     </row>
-    <row r="74" spans="1:21" s="50" customFormat="1">
+    <row r="74" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="36"/>
       <c r="B74" s="36"/>
       <c r="C74" s="36"/>
@@ -5737,7 +5742,7 @@
       <c r="T74" s="49"/>
       <c r="U74" s="49"/>
     </row>
-    <row r="75" spans="1:21" s="50" customFormat="1">
+    <row r="75" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="36"/>
       <c r="B75" s="36"/>
       <c r="C75" s="36"/>
@@ -5760,7 +5765,7 @@
       <c r="T75" s="49"/>
       <c r="U75" s="49"/>
     </row>
-    <row r="76" spans="1:21" s="50" customFormat="1">
+    <row r="76" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="36"/>
       <c r="B76" s="36"/>
       <c r="C76" s="36"/>
@@ -5783,7 +5788,7 @@
       <c r="T76" s="49"/>
       <c r="U76" s="49"/>
     </row>
-    <row r="77" spans="1:21" s="50" customFormat="1">
+    <row r="77" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="36"/>
       <c r="B77" s="36"/>
       <c r="C77" s="36"/>
@@ -5806,7 +5811,7 @@
       <c r="T77" s="49"/>
       <c r="U77" s="49"/>
     </row>
-    <row r="78" spans="1:21" s="50" customFormat="1">
+    <row r="78" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="36"/>
       <c r="B78" s="36"/>
       <c r="C78" s="36"/>
@@ -5829,7 +5834,7 @@
       <c r="T78" s="49"/>
       <c r="U78" s="49"/>
     </row>
-    <row r="79" spans="1:21" s="50" customFormat="1">
+    <row r="79" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79" s="36"/>
       <c r="B79" s="36"/>
       <c r="C79" s="36"/>
@@ -5852,7 +5857,7 @@
       <c r="T79" s="49"/>
       <c r="U79" s="49"/>
     </row>
-    <row r="80" spans="1:21" s="50" customFormat="1">
+    <row r="80" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A80" s="36"/>
       <c r="B80" s="36"/>
       <c r="C80" s="36"/>
@@ -5875,7 +5880,7 @@
       <c r="T80" s="49"/>
       <c r="U80" s="49"/>
     </row>
-    <row r="81" spans="1:21" s="50" customFormat="1">
+    <row r="81" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="36"/>
       <c r="B81" s="36"/>
       <c r="C81" s="36"/>
@@ -5898,7 +5903,7 @@
       <c r="T81" s="49"/>
       <c r="U81" s="49"/>
     </row>
-    <row r="82" spans="1:21" s="50" customFormat="1">
+    <row r="82" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A82" s="36"/>
       <c r="B82" s="36"/>
       <c r="C82" s="36"/>
@@ -5921,7 +5926,7 @@
       <c r="T82" s="49"/>
       <c r="U82" s="49"/>
     </row>
-    <row r="83" spans="1:21" s="50" customFormat="1">
+    <row r="83" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A83" s="36"/>
       <c r="B83" s="36"/>
       <c r="C83" s="36"/>
@@ -5944,7 +5949,7 @@
       <c r="T83" s="49"/>
       <c r="U83" s="49"/>
     </row>
-    <row r="84" spans="1:21" s="50" customFormat="1">
+    <row r="84" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="36"/>
       <c r="B84" s="36"/>
       <c r="C84" s="36"/>
@@ -5967,7 +5972,7 @@
       <c r="T84" s="49"/>
       <c r="U84" s="49"/>
     </row>
-    <row r="85" spans="1:21" s="50" customFormat="1">
+    <row r="85" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="36"/>
       <c r="B85" s="36"/>
       <c r="C85" s="36"/>
@@ -5990,7 +5995,7 @@
       <c r="T85" s="49"/>
       <c r="U85" s="49"/>
     </row>
-    <row r="86" spans="1:21" s="50" customFormat="1">
+    <row r="86" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="36"/>
       <c r="B86" s="36"/>
       <c r="C86" s="36"/>
@@ -6013,7 +6018,7 @@
       <c r="T86" s="49"/>
       <c r="U86" s="49"/>
     </row>
-    <row r="87" spans="1:21" s="50" customFormat="1">
+    <row r="87" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="36"/>
       <c r="B87" s="36"/>
       <c r="C87" s="36"/>
@@ -6036,7 +6041,7 @@
       <c r="T87" s="49"/>
       <c r="U87" s="49"/>
     </row>
-    <row r="88" spans="1:21" s="50" customFormat="1">
+    <row r="88" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="36"/>
       <c r="B88" s="36"/>
       <c r="C88" s="36"/>
@@ -6059,7 +6064,7 @@
       <c r="T88" s="49"/>
       <c r="U88" s="49"/>
     </row>
-    <row r="89" spans="1:21" s="50" customFormat="1">
+    <row r="89" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="36"/>
       <c r="B89" s="36"/>
       <c r="C89" s="36"/>
@@ -6082,7 +6087,7 @@
       <c r="T89" s="49"/>
       <c r="U89" s="49"/>
     </row>
-    <row r="90" spans="1:21" s="50" customFormat="1">
+    <row r="90" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="36"/>
       <c r="B90" s="36"/>
       <c r="C90" s="36"/>
@@ -6105,7 +6110,7 @@
       <c r="T90" s="49"/>
       <c r="U90" s="49"/>
     </row>
-    <row r="91" spans="1:21" s="50" customFormat="1">
+    <row r="91" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="36"/>
       <c r="B91" s="36"/>
       <c r="C91" s="36"/>
@@ -6128,7 +6133,7 @@
       <c r="T91" s="49"/>
       <c r="U91" s="49"/>
     </row>
-    <row r="92" spans="1:21" s="50" customFormat="1">
+    <row r="92" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A92" s="36"/>
       <c r="B92" s="36"/>
       <c r="C92" s="36"/>
@@ -6151,7 +6156,7 @@
       <c r="T92" s="49"/>
       <c r="U92" s="49"/>
     </row>
-    <row r="93" spans="1:21" s="50" customFormat="1">
+    <row r="93" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="36"/>
       <c r="B93" s="36"/>
       <c r="C93" s="36"/>
@@ -6174,7 +6179,7 @@
       <c r="T93" s="49"/>
       <c r="U93" s="49"/>
     </row>
-    <row r="94" spans="1:21" s="50" customFormat="1">
+    <row r="94" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="36"/>
       <c r="B94" s="36"/>
       <c r="C94" s="36"/>
@@ -6197,7 +6202,7 @@
       <c r="T94" s="49"/>
       <c r="U94" s="49"/>
     </row>
-    <row r="95" spans="1:21" s="50" customFormat="1">
+    <row r="95" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="36"/>
       <c r="B95" s="36"/>
       <c r="C95" s="36"/>
@@ -6220,7 +6225,7 @@
       <c r="T95" s="49"/>
       <c r="U95" s="49"/>
     </row>
-    <row r="96" spans="1:21" s="50" customFormat="1">
+    <row r="96" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A96" s="36"/>
       <c r="B96" s="36"/>
       <c r="C96" s="36"/>
@@ -6243,7 +6248,7 @@
       <c r="T96" s="49"/>
       <c r="U96" s="49"/>
     </row>
-    <row r="97" spans="1:21" s="50" customFormat="1">
+    <row r="97" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A97" s="36"/>
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
@@ -6266,7 +6271,7 @@
       <c r="T97" s="49"/>
       <c r="U97" s="49"/>
     </row>
-    <row r="98" spans="1:21" s="50" customFormat="1">
+    <row r="98" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A98" s="36"/>
       <c r="B98" s="36"/>
       <c r="C98" s="36"/>
@@ -6289,7 +6294,7 @@
       <c r="T98" s="49"/>
       <c r="U98" s="49"/>
     </row>
-    <row r="99" spans="1:21" s="50" customFormat="1">
+    <row r="99" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A99" s="36"/>
       <c r="B99" s="36"/>
       <c r="C99" s="36"/>
@@ -6312,7 +6317,7 @@
       <c r="T99" s="49"/>
       <c r="U99" s="49"/>
     </row>
-    <row r="100" spans="1:21" s="50" customFormat="1">
+    <row r="100" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A100" s="36"/>
       <c r="B100" s="36"/>
       <c r="C100" s="36"/>
@@ -6335,7 +6340,7 @@
       <c r="T100" s="49"/>
       <c r="U100" s="49"/>
     </row>
-    <row r="101" spans="1:21" s="50" customFormat="1">
+    <row r="101" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A101" s="36"/>
       <c r="B101" s="36"/>
       <c r="C101" s="36"/>
@@ -6358,7 +6363,7 @@
       <c r="T101" s="49"/>
       <c r="U101" s="49"/>
     </row>
-    <row r="102" spans="1:21" s="50" customFormat="1">
+    <row r="102" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A102" s="36"/>
       <c r="B102" s="36"/>
       <c r="C102" s="36"/>
@@ -6381,7 +6386,7 @@
       <c r="T102" s="49"/>
       <c r="U102" s="49"/>
     </row>
-    <row r="103" spans="1:21" s="50" customFormat="1">
+    <row r="103" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A103" s="36"/>
       <c r="B103" s="36"/>
       <c r="C103" s="36"/>
@@ -6404,7 +6409,7 @@
       <c r="T103" s="49"/>
       <c r="U103" s="49"/>
     </row>
-    <row r="104" spans="1:21" s="50" customFormat="1">
+    <row r="104" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A104" s="36"/>
       <c r="B104" s="36"/>
       <c r="C104" s="36"/>
@@ -6427,7 +6432,7 @@
       <c r="T104" s="49"/>
       <c r="U104" s="49"/>
     </row>
-    <row r="105" spans="1:21" s="50" customFormat="1">
+    <row r="105" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A105" s="36"/>
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
@@ -6450,7 +6455,7 @@
       <c r="T105" s="49"/>
       <c r="U105" s="49"/>
     </row>
-    <row r="106" spans="1:21" s="50" customFormat="1">
+    <row r="106" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A106" s="36"/>
       <c r="B106" s="36"/>
       <c r="C106" s="36"/>
@@ -6473,7 +6478,7 @@
       <c r="T106" s="49"/>
       <c r="U106" s="49"/>
     </row>
-    <row r="107" spans="1:21" s="50" customFormat="1">
+    <row r="107" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A107" s="36"/>
       <c r="B107" s="36"/>
       <c r="C107" s="36"/>
@@ -6496,7 +6501,7 @@
       <c r="T107" s="49"/>
       <c r="U107" s="49"/>
     </row>
-    <row r="108" spans="1:21" s="50" customFormat="1">
+    <row r="108" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A108" s="36"/>
       <c r="B108" s="36"/>
       <c r="C108" s="36"/>
@@ -6519,7 +6524,7 @@
       <c r="T108" s="49"/>
       <c r="U108" s="49"/>
     </row>
-    <row r="109" spans="1:21" s="50" customFormat="1">
+    <row r="109" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A109" s="36"/>
       <c r="B109" s="36"/>
       <c r="C109" s="36"/>
@@ -6542,7 +6547,7 @@
       <c r="T109" s="49"/>
       <c r="U109" s="49"/>
     </row>
-    <row r="110" spans="1:21" s="50" customFormat="1">
+    <row r="110" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A110" s="36"/>
       <c r="B110" s="36"/>
       <c r="C110" s="36"/>
@@ -6565,7 +6570,7 @@
       <c r="T110" s="49"/>
       <c r="U110" s="49"/>
     </row>
-    <row r="111" spans="1:21" s="50" customFormat="1">
+    <row r="111" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A111" s="36"/>
       <c r="B111" s="36"/>
       <c r="C111" s="36"/>
@@ -6588,7 +6593,7 @@
       <c r="T111" s="49"/>
       <c r="U111" s="49"/>
     </row>
-    <row r="112" spans="1:21" s="50" customFormat="1">
+    <row r="112" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A112" s="36"/>
       <c r="B112" s="36"/>
       <c r="C112" s="36"/>
@@ -6611,7 +6616,7 @@
       <c r="T112" s="49"/>
       <c r="U112" s="49"/>
     </row>
-    <row r="113" spans="1:21" s="50" customFormat="1">
+    <row r="113" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A113" s="36"/>
       <c r="B113" s="36"/>
       <c r="C113" s="36"/>
@@ -6634,7 +6639,7 @@
       <c r="T113" s="49"/>
       <c r="U113" s="49"/>
     </row>
-    <row r="114" spans="1:21" s="50" customFormat="1">
+    <row r="114" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A114" s="36"/>
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
@@ -6657,7 +6662,7 @@
       <c r="T114" s="49"/>
       <c r="U114" s="49"/>
     </row>
-    <row r="115" spans="1:21" s="50" customFormat="1">
+    <row r="115" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A115" s="36"/>
       <c r="B115" s="36"/>
       <c r="C115" s="36"/>
@@ -6680,7 +6685,7 @@
       <c r="T115" s="49"/>
       <c r="U115" s="49"/>
     </row>
-    <row r="116" spans="1:21" s="50" customFormat="1">
+    <row r="116" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A116" s="36"/>
       <c r="B116" s="36"/>
       <c r="C116" s="36"/>
@@ -6703,7 +6708,7 @@
       <c r="T116" s="49"/>
       <c r="U116" s="49"/>
     </row>
-    <row r="117" spans="1:21" s="50" customFormat="1">
+    <row r="117" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A117" s="36"/>
       <c r="B117" s="36"/>
       <c r="C117" s="36"/>
@@ -6726,7 +6731,7 @@
       <c r="T117" s="49"/>
       <c r="U117" s="49"/>
     </row>
-    <row r="118" spans="1:21" s="50" customFormat="1">
+    <row r="118" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A118" s="36"/>
       <c r="B118" s="36"/>
       <c r="C118" s="36"/>
@@ -6749,7 +6754,7 @@
       <c r="T118" s="49"/>
       <c r="U118" s="49"/>
     </row>
-    <row r="119" spans="1:21" s="50" customFormat="1">
+    <row r="119" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A119" s="36"/>
       <c r="B119" s="36"/>
       <c r="C119" s="36"/>
@@ -6772,7 +6777,7 @@
       <c r="T119" s="49"/>
       <c r="U119" s="49"/>
     </row>
-    <row r="120" spans="1:21" s="50" customFormat="1">
+    <row r="120" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A120" s="36"/>
       <c r="B120" s="36"/>
       <c r="C120" s="36"/>
@@ -6795,7 +6800,7 @@
       <c r="T120" s="49"/>
       <c r="U120" s="49"/>
     </row>
-    <row r="121" spans="1:21" s="50" customFormat="1">
+    <row r="121" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A121" s="36"/>
       <c r="B121" s="36"/>
       <c r="C121" s="36"/>
@@ -6818,7 +6823,7 @@
       <c r="T121" s="49"/>
       <c r="U121" s="49"/>
     </row>
-    <row r="122" spans="1:21" s="50" customFormat="1">
+    <row r="122" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A122" s="36"/>
       <c r="B122" s="36"/>
       <c r="C122" s="36"/>
@@ -6841,7 +6846,7 @@
       <c r="T122" s="49"/>
       <c r="U122" s="49"/>
     </row>
-    <row r="123" spans="1:21" s="50" customFormat="1">
+    <row r="123" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A123" s="36"/>
       <c r="B123" s="36"/>
       <c r="C123" s="36"/>
@@ -6864,7 +6869,7 @@
       <c r="T123" s="49"/>
       <c r="U123" s="49"/>
     </row>
-    <row r="124" spans="1:21" s="50" customFormat="1">
+    <row r="124" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A124" s="36"/>
       <c r="B124" s="36"/>
       <c r="C124" s="36"/>
@@ -6887,7 +6892,7 @@
       <c r="T124" s="49"/>
       <c r="U124" s="49"/>
     </row>
-    <row r="125" spans="1:21" s="50" customFormat="1">
+    <row r="125" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A125" s="36"/>
       <c r="B125" s="36"/>
       <c r="C125" s="36"/>
@@ -6910,7 +6915,7 @@
       <c r="T125" s="49"/>
       <c r="U125" s="49"/>
     </row>
-    <row r="126" spans="1:21" s="50" customFormat="1">
+    <row r="126" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A126" s="36"/>
       <c r="B126" s="36"/>
       <c r="C126" s="36"/>
@@ -6933,7 +6938,7 @@
       <c r="T126" s="49"/>
       <c r="U126" s="49"/>
     </row>
-    <row r="127" spans="1:21" s="50" customFormat="1">
+    <row r="127" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A127" s="36"/>
       <c r="B127" s="36"/>
       <c r="C127" s="36"/>
@@ -6956,7 +6961,7 @@
       <c r="T127" s="49"/>
       <c r="U127" s="49"/>
     </row>
-    <row r="128" spans="1:21" s="50" customFormat="1">
+    <row r="128" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A128" s="36"/>
       <c r="B128" s="36"/>
       <c r="C128" s="36"/>
@@ -6979,7 +6984,7 @@
       <c r="T128" s="49"/>
       <c r="U128" s="49"/>
     </row>
-    <row r="129" spans="1:21" s="50" customFormat="1">
+    <row r="129" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A129" s="36"/>
       <c r="B129" s="36"/>
       <c r="C129" s="36"/>
@@ -7002,7 +7007,7 @@
       <c r="T129" s="49"/>
       <c r="U129" s="49"/>
     </row>
-    <row r="130" spans="1:21" s="50" customFormat="1">
+    <row r="130" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A130" s="36"/>
       <c r="B130" s="36"/>
       <c r="C130" s="36"/>
@@ -7025,7 +7030,7 @@
       <c r="T130" s="49"/>
       <c r="U130" s="49"/>
     </row>
-    <row r="131" spans="1:21" s="50" customFormat="1">
+    <row r="131" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A131" s="36"/>
       <c r="B131" s="36"/>
       <c r="C131" s="36"/>
@@ -7048,7 +7053,7 @@
       <c r="T131" s="49"/>
       <c r="U131" s="49"/>
     </row>
-    <row r="132" spans="1:21" s="50" customFormat="1">
+    <row r="132" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A132" s="36"/>
       <c r="B132" s="36"/>
       <c r="C132" s="36"/>
@@ -7071,7 +7076,7 @@
       <c r="T132" s="49"/>
       <c r="U132" s="49"/>
     </row>
-    <row r="133" spans="1:21" s="50" customFormat="1">
+    <row r="133" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A133" s="36"/>
       <c r="B133" s="36"/>
       <c r="C133" s="36"/>
@@ -7094,7 +7099,7 @@
       <c r="T133" s="49"/>
       <c r="U133" s="49"/>
     </row>
-    <row r="134" spans="1:21" s="50" customFormat="1">
+    <row r="134" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A134" s="36"/>
       <c r="B134" s="36"/>
       <c r="C134" s="36"/>
@@ -7117,7 +7122,7 @@
       <c r="T134" s="49"/>
       <c r="U134" s="49"/>
     </row>
-    <row r="135" spans="1:21" s="50" customFormat="1">
+    <row r="135" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A135" s="36"/>
       <c r="B135" s="36"/>
       <c r="C135" s="36"/>
@@ -7140,7 +7145,7 @@
       <c r="T135" s="49"/>
       <c r="U135" s="49"/>
     </row>
-    <row r="136" spans="1:21" s="50" customFormat="1">
+    <row r="136" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A136" s="36"/>
       <c r="B136" s="36"/>
       <c r="C136" s="36"/>
@@ -7163,7 +7168,7 @@
       <c r="T136" s="49"/>
       <c r="U136" s="49"/>
     </row>
-    <row r="137" spans="1:21" s="50" customFormat="1">
+    <row r="137" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A137" s="36"/>
       <c r="B137" s="36"/>
       <c r="C137" s="36"/>
@@ -7186,7 +7191,7 @@
       <c r="T137" s="49"/>
       <c r="U137" s="49"/>
     </row>
-    <row r="138" spans="1:21" s="50" customFormat="1">
+    <row r="138" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A138" s="36"/>
       <c r="B138" s="36"/>
       <c r="C138" s="36"/>
@@ -7209,7 +7214,7 @@
       <c r="T138" s="49"/>
       <c r="U138" s="49"/>
     </row>
-    <row r="139" spans="1:21" s="50" customFormat="1">
+    <row r="139" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A139" s="36"/>
       <c r="B139" s="36"/>
       <c r="C139" s="36"/>
@@ -7232,7 +7237,7 @@
       <c r="T139" s="49"/>
       <c r="U139" s="49"/>
     </row>
-    <row r="140" spans="1:21" s="50" customFormat="1">
+    <row r="140" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A140" s="36"/>
       <c r="B140" s="36"/>
       <c r="C140" s="36"/>
@@ -7255,7 +7260,7 @@
       <c r="T140" s="49"/>
       <c r="U140" s="49"/>
     </row>
-    <row r="141" spans="1:21" s="50" customFormat="1">
+    <row r="141" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A141" s="36"/>
       <c r="B141" s="36"/>
       <c r="C141" s="36"/>
@@ -7278,7 +7283,7 @@
       <c r="T141" s="49"/>
       <c r="U141" s="49"/>
     </row>
-    <row r="142" spans="1:21" s="50" customFormat="1">
+    <row r="142" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A142" s="36"/>
       <c r="B142" s="36"/>
       <c r="C142" s="36"/>
@@ -7301,7 +7306,7 @@
       <c r="T142" s="49"/>
       <c r="U142" s="49"/>
     </row>
-    <row r="143" spans="1:21" s="50" customFormat="1">
+    <row r="143" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A143" s="36"/>
       <c r="B143" s="36"/>
       <c r="C143" s="36"/>
@@ -7324,7 +7329,7 @@
       <c r="T143" s="49"/>
       <c r="U143" s="49"/>
     </row>
-    <row r="144" spans="1:21" s="50" customFormat="1">
+    <row r="144" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A144" s="36"/>
       <c r="B144" s="36"/>
       <c r="C144" s="36"/>
@@ -7347,7 +7352,7 @@
       <c r="T144" s="49"/>
       <c r="U144" s="49"/>
     </row>
-    <row r="145" spans="1:21" s="50" customFormat="1">
+    <row r="145" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A145" s="36"/>
       <c r="B145" s="36"/>
       <c r="C145" s="36"/>
@@ -7370,7 +7375,7 @@
       <c r="T145" s="49"/>
       <c r="U145" s="49"/>
     </row>
-    <row r="146" spans="1:21" s="50" customFormat="1">
+    <row r="146" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A146" s="36"/>
       <c r="B146" s="36"/>
       <c r="C146" s="36"/>
@@ -7393,7 +7398,7 @@
       <c r="T146" s="49"/>
       <c r="U146" s="49"/>
     </row>
-    <row r="147" spans="1:21" s="50" customFormat="1">
+    <row r="147" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A147" s="36"/>
       <c r="B147" s="36"/>
       <c r="C147" s="36"/>
@@ -7416,7 +7421,7 @@
       <c r="T147" s="49"/>
       <c r="U147" s="49"/>
     </row>
-    <row r="148" spans="1:21" s="50" customFormat="1">
+    <row r="148" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A148" s="36"/>
       <c r="B148" s="36"/>
       <c r="C148" s="36"/>
@@ -7439,7 +7444,7 @@
       <c r="T148" s="49"/>
       <c r="U148" s="49"/>
     </row>
-    <row r="149" spans="1:21" s="50" customFormat="1">
+    <row r="149" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A149" s="36"/>
       <c r="B149" s="36"/>
       <c r="C149" s="36"/>
@@ -7462,7 +7467,7 @@
       <c r="T149" s="49"/>
       <c r="U149" s="49"/>
     </row>
-    <row r="150" spans="1:21" s="50" customFormat="1">
+    <row r="150" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A150" s="36"/>
       <c r="B150" s="36"/>
       <c r="C150" s="36"/>
@@ -7485,7 +7490,7 @@
       <c r="T150" s="49"/>
       <c r="U150" s="49"/>
     </row>
-    <row r="151" spans="1:21" s="50" customFormat="1">
+    <row r="151" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A151" s="36"/>
       <c r="B151" s="36"/>
       <c r="C151" s="36"/>
@@ -7508,7 +7513,7 @@
       <c r="T151" s="49"/>
       <c r="U151" s="49"/>
     </row>
-    <row r="152" spans="1:21" s="50" customFormat="1">
+    <row r="152" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A152" s="36"/>
       <c r="B152" s="36"/>
       <c r="C152" s="36"/>
@@ -7531,7 +7536,7 @@
       <c r="T152" s="49"/>
       <c r="U152" s="49"/>
     </row>
-    <row r="153" spans="1:21" s="50" customFormat="1">
+    <row r="153" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A153" s="36"/>
       <c r="B153" s="36"/>
       <c r="C153" s="36"/>
@@ -7554,7 +7559,7 @@
       <c r="T153" s="49"/>
       <c r="U153" s="49"/>
     </row>
-    <row r="154" spans="1:21" s="50" customFormat="1">
+    <row r="154" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A154" s="36"/>
       <c r="B154" s="36"/>
       <c r="C154" s="36"/>
@@ -7577,7 +7582,7 @@
       <c r="T154" s="49"/>
       <c r="U154" s="49"/>
     </row>
-    <row r="155" spans="1:21" s="50" customFormat="1">
+    <row r="155" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A155" s="36"/>
       <c r="B155" s="36"/>
       <c r="C155" s="36"/>
@@ -7600,7 +7605,7 @@
       <c r="T155" s="49"/>
       <c r="U155" s="49"/>
     </row>
-    <row r="156" spans="1:21" s="50" customFormat="1">
+    <row r="156" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A156" s="36"/>
       <c r="B156" s="36"/>
       <c r="C156" s="36"/>
@@ -7623,7 +7628,7 @@
       <c r="T156" s="49"/>
       <c r="U156" s="49"/>
     </row>
-    <row r="157" spans="1:21" s="50" customFormat="1">
+    <row r="157" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A157" s="36"/>
       <c r="B157" s="36"/>
       <c r="C157" s="36"/>
@@ -7646,7 +7651,7 @@
       <c r="T157" s="49"/>
       <c r="U157" s="49"/>
     </row>
-    <row r="158" spans="1:21" s="50" customFormat="1">
+    <row r="158" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A158" s="36"/>
       <c r="B158" s="36"/>
       <c r="C158" s="36"/>
@@ -7669,7 +7674,7 @@
       <c r="T158" s="49"/>
       <c r="U158" s="49"/>
     </row>
-    <row r="159" spans="1:21" s="50" customFormat="1">
+    <row r="159" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A159" s="36"/>
       <c r="B159" s="36"/>
       <c r="C159" s="36"/>
@@ -7692,7 +7697,7 @@
       <c r="T159" s="49"/>
       <c r="U159" s="49"/>
     </row>
-    <row r="160" spans="1:21" s="50" customFormat="1">
+    <row r="160" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A160" s="36"/>
       <c r="B160" s="36"/>
       <c r="C160" s="36"/>
@@ -7715,7 +7720,7 @@
       <c r="T160" s="49"/>
       <c r="U160" s="49"/>
     </row>
-    <row r="161" spans="1:21" s="50" customFormat="1">
+    <row r="161" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A161" s="36"/>
       <c r="B161" s="36"/>
       <c r="C161" s="36"/>
@@ -7738,7 +7743,7 @@
       <c r="T161" s="49"/>
       <c r="U161" s="49"/>
     </row>
-    <row r="162" spans="1:21" s="50" customFormat="1">
+    <row r="162" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A162" s="36"/>
       <c r="B162" s="36"/>
       <c r="C162" s="36"/>
@@ -7761,7 +7766,7 @@
       <c r="T162" s="49"/>
       <c r="U162" s="49"/>
     </row>
-    <row r="163" spans="1:21" s="50" customFormat="1">
+    <row r="163" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A163" s="36"/>
       <c r="B163" s="36"/>
       <c r="C163" s="36"/>
@@ -7784,7 +7789,7 @@
       <c r="T163" s="49"/>
       <c r="U163" s="49"/>
     </row>
-    <row r="164" spans="1:21" s="50" customFormat="1">
+    <row r="164" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A164" s="36"/>
       <c r="B164" s="36"/>
       <c r="C164" s="36"/>
@@ -7807,7 +7812,7 @@
       <c r="T164" s="49"/>
       <c r="U164" s="49"/>
     </row>
-    <row r="165" spans="1:21" s="50" customFormat="1">
+    <row r="165" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A165" s="36"/>
       <c r="B165" s="36"/>
       <c r="C165" s="36"/>
@@ -7830,7 +7835,7 @@
       <c r="T165" s="49"/>
       <c r="U165" s="49"/>
     </row>
-    <row r="166" spans="1:21" s="50" customFormat="1">
+    <row r="166" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A166" s="36"/>
       <c r="B166" s="36"/>
       <c r="C166" s="36"/>
@@ -7853,7 +7858,7 @@
       <c r="T166" s="49"/>
       <c r="U166" s="49"/>
     </row>
-    <row r="167" spans="1:21" s="50" customFormat="1">
+    <row r="167" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A167" s="36"/>
       <c r="B167" s="36"/>
       <c r="C167" s="36"/>
@@ -7876,7 +7881,7 @@
       <c r="T167" s="49"/>
       <c r="U167" s="49"/>
     </row>
-    <row r="168" spans="1:21" s="50" customFormat="1">
+    <row r="168" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A168" s="36"/>
       <c r="B168" s="36"/>
       <c r="C168" s="36"/>
@@ -7899,7 +7904,7 @@
       <c r="T168" s="49"/>
       <c r="U168" s="49"/>
     </row>
-    <row r="169" spans="1:21" s="50" customFormat="1">
+    <row r="169" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A169" s="36"/>
       <c r="B169" s="36"/>
       <c r="C169" s="36"/>
@@ -7922,7 +7927,7 @@
       <c r="T169" s="49"/>
       <c r="U169" s="49"/>
     </row>
-    <row r="170" spans="1:21" s="50" customFormat="1">
+    <row r="170" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A170" s="36"/>
       <c r="B170" s="36"/>
       <c r="C170" s="36"/>
@@ -7945,7 +7950,7 @@
       <c r="T170" s="49"/>
       <c r="U170" s="49"/>
     </row>
-    <row r="171" spans="1:21" s="50" customFormat="1">
+    <row r="171" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A171" s="36"/>
       <c r="B171" s="36"/>
       <c r="C171" s="36"/>
@@ -7968,7 +7973,7 @@
       <c r="T171" s="49"/>
       <c r="U171" s="49"/>
     </row>
-    <row r="172" spans="1:21" s="50" customFormat="1">
+    <row r="172" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A172" s="36"/>
       <c r="B172" s="36"/>
       <c r="C172" s="36"/>
@@ -7991,7 +7996,7 @@
       <c r="T172" s="49"/>
       <c r="U172" s="49"/>
     </row>
-    <row r="173" spans="1:21" s="50" customFormat="1">
+    <row r="173" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A173" s="36"/>
       <c r="B173" s="36"/>
       <c r="C173" s="36"/>
@@ -8014,7 +8019,7 @@
       <c r="T173" s="49"/>
       <c r="U173" s="49"/>
     </row>
-    <row r="174" spans="1:21" s="50" customFormat="1">
+    <row r="174" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A174" s="36"/>
       <c r="B174" s="36"/>
       <c r="C174" s="36"/>
@@ -8037,7 +8042,7 @@
       <c r="T174" s="49"/>
       <c r="U174" s="49"/>
     </row>
-    <row r="175" spans="1:21" s="50" customFormat="1">
+    <row r="175" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A175" s="36"/>
       <c r="B175" s="36"/>
       <c r="C175" s="36"/>
@@ -8060,7 +8065,7 @@
       <c r="T175" s="49"/>
       <c r="U175" s="49"/>
     </row>
-    <row r="176" spans="1:21" s="50" customFormat="1">
+    <row r="176" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A176" s="36"/>
       <c r="B176" s="36"/>
       <c r="C176" s="36"/>
@@ -8083,7 +8088,7 @@
       <c r="T176" s="49"/>
       <c r="U176" s="49"/>
     </row>
-    <row r="177" spans="1:21" s="50" customFormat="1">
+    <row r="177" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A177" s="36"/>
       <c r="B177" s="36"/>
       <c r="C177" s="36"/>
@@ -8106,7 +8111,7 @@
       <c r="T177" s="49"/>
       <c r="U177" s="49"/>
     </row>
-    <row r="178" spans="1:21" s="50" customFormat="1">
+    <row r="178" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A178" s="36"/>
       <c r="B178" s="36"/>
       <c r="C178" s="36"/>
@@ -8129,7 +8134,7 @@
       <c r="T178" s="49"/>
       <c r="U178" s="49"/>
     </row>
-    <row r="179" spans="1:21" s="50" customFormat="1">
+    <row r="179" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A179" s="36"/>
       <c r="B179" s="36"/>
       <c r="C179" s="36"/>
@@ -8152,7 +8157,7 @@
       <c r="T179" s="49"/>
       <c r="U179" s="49"/>
     </row>
-    <row r="180" spans="1:21" s="50" customFormat="1">
+    <row r="180" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A180" s="36"/>
       <c r="B180" s="36"/>
       <c r="C180" s="36"/>
@@ -8175,7 +8180,7 @@
       <c r="T180" s="49"/>
       <c r="U180" s="49"/>
     </row>
-    <row r="181" spans="1:21" s="50" customFormat="1">
+    <row r="181" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A181" s="36"/>
       <c r="B181" s="36"/>
       <c r="C181" s="36"/>
@@ -8198,7 +8203,7 @@
       <c r="T181" s="49"/>
       <c r="U181" s="49"/>
     </row>
-    <row r="182" spans="1:21" s="50" customFormat="1">
+    <row r="182" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A182" s="36"/>
       <c r="B182" s="36"/>
       <c r="C182" s="36"/>
@@ -8221,7 +8226,7 @@
       <c r="T182" s="49"/>
       <c r="U182" s="49"/>
     </row>
-    <row r="183" spans="1:21" s="50" customFormat="1">
+    <row r="183" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A183" s="36"/>
       <c r="B183" s="36"/>
       <c r="C183" s="36"/>
@@ -8244,7 +8249,7 @@
       <c r="T183" s="49"/>
       <c r="U183" s="49"/>
     </row>
-    <row r="184" spans="1:21" s="50" customFormat="1">
+    <row r="184" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A184" s="36"/>
       <c r="B184" s="36"/>
       <c r="C184" s="36"/>
@@ -8267,7 +8272,7 @@
       <c r="T184" s="49"/>
       <c r="U184" s="49"/>
     </row>
-    <row r="185" spans="1:21" s="50" customFormat="1">
+    <row r="185" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A185" s="36"/>
       <c r="B185" s="36"/>
       <c r="C185" s="36"/>
@@ -8290,7 +8295,7 @@
       <c r="T185" s="49"/>
       <c r="U185" s="49"/>
     </row>
-    <row r="186" spans="1:21" s="50" customFormat="1">
+    <row r="186" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A186" s="36"/>
       <c r="B186" s="36"/>
       <c r="C186" s="36"/>
@@ -8313,7 +8318,7 @@
       <c r="T186" s="49"/>
       <c r="U186" s="49"/>
     </row>
-    <row r="187" spans="1:21" s="50" customFormat="1">
+    <row r="187" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A187" s="36"/>
       <c r="B187" s="36"/>
       <c r="C187" s="36"/>
@@ -8336,7 +8341,7 @@
       <c r="T187" s="49"/>
       <c r="U187" s="49"/>
     </row>
-    <row r="188" spans="1:21" s="50" customFormat="1">
+    <row r="188" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A188" s="36"/>
       <c r="B188" s="36"/>
       <c r="C188" s="36"/>
@@ -8359,7 +8364,7 @@
       <c r="T188" s="49"/>
       <c r="U188" s="49"/>
     </row>
-    <row r="189" spans="1:21" s="50" customFormat="1">
+    <row r="189" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A189" s="36"/>
       <c r="B189" s="36"/>
       <c r="C189" s="36"/>
@@ -8382,7 +8387,7 @@
       <c r="T189" s="49"/>
       <c r="U189" s="49"/>
     </row>
-    <row r="190" spans="1:21" s="50" customFormat="1">
+    <row r="190" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A190" s="36"/>
       <c r="B190" s="36"/>
       <c r="C190" s="36"/>
@@ -8405,7 +8410,7 @@
       <c r="T190" s="49"/>
       <c r="U190" s="49"/>
     </row>
-    <row r="191" spans="1:21" s="50" customFormat="1">
+    <row r="191" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A191" s="36"/>
       <c r="B191" s="36"/>
       <c r="C191" s="36"/>
@@ -8428,7 +8433,7 @@
       <c r="T191" s="49"/>
       <c r="U191" s="49"/>
     </row>
-    <row r="192" spans="1:21" s="50" customFormat="1">
+    <row r="192" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A192" s="36"/>
       <c r="B192" s="36"/>
       <c r="C192" s="36"/>
@@ -8451,7 +8456,7 @@
       <c r="T192" s="49"/>
       <c r="U192" s="49"/>
     </row>
-    <row r="193" spans="1:21" s="50" customFormat="1">
+    <row r="193" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A193" s="36"/>
       <c r="B193" s="36"/>
       <c r="C193" s="36"/>
@@ -8474,7 +8479,7 @@
       <c r="T193" s="49"/>
       <c r="U193" s="49"/>
     </row>
-    <row r="194" spans="1:21" s="50" customFormat="1">
+    <row r="194" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A194" s="36"/>
       <c r="B194" s="36"/>
       <c r="C194" s="36"/>
@@ -8497,7 +8502,7 @@
       <c r="T194" s="49"/>
       <c r="U194" s="49"/>
     </row>
-    <row r="195" spans="1:21" s="50" customFormat="1">
+    <row r="195" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A195" s="36"/>
       <c r="B195" s="36"/>
       <c r="C195" s="36"/>
@@ -8520,7 +8525,7 @@
       <c r="T195" s="49"/>
       <c r="U195" s="49"/>
     </row>
-    <row r="196" spans="1:21" s="50" customFormat="1">
+    <row r="196" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A196" s="36"/>
       <c r="B196" s="36"/>
       <c r="C196" s="36"/>
@@ -8543,7 +8548,7 @@
       <c r="T196" s="49"/>
       <c r="U196" s="49"/>
     </row>
-    <row r="197" spans="1:21" s="50" customFormat="1">
+    <row r="197" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A197" s="36"/>
       <c r="B197" s="36"/>
       <c r="C197" s="36"/>
@@ -8566,7 +8571,7 @@
       <c r="T197" s="49"/>
       <c r="U197" s="49"/>
     </row>
-    <row r="198" spans="1:21" s="50" customFormat="1">
+    <row r="198" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A198" s="36"/>
       <c r="B198" s="36"/>
       <c r="C198" s="36"/>
@@ -8589,7 +8594,7 @@
       <c r="T198" s="49"/>
       <c r="U198" s="49"/>
     </row>
-    <row r="199" spans="1:21" s="50" customFormat="1">
+    <row r="199" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A199" s="36"/>
       <c r="B199" s="36"/>
       <c r="C199" s="36"/>
@@ -8612,7 +8617,7 @@
       <c r="T199" s="49"/>
       <c r="U199" s="49"/>
     </row>
-    <row r="200" spans="1:21" s="50" customFormat="1">
+    <row r="200" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A200" s="36"/>
       <c r="B200" s="36"/>
       <c r="C200" s="36"/>
@@ -8635,7 +8640,7 @@
       <c r="T200" s="49"/>
       <c r="U200" s="49"/>
     </row>
-    <row r="201" spans="1:21" s="50" customFormat="1">
+    <row r="201" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A201" s="36"/>
       <c r="B201" s="36"/>
       <c r="C201" s="36"/>
@@ -8658,7 +8663,7 @@
       <c r="T201" s="49"/>
       <c r="U201" s="49"/>
     </row>
-    <row r="202" spans="1:21" s="50" customFormat="1">
+    <row r="202" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A202" s="36"/>
       <c r="B202" s="36"/>
       <c r="C202" s="36"/>
@@ -8681,7 +8686,7 @@
       <c r="T202" s="49"/>
       <c r="U202" s="49"/>
     </row>
-    <row r="203" spans="1:21" s="50" customFormat="1">
+    <row r="203" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A203" s="36"/>
       <c r="B203" s="36"/>
       <c r="C203" s="36"/>
@@ -8704,7 +8709,7 @@
       <c r="T203" s="49"/>
       <c r="U203" s="49"/>
     </row>
-    <row r="204" spans="1:21" s="50" customFormat="1">
+    <row r="204" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A204" s="36"/>
       <c r="B204" s="36"/>
       <c r="C204" s="36"/>
@@ -8727,7 +8732,7 @@
       <c r="T204" s="49"/>
       <c r="U204" s="49"/>
     </row>
-    <row r="205" spans="1:21" s="50" customFormat="1">
+    <row r="205" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A205" s="36"/>
       <c r="B205" s="36"/>
       <c r="C205" s="36"/>
@@ -8750,7 +8755,7 @@
       <c r="T205" s="49"/>
       <c r="U205" s="49"/>
     </row>
-    <row r="206" spans="1:21" s="50" customFormat="1">
+    <row r="206" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A206" s="36"/>
       <c r="B206" s="36"/>
       <c r="C206" s="36"/>
@@ -8773,7 +8778,7 @@
       <c r="T206" s="49"/>
       <c r="U206" s="49"/>
     </row>
-    <row r="207" spans="1:21" s="50" customFormat="1">
+    <row r="207" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A207" s="36"/>
       <c r="B207" s="36"/>
       <c r="C207" s="36"/>
@@ -8796,7 +8801,7 @@
       <c r="T207" s="49"/>
       <c r="U207" s="49"/>
     </row>
-    <row r="208" spans="1:21" s="50" customFormat="1">
+    <row r="208" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A208" s="36"/>
       <c r="B208" s="36"/>
       <c r="C208" s="36"/>
@@ -8819,7 +8824,7 @@
       <c r="T208" s="49"/>
       <c r="U208" s="49"/>
     </row>
-    <row r="209" spans="1:21" s="50" customFormat="1">
+    <row r="209" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A209" s="36"/>
       <c r="B209" s="36"/>
       <c r="C209" s="36"/>
@@ -8842,7 +8847,7 @@
       <c r="T209" s="49"/>
       <c r="U209" s="49"/>
     </row>
-    <row r="210" spans="1:21" s="50" customFormat="1">
+    <row r="210" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A210" s="36"/>
       <c r="B210" s="36"/>
       <c r="C210" s="36"/>
@@ -8865,7 +8870,7 @@
       <c r="T210" s="49"/>
       <c r="U210" s="49"/>
     </row>
-    <row r="211" spans="1:21" s="50" customFormat="1">
+    <row r="211" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A211" s="36"/>
       <c r="B211" s="36"/>
       <c r="C211" s="36"/>
@@ -8888,7 +8893,7 @@
       <c r="T211" s="49"/>
       <c r="U211" s="49"/>
     </row>
-    <row r="212" spans="1:21" s="50" customFormat="1">
+    <row r="212" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A212" s="36"/>
       <c r="B212" s="36"/>
       <c r="C212" s="36"/>
@@ -8911,7 +8916,7 @@
       <c r="T212" s="49"/>
       <c r="U212" s="49"/>
     </row>
-    <row r="213" spans="1:21" s="50" customFormat="1">
+    <row r="213" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A213" s="36"/>
       <c r="B213" s="36"/>
       <c r="C213" s="36"/>
@@ -8934,7 +8939,7 @@
       <c r="T213" s="49"/>
       <c r="U213" s="49"/>
     </row>
-    <row r="214" spans="1:21" s="50" customFormat="1">
+    <row r="214" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A214" s="36"/>
       <c r="B214" s="36"/>
       <c r="C214" s="36"/>
@@ -8957,7 +8962,7 @@
       <c r="T214" s="49"/>
       <c r="U214" s="49"/>
     </row>
-    <row r="215" spans="1:21" s="50" customFormat="1">
+    <row r="215" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A215" s="36"/>
       <c r="B215" s="36"/>
       <c r="C215" s="36"/>
@@ -8980,7 +8985,7 @@
       <c r="T215" s="49"/>
       <c r="U215" s="49"/>
     </row>
-    <row r="216" spans="1:21" s="50" customFormat="1">
+    <row r="216" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A216" s="36"/>
       <c r="B216" s="36"/>
       <c r="C216" s="36"/>
@@ -9003,7 +9008,7 @@
       <c r="T216" s="49"/>
       <c r="U216" s="49"/>
     </row>
-    <row r="217" spans="1:21" s="50" customFormat="1">
+    <row r="217" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A217" s="36"/>
       <c r="B217" s="36"/>
       <c r="C217" s="36"/>
@@ -9026,7 +9031,7 @@
       <c r="T217" s="49"/>
       <c r="U217" s="49"/>
     </row>
-    <row r="218" spans="1:21" s="50" customFormat="1">
+    <row r="218" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A218" s="36"/>
       <c r="B218" s="36"/>
       <c r="C218" s="36"/>
@@ -9049,7 +9054,7 @@
       <c r="T218" s="49"/>
       <c r="U218" s="49"/>
     </row>
-    <row r="219" spans="1:21" s="50" customFormat="1">
+    <row r="219" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A219" s="36"/>
       <c r="B219" s="36"/>
       <c r="C219" s="36"/>
@@ -9072,7 +9077,7 @@
       <c r="T219" s="49"/>
       <c r="U219" s="49"/>
     </row>
-    <row r="220" spans="1:21" s="50" customFormat="1">
+    <row r="220" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A220" s="36"/>
       <c r="B220" s="36"/>
       <c r="C220" s="36"/>
@@ -9095,7 +9100,7 @@
       <c r="T220" s="49"/>
       <c r="U220" s="49"/>
     </row>
-    <row r="221" spans="1:21" s="50" customFormat="1">
+    <row r="221" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A221" s="36"/>
       <c r="B221" s="36"/>
       <c r="C221" s="36"/>
@@ -9118,7 +9123,7 @@
       <c r="T221" s="49"/>
       <c r="U221" s="49"/>
     </row>
-    <row r="222" spans="1:21" s="50" customFormat="1">
+    <row r="222" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A222" s="36"/>
       <c r="B222" s="36"/>
       <c r="C222" s="36"/>
@@ -9141,7 +9146,7 @@
       <c r="T222" s="49"/>
       <c r="U222" s="49"/>
     </row>
-    <row r="223" spans="1:21" s="50" customFormat="1">
+    <row r="223" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A223" s="36"/>
       <c r="B223" s="36"/>
       <c r="C223" s="36"/>
@@ -9164,7 +9169,7 @@
       <c r="T223" s="49"/>
       <c r="U223" s="49"/>
     </row>
-    <row r="224" spans="1:21" s="50" customFormat="1">
+    <row r="224" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A224" s="36"/>
       <c r="B224" s="36"/>
       <c r="C224" s="36"/>
@@ -9187,7 +9192,7 @@
       <c r="T224" s="49"/>
       <c r="U224" s="49"/>
     </row>
-    <row r="225" spans="1:21" s="50" customFormat="1">
+    <row r="225" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A225" s="36"/>
       <c r="B225" s="36"/>
       <c r="C225" s="36"/>
@@ -9210,7 +9215,7 @@
       <c r="T225" s="49"/>
       <c r="U225" s="49"/>
     </row>
-    <row r="226" spans="1:21" s="50" customFormat="1">
+    <row r="226" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A226" s="36"/>
       <c r="B226" s="36"/>
       <c r="C226" s="36"/>
@@ -9233,7 +9238,7 @@
       <c r="T226" s="49"/>
       <c r="U226" s="49"/>
     </row>
-    <row r="227" spans="1:21" s="50" customFormat="1">
+    <row r="227" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A227" s="36"/>
       <c r="B227" s="36"/>
       <c r="C227" s="36"/>
@@ -9256,7 +9261,7 @@
       <c r="T227" s="49"/>
       <c r="U227" s="49"/>
     </row>
-    <row r="228" spans="1:21" s="50" customFormat="1">
+    <row r="228" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A228" s="36"/>
       <c r="B228" s="36"/>
       <c r="C228" s="36"/>
@@ -9279,7 +9284,7 @@
       <c r="T228" s="49"/>
       <c r="U228" s="49"/>
     </row>
-    <row r="229" spans="1:21" s="50" customFormat="1">
+    <row r="229" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A229" s="36"/>
       <c r="B229" s="36"/>
       <c r="C229" s="36"/>
@@ -9302,7 +9307,7 @@
       <c r="T229" s="49"/>
       <c r="U229" s="49"/>
     </row>
-    <row r="230" spans="1:21" s="50" customFormat="1">
+    <row r="230" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A230" s="36"/>
       <c r="B230" s="36"/>
       <c r="C230" s="36"/>
@@ -9325,7 +9330,7 @@
       <c r="T230" s="49"/>
       <c r="U230" s="49"/>
     </row>
-    <row r="231" spans="1:21" s="50" customFormat="1">
+    <row r="231" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A231" s="36"/>
       <c r="B231" s="36"/>
       <c r="C231" s="36"/>
@@ -9348,7 +9353,7 @@
       <c r="T231" s="49"/>
       <c r="U231" s="49"/>
     </row>
-    <row r="232" spans="1:21" s="50" customFormat="1">
+    <row r="232" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A232" s="36"/>
       <c r="B232" s="36"/>
       <c r="C232" s="36"/>
@@ -9371,7 +9376,7 @@
       <c r="T232" s="49"/>
       <c r="U232" s="49"/>
     </row>
-    <row r="233" spans="1:21" s="50" customFormat="1">
+    <row r="233" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A233" s="36"/>
       <c r="B233" s="36"/>
       <c r="C233" s="36"/>
@@ -9394,7 +9399,7 @@
       <c r="T233" s="49"/>
       <c r="U233" s="49"/>
     </row>
-    <row r="234" spans="1:21" s="50" customFormat="1">
+    <row r="234" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A234" s="36"/>
       <c r="B234" s="36"/>
       <c r="C234" s="36"/>
@@ -9417,7 +9422,7 @@
       <c r="T234" s="49"/>
       <c r="U234" s="49"/>
     </row>
-    <row r="235" spans="1:21" s="50" customFormat="1">
+    <row r="235" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A235" s="36"/>
       <c r="B235" s="36"/>
       <c r="C235" s="36"/>
@@ -9440,7 +9445,7 @@
       <c r="T235" s="49"/>
       <c r="U235" s="49"/>
     </row>
-    <row r="236" spans="1:21" s="50" customFormat="1">
+    <row r="236" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A236" s="36"/>
       <c r="B236" s="36"/>
       <c r="C236" s="36"/>
@@ -9463,7 +9468,7 @@
       <c r="T236" s="49"/>
       <c r="U236" s="49"/>
     </row>
-    <row r="237" spans="1:21" s="50" customFormat="1">
+    <row r="237" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A237" s="36"/>
       <c r="B237" s="36"/>
       <c r="C237" s="36"/>
@@ -9486,7 +9491,7 @@
       <c r="T237" s="49"/>
       <c r="U237" s="49"/>
     </row>
-    <row r="238" spans="1:21" s="50" customFormat="1">
+    <row r="238" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A238" s="36"/>
       <c r="B238" s="36"/>
       <c r="C238" s="36"/>
@@ -9509,7 +9514,7 @@
       <c r="T238" s="49"/>
       <c r="U238" s="49"/>
     </row>
-    <row r="239" spans="1:21" s="50" customFormat="1">
+    <row r="239" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A239" s="36"/>
       <c r="B239" s="36"/>
       <c r="C239" s="36"/>
@@ -9532,7 +9537,7 @@
       <c r="T239" s="49"/>
       <c r="U239" s="49"/>
     </row>
-    <row r="240" spans="1:21" s="50" customFormat="1">
+    <row r="240" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A240" s="36"/>
       <c r="B240" s="36"/>
       <c r="C240" s="36"/>
@@ -9555,7 +9560,7 @@
       <c r="T240" s="49"/>
       <c r="U240" s="49"/>
     </row>
-    <row r="241" spans="1:21" s="50" customFormat="1">
+    <row r="241" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A241" s="36"/>
       <c r="B241" s="36"/>
       <c r="C241" s="36"/>
@@ -9578,7 +9583,7 @@
       <c r="T241" s="49"/>
       <c r="U241" s="49"/>
     </row>
-    <row r="242" spans="1:21" s="50" customFormat="1">
+    <row r="242" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A242" s="36"/>
       <c r="B242" s="36"/>
       <c r="C242" s="36"/>
@@ -9601,7 +9606,7 @@
       <c r="T242" s="49"/>
       <c r="U242" s="49"/>
     </row>
-    <row r="243" spans="1:21" s="50" customFormat="1">
+    <row r="243" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A243" s="36"/>
       <c r="B243" s="36"/>
       <c r="C243" s="36"/>
@@ -9624,7 +9629,7 @@
       <c r="T243" s="49"/>
       <c r="U243" s="49"/>
     </row>
-    <row r="244" spans="1:21" s="50" customFormat="1">
+    <row r="244" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A244" s="36"/>
       <c r="B244" s="36"/>
       <c r="C244" s="36"/>
@@ -9647,7 +9652,7 @@
       <c r="T244" s="49"/>
       <c r="U244" s="49"/>
     </row>
-    <row r="245" spans="1:21" s="50" customFormat="1">
+    <row r="245" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A245" s="36"/>
       <c r="B245" s="36"/>
       <c r="C245" s="36"/>
@@ -9670,7 +9675,7 @@
       <c r="T245" s="49"/>
       <c r="U245" s="49"/>
     </row>
-    <row r="246" spans="1:21" s="50" customFormat="1">
+    <row r="246" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A246" s="36"/>
       <c r="B246" s="36"/>
       <c r="C246" s="36"/>
@@ -9693,7 +9698,7 @@
       <c r="T246" s="49"/>
       <c r="U246" s="49"/>
     </row>
-    <row r="247" spans="1:21" s="50" customFormat="1">
+    <row r="247" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A247" s="36"/>
       <c r="B247" s="36"/>
       <c r="C247" s="36"/>
@@ -9716,7 +9721,7 @@
       <c r="T247" s="49"/>
       <c r="U247" s="49"/>
     </row>
-    <row r="248" spans="1:21" s="50" customFormat="1">
+    <row r="248" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A248" s="36"/>
       <c r="B248" s="36"/>
       <c r="C248" s="36"/>
@@ -9739,7 +9744,7 @@
       <c r="T248" s="49"/>
       <c r="U248" s="49"/>
     </row>
-    <row r="249" spans="1:21" s="50" customFormat="1">
+    <row r="249" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A249" s="36"/>
       <c r="B249" s="36"/>
       <c r="C249" s="36"/>
@@ -9762,7 +9767,7 @@
       <c r="T249" s="49"/>
       <c r="U249" s="49"/>
     </row>
-    <row r="250" spans="1:21" s="50" customFormat="1">
+    <row r="250" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A250" s="36"/>
       <c r="B250" s="36"/>
       <c r="C250" s="36"/>
@@ -9785,7 +9790,7 @@
       <c r="T250" s="49"/>
       <c r="U250" s="49"/>
     </row>
-    <row r="251" spans="1:21" s="50" customFormat="1">
+    <row r="251" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A251" s="36"/>
       <c r="B251" s="36"/>
       <c r="C251" s="36"/>
@@ -9808,7 +9813,7 @@
       <c r="T251" s="49"/>
       <c r="U251" s="49"/>
     </row>
-    <row r="252" spans="1:21" s="50" customFormat="1">
+    <row r="252" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A252" s="36"/>
       <c r="B252" s="36"/>
       <c r="C252" s="36"/>
@@ -9831,7 +9836,7 @@
       <c r="T252" s="49"/>
       <c r="U252" s="49"/>
     </row>
-    <row r="253" spans="1:21" s="50" customFormat="1">
+    <row r="253" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A253" s="36"/>
       <c r="B253" s="36"/>
       <c r="C253" s="36"/>
@@ -9854,7 +9859,7 @@
       <c r="T253" s="49"/>
       <c r="U253" s="49"/>
     </row>
-    <row r="254" spans="1:21" s="50" customFormat="1">
+    <row r="254" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A254" s="36"/>
       <c r="B254" s="36"/>
       <c r="C254" s="36"/>
@@ -9877,7 +9882,7 @@
       <c r="T254" s="49"/>
       <c r="U254" s="49"/>
     </row>
-    <row r="255" spans="1:21" s="50" customFormat="1">
+    <row r="255" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A255" s="36"/>
       <c r="B255" s="36"/>
       <c r="C255" s="36"/>
@@ -9900,7 +9905,7 @@
       <c r="T255" s="49"/>
       <c r="U255" s="49"/>
     </row>
-    <row r="256" spans="1:21" s="50" customFormat="1">
+    <row r="256" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A256" s="36"/>
       <c r="B256" s="36"/>
       <c r="C256" s="36"/>
@@ -9923,7 +9928,7 @@
       <c r="T256" s="49"/>
       <c r="U256" s="49"/>
     </row>
-    <row r="257" spans="1:21" s="50" customFormat="1">
+    <row r="257" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A257" s="36"/>
       <c r="B257" s="36"/>
       <c r="C257" s="36"/>
@@ -9946,7 +9951,7 @@
       <c r="T257" s="49"/>
       <c r="U257" s="49"/>
     </row>
-    <row r="258" spans="1:21" s="50" customFormat="1">
+    <row r="258" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A258" s="36"/>
       <c r="B258" s="36"/>
       <c r="C258" s="36"/>
@@ -9969,7 +9974,7 @@
       <c r="T258" s="49"/>
       <c r="U258" s="49"/>
     </row>
-    <row r="259" spans="1:21" s="50" customFormat="1">
+    <row r="259" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A259" s="36"/>
       <c r="B259" s="36"/>
       <c r="C259" s="36"/>
@@ -9992,7 +9997,7 @@
       <c r="T259" s="49"/>
       <c r="U259" s="49"/>
     </row>
-    <row r="260" spans="1:21" s="50" customFormat="1">
+    <row r="260" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A260" s="36"/>
       <c r="B260" s="36"/>
       <c r="C260" s="36"/>
@@ -10015,7 +10020,7 @@
       <c r="T260" s="49"/>
       <c r="U260" s="49"/>
     </row>
-    <row r="261" spans="1:21" s="50" customFormat="1">
+    <row r="261" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A261" s="36"/>
       <c r="B261" s="36"/>
       <c r="C261" s="36"/>
@@ -10038,7 +10043,7 @@
       <c r="T261" s="49"/>
       <c r="U261" s="49"/>
     </row>
-    <row r="262" spans="1:21" s="50" customFormat="1">
+    <row r="262" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A262" s="36"/>
       <c r="B262" s="36"/>
       <c r="C262" s="36"/>
@@ -10061,7 +10066,7 @@
       <c r="T262" s="49"/>
       <c r="U262" s="49"/>
     </row>
-    <row r="263" spans="1:21" s="50" customFormat="1">
+    <row r="263" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A263" s="36"/>
       <c r="B263" s="36"/>
       <c r="C263" s="36"/>
@@ -10084,7 +10089,7 @@
       <c r="T263" s="49"/>
       <c r="U263" s="49"/>
     </row>
-    <row r="264" spans="1:21" s="50" customFormat="1">
+    <row r="264" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A264" s="36"/>
       <c r="B264" s="36"/>
       <c r="C264" s="36"/>
@@ -10107,7 +10112,7 @@
       <c r="T264" s="49"/>
       <c r="U264" s="49"/>
     </row>
-    <row r="265" spans="1:21" s="50" customFormat="1">
+    <row r="265" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A265" s="36"/>
       <c r="B265" s="36"/>
       <c r="C265" s="36"/>
@@ -10130,7 +10135,7 @@
       <c r="T265" s="49"/>
       <c r="U265" s="49"/>
     </row>
-    <row r="266" spans="1:21" s="50" customFormat="1">
+    <row r="266" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A266" s="36"/>
       <c r="B266" s="36"/>
       <c r="C266" s="36"/>
@@ -10153,7 +10158,7 @@
       <c r="T266" s="49"/>
       <c r="U266" s="49"/>
     </row>
-    <row r="267" spans="1:21" s="50" customFormat="1">
+    <row r="267" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A267" s="36"/>
       <c r="B267" s="36"/>
       <c r="C267" s="36"/>
@@ -10176,7 +10181,7 @@
       <c r="T267" s="49"/>
       <c r="U267" s="49"/>
     </row>
-    <row r="268" spans="1:21" s="50" customFormat="1">
+    <row r="268" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A268" s="36"/>
       <c r="B268" s="36"/>
       <c r="C268" s="36"/>
@@ -10199,7 +10204,7 @@
       <c r="T268" s="49"/>
       <c r="U268" s="49"/>
     </row>
-    <row r="269" spans="1:21" s="50" customFormat="1">
+    <row r="269" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A269" s="36"/>
       <c r="B269" s="36"/>
       <c r="C269" s="36"/>
@@ -10222,7 +10227,7 @@
       <c r="T269" s="49"/>
       <c r="U269" s="49"/>
     </row>
-    <row r="270" spans="1:21" s="50" customFormat="1">
+    <row r="270" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A270" s="36"/>
       <c r="B270" s="36"/>
       <c r="C270" s="36"/>
@@ -10245,7 +10250,7 @@
       <c r="T270" s="49"/>
       <c r="U270" s="49"/>
     </row>
-    <row r="271" spans="1:21" s="50" customFormat="1">
+    <row r="271" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A271" s="36"/>
       <c r="B271" s="36"/>
       <c r="C271" s="36"/>
@@ -10268,7 +10273,7 @@
       <c r="T271" s="49"/>
       <c r="U271" s="49"/>
     </row>
-    <row r="272" spans="1:21" s="50" customFormat="1">
+    <row r="272" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A272" s="36"/>
       <c r="B272" s="36"/>
       <c r="C272" s="36"/>
@@ -10291,7 +10296,7 @@
       <c r="T272" s="49"/>
       <c r="U272" s="49"/>
     </row>
-    <row r="273" spans="1:21" s="50" customFormat="1">
+    <row r="273" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A273" s="36"/>
       <c r="B273" s="36"/>
       <c r="C273" s="36"/>
@@ -10314,7 +10319,7 @@
       <c r="T273" s="49"/>
       <c r="U273" s="49"/>
     </row>
-    <row r="274" spans="1:21" s="50" customFormat="1">
+    <row r="274" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A274" s="36"/>
       <c r="B274" s="36"/>
       <c r="C274" s="36"/>
@@ -10337,7 +10342,7 @@
       <c r="T274" s="49"/>
       <c r="U274" s="49"/>
     </row>
-    <row r="275" spans="1:21" s="50" customFormat="1">
+    <row r="275" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A275" s="36"/>
       <c r="B275" s="36"/>
       <c r="C275" s="36"/>
@@ -10360,7 +10365,7 @@
       <c r="T275" s="49"/>
       <c r="U275" s="49"/>
     </row>
-    <row r="276" spans="1:21" s="50" customFormat="1">
+    <row r="276" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A276" s="36"/>
       <c r="B276" s="36"/>
       <c r="C276" s="36"/>
@@ -10383,7 +10388,7 @@
       <c r="T276" s="49"/>
       <c r="U276" s="49"/>
     </row>
-    <row r="277" spans="1:21" s="50" customFormat="1">
+    <row r="277" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A277" s="36"/>
       <c r="B277" s="36"/>
       <c r="C277" s="36"/>
@@ -10406,7 +10411,7 @@
       <c r="T277" s="49"/>
       <c r="U277" s="49"/>
     </row>
-    <row r="278" spans="1:21" s="50" customFormat="1">
+    <row r="278" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A278" s="36"/>
       <c r="B278" s="36"/>
       <c r="C278" s="36"/>
@@ -10429,7 +10434,7 @@
       <c r="T278" s="49"/>
       <c r="U278" s="49"/>
     </row>
-    <row r="279" spans="1:21" s="50" customFormat="1">
+    <row r="279" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A279" s="36"/>
       <c r="B279" s="36"/>
       <c r="C279" s="36"/>
@@ -10452,7 +10457,7 @@
       <c r="T279" s="49"/>
       <c r="U279" s="49"/>
     </row>
-    <row r="280" spans="1:21" s="50" customFormat="1">
+    <row r="280" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A280" s="36"/>
       <c r="B280" s="36"/>
       <c r="C280" s="36"/>
@@ -10475,7 +10480,7 @@
       <c r="T280" s="49"/>
       <c r="U280" s="49"/>
     </row>
-    <row r="281" spans="1:21" s="50" customFormat="1">
+    <row r="281" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A281" s="36"/>
       <c r="B281" s="36"/>
       <c r="C281" s="36"/>
@@ -10498,7 +10503,7 @@
       <c r="T281" s="49"/>
       <c r="U281" s="49"/>
     </row>
-    <row r="282" spans="1:21" s="50" customFormat="1">
+    <row r="282" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A282" s="36"/>
       <c r="B282" s="36"/>
       <c r="C282" s="36"/>
@@ -10521,7 +10526,7 @@
       <c r="T282" s="49"/>
       <c r="U282" s="49"/>
     </row>
-    <row r="283" spans="1:21" s="50" customFormat="1">
+    <row r="283" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A283" s="36"/>
       <c r="B283" s="36"/>
       <c r="C283" s="36"/>
@@ -10544,7 +10549,7 @@
       <c r="T283" s="49"/>
       <c r="U283" s="49"/>
     </row>
-    <row r="284" spans="1:21" s="50" customFormat="1">
+    <row r="284" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A284" s="36"/>
       <c r="B284" s="36"/>
       <c r="C284" s="36"/>
@@ -10567,7 +10572,7 @@
       <c r="T284" s="49"/>
       <c r="U284" s="49"/>
     </row>
-    <row r="285" spans="1:21" s="50" customFormat="1">
+    <row r="285" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A285" s="36"/>
       <c r="B285" s="36"/>
       <c r="C285" s="36"/>
@@ -10590,7 +10595,7 @@
       <c r="T285" s="49"/>
       <c r="U285" s="49"/>
     </row>
-    <row r="286" spans="1:21" s="50" customFormat="1">
+    <row r="286" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A286" s="36"/>
       <c r="B286" s="36"/>
       <c r="C286" s="36"/>
@@ -10613,7 +10618,7 @@
       <c r="T286" s="49"/>
       <c r="U286" s="49"/>
     </row>
-    <row r="287" spans="1:21" s="50" customFormat="1">
+    <row r="287" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A287" s="36"/>
       <c r="B287" s="36"/>
       <c r="C287" s="36"/>
@@ -10636,7 +10641,7 @@
       <c r="T287" s="49"/>
       <c r="U287" s="49"/>
     </row>
-    <row r="288" spans="1:21" s="50" customFormat="1">
+    <row r="288" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A288" s="36"/>
       <c r="B288" s="36"/>
       <c r="C288" s="36"/>
@@ -10659,7 +10664,7 @@
       <c r="T288" s="49"/>
       <c r="U288" s="49"/>
     </row>
-    <row r="289" spans="1:21" s="50" customFormat="1">
+    <row r="289" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A289" s="36"/>
       <c r="B289" s="36"/>
       <c r="C289" s="36"/>
@@ -10682,7 +10687,7 @@
       <c r="T289" s="49"/>
       <c r="U289" s="49"/>
     </row>
-    <row r="290" spans="1:21" s="50" customFormat="1">
+    <row r="290" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A290" s="36"/>
       <c r="B290" s="36"/>
       <c r="C290" s="36"/>
@@ -10705,7 +10710,7 @@
       <c r="T290" s="49"/>
       <c r="U290" s="49"/>
     </row>
-    <row r="291" spans="1:21" s="50" customFormat="1">
+    <row r="291" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A291" s="36"/>
       <c r="B291" s="36"/>
       <c r="C291" s="36"/>
@@ -10728,7 +10733,7 @@
       <c r="T291" s="49"/>
       <c r="U291" s="49"/>
     </row>
-    <row r="292" spans="1:21" s="50" customFormat="1">
+    <row r="292" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A292" s="36"/>
       <c r="B292" s="36"/>
       <c r="C292" s="36"/>
@@ -10751,7 +10756,7 @@
       <c r="T292" s="49"/>
       <c r="U292" s="49"/>
     </row>
-    <row r="293" spans="1:21" s="50" customFormat="1">
+    <row r="293" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A293" s="36"/>
       <c r="B293" s="36"/>
       <c r="C293" s="36"/>
@@ -10774,7 +10779,7 @@
       <c r="T293" s="49"/>
       <c r="U293" s="49"/>
     </row>
-    <row r="294" spans="1:21" s="50" customFormat="1">
+    <row r="294" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A294" s="36"/>
       <c r="B294" s="36"/>
       <c r="C294" s="36"/>
@@ -10797,7 +10802,7 @@
       <c r="T294" s="49"/>
       <c r="U294" s="49"/>
     </row>
-    <row r="295" spans="1:21" s="50" customFormat="1">
+    <row r="295" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A295" s="36"/>
       <c r="B295" s="36"/>
       <c r="C295" s="36"/>
@@ -10820,7 +10825,7 @@
       <c r="T295" s="49"/>
       <c r="U295" s="49"/>
     </row>
-    <row r="296" spans="1:21" s="50" customFormat="1">
+    <row r="296" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A296" s="36"/>
       <c r="B296" s="36"/>
       <c r="C296" s="36"/>
@@ -10843,7 +10848,7 @@
       <c r="T296" s="49"/>
       <c r="U296" s="49"/>
     </row>
-    <row r="297" spans="1:21" s="50" customFormat="1">
+    <row r="297" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A297" s="36"/>
       <c r="B297" s="36"/>
       <c r="C297" s="36"/>
@@ -10866,7 +10871,7 @@
       <c r="T297" s="49"/>
       <c r="U297" s="49"/>
     </row>
-    <row r="298" spans="1:21" s="50" customFormat="1">
+    <row r="298" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A298" s="36"/>
       <c r="B298" s="36"/>
       <c r="C298" s="36"/>
@@ -10889,7 +10894,7 @@
       <c r="T298" s="49"/>
       <c r="U298" s="49"/>
     </row>
-    <row r="299" spans="1:21" s="50" customFormat="1">
+    <row r="299" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A299" s="36"/>
       <c r="B299" s="36"/>
       <c r="C299" s="36"/>
@@ -10912,7 +10917,7 @@
       <c r="T299" s="49"/>
       <c r="U299" s="49"/>
     </row>
-    <row r="300" spans="1:21" s="50" customFormat="1">
+    <row r="300" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A300" s="36"/>
       <c r="B300" s="36"/>
       <c r="C300" s="36"/>
@@ -10935,7 +10940,7 @@
       <c r="T300" s="49"/>
       <c r="U300" s="49"/>
     </row>
-    <row r="301" spans="1:21" s="50" customFormat="1">
+    <row r="301" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A301" s="36"/>
       <c r="B301" s="36"/>
       <c r="C301" s="36"/>
@@ -10958,7 +10963,7 @@
       <c r="T301" s="49"/>
       <c r="U301" s="49"/>
     </row>
-    <row r="302" spans="1:21" s="50" customFormat="1">
+    <row r="302" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A302" s="36"/>
       <c r="B302" s="36"/>
       <c r="C302" s="36"/>
@@ -10981,7 +10986,7 @@
       <c r="T302" s="49"/>
       <c r="U302" s="49"/>
     </row>
-    <row r="303" spans="1:21" s="50" customFormat="1">
+    <row r="303" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A303" s="36"/>
       <c r="B303" s="36"/>
       <c r="C303" s="36"/>
@@ -11004,7 +11009,7 @@
       <c r="T303" s="49"/>
       <c r="U303" s="49"/>
     </row>
-    <row r="304" spans="1:21" s="50" customFormat="1">
+    <row r="304" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A304" s="36"/>
       <c r="B304" s="36"/>
       <c r="C304" s="36"/>
@@ -11027,7 +11032,7 @@
       <c r="T304" s="49"/>
       <c r="U304" s="49"/>
     </row>
-    <row r="305" spans="1:21" s="50" customFormat="1">
+    <row r="305" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A305" s="36"/>
       <c r="B305" s="36"/>
       <c r="C305" s="36"/>
@@ -11050,7 +11055,7 @@
       <c r="T305" s="49"/>
       <c r="U305" s="49"/>
     </row>
-    <row r="306" spans="1:21" s="50" customFormat="1">
+    <row r="306" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A306" s="36"/>
       <c r="B306" s="36"/>
       <c r="C306" s="36"/>
@@ -11073,7 +11078,7 @@
       <c r="T306" s="49"/>
       <c r="U306" s="49"/>
     </row>
-    <row r="307" spans="1:21" s="50" customFormat="1">
+    <row r="307" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A307" s="36"/>
       <c r="B307" s="36"/>
       <c r="C307" s="36"/>
@@ -11096,7 +11101,7 @@
       <c r="T307" s="49"/>
       <c r="U307" s="49"/>
     </row>
-    <row r="308" spans="1:21" s="50" customFormat="1">
+    <row r="308" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A308" s="36"/>
       <c r="B308" s="36"/>
       <c r="C308" s="36"/>
@@ -11119,7 +11124,7 @@
       <c r="T308" s="49"/>
       <c r="U308" s="49"/>
     </row>
-    <row r="309" spans="1:21" s="50" customFormat="1">
+    <row r="309" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A309" s="36"/>
       <c r="B309" s="36"/>
       <c r="C309" s="36"/>
@@ -11142,7 +11147,7 @@
       <c r="T309" s="49"/>
       <c r="U309" s="49"/>
     </row>
-    <row r="310" spans="1:21" s="50" customFormat="1">
+    <row r="310" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A310" s="36"/>
       <c r="B310" s="36"/>
       <c r="C310" s="36"/>
@@ -11165,7 +11170,7 @@
       <c r="T310" s="49"/>
       <c r="U310" s="49"/>
     </row>
-    <row r="311" spans="1:21" s="50" customFormat="1">
+    <row r="311" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A311" s="36"/>
       <c r="B311" s="36"/>
       <c r="C311" s="36"/>
@@ -11188,7 +11193,7 @@
       <c r="T311" s="49"/>
       <c r="U311" s="49"/>
     </row>
-    <row r="312" spans="1:21" s="50" customFormat="1">
+    <row r="312" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A312" s="36"/>
       <c r="B312" s="36"/>
       <c r="C312" s="36"/>
@@ -11211,7 +11216,7 @@
       <c r="T312" s="49"/>
       <c r="U312" s="49"/>
     </row>
-    <row r="313" spans="1:21" s="50" customFormat="1">
+    <row r="313" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A313" s="36"/>
       <c r="B313" s="36"/>
       <c r="C313" s="36"/>
@@ -11234,7 +11239,7 @@
       <c r="T313" s="49"/>
       <c r="U313" s="49"/>
     </row>
-    <row r="314" spans="1:21" s="50" customFormat="1">
+    <row r="314" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A314" s="36"/>
       <c r="B314" s="36"/>
       <c r="C314" s="36"/>
@@ -11257,7 +11262,7 @@
       <c r="T314" s="49"/>
       <c r="U314" s="49"/>
     </row>
-    <row r="315" spans="1:21" s="50" customFormat="1">
+    <row r="315" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A315" s="36"/>
       <c r="B315" s="36"/>
       <c r="C315" s="36"/>
@@ -11280,7 +11285,7 @@
       <c r="T315" s="49"/>
       <c r="U315" s="49"/>
     </row>
-    <row r="316" spans="1:21" s="50" customFormat="1">
+    <row r="316" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A316" s="36"/>
       <c r="B316" s="36"/>
       <c r="C316" s="36"/>
@@ -11303,7 +11308,7 @@
       <c r="T316" s="49"/>
       <c r="U316" s="49"/>
     </row>
-    <row r="317" spans="1:21" s="50" customFormat="1">
+    <row r="317" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A317" s="36"/>
       <c r="B317" s="36"/>
       <c r="C317" s="36"/>
@@ -11326,7 +11331,7 @@
       <c r="T317" s="49"/>
       <c r="U317" s="49"/>
     </row>
-    <row r="318" spans="1:21" s="50" customFormat="1">
+    <row r="318" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A318" s="36"/>
       <c r="B318" s="36"/>
       <c r="C318" s="36"/>
@@ -11349,7 +11354,7 @@
       <c r="T318" s="49"/>
       <c r="U318" s="49"/>
     </row>
-    <row r="319" spans="1:21" s="50" customFormat="1">
+    <row r="319" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A319" s="36"/>
       <c r="B319" s="36"/>
       <c r="C319" s="36"/>
@@ -11372,7 +11377,7 @@
       <c r="T319" s="49"/>
       <c r="U319" s="49"/>
     </row>
-    <row r="320" spans="1:21" s="50" customFormat="1">
+    <row r="320" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A320" s="36"/>
       <c r="B320" s="36"/>
       <c r="C320" s="36"/>
@@ -11395,7 +11400,7 @@
       <c r="T320" s="49"/>
       <c r="U320" s="49"/>
     </row>
-    <row r="321" spans="1:21" s="50" customFormat="1">
+    <row r="321" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A321" s="36"/>
       <c r="B321" s="36"/>
       <c r="C321" s="36"/>
@@ -11418,7 +11423,7 @@
       <c r="T321" s="49"/>
       <c r="U321" s="49"/>
     </row>
-    <row r="322" spans="1:21" s="50" customFormat="1">
+    <row r="322" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A322" s="36"/>
       <c r="B322" s="36"/>
       <c r="C322" s="36"/>
@@ -11441,7 +11446,7 @@
       <c r="T322" s="49"/>
       <c r="U322" s="49"/>
     </row>
-    <row r="323" spans="1:21" s="50" customFormat="1">
+    <row r="323" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A323" s="36"/>
       <c r="B323" s="36"/>
       <c r="C323" s="36"/>
@@ -11464,7 +11469,7 @@
       <c r="T323" s="49"/>
       <c r="U323" s="49"/>
     </row>
-    <row r="324" spans="1:21" s="50" customFormat="1">
+    <row r="324" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A324" s="36"/>
       <c r="B324" s="36"/>
       <c r="C324" s="36"/>
@@ -11487,7 +11492,7 @@
       <c r="T324" s="49"/>
       <c r="U324" s="49"/>
     </row>
-    <row r="325" spans="1:21" s="50" customFormat="1">
+    <row r="325" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A325" s="36"/>
       <c r="B325" s="36"/>
       <c r="C325" s="36"/>
@@ -11510,7 +11515,7 @@
       <c r="T325" s="49"/>
       <c r="U325" s="49"/>
     </row>
-    <row r="326" spans="1:21" s="50" customFormat="1">
+    <row r="326" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A326" s="36"/>
       <c r="B326" s="36"/>
       <c r="C326" s="36"/>
@@ -11533,7 +11538,7 @@
       <c r="T326" s="49"/>
       <c r="U326" s="49"/>
     </row>
-    <row r="327" spans="1:21" s="50" customFormat="1">
+    <row r="327" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A327" s="36"/>
       <c r="B327" s="36"/>
       <c r="C327" s="36"/>
@@ -11556,7 +11561,7 @@
       <c r="T327" s="49"/>
       <c r="U327" s="49"/>
     </row>
-    <row r="328" spans="1:21" s="50" customFormat="1">
+    <row r="328" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A328" s="36"/>
       <c r="B328" s="36"/>
       <c r="C328" s="36"/>
@@ -11579,7 +11584,7 @@
       <c r="T328" s="49"/>
       <c r="U328" s="49"/>
     </row>
-    <row r="329" spans="1:21" s="50" customFormat="1">
+    <row r="329" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A329" s="33"/>
       <c r="B329" s="33"/>
       <c r="C329" s="33"/>
@@ -11602,7 +11607,7 @@
       <c r="T329" s="65"/>
       <c r="U329" s="65"/>
     </row>
-    <row r="330" spans="1:21" s="50" customFormat="1">
+    <row r="330" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A330" s="30"/>
       <c r="B330" s="30"/>
       <c r="C330" s="30"/>
@@ -11619,7 +11624,7 @@
       <c r="P330" s="32"/>
       <c r="Q330" s="32"/>
     </row>
-    <row r="331" spans="1:21" s="50" customFormat="1">
+    <row r="331" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A331" s="30"/>
       <c r="B331" s="30"/>
       <c r="C331" s="30"/>
@@ -11636,7 +11641,7 @@
       <c r="P331" s="32"/>
       <c r="Q331" s="32"/>
     </row>
-    <row r="332" spans="1:21" s="50" customFormat="1">
+    <row r="332" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A332" s="30"/>
       <c r="B332" s="30"/>
       <c r="C332" s="30"/>
@@ -11653,7 +11658,7 @@
       <c r="P332" s="32"/>
       <c r="Q332" s="32"/>
     </row>
-    <row r="333" spans="1:21" s="50" customFormat="1">
+    <row r="333" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A333" s="30"/>
       <c r="B333" s="30"/>
       <c r="C333" s="30"/>
@@ -11670,7 +11675,7 @@
       <c r="P333" s="32"/>
       <c r="Q333" s="32"/>
     </row>
-    <row r="334" spans="1:21" s="50" customFormat="1">
+    <row r="334" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A334" s="30"/>
       <c r="B334" s="30"/>
       <c r="C334" s="30"/>
@@ -11692,14 +11697,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="U1:U2"/>
@@ -11712,6 +11709,14 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -11771,16 +11776,16 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.46484375" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" customWidth="1"/>
+    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.46484375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -11803,7 +11808,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -11824,7 +11829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>35</v>
@@ -11845,7 +11850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>36</v>
@@ -11862,7 +11867,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>37</v>
@@ -11879,7 +11884,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>38</v>
@@ -11894,7 +11899,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>39</v>
@@ -11907,7 +11912,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>40</v>
@@ -11920,7 +11925,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>41</v>
@@ -11933,7 +11938,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>42</v>
@@ -11946,7 +11951,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>43</v>
@@ -11961,7 +11966,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>44</v>
@@ -11976,7 +11981,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>45</v>
@@ -11991,7 +11996,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>46</v>
@@ -12006,7 +12011,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -12019,7 +12024,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -12032,7 +12037,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -12045,7 +12050,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -12058,7 +12063,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
@@ -12071,7 +12076,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
@@ -12084,7 +12089,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -12097,7 +12102,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
@@ -12110,7 +12115,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
@@ -12123,7 +12128,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
@@ -12136,7 +12141,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
@@ -12147,7 +12152,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
@@ -12158,7 +12163,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
@@ -12169,7 +12174,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
@@ -12180,7 +12185,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
@@ -12191,7 +12196,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
@@ -12202,7 +12207,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
@@ -12213,7 +12218,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
@@ -12224,7 +12229,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
@@ -12235,7 +12240,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
@@ -12246,7 +12251,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
@@ -12257,7 +12262,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
@@ -12268,7 +12273,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4" t="s">
@@ -12279,7 +12284,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
@@ -12290,7 +12295,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
@@ -12301,7 +12306,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -12310,7 +12315,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -12319,7 +12324,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -12328,7 +12333,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -12337,7 +12342,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -12346,7 +12351,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -12355,7 +12360,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -12364,7 +12369,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -12373,7 +12378,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -12382,7 +12387,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -12391,7 +12396,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>

--- a/fuentes/contenidos/grado07/guion01/Escaleta_LE_07_01_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion01/Escaleta_LE_07_01_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado07\guion01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csepulveda\Desktop\GITHUB2015\Lenguaje\fuentes\contenidos\grado07\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25603" windowHeight="14483"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14490"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="312">
   <si>
     <t>Asignatura</t>
   </si>
@@ -417,9 +417,6 @@
     <t>Las frases hechas</t>
   </si>
   <si>
-    <t>Secuencia de imágenes y textos que presenta diversos ejemplos de frases hechas y cuál es su significado</t>
-  </si>
-  <si>
     <t>Literatura: clasifica los versos según su tipo de recurso literario</t>
   </si>
   <si>
@@ -435,22 +432,10 @@
     <t>Completa un fragmento con frases hechas</t>
   </si>
   <si>
-    <t>Actividad para ampliar vocabulario mediante el estudio de frases hechas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiende el significado de las frases hechas </t>
-  </si>
-  <si>
-    <t>Identifica el significado de las frases hechas</t>
-  </si>
-  <si>
     <t>Entiende el significado de las frases hechas</t>
   </si>
   <si>
     <t>Identifica el significado correcto de las frases hechas</t>
-  </si>
-  <si>
-    <t>Actividad para memorizar frases hechas comprendiendo su significado</t>
   </si>
   <si>
     <t>La oración gramatical</t>
@@ -813,21 +798,12 @@
     <t>Refuerza tu aprendizaje: El lenguaje literario y el lenguaje cotidiano</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Completa un fragmento con frases hechas</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje:¿Se escribe con g o j?</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Rellena los huecos con la grafía correcta</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Detecta los errores</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Analiza los fragmentos de un diario</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Las partes de un diario</t>
   </si>
   <si>
@@ -847,10 +823,6 @@
   </si>
   <si>
     <t>Actividad para completar las frases</t>
-  </si>
-  <si>
-    <t>Actividad para leer textos líricos (poemas) en los que reconoce afinidades y distancias con su propia experiencia y efectos posibles a
-partir del uso particular del lenguaje. Además de fortalecer el reconocimiento de los recursos literarios: fónico, semántico y sintáctico</t>
   </si>
   <si>
     <t>Revisar el uso del vocabulario y el lenguaje.  Cambiar las palabras en caso de no ser pertinentes</t>
@@ -1110,6 +1082,40 @@
   </si>
   <si>
     <t>Antología de recursos literarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los enunciados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secuencia de imágenes y textos que presenta diversos ejemplos de enunciados </t>
+  </si>
+  <si>
+    <t>Actividad para determinar cuándo un enunciado es una frase</t>
+  </si>
+  <si>
+    <t>Identifica las frases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convierte frases en oraciones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para afianzar las características d elas frases </t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El enunciado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para afianzar el tema de los enunciados </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Refuerza tu aprendizaje: Analiza los fragmentos de un diario</t>
+  </si>
+  <si>
+    <t>Actividad para leer textos líricos (poemas) en los que reconoce afinidades y distancias con su propia experiencia y efectos posibles a
+partir del uso particular del lenguaje</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Rellena los espacios  con la grafía correcta</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1238,6 +1244,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,7 +1323,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1544,6 +1556,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1552,6 +1576,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1856,126 +1886,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R29" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:U56"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.46484375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.46484375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.796875" style="48" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="7.46484375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.33203125" style="46" customWidth="1"/>
-    <col min="11" max="11" width="20.46484375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.46484375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1328125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="4.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" style="48" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.28515625" style="46" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="4.7109375" style="6" customWidth="1"/>
     <col min="15" max="15" width="60" style="48" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.46484375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.73046875" style="48" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.7109375" style="48" customWidth="1"/>
     <col min="19" max="19" width="18" style="48" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="48.796875" style="48" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.46484375" style="48" bestFit="1" customWidth="1"/>
-    <col min="22" max="52" width="10.796875" style="50"/>
-    <col min="53" max="16384" width="10.796875" style="48"/>
+    <col min="20" max="20" width="48.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" style="48" bestFit="1" customWidth="1"/>
+    <col min="22" max="52" width="10.85546875" style="50"/>
+    <col min="53" max="16384" width="10.85546875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="88" t="s">
+      <c r="I1" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="88" t="s">
+      <c r="K1" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="88" t="s">
+      <c r="L1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="88" t="s">
+      <c r="M1" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88" t="s">
+      <c r="N1" s="92"/>
+      <c r="O1" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="88" t="s">
+      <c r="P1" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="88" t="s">
+      <c r="Q1" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="88" t="s">
+      <c r="R1" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="88" t="s">
+      <c r="S1" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="88" t="s">
+      <c r="T1" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="88" t="s">
+      <c r="U1" s="92" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
+    <row r="2" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
       <c r="M2" s="47" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
       <c r="V2" s="52"/>
       <c r="W2" s="52"/>
       <c r="X2" s="52"/>
@@ -2008,23 +2038,23 @@
       <c r="AY2" s="52"/>
       <c r="AZ2" s="52"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
       <c r="G3" s="14" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H3" s="13">
         <v>1</v>
@@ -2033,7 +2063,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>69</v>
@@ -2046,7 +2076,7 @@
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="15" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="P3" s="13" t="s">
         <v>19</v>
@@ -2055,35 +2085,35 @@
         <v>6</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
       <c r="G4" s="14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H4" s="13">
         <v>2</v>
@@ -2092,7 +2122,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="54" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>69</v>
@@ -2105,7 +2135,7 @@
       </c>
       <c r="N4" s="13"/>
       <c r="O4" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P4" s="13" t="s">
         <v>19</v>
@@ -2114,35 +2144,35 @@
         <v>6</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="T4" s="14" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="U4" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
       <c r="G5" s="14" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H5" s="13">
         <v>3</v>
@@ -2151,7 +2181,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>69</v>
@@ -2164,7 +2194,7 @@
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>19</v>
@@ -2173,35 +2203,35 @@
         <v>6</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="T5" s="14" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="14" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H6" s="13">
         <v>4</v>
@@ -2210,7 +2240,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="54" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>69</v>
@@ -2223,7 +2253,7 @@
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="P6" s="13" t="s">
         <v>19</v>
@@ -2232,35 +2262,35 @@
         <v>6</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="T6" s="14" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
       <c r="G7" s="14" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H7" s="13">
         <v>5</v>
@@ -2269,7 +2299,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>69</v>
@@ -2282,7 +2312,7 @@
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="15" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P7" s="13" t="s">
         <v>19</v>
@@ -2291,35 +2321,35 @@
         <v>6</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="T7" s="14" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
       <c r="G8" s="14" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H8" s="13">
         <v>6</v>
@@ -2328,7 +2358,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>69</v>
@@ -2341,7 +2371,7 @@
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="15" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="P8" s="13" t="s">
         <v>19</v>
@@ -2350,30 +2380,30 @@
         <v>6</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S8" s="14" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="T8" s="14" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="U8" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -2398,7 +2428,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P9" s="20" t="s">
         <v>19</v>
@@ -2419,21 +2449,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17" t="s">
@@ -2457,7 +2487,7 @@
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="17" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P10" s="20" t="s">
         <v>19</v>
@@ -2478,21 +2508,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17" t="s">
@@ -2516,7 +2546,7 @@
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
       <c r="O11" s="17" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P11" s="20" t="s">
         <v>19</v>
@@ -2537,21 +2567,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17" t="s">
@@ -2564,7 +2594,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="K12" s="20" t="s">
         <v>69</v>
@@ -2577,7 +2607,7 @@
       </c>
       <c r="N12" s="20"/>
       <c r="O12" s="57" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P12" s="20" t="s">
         <v>20</v>
@@ -2586,33 +2616,33 @@
         <v>6</v>
       </c>
       <c r="R12" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="T12" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="S12" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="T12" s="17" t="s">
-        <v>271</v>
-      </c>
       <c r="U12" s="17" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
@@ -2636,7 +2666,7 @@
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="59" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P13" s="20" t="s">
         <v>20</v>
@@ -2657,21 +2687,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17" t="s">
@@ -2684,7 +2714,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="55" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K14" s="20" t="s">
         <v>69</v>
@@ -2697,7 +2727,7 @@
       </c>
       <c r="N14" s="20"/>
       <c r="O14" s="57" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P14" s="20" t="s">
         <v>19</v>
@@ -2706,33 +2736,33 @@
         <v>6</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S14" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="T14" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="T14" s="17" t="s">
-        <v>272</v>
-      </c>
       <c r="U14" s="17" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17" t="s">
@@ -2756,7 +2786,7 @@
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
       <c r="O15" s="59" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P15" s="20" t="s">
         <v>19</v>
@@ -2777,21 +2807,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>238</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>247</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17" t="s">
@@ -2815,7 +2845,7 @@
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="59" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P16" s="20" t="s">
         <v>19</v>
@@ -2836,21 +2866,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D17" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>238</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>247</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17" t="s">
@@ -2874,7 +2904,7 @@
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
       <c r="O17" s="59" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="P17" s="20" t="s">
         <v>19</v>
@@ -2895,21 +2925,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17" t="s">
@@ -2933,7 +2963,7 @@
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
       <c r="O18" s="17" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P18" s="20" t="s">
         <v>19</v>
@@ -2954,25 +2984,25 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H19" s="20">
         <v>17</v>
@@ -2994,7 +3024,7 @@
       </c>
       <c r="N19" s="20"/>
       <c r="O19" s="60" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P19" s="20" t="s">
         <v>20</v>
@@ -3003,33 +3033,33 @@
         <v>6</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="U19" s="17" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17" t="s">
@@ -3042,7 +3072,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="55" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="K20" s="20" t="s">
         <v>70</v>
@@ -3053,7 +3083,7 @@
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
       <c r="O20" s="17" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P20" s="20" t="s">
         <v>20</v>
@@ -3074,25 +3104,25 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H21" s="20">
         <v>19</v>
@@ -3101,7 +3131,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="55" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="K21" s="20" t="s">
         <v>70</v>
@@ -3112,7 +3142,7 @@
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
       <c r="O21" s="17" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P21" s="20" t="s">
         <v>20</v>
@@ -3133,25 +3163,25 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H22" s="20">
         <v>20</v>
@@ -3160,7 +3190,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="55" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K22" s="20" t="s">
         <v>70</v>
@@ -3171,7 +3201,7 @@
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
       <c r="O22" s="17" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P22" s="20" t="s">
         <v>20</v>
@@ -3192,25 +3222,25 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H23" s="20">
         <v>21</v>
@@ -3219,7 +3249,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="55" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="K23" s="20" t="s">
         <v>70</v>
@@ -3230,7 +3260,7 @@
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
       <c r="O23" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P23" s="20" t="s">
         <v>19</v>
@@ -3251,25 +3281,25 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H24" s="20">
         <v>22</v>
@@ -3300,37 +3330,37 @@
         <v>6</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="U24" s="17" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="71" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="H25" s="72">
         <v>23</v>
@@ -3339,7 +3369,7 @@
         <v>19</v>
       </c>
       <c r="J25" s="80" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K25" s="74" t="s">
         <v>70</v>
@@ -3350,7 +3380,7 @@
       <c r="M25" s="86"/>
       <c r="N25" s="87"/>
       <c r="O25" s="63" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P25" s="72" t="s">
         <v>19</v>
@@ -3365,31 +3395,31 @@
         <v>96</v>
       </c>
       <c r="T25" s="67" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="U25" s="67" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="67" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="68" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C26" s="69" t="s">
         <v>93</v>
       </c>
       <c r="D26" s="70" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E26" s="71" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F26" s="71"/>
       <c r="G26" s="71" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="H26" s="72">
         <v>24</v>
@@ -3398,7 +3428,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="73" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K26" s="72" t="s">
         <v>69</v>
@@ -3411,7 +3441,7 @@
       </c>
       <c r="N26" s="72"/>
       <c r="O26" s="71" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="P26" s="72" t="s">
         <v>19</v>
@@ -3420,37 +3450,37 @@
         <v>6</v>
       </c>
       <c r="R26" s="67" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S26" s="67" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="T26" s="67" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="U26" s="67" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F27" s="12"/>
-      <c r="G27" s="14" t="s">
-        <v>127</v>
+      <c r="G27" s="88" t="s">
+        <v>301</v>
       </c>
       <c r="H27" s="13">
         <v>25</v>
@@ -3458,8 +3488,8 @@
       <c r="I27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="54" t="s">
-        <v>128</v>
+      <c r="J27" s="89" t="s">
+        <v>302</v>
       </c>
       <c r="K27" s="13" t="s">
         <v>70</v>
@@ -3470,46 +3500,46 @@
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="24" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P27" s="13" t="s">
         <v>19</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R27" s="14" t="s">
         <v>91</v>
       </c>
       <c r="S27" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T27" s="14" t="s">
         <v>127</v>
       </c>
       <c r="U27" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F28" s="12"/>
-      <c r="G28" s="14" t="s">
-        <v>135</v>
+      <c r="G28" s="88" t="s">
+        <v>304</v>
       </c>
       <c r="H28" s="13">
         <v>26</v>
@@ -3517,8 +3547,8 @@
       <c r="I28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="54" t="s">
-        <v>134</v>
+      <c r="J28" s="89" t="s">
+        <v>303</v>
       </c>
       <c r="K28" s="13" t="s">
         <v>70</v>
@@ -3529,46 +3559,46 @@
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
       <c r="O28" s="24" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P28" s="13" t="s">
         <v>19</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R28" s="14" t="s">
         <v>91</v>
       </c>
       <c r="S28" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="T28" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="U28" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="T28" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="U28" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F29" s="12"/>
-      <c r="G29" s="14" t="s">
-        <v>136</v>
+      <c r="G29" s="88" t="s">
+        <v>305</v>
       </c>
       <c r="H29" s="13">
         <v>27</v>
@@ -3576,8 +3606,8 @@
       <c r="I29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="54" t="s">
-        <v>139</v>
+      <c r="J29" s="89" t="s">
+        <v>306</v>
       </c>
       <c r="K29" s="13" t="s">
         <v>70</v>
@@ -3588,48 +3618,48 @@
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
       <c r="O29" s="24" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P29" s="13" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R29" s="14" t="s">
         <v>91</v>
       </c>
       <c r="S29" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="T29" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="U29" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="T29" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="U29" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H30" s="13">
         <v>28</v>
@@ -3638,7 +3668,7 @@
         <v>19</v>
       </c>
       <c r="J30" s="42" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K30" s="13" t="s">
         <v>70</v>
@@ -3649,7 +3679,7 @@
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
       <c r="O30" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P30" s="13" t="s">
         <v>19</v>
@@ -3661,36 +3691,36 @@
         <v>91</v>
       </c>
       <c r="S30" s="14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T30" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="U30" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H31" s="13">
         <v>29</v>
@@ -3699,7 +3729,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="42" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K31" s="13" t="s">
         <v>70</v>
@@ -3710,7 +3740,7 @@
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
       <c r="O31" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P31" s="13" t="s">
         <v>20</v>
@@ -3722,36 +3752,36 @@
         <v>91</v>
       </c>
       <c r="S31" s="14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T31" s="14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="U31" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H32" s="13">
         <v>30</v>
@@ -3760,7 +3790,7 @@
         <v>19</v>
       </c>
       <c r="J32" s="42" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K32" s="13" t="s">
         <v>70</v>
@@ -3771,7 +3801,7 @@
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
       <c r="O32" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P32" s="13" t="s">
         <v>19</v>
@@ -3783,36 +3813,36 @@
         <v>91</v>
       </c>
       <c r="S32" s="14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T32" s="14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="U32" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H33" s="13">
         <v>31</v>
@@ -3821,7 +3851,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="42" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K33" s="13" t="s">
         <v>70</v>
@@ -3832,7 +3862,7 @@
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P33" s="13" t="s">
         <v>19</v>
@@ -3844,34 +3874,34 @@
         <v>91</v>
       </c>
       <c r="S33" s="14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T33" s="14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="U33" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F34" s="13"/>
-      <c r="G34" s="24" t="s">
-        <v>215</v>
+      <c r="G34" s="90" t="s">
+        <v>307</v>
       </c>
       <c r="H34" s="13">
         <v>32</v>
@@ -3879,8 +3909,8 @@
       <c r="I34" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="42" t="s">
-        <v>134</v>
+      <c r="J34" s="91" t="s">
+        <v>308</v>
       </c>
       <c r="K34" s="13" t="s">
         <v>70</v>
@@ -3891,46 +3921,46 @@
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P34" s="13" t="s">
         <v>19</v>
       </c>
       <c r="Q34" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R34" s="14" t="s">
         <v>91</v>
       </c>
       <c r="S34" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="T34" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="U34" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="T34" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="U34" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="67" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="68" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>93</v>
       </c>
       <c r="D35" s="75" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E35" s="76" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="76" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="H35" s="13">
         <v>33</v>
@@ -3939,7 +3969,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="77" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="K35" s="74" t="s">
         <v>69</v>
@@ -3952,7 +3982,7 @@
       </c>
       <c r="N35" s="74"/>
       <c r="O35" s="63" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="P35" s="74" t="s">
         <v>19</v>
@@ -3961,37 +3991,37 @@
         <v>6</v>
       </c>
       <c r="R35" s="67" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S35" s="67" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="T35" s="67" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="U35" s="67" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="24" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H36" s="13">
         <v>34</v>
@@ -4000,7 +4030,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="54" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K36" s="13" t="s">
         <v>69</v>
@@ -4013,7 +4043,7 @@
       </c>
       <c r="N36" s="13"/>
       <c r="O36" s="14" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P36" s="13" t="s">
         <v>19</v>
@@ -4022,37 +4052,37 @@
         <v>6</v>
       </c>
       <c r="R36" s="14" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S36" s="14" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="T36" s="14" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="U36" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H37" s="13">
         <v>35</v>
@@ -4061,7 +4091,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="54" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="K37" s="13" t="s">
         <v>69</v>
@@ -4074,7 +4104,7 @@
       </c>
       <c r="N37" s="13"/>
       <c r="O37" s="15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P37" s="13" t="s">
         <v>19</v>
@@ -4083,37 +4113,37 @@
         <v>6</v>
       </c>
       <c r="R37" s="14" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S37" s="14" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="T37" s="14" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="U37" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>93</v>
       </c>
       <c r="D38" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="E38" s="14" t="s">
         <v>240</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>249</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="24" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H38" s="13">
         <v>36</v>
@@ -4122,7 +4152,7 @@
         <v>19</v>
       </c>
       <c r="J38" s="54" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>70</v>
@@ -4133,7 +4163,7 @@
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
       <c r="O38" s="24" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P38" s="13" t="s">
         <v>19</v>
@@ -4145,34 +4175,34 @@
         <v>91</v>
       </c>
       <c r="S38" s="14" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="T38" s="14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="U38" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>93</v>
       </c>
       <c r="D39" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>240</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>249</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="24" t="s">
-        <v>217</v>
+        <v>311</v>
       </c>
       <c r="H39" s="13">
         <v>37</v>
@@ -4181,7 +4211,7 @@
         <v>20</v>
       </c>
       <c r="J39" s="54" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K39" s="13" t="s">
         <v>70</v>
@@ -4192,7 +4222,7 @@
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
       <c r="O39" s="24" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P39" s="13" t="s">
         <v>19</v>
@@ -4204,34 +4234,34 @@
         <v>91</v>
       </c>
       <c r="S39" s="14" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="T39" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="U39" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C40" s="29" t="s">
         <v>93</v>
       </c>
       <c r="D40" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>240</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>249</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="24" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H40" s="13">
         <v>38</v>
@@ -4240,7 +4270,7 @@
         <v>20</v>
       </c>
       <c r="J40" s="54" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K40" s="13" t="s">
         <v>70</v>
@@ -4251,7 +4281,7 @@
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
       <c r="O40" s="24" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P40" s="13" t="s">
         <v>20</v>
@@ -4263,34 +4293,34 @@
         <v>91</v>
       </c>
       <c r="S40" s="14" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="T40" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="U40" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H41" s="13">
         <v>39</v>
@@ -4299,7 +4329,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="53" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K41" s="13" t="s">
         <v>69</v>
@@ -4312,7 +4342,7 @@
       </c>
       <c r="N41" s="13"/>
       <c r="O41" s="15" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="P41" s="13" t="s">
         <v>19</v>
@@ -4321,37 +4351,37 @@
         <v>6</v>
       </c>
       <c r="R41" s="14" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S41" s="14" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="T41" s="14" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="U41" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="14" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H42" s="13">
         <v>40</v>
@@ -4360,7 +4390,7 @@
         <v>19</v>
       </c>
       <c r="J42" s="53" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K42" s="13" t="s">
         <v>69</v>
@@ -4373,7 +4403,7 @@
         <v>37</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P42" s="13" t="s">
         <v>19</v>
@@ -4382,37 +4412,37 @@
         <v>6</v>
       </c>
       <c r="R42" s="14" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="S42" s="14" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="T42" s="14" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="U42" s="14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="14" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H43" s="13">
         <v>41</v>
@@ -4421,7 +4451,7 @@
         <v>20</v>
       </c>
       <c r="J43" s="54" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K43" s="13" t="s">
         <v>69</v>
@@ -4434,7 +4464,7 @@
       </c>
       <c r="N43" s="13"/>
       <c r="O43" s="15" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P43" s="13" t="s">
         <v>20</v>
@@ -4443,37 +4473,37 @@
         <v>6</v>
       </c>
       <c r="R43" s="14" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S43" s="14" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="T43" s="14" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="U43" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="25" t="s">
-        <v>219</v>
+        <v>309</v>
       </c>
       <c r="H44" s="13">
         <v>42</v>
@@ -4482,7 +4512,7 @@
         <v>20</v>
       </c>
       <c r="J44" s="56" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="K44" s="20" t="s">
         <v>69</v>
@@ -4495,7 +4525,7 @@
       </c>
       <c r="N44" s="21"/>
       <c r="O44" s="61" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P44" s="20" t="s">
         <v>19</v>
@@ -4504,37 +4534,37 @@
         <v>6</v>
       </c>
       <c r="R44" s="14" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S44" s="14" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="T44" s="14" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="U44" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H45" s="13">
         <v>43</v>
@@ -4543,7 +4573,7 @@
         <v>20</v>
       </c>
       <c r="J45" s="53" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K45" s="13" t="s">
         <v>69</v>
@@ -4556,7 +4586,7 @@
       </c>
       <c r="N45" s="13"/>
       <c r="O45" s="15" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="P45" s="13" t="s">
         <v>19</v>
@@ -4565,37 +4595,37 @@
         <v>6</v>
       </c>
       <c r="R45" s="14" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S45" s="14" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="T45" s="14" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="U45" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="14" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H46" s="13">
         <v>44</v>
@@ -4604,7 +4634,7 @@
         <v>20</v>
       </c>
       <c r="J46" s="54" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K46" s="13" t="s">
         <v>69</v>
@@ -4617,7 +4647,7 @@
       </c>
       <c r="N46" s="13"/>
       <c r="O46" s="15" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P46" s="13" t="s">
         <v>20</v>
@@ -4626,37 +4656,37 @@
         <v>6</v>
       </c>
       <c r="R46" s="14" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S46" s="14" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="T46" s="14" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="U46" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="14" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H47" s="13">
         <v>45</v>
@@ -4665,7 +4695,7 @@
         <v>19</v>
       </c>
       <c r="J47" s="53" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K47" s="13" t="s">
         <v>69</v>
@@ -4678,7 +4708,7 @@
         <v>45</v>
       </c>
       <c r="O47" s="15" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="P47" s="13" t="s">
         <v>20</v>
@@ -4687,37 +4717,37 @@
         <v>6</v>
       </c>
       <c r="R47" s="14" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="S47" s="14" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="T47" s="14" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="U47" s="14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="67" t="s">
         <v>68</v>
       </c>
       <c r="B48" s="68" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C48" s="68" t="s">
         <v>93</v>
       </c>
       <c r="D48" s="78" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E48" s="79" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F48" s="68"/>
       <c r="G48" s="67" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H48" s="13">
         <v>46</v>
@@ -4726,7 +4756,7 @@
         <v>20</v>
       </c>
       <c r="J48" s="80" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="K48" s="74" t="s">
         <v>69</v>
@@ -4739,7 +4769,7 @@
       </c>
       <c r="N48" s="74"/>
       <c r="O48" s="63" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="P48" s="74" t="s">
         <v>19</v>
@@ -4748,44 +4778,44 @@
         <v>6</v>
       </c>
       <c r="R48" s="67" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S48" s="67" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="T48" s="67" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="U48" s="67" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="49" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:52" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="40"/>
-      <c r="G49" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="H49" s="13">
+      <c r="G49" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="H49" s="95">
         <v>47</v>
       </c>
-      <c r="I49" s="13" t="s">
+      <c r="I49" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="J49" s="53" t="s">
-        <v>227</v>
+      <c r="J49" s="96" t="s">
+        <v>310</v>
       </c>
       <c r="K49" s="13" t="s">
         <v>70</v>
@@ -4796,7 +4826,7 @@
       <c r="M49" s="16"/>
       <c r="N49" s="62"/>
       <c r="O49" s="15" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="P49" s="13" t="s">
         <v>19</v>
@@ -4848,23 +4878,23 @@
       <c r="AY49" s="50"/>
       <c r="AZ49" s="50"/>
     </row>
-    <row r="50" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E50" s="15"/>
       <c r="F50" s="40"/>
       <c r="G50" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H50" s="74">
         <v>48</v>
@@ -4873,7 +4903,7 @@
         <v>20</v>
       </c>
       <c r="J50" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K50" s="13" t="s">
         <v>70</v>
@@ -4884,7 +4914,7 @@
       <c r="M50" s="16"/>
       <c r="N50" s="62"/>
       <c r="O50" s="15" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P50" s="13" t="s">
         <v>19</v>
@@ -4896,13 +4926,13 @@
         <v>91</v>
       </c>
       <c r="S50" s="14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T50" s="14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="U50" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="V50" s="50"/>
       <c r="W50" s="50"/>
@@ -4936,23 +4966,23 @@
       <c r="AY50" s="50"/>
       <c r="AZ50" s="50"/>
     </row>
-    <row r="51" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="40"/>
       <c r="G51" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H51" s="13">
         <v>49</v>
@@ -4961,7 +4991,7 @@
         <v>20</v>
       </c>
       <c r="J51" s="53" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K51" s="13" t="s">
         <v>70</v>
@@ -4972,7 +5002,7 @@
       <c r="M51" s="16"/>
       <c r="N51" s="62"/>
       <c r="O51" s="59" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P51" s="13" t="s">
         <v>19</v>
@@ -4984,13 +5014,13 @@
         <v>91</v>
       </c>
       <c r="S51" s="14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T51" s="14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="U51" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="V51" s="50"/>
       <c r="W51" s="50"/>
@@ -5024,23 +5054,23 @@
       <c r="AY51" s="50"/>
       <c r="AZ51" s="50"/>
     </row>
-    <row r="52" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="40"/>
       <c r="G52" s="25" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H52" s="13">
         <v>50</v>
@@ -5049,7 +5079,7 @@
         <v>20</v>
       </c>
       <c r="J52" s="56" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K52" s="26" t="s">
         <v>69</v>
@@ -5062,7 +5092,7 @@
       </c>
       <c r="N52" s="11"/>
       <c r="O52" s="61" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="P52" s="26" t="s">
         <v>19</v>
@@ -5071,16 +5101,16 @@
         <v>6</v>
       </c>
       <c r="R52" s="14" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S52" s="14" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="T52" s="14" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="U52" s="14" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="V52" s="50"/>
       <c r="W52" s="50"/>
@@ -5114,23 +5144,23 @@
       <c r="AY52" s="50"/>
       <c r="AZ52" s="50"/>
     </row>
-    <row r="53" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="40"/>
       <c r="G53" s="25" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H53" s="13">
         <v>51</v>
@@ -5139,7 +5169,7 @@
         <v>20</v>
       </c>
       <c r="J53" s="56" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="K53" s="26" t="s">
         <v>69</v>
@@ -5152,7 +5182,7 @@
         <v>46</v>
       </c>
       <c r="O53" s="61" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P53" s="26" t="s">
         <v>19</v>
@@ -5161,16 +5191,16 @@
         <v>6</v>
       </c>
       <c r="R53" s="14" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="S53" s="14" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="T53" s="14" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="U53" s="14" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="V53" s="50"/>
       <c r="W53" s="50"/>
@@ -5204,23 +5234,23 @@
       <c r="AY53" s="50"/>
       <c r="AZ53" s="50"/>
     </row>
-    <row r="54" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:52" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E54" s="15"/>
       <c r="F54" s="12"/>
       <c r="G54" s="23" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H54" s="13">
         <v>52</v>
@@ -5229,7 +5259,7 @@
         <v>20</v>
       </c>
       <c r="J54" s="42" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="K54" s="64"/>
       <c r="L54" s="64"/>
@@ -5276,18 +5306,18 @@
       <c r="AY54" s="50"/>
       <c r="AZ54" s="50"/>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="12"/>
@@ -5301,7 +5331,7 @@
         <v>20</v>
       </c>
       <c r="J55" s="42" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K55" s="26" t="s">
         <v>69</v>
@@ -5321,30 +5351,30 @@
         <v>6</v>
       </c>
       <c r="R55" s="14" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S55" s="14" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="T55" s="14" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="U55" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D56" s="81" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E56" s="41"/>
       <c r="F56" s="41"/>
@@ -5356,7 +5386,7 @@
         <v>20</v>
       </c>
       <c r="J56" s="83" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="K56" s="82" t="s">
         <v>69</v>
@@ -5369,7 +5399,7 @@
       </c>
       <c r="N56" s="41"/>
       <c r="O56" s="41" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="P56" s="82" t="s">
         <v>20</v>
@@ -5378,19 +5408,19 @@
         <v>6</v>
       </c>
       <c r="R56" s="41" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="S56" s="41" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="T56" s="41" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="U56" s="41" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="57" spans="1:52" s="84" customFormat="1" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:52" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="V57" s="85"/>
       <c r="W57" s="85"/>
       <c r="X57" s="85"/>
@@ -5423,7 +5453,7 @@
       <c r="AY57" s="85"/>
       <c r="AZ57" s="85"/>
     </row>
-    <row r="58" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
       <c r="C58" s="36"/>
@@ -5440,7 +5470,7 @@
       <c r="P58" s="38"/>
       <c r="Q58" s="38"/>
     </row>
-    <row r="59" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="36"/>
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
@@ -5457,7 +5487,7 @@
       <c r="P59" s="38"/>
       <c r="Q59" s="38"/>
     </row>
-    <row r="60" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="36"/>
       <c r="B60" s="36"/>
       <c r="C60" s="36"/>
@@ -5474,7 +5504,7 @@
       <c r="P60" s="38"/>
       <c r="Q60" s="38"/>
     </row>
-    <row r="61" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="36"/>
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
@@ -5491,7 +5521,7 @@
       <c r="P61" s="38"/>
       <c r="Q61" s="38"/>
     </row>
-    <row r="62" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="36"/>
       <c r="B62" s="36"/>
       <c r="C62" s="36"/>
@@ -5508,7 +5538,7 @@
       <c r="P62" s="38"/>
       <c r="Q62" s="38"/>
     </row>
-    <row r="63" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="36"/>
       <c r="B63" s="36"/>
       <c r="C63" s="36"/>
@@ -5525,7 +5555,7 @@
       <c r="P63" s="38"/>
       <c r="Q63" s="38"/>
     </row>
-    <row r="64" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:52" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="36"/>
       <c r="B64" s="36"/>
       <c r="C64" s="36"/>
@@ -5542,7 +5572,7 @@
       <c r="P64" s="38"/>
       <c r="Q64" s="38"/>
     </row>
-    <row r="65" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="36"/>
       <c r="B65" s="36"/>
       <c r="C65" s="36"/>
@@ -5559,7 +5589,7 @@
       <c r="P65" s="38"/>
       <c r="Q65" s="38"/>
     </row>
-    <row r="66" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="36"/>
       <c r="B66" s="36"/>
       <c r="C66" s="36"/>
@@ -5576,7 +5606,7 @@
       <c r="P66" s="38"/>
       <c r="Q66" s="38"/>
     </row>
-    <row r="67" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="36"/>
       <c r="B67" s="36"/>
       <c r="C67" s="36"/>
@@ -5593,7 +5623,7 @@
       <c r="P67" s="38"/>
       <c r="Q67" s="38"/>
     </row>
-    <row r="68" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="36"/>
       <c r="B68" s="36"/>
       <c r="C68" s="36"/>
@@ -5610,7 +5640,7 @@
       <c r="P68" s="38"/>
       <c r="Q68" s="38"/>
     </row>
-    <row r="69" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="36"/>
       <c r="B69" s="36"/>
       <c r="C69" s="36"/>
@@ -5627,7 +5657,7 @@
       <c r="P69" s="38"/>
       <c r="Q69" s="38"/>
     </row>
-    <row r="70" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="36"/>
       <c r="B70" s="36"/>
       <c r="C70" s="36"/>
@@ -5650,7 +5680,7 @@
       <c r="T70" s="49"/>
       <c r="U70" s="49"/>
     </row>
-    <row r="71" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="36"/>
       <c r="B71" s="36"/>
       <c r="C71" s="36"/>
@@ -5673,7 +5703,7 @@
       <c r="T71" s="49"/>
       <c r="U71" s="49"/>
     </row>
-    <row r="72" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="36"/>
       <c r="B72" s="36"/>
       <c r="C72" s="36"/>
@@ -5696,7 +5726,7 @@
       <c r="T72" s="49"/>
       <c r="U72" s="49"/>
     </row>
-    <row r="73" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="36"/>
       <c r="B73" s="36"/>
       <c r="C73" s="36"/>
@@ -5719,7 +5749,7 @@
       <c r="T73" s="49"/>
       <c r="U73" s="49"/>
     </row>
-    <row r="74" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="36"/>
       <c r="B74" s="36"/>
       <c r="C74" s="36"/>
@@ -5742,7 +5772,7 @@
       <c r="T74" s="49"/>
       <c r="U74" s="49"/>
     </row>
-    <row r="75" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="36"/>
       <c r="B75" s="36"/>
       <c r="C75" s="36"/>
@@ -5765,7 +5795,7 @@
       <c r="T75" s="49"/>
       <c r="U75" s="49"/>
     </row>
-    <row r="76" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="36"/>
       <c r="B76" s="36"/>
       <c r="C76" s="36"/>
@@ -5788,7 +5818,7 @@
       <c r="T76" s="49"/>
       <c r="U76" s="49"/>
     </row>
-    <row r="77" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="36"/>
       <c r="B77" s="36"/>
       <c r="C77" s="36"/>
@@ -5811,7 +5841,7 @@
       <c r="T77" s="49"/>
       <c r="U77" s="49"/>
     </row>
-    <row r="78" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="36"/>
       <c r="B78" s="36"/>
       <c r="C78" s="36"/>
@@ -5834,7 +5864,7 @@
       <c r="T78" s="49"/>
       <c r="U78" s="49"/>
     </row>
-    <row r="79" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="36"/>
       <c r="B79" s="36"/>
       <c r="C79" s="36"/>
@@ -5857,7 +5887,7 @@
       <c r="T79" s="49"/>
       <c r="U79" s="49"/>
     </row>
-    <row r="80" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="36"/>
       <c r="B80" s="36"/>
       <c r="C80" s="36"/>
@@ -5880,7 +5910,7 @@
       <c r="T80" s="49"/>
       <c r="U80" s="49"/>
     </row>
-    <row r="81" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36"/>
       <c r="B81" s="36"/>
       <c r="C81" s="36"/>
@@ -5903,7 +5933,7 @@
       <c r="T81" s="49"/>
       <c r="U81" s="49"/>
     </row>
-    <row r="82" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="36"/>
       <c r="B82" s="36"/>
       <c r="C82" s="36"/>
@@ -5926,7 +5956,7 @@
       <c r="T82" s="49"/>
       <c r="U82" s="49"/>
     </row>
-    <row r="83" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="36"/>
       <c r="B83" s="36"/>
       <c r="C83" s="36"/>
@@ -5949,7 +5979,7 @@
       <c r="T83" s="49"/>
       <c r="U83" s="49"/>
     </row>
-    <row r="84" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="36"/>
       <c r="B84" s="36"/>
       <c r="C84" s="36"/>
@@ -5972,7 +6002,7 @@
       <c r="T84" s="49"/>
       <c r="U84" s="49"/>
     </row>
-    <row r="85" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="36"/>
       <c r="B85" s="36"/>
       <c r="C85" s="36"/>
@@ -5995,7 +6025,7 @@
       <c r="T85" s="49"/>
       <c r="U85" s="49"/>
     </row>
-    <row r="86" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="36"/>
       <c r="B86" s="36"/>
       <c r="C86" s="36"/>
@@ -6018,7 +6048,7 @@
       <c r="T86" s="49"/>
       <c r="U86" s="49"/>
     </row>
-    <row r="87" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="36"/>
       <c r="B87" s="36"/>
       <c r="C87" s="36"/>
@@ -6041,7 +6071,7 @@
       <c r="T87" s="49"/>
       <c r="U87" s="49"/>
     </row>
-    <row r="88" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="36"/>
       <c r="B88" s="36"/>
       <c r="C88" s="36"/>
@@ -6064,7 +6094,7 @@
       <c r="T88" s="49"/>
       <c r="U88" s="49"/>
     </row>
-    <row r="89" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="36"/>
       <c r="B89" s="36"/>
       <c r="C89" s="36"/>
@@ -6087,7 +6117,7 @@
       <c r="T89" s="49"/>
       <c r="U89" s="49"/>
     </row>
-    <row r="90" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="36"/>
       <c r="B90" s="36"/>
       <c r="C90" s="36"/>
@@ -6110,7 +6140,7 @@
       <c r="T90" s="49"/>
       <c r="U90" s="49"/>
     </row>
-    <row r="91" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="36"/>
       <c r="B91" s="36"/>
       <c r="C91" s="36"/>
@@ -6133,7 +6163,7 @@
       <c r="T91" s="49"/>
       <c r="U91" s="49"/>
     </row>
-    <row r="92" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="36"/>
       <c r="B92" s="36"/>
       <c r="C92" s="36"/>
@@ -6156,7 +6186,7 @@
       <c r="T92" s="49"/>
       <c r="U92" s="49"/>
     </row>
-    <row r="93" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="36"/>
       <c r="B93" s="36"/>
       <c r="C93" s="36"/>
@@ -6179,7 +6209,7 @@
       <c r="T93" s="49"/>
       <c r="U93" s="49"/>
     </row>
-    <row r="94" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="36"/>
       <c r="B94" s="36"/>
       <c r="C94" s="36"/>
@@ -6202,7 +6232,7 @@
       <c r="T94" s="49"/>
       <c r="U94" s="49"/>
     </row>
-    <row r="95" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="36"/>
       <c r="B95" s="36"/>
       <c r="C95" s="36"/>
@@ -6225,7 +6255,7 @@
       <c r="T95" s="49"/>
       <c r="U95" s="49"/>
     </row>
-    <row r="96" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="36"/>
       <c r="B96" s="36"/>
       <c r="C96" s="36"/>
@@ -6248,7 +6278,7 @@
       <c r="T96" s="49"/>
       <c r="U96" s="49"/>
     </row>
-    <row r="97" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="36"/>
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
@@ -6271,7 +6301,7 @@
       <c r="T97" s="49"/>
       <c r="U97" s="49"/>
     </row>
-    <row r="98" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="36"/>
       <c r="B98" s="36"/>
       <c r="C98" s="36"/>
@@ -6294,7 +6324,7 @@
       <c r="T98" s="49"/>
       <c r="U98" s="49"/>
     </row>
-    <row r="99" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36"/>
       <c r="B99" s="36"/>
       <c r="C99" s="36"/>
@@ -6317,7 +6347,7 @@
       <c r="T99" s="49"/>
       <c r="U99" s="49"/>
     </row>
-    <row r="100" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="36"/>
       <c r="B100" s="36"/>
       <c r="C100" s="36"/>
@@ -6340,7 +6370,7 @@
       <c r="T100" s="49"/>
       <c r="U100" s="49"/>
     </row>
-    <row r="101" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="36"/>
       <c r="B101" s="36"/>
       <c r="C101" s="36"/>
@@ -6363,7 +6393,7 @@
       <c r="T101" s="49"/>
       <c r="U101" s="49"/>
     </row>
-    <row r="102" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="36"/>
       <c r="B102" s="36"/>
       <c r="C102" s="36"/>
@@ -6386,7 +6416,7 @@
       <c r="T102" s="49"/>
       <c r="U102" s="49"/>
     </row>
-    <row r="103" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="36"/>
       <c r="B103" s="36"/>
       <c r="C103" s="36"/>
@@ -6409,7 +6439,7 @@
       <c r="T103" s="49"/>
       <c r="U103" s="49"/>
     </row>
-    <row r="104" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="36"/>
       <c r="B104" s="36"/>
       <c r="C104" s="36"/>
@@ -6432,7 +6462,7 @@
       <c r="T104" s="49"/>
       <c r="U104" s="49"/>
     </row>
-    <row r="105" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="36"/>
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
@@ -6455,7 +6485,7 @@
       <c r="T105" s="49"/>
       <c r="U105" s="49"/>
     </row>
-    <row r="106" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="36"/>
       <c r="B106" s="36"/>
       <c r="C106" s="36"/>
@@ -6478,7 +6508,7 @@
       <c r="T106" s="49"/>
       <c r="U106" s="49"/>
     </row>
-    <row r="107" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="36"/>
       <c r="B107" s="36"/>
       <c r="C107" s="36"/>
@@ -6501,7 +6531,7 @@
       <c r="T107" s="49"/>
       <c r="U107" s="49"/>
     </row>
-    <row r="108" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="36"/>
       <c r="B108" s="36"/>
       <c r="C108" s="36"/>
@@ -6524,7 +6554,7 @@
       <c r="T108" s="49"/>
       <c r="U108" s="49"/>
     </row>
-    <row r="109" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="36"/>
       <c r="B109" s="36"/>
       <c r="C109" s="36"/>
@@ -6547,7 +6577,7 @@
       <c r="T109" s="49"/>
       <c r="U109" s="49"/>
     </row>
-    <row r="110" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="36"/>
       <c r="B110" s="36"/>
       <c r="C110" s="36"/>
@@ -6570,7 +6600,7 @@
       <c r="T110" s="49"/>
       <c r="U110" s="49"/>
     </row>
-    <row r="111" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="36"/>
       <c r="B111" s="36"/>
       <c r="C111" s="36"/>
@@ -6593,7 +6623,7 @@
       <c r="T111" s="49"/>
       <c r="U111" s="49"/>
     </row>
-    <row r="112" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="36"/>
       <c r="B112" s="36"/>
       <c r="C112" s="36"/>
@@ -6616,7 +6646,7 @@
       <c r="T112" s="49"/>
       <c r="U112" s="49"/>
     </row>
-    <row r="113" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="36"/>
       <c r="B113" s="36"/>
       <c r="C113" s="36"/>
@@ -6639,7 +6669,7 @@
       <c r="T113" s="49"/>
       <c r="U113" s="49"/>
     </row>
-    <row r="114" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="36"/>
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
@@ -6662,7 +6692,7 @@
       <c r="T114" s="49"/>
       <c r="U114" s="49"/>
     </row>
-    <row r="115" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="36"/>
       <c r="B115" s="36"/>
       <c r="C115" s="36"/>
@@ -6685,7 +6715,7 @@
       <c r="T115" s="49"/>
       <c r="U115" s="49"/>
     </row>
-    <row r="116" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="36"/>
       <c r="B116" s="36"/>
       <c r="C116" s="36"/>
@@ -6708,7 +6738,7 @@
       <c r="T116" s="49"/>
       <c r="U116" s="49"/>
     </row>
-    <row r="117" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="36"/>
       <c r="B117" s="36"/>
       <c r="C117" s="36"/>
@@ -6731,7 +6761,7 @@
       <c r="T117" s="49"/>
       <c r="U117" s="49"/>
     </row>
-    <row r="118" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="36"/>
       <c r="B118" s="36"/>
       <c r="C118" s="36"/>
@@ -6754,7 +6784,7 @@
       <c r="T118" s="49"/>
       <c r="U118" s="49"/>
     </row>
-    <row r="119" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="36"/>
       <c r="B119" s="36"/>
       <c r="C119" s="36"/>
@@ -6777,7 +6807,7 @@
       <c r="T119" s="49"/>
       <c r="U119" s="49"/>
     </row>
-    <row r="120" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="36"/>
       <c r="B120" s="36"/>
       <c r="C120" s="36"/>
@@ -6800,7 +6830,7 @@
       <c r="T120" s="49"/>
       <c r="U120" s="49"/>
     </row>
-    <row r="121" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="36"/>
       <c r="B121" s="36"/>
       <c r="C121" s="36"/>
@@ -6823,7 +6853,7 @@
       <c r="T121" s="49"/>
       <c r="U121" s="49"/>
     </row>
-    <row r="122" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="36"/>
       <c r="B122" s="36"/>
       <c r="C122" s="36"/>
@@ -6846,7 +6876,7 @@
       <c r="T122" s="49"/>
       <c r="U122" s="49"/>
     </row>
-    <row r="123" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="36"/>
       <c r="B123" s="36"/>
       <c r="C123" s="36"/>
@@ -6869,7 +6899,7 @@
       <c r="T123" s="49"/>
       <c r="U123" s="49"/>
     </row>
-    <row r="124" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="36"/>
       <c r="B124" s="36"/>
       <c r="C124" s="36"/>
@@ -6892,7 +6922,7 @@
       <c r="T124" s="49"/>
       <c r="U124" s="49"/>
     </row>
-    <row r="125" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="36"/>
       <c r="B125" s="36"/>
       <c r="C125" s="36"/>
@@ -6915,7 +6945,7 @@
       <c r="T125" s="49"/>
       <c r="U125" s="49"/>
     </row>
-    <row r="126" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="36"/>
       <c r="B126" s="36"/>
       <c r="C126" s="36"/>
@@ -6938,7 +6968,7 @@
       <c r="T126" s="49"/>
       <c r="U126" s="49"/>
     </row>
-    <row r="127" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="36"/>
       <c r="B127" s="36"/>
       <c r="C127" s="36"/>
@@ -6961,7 +6991,7 @@
       <c r="T127" s="49"/>
       <c r="U127" s="49"/>
     </row>
-    <row r="128" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="36"/>
       <c r="B128" s="36"/>
       <c r="C128" s="36"/>
@@ -6984,7 +7014,7 @@
       <c r="T128" s="49"/>
       <c r="U128" s="49"/>
     </row>
-    <row r="129" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="36"/>
       <c r="B129" s="36"/>
       <c r="C129" s="36"/>
@@ -7007,7 +7037,7 @@
       <c r="T129" s="49"/>
       <c r="U129" s="49"/>
     </row>
-    <row r="130" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="36"/>
       <c r="B130" s="36"/>
       <c r="C130" s="36"/>
@@ -7030,7 +7060,7 @@
       <c r="T130" s="49"/>
       <c r="U130" s="49"/>
     </row>
-    <row r="131" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="36"/>
       <c r="B131" s="36"/>
       <c r="C131" s="36"/>
@@ -7053,7 +7083,7 @@
       <c r="T131" s="49"/>
       <c r="U131" s="49"/>
     </row>
-    <row r="132" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="36"/>
       <c r="B132" s="36"/>
       <c r="C132" s="36"/>
@@ -7076,7 +7106,7 @@
       <c r="T132" s="49"/>
       <c r="U132" s="49"/>
     </row>
-    <row r="133" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="36"/>
       <c r="B133" s="36"/>
       <c r="C133" s="36"/>
@@ -7099,7 +7129,7 @@
       <c r="T133" s="49"/>
       <c r="U133" s="49"/>
     </row>
-    <row r="134" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="36"/>
       <c r="B134" s="36"/>
       <c r="C134" s="36"/>
@@ -7122,7 +7152,7 @@
       <c r="T134" s="49"/>
       <c r="U134" s="49"/>
     </row>
-    <row r="135" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="36"/>
       <c r="B135" s="36"/>
       <c r="C135" s="36"/>
@@ -7145,7 +7175,7 @@
       <c r="T135" s="49"/>
       <c r="U135" s="49"/>
     </row>
-    <row r="136" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="36"/>
       <c r="B136" s="36"/>
       <c r="C136" s="36"/>
@@ -7168,7 +7198,7 @@
       <c r="T136" s="49"/>
       <c r="U136" s="49"/>
     </row>
-    <row r="137" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="36"/>
       <c r="B137" s="36"/>
       <c r="C137" s="36"/>
@@ -7191,7 +7221,7 @@
       <c r="T137" s="49"/>
       <c r="U137" s="49"/>
     </row>
-    <row r="138" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="36"/>
       <c r="B138" s="36"/>
       <c r="C138" s="36"/>
@@ -7214,7 +7244,7 @@
       <c r="T138" s="49"/>
       <c r="U138" s="49"/>
     </row>
-    <row r="139" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="36"/>
       <c r="B139" s="36"/>
       <c r="C139" s="36"/>
@@ -7237,7 +7267,7 @@
       <c r="T139" s="49"/>
       <c r="U139" s="49"/>
     </row>
-    <row r="140" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="36"/>
       <c r="B140" s="36"/>
       <c r="C140" s="36"/>
@@ -7260,7 +7290,7 @@
       <c r="T140" s="49"/>
       <c r="U140" s="49"/>
     </row>
-    <row r="141" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="36"/>
       <c r="B141" s="36"/>
       <c r="C141" s="36"/>
@@ -7283,7 +7313,7 @@
       <c r="T141" s="49"/>
       <c r="U141" s="49"/>
     </row>
-    <row r="142" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="36"/>
       <c r="B142" s="36"/>
       <c r="C142" s="36"/>
@@ -7306,7 +7336,7 @@
       <c r="T142" s="49"/>
       <c r="U142" s="49"/>
     </row>
-    <row r="143" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="36"/>
       <c r="B143" s="36"/>
       <c r="C143" s="36"/>
@@ -7329,7 +7359,7 @@
       <c r="T143" s="49"/>
       <c r="U143" s="49"/>
     </row>
-    <row r="144" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="36"/>
       <c r="B144" s="36"/>
       <c r="C144" s="36"/>
@@ -7352,7 +7382,7 @@
       <c r="T144" s="49"/>
       <c r="U144" s="49"/>
     </row>
-    <row r="145" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="36"/>
       <c r="B145" s="36"/>
       <c r="C145" s="36"/>
@@ -7375,7 +7405,7 @@
       <c r="T145" s="49"/>
       <c r="U145" s="49"/>
     </row>
-    <row r="146" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="36"/>
       <c r="B146" s="36"/>
       <c r="C146" s="36"/>
@@ -7398,7 +7428,7 @@
       <c r="T146" s="49"/>
       <c r="U146" s="49"/>
     </row>
-    <row r="147" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="36"/>
       <c r="B147" s="36"/>
       <c r="C147" s="36"/>
@@ -7421,7 +7451,7 @@
       <c r="T147" s="49"/>
       <c r="U147" s="49"/>
     </row>
-    <row r="148" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="36"/>
       <c r="B148" s="36"/>
       <c r="C148" s="36"/>
@@ -7444,7 +7474,7 @@
       <c r="T148" s="49"/>
       <c r="U148" s="49"/>
     </row>
-    <row r="149" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="36"/>
       <c r="B149" s="36"/>
       <c r="C149" s="36"/>
@@ -7467,7 +7497,7 @@
       <c r="T149" s="49"/>
       <c r="U149" s="49"/>
     </row>
-    <row r="150" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="36"/>
       <c r="B150" s="36"/>
       <c r="C150" s="36"/>
@@ -7490,7 +7520,7 @@
       <c r="T150" s="49"/>
       <c r="U150" s="49"/>
     </row>
-    <row r="151" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="36"/>
       <c r="B151" s="36"/>
       <c r="C151" s="36"/>
@@ -7513,7 +7543,7 @@
       <c r="T151" s="49"/>
       <c r="U151" s="49"/>
     </row>
-    <row r="152" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="36"/>
       <c r="B152" s="36"/>
       <c r="C152" s="36"/>
@@ -7536,7 +7566,7 @@
       <c r="T152" s="49"/>
       <c r="U152" s="49"/>
     </row>
-    <row r="153" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="36"/>
       <c r="B153" s="36"/>
       <c r="C153" s="36"/>
@@ -7559,7 +7589,7 @@
       <c r="T153" s="49"/>
       <c r="U153" s="49"/>
     </row>
-    <row r="154" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="36"/>
       <c r="B154" s="36"/>
       <c r="C154" s="36"/>
@@ -7582,7 +7612,7 @@
       <c r="T154" s="49"/>
       <c r="U154" s="49"/>
     </row>
-    <row r="155" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="36"/>
       <c r="B155" s="36"/>
       <c r="C155" s="36"/>
@@ -7605,7 +7635,7 @@
       <c r="T155" s="49"/>
       <c r="U155" s="49"/>
     </row>
-    <row r="156" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="36"/>
       <c r="B156" s="36"/>
       <c r="C156" s="36"/>
@@ -7628,7 +7658,7 @@
       <c r="T156" s="49"/>
       <c r="U156" s="49"/>
     </row>
-    <row r="157" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="36"/>
       <c r="B157" s="36"/>
       <c r="C157" s="36"/>
@@ -7651,7 +7681,7 @@
       <c r="T157" s="49"/>
       <c r="U157" s="49"/>
     </row>
-    <row r="158" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="36"/>
       <c r="B158" s="36"/>
       <c r="C158" s="36"/>
@@ -7674,7 +7704,7 @@
       <c r="T158" s="49"/>
       <c r="U158" s="49"/>
     </row>
-    <row r="159" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="36"/>
       <c r="B159" s="36"/>
       <c r="C159" s="36"/>
@@ -7697,7 +7727,7 @@
       <c r="T159" s="49"/>
       <c r="U159" s="49"/>
     </row>
-    <row r="160" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="36"/>
       <c r="B160" s="36"/>
       <c r="C160" s="36"/>
@@ -7720,7 +7750,7 @@
       <c r="T160" s="49"/>
       <c r="U160" s="49"/>
     </row>
-    <row r="161" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="36"/>
       <c r="B161" s="36"/>
       <c r="C161" s="36"/>
@@ -7743,7 +7773,7 @@
       <c r="T161" s="49"/>
       <c r="U161" s="49"/>
     </row>
-    <row r="162" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="36"/>
       <c r="B162" s="36"/>
       <c r="C162" s="36"/>
@@ -7766,7 +7796,7 @@
       <c r="T162" s="49"/>
       <c r="U162" s="49"/>
     </row>
-    <row r="163" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="36"/>
       <c r="B163" s="36"/>
       <c r="C163" s="36"/>
@@ -7789,7 +7819,7 @@
       <c r="T163" s="49"/>
       <c r="U163" s="49"/>
     </row>
-    <row r="164" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="36"/>
       <c r="B164" s="36"/>
       <c r="C164" s="36"/>
@@ -7812,7 +7842,7 @@
       <c r="T164" s="49"/>
       <c r="U164" s="49"/>
     </row>
-    <row r="165" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="36"/>
       <c r="B165" s="36"/>
       <c r="C165" s="36"/>
@@ -7835,7 +7865,7 @@
       <c r="T165" s="49"/>
       <c r="U165" s="49"/>
     </row>
-    <row r="166" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="36"/>
       <c r="B166" s="36"/>
       <c r="C166" s="36"/>
@@ -7858,7 +7888,7 @@
       <c r="T166" s="49"/>
       <c r="U166" s="49"/>
     </row>
-    <row r="167" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="36"/>
       <c r="B167" s="36"/>
       <c r="C167" s="36"/>
@@ -7881,7 +7911,7 @@
       <c r="T167" s="49"/>
       <c r="U167" s="49"/>
     </row>
-    <row r="168" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="36"/>
       <c r="B168" s="36"/>
       <c r="C168" s="36"/>
@@ -7904,7 +7934,7 @@
       <c r="T168" s="49"/>
       <c r="U168" s="49"/>
     </row>
-    <row r="169" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="36"/>
       <c r="B169" s="36"/>
       <c r="C169" s="36"/>
@@ -7927,7 +7957,7 @@
       <c r="T169" s="49"/>
       <c r="U169" s="49"/>
     </row>
-    <row r="170" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="36"/>
       <c r="B170" s="36"/>
       <c r="C170" s="36"/>
@@ -7950,7 +7980,7 @@
       <c r="T170" s="49"/>
       <c r="U170" s="49"/>
     </row>
-    <row r="171" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="36"/>
       <c r="B171" s="36"/>
       <c r="C171" s="36"/>
@@ -7973,7 +8003,7 @@
       <c r="T171" s="49"/>
       <c r="U171" s="49"/>
     </row>
-    <row r="172" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="36"/>
       <c r="B172" s="36"/>
       <c r="C172" s="36"/>
@@ -7996,7 +8026,7 @@
       <c r="T172" s="49"/>
       <c r="U172" s="49"/>
     </row>
-    <row r="173" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="36"/>
       <c r="B173" s="36"/>
       <c r="C173" s="36"/>
@@ -8019,7 +8049,7 @@
       <c r="T173" s="49"/>
       <c r="U173" s="49"/>
     </row>
-    <row r="174" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="36"/>
       <c r="B174" s="36"/>
       <c r="C174" s="36"/>
@@ -8042,7 +8072,7 @@
       <c r="T174" s="49"/>
       <c r="U174" s="49"/>
     </row>
-    <row r="175" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="36"/>
       <c r="B175" s="36"/>
       <c r="C175" s="36"/>
@@ -8065,7 +8095,7 @@
       <c r="T175" s="49"/>
       <c r="U175" s="49"/>
     </row>
-    <row r="176" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="36"/>
       <c r="B176" s="36"/>
       <c r="C176" s="36"/>
@@ -8088,7 +8118,7 @@
       <c r="T176" s="49"/>
       <c r="U176" s="49"/>
     </row>
-    <row r="177" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="36"/>
       <c r="B177" s="36"/>
       <c r="C177" s="36"/>
@@ -8111,7 +8141,7 @@
       <c r="T177" s="49"/>
       <c r="U177" s="49"/>
     </row>
-    <row r="178" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="36"/>
       <c r="B178" s="36"/>
       <c r="C178" s="36"/>
@@ -8134,7 +8164,7 @@
       <c r="T178" s="49"/>
       <c r="U178" s="49"/>
     </row>
-    <row r="179" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="36"/>
       <c r="B179" s="36"/>
       <c r="C179" s="36"/>
@@ -8157,7 +8187,7 @@
       <c r="T179" s="49"/>
       <c r="U179" s="49"/>
     </row>
-    <row r="180" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="36"/>
       <c r="B180" s="36"/>
       <c r="C180" s="36"/>
@@ -8180,7 +8210,7 @@
       <c r="T180" s="49"/>
       <c r="U180" s="49"/>
     </row>
-    <row r="181" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="36"/>
       <c r="B181" s="36"/>
       <c r="C181" s="36"/>
@@ -8203,7 +8233,7 @@
       <c r="T181" s="49"/>
       <c r="U181" s="49"/>
     </row>
-    <row r="182" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="36"/>
       <c r="B182" s="36"/>
       <c r="C182" s="36"/>
@@ -8226,7 +8256,7 @@
       <c r="T182" s="49"/>
       <c r="U182" s="49"/>
     </row>
-    <row r="183" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="36"/>
       <c r="B183" s="36"/>
       <c r="C183" s="36"/>
@@ -8249,7 +8279,7 @@
       <c r="T183" s="49"/>
       <c r="U183" s="49"/>
     </row>
-    <row r="184" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="36"/>
       <c r="B184" s="36"/>
       <c r="C184" s="36"/>
@@ -8272,7 +8302,7 @@
       <c r="T184" s="49"/>
       <c r="U184" s="49"/>
     </row>
-    <row r="185" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="36"/>
       <c r="B185" s="36"/>
       <c r="C185" s="36"/>
@@ -8295,7 +8325,7 @@
       <c r="T185" s="49"/>
       <c r="U185" s="49"/>
     </row>
-    <row r="186" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="36"/>
       <c r="B186" s="36"/>
       <c r="C186" s="36"/>
@@ -8318,7 +8348,7 @@
       <c r="T186" s="49"/>
       <c r="U186" s="49"/>
     </row>
-    <row r="187" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="36"/>
       <c r="B187" s="36"/>
       <c r="C187" s="36"/>
@@ -8341,7 +8371,7 @@
       <c r="T187" s="49"/>
       <c r="U187" s="49"/>
     </row>
-    <row r="188" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="36"/>
       <c r="B188" s="36"/>
       <c r="C188" s="36"/>
@@ -8364,7 +8394,7 @@
       <c r="T188" s="49"/>
       <c r="U188" s="49"/>
     </row>
-    <row r="189" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="36"/>
       <c r="B189" s="36"/>
       <c r="C189" s="36"/>
@@ -8387,7 +8417,7 @@
       <c r="T189" s="49"/>
       <c r="U189" s="49"/>
     </row>
-    <row r="190" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="36"/>
       <c r="B190" s="36"/>
       <c r="C190" s="36"/>
@@ -8410,7 +8440,7 @@
       <c r="T190" s="49"/>
       <c r="U190" s="49"/>
     </row>
-    <row r="191" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="36"/>
       <c r="B191" s="36"/>
       <c r="C191" s="36"/>
@@ -8433,7 +8463,7 @@
       <c r="T191" s="49"/>
       <c r="U191" s="49"/>
     </row>
-    <row r="192" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="36"/>
       <c r="B192" s="36"/>
       <c r="C192" s="36"/>
@@ -8456,7 +8486,7 @@
       <c r="T192" s="49"/>
       <c r="U192" s="49"/>
     </row>
-    <row r="193" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="36"/>
       <c r="B193" s="36"/>
       <c r="C193" s="36"/>
@@ -8479,7 +8509,7 @@
       <c r="T193" s="49"/>
       <c r="U193" s="49"/>
     </row>
-    <row r="194" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="36"/>
       <c r="B194" s="36"/>
       <c r="C194" s="36"/>
@@ -8502,7 +8532,7 @@
       <c r="T194" s="49"/>
       <c r="U194" s="49"/>
     </row>
-    <row r="195" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="36"/>
       <c r="B195" s="36"/>
       <c r="C195" s="36"/>
@@ -8525,7 +8555,7 @@
       <c r="T195" s="49"/>
       <c r="U195" s="49"/>
     </row>
-    <row r="196" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="36"/>
       <c r="B196" s="36"/>
       <c r="C196" s="36"/>
@@ -8548,7 +8578,7 @@
       <c r="T196" s="49"/>
       <c r="U196" s="49"/>
     </row>
-    <row r="197" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="36"/>
       <c r="B197" s="36"/>
       <c r="C197" s="36"/>
@@ -8571,7 +8601,7 @@
       <c r="T197" s="49"/>
       <c r="U197" s="49"/>
     </row>
-    <row r="198" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="36"/>
       <c r="B198" s="36"/>
       <c r="C198" s="36"/>
@@ -8594,7 +8624,7 @@
       <c r="T198" s="49"/>
       <c r="U198" s="49"/>
     </row>
-    <row r="199" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="36"/>
       <c r="B199" s="36"/>
       <c r="C199" s="36"/>
@@ -8617,7 +8647,7 @@
       <c r="T199" s="49"/>
       <c r="U199" s="49"/>
     </row>
-    <row r="200" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="36"/>
       <c r="B200" s="36"/>
       <c r="C200" s="36"/>
@@ -8640,7 +8670,7 @@
       <c r="T200" s="49"/>
       <c r="U200" s="49"/>
     </row>
-    <row r="201" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="36"/>
       <c r="B201" s="36"/>
       <c r="C201" s="36"/>
@@ -8663,7 +8693,7 @@
       <c r="T201" s="49"/>
       <c r="U201" s="49"/>
     </row>
-    <row r="202" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="36"/>
       <c r="B202" s="36"/>
       <c r="C202" s="36"/>
@@ -8686,7 +8716,7 @@
       <c r="T202" s="49"/>
       <c r="U202" s="49"/>
     </row>
-    <row r="203" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="36"/>
       <c r="B203" s="36"/>
       <c r="C203" s="36"/>
@@ -8709,7 +8739,7 @@
       <c r="T203" s="49"/>
       <c r="U203" s="49"/>
     </row>
-    <row r="204" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="36"/>
       <c r="B204" s="36"/>
       <c r="C204" s="36"/>
@@ -8732,7 +8762,7 @@
       <c r="T204" s="49"/>
       <c r="U204" s="49"/>
     </row>
-    <row r="205" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="36"/>
       <c r="B205" s="36"/>
       <c r="C205" s="36"/>
@@ -8755,7 +8785,7 @@
       <c r="T205" s="49"/>
       <c r="U205" s="49"/>
     </row>
-    <row r="206" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="36"/>
       <c r="B206" s="36"/>
       <c r="C206" s="36"/>
@@ -8778,7 +8808,7 @@
       <c r="T206" s="49"/>
       <c r="U206" s="49"/>
     </row>
-    <row r="207" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="36"/>
       <c r="B207" s="36"/>
       <c r="C207" s="36"/>
@@ -8801,7 +8831,7 @@
       <c r="T207" s="49"/>
       <c r="U207" s="49"/>
     </row>
-    <row r="208" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="36"/>
       <c r="B208" s="36"/>
       <c r="C208" s="36"/>
@@ -8824,7 +8854,7 @@
       <c r="T208" s="49"/>
       <c r="U208" s="49"/>
     </row>
-    <row r="209" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="36"/>
       <c r="B209" s="36"/>
       <c r="C209" s="36"/>
@@ -8847,7 +8877,7 @@
       <c r="T209" s="49"/>
       <c r="U209" s="49"/>
     </row>
-    <row r="210" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="36"/>
       <c r="B210" s="36"/>
       <c r="C210" s="36"/>
@@ -8870,7 +8900,7 @@
       <c r="T210" s="49"/>
       <c r="U210" s="49"/>
     </row>
-    <row r="211" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="36"/>
       <c r="B211" s="36"/>
       <c r="C211" s="36"/>
@@ -8893,7 +8923,7 @@
       <c r="T211" s="49"/>
       <c r="U211" s="49"/>
     </row>
-    <row r="212" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="36"/>
       <c r="B212" s="36"/>
       <c r="C212" s="36"/>
@@ -8916,7 +8946,7 @@
       <c r="T212" s="49"/>
       <c r="U212" s="49"/>
     </row>
-    <row r="213" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="36"/>
       <c r="B213" s="36"/>
       <c r="C213" s="36"/>
@@ -8939,7 +8969,7 @@
       <c r="T213" s="49"/>
       <c r="U213" s="49"/>
     </row>
-    <row r="214" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="36"/>
       <c r="B214" s="36"/>
       <c r="C214" s="36"/>
@@ -8962,7 +8992,7 @@
       <c r="T214" s="49"/>
       <c r="U214" s="49"/>
     </row>
-    <row r="215" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="36"/>
       <c r="B215" s="36"/>
       <c r="C215" s="36"/>
@@ -8985,7 +9015,7 @@
       <c r="T215" s="49"/>
       <c r="U215" s="49"/>
     </row>
-    <row r="216" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="36"/>
       <c r="B216" s="36"/>
       <c r="C216" s="36"/>
@@ -9008,7 +9038,7 @@
       <c r="T216" s="49"/>
       <c r="U216" s="49"/>
     </row>
-    <row r="217" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="36"/>
       <c r="B217" s="36"/>
       <c r="C217" s="36"/>
@@ -9031,7 +9061,7 @@
       <c r="T217" s="49"/>
       <c r="U217" s="49"/>
     </row>
-    <row r="218" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="36"/>
       <c r="B218" s="36"/>
       <c r="C218" s="36"/>
@@ -9054,7 +9084,7 @@
       <c r="T218" s="49"/>
       <c r="U218" s="49"/>
     </row>
-    <row r="219" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="36"/>
       <c r="B219" s="36"/>
       <c r="C219" s="36"/>
@@ -9077,7 +9107,7 @@
       <c r="T219" s="49"/>
       <c r="U219" s="49"/>
     </row>
-    <row r="220" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="36"/>
       <c r="B220" s="36"/>
       <c r="C220" s="36"/>
@@ -9100,7 +9130,7 @@
       <c r="T220" s="49"/>
       <c r="U220" s="49"/>
     </row>
-    <row r="221" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="36"/>
       <c r="B221" s="36"/>
       <c r="C221" s="36"/>
@@ -9123,7 +9153,7 @@
       <c r="T221" s="49"/>
       <c r="U221" s="49"/>
     </row>
-    <row r="222" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="36"/>
       <c r="B222" s="36"/>
       <c r="C222" s="36"/>
@@ -9146,7 +9176,7 @@
       <c r="T222" s="49"/>
       <c r="U222" s="49"/>
     </row>
-    <row r="223" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="36"/>
       <c r="B223" s="36"/>
       <c r="C223" s="36"/>
@@ -9169,7 +9199,7 @@
       <c r="T223" s="49"/>
       <c r="U223" s="49"/>
     </row>
-    <row r="224" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="36"/>
       <c r="B224" s="36"/>
       <c r="C224" s="36"/>
@@ -9192,7 +9222,7 @@
       <c r="T224" s="49"/>
       <c r="U224" s="49"/>
     </row>
-    <row r="225" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="36"/>
       <c r="B225" s="36"/>
       <c r="C225" s="36"/>
@@ -9215,7 +9245,7 @@
       <c r="T225" s="49"/>
       <c r="U225" s="49"/>
     </row>
-    <row r="226" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="36"/>
       <c r="B226" s="36"/>
       <c r="C226" s="36"/>
@@ -9238,7 +9268,7 @@
       <c r="T226" s="49"/>
       <c r="U226" s="49"/>
     </row>
-    <row r="227" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="36"/>
       <c r="B227" s="36"/>
       <c r="C227" s="36"/>
@@ -9261,7 +9291,7 @@
       <c r="T227" s="49"/>
       <c r="U227" s="49"/>
     </row>
-    <row r="228" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="36"/>
       <c r="B228" s="36"/>
       <c r="C228" s="36"/>
@@ -9284,7 +9314,7 @@
       <c r="T228" s="49"/>
       <c r="U228" s="49"/>
     </row>
-    <row r="229" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="36"/>
       <c r="B229" s="36"/>
       <c r="C229" s="36"/>
@@ -9307,7 +9337,7 @@
       <c r="T229" s="49"/>
       <c r="U229" s="49"/>
     </row>
-    <row r="230" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="36"/>
       <c r="B230" s="36"/>
       <c r="C230" s="36"/>
@@ -9330,7 +9360,7 @@
       <c r="T230" s="49"/>
       <c r="U230" s="49"/>
     </row>
-    <row r="231" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="36"/>
       <c r="B231" s="36"/>
       <c r="C231" s="36"/>
@@ -9353,7 +9383,7 @@
       <c r="T231" s="49"/>
       <c r="U231" s="49"/>
     </row>
-    <row r="232" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="36"/>
       <c r="B232" s="36"/>
       <c r="C232" s="36"/>
@@ -9376,7 +9406,7 @@
       <c r="T232" s="49"/>
       <c r="U232" s="49"/>
     </row>
-    <row r="233" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="36"/>
       <c r="B233" s="36"/>
       <c r="C233" s="36"/>
@@ -9399,7 +9429,7 @@
       <c r="T233" s="49"/>
       <c r="U233" s="49"/>
     </row>
-    <row r="234" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="36"/>
       <c r="B234" s="36"/>
       <c r="C234" s="36"/>
@@ -9422,7 +9452,7 @@
       <c r="T234" s="49"/>
       <c r="U234" s="49"/>
     </row>
-    <row r="235" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="36"/>
       <c r="B235" s="36"/>
       <c r="C235" s="36"/>
@@ -9445,7 +9475,7 @@
       <c r="T235" s="49"/>
       <c r="U235" s="49"/>
     </row>
-    <row r="236" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="36"/>
       <c r="B236" s="36"/>
       <c r="C236" s="36"/>
@@ -9468,7 +9498,7 @@
       <c r="T236" s="49"/>
       <c r="U236" s="49"/>
     </row>
-    <row r="237" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="36"/>
       <c r="B237" s="36"/>
       <c r="C237" s="36"/>
@@ -9491,7 +9521,7 @@
       <c r="T237" s="49"/>
       <c r="U237" s="49"/>
     </row>
-    <row r="238" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="36"/>
       <c r="B238" s="36"/>
       <c r="C238" s="36"/>
@@ -9514,7 +9544,7 @@
       <c r="T238" s="49"/>
       <c r="U238" s="49"/>
     </row>
-    <row r="239" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="36"/>
       <c r="B239" s="36"/>
       <c r="C239" s="36"/>
@@ -9537,7 +9567,7 @@
       <c r="T239" s="49"/>
       <c r="U239" s="49"/>
     </row>
-    <row r="240" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="36"/>
       <c r="B240" s="36"/>
       <c r="C240" s="36"/>
@@ -9560,7 +9590,7 @@
       <c r="T240" s="49"/>
       <c r="U240" s="49"/>
     </row>
-    <row r="241" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="36"/>
       <c r="B241" s="36"/>
       <c r="C241" s="36"/>
@@ -9583,7 +9613,7 @@
       <c r="T241" s="49"/>
       <c r="U241" s="49"/>
     </row>
-    <row r="242" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="36"/>
       <c r="B242" s="36"/>
       <c r="C242" s="36"/>
@@ -9606,7 +9636,7 @@
       <c r="T242" s="49"/>
       <c r="U242" s="49"/>
     </row>
-    <row r="243" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="36"/>
       <c r="B243" s="36"/>
       <c r="C243" s="36"/>
@@ -9629,7 +9659,7 @@
       <c r="T243" s="49"/>
       <c r="U243" s="49"/>
     </row>
-    <row r="244" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="36"/>
       <c r="B244" s="36"/>
       <c r="C244" s="36"/>
@@ -9652,7 +9682,7 @@
       <c r="T244" s="49"/>
       <c r="U244" s="49"/>
     </row>
-    <row r="245" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="36"/>
       <c r="B245" s="36"/>
       <c r="C245" s="36"/>
@@ -9675,7 +9705,7 @@
       <c r="T245" s="49"/>
       <c r="U245" s="49"/>
     </row>
-    <row r="246" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="36"/>
       <c r="B246" s="36"/>
       <c r="C246" s="36"/>
@@ -9698,7 +9728,7 @@
       <c r="T246" s="49"/>
       <c r="U246" s="49"/>
     </row>
-    <row r="247" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="36"/>
       <c r="B247" s="36"/>
       <c r="C247" s="36"/>
@@ -9721,7 +9751,7 @@
       <c r="T247" s="49"/>
       <c r="U247" s="49"/>
     </row>
-    <row r="248" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="36"/>
       <c r="B248" s="36"/>
       <c r="C248" s="36"/>
@@ -9744,7 +9774,7 @@
       <c r="T248" s="49"/>
       <c r="U248" s="49"/>
     </row>
-    <row r="249" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="36"/>
       <c r="B249" s="36"/>
       <c r="C249" s="36"/>
@@ -9767,7 +9797,7 @@
       <c r="T249" s="49"/>
       <c r="U249" s="49"/>
     </row>
-    <row r="250" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="36"/>
       <c r="B250" s="36"/>
       <c r="C250" s="36"/>
@@ -9790,7 +9820,7 @@
       <c r="T250" s="49"/>
       <c r="U250" s="49"/>
     </row>
-    <row r="251" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="36"/>
       <c r="B251" s="36"/>
       <c r="C251" s="36"/>
@@ -9813,7 +9843,7 @@
       <c r="T251" s="49"/>
       <c r="U251" s="49"/>
     </row>
-    <row r="252" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="36"/>
       <c r="B252" s="36"/>
       <c r="C252" s="36"/>
@@ -9836,7 +9866,7 @@
       <c r="T252" s="49"/>
       <c r="U252" s="49"/>
     </row>
-    <row r="253" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="36"/>
       <c r="B253" s="36"/>
       <c r="C253" s="36"/>
@@ -9859,7 +9889,7 @@
       <c r="T253" s="49"/>
       <c r="U253" s="49"/>
     </row>
-    <row r="254" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="36"/>
       <c r="B254" s="36"/>
       <c r="C254" s="36"/>
@@ -9882,7 +9912,7 @@
       <c r="T254" s="49"/>
       <c r="U254" s="49"/>
     </row>
-    <row r="255" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="36"/>
       <c r="B255" s="36"/>
       <c r="C255" s="36"/>
@@ -9905,7 +9935,7 @@
       <c r="T255" s="49"/>
       <c r="U255" s="49"/>
     </row>
-    <row r="256" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="36"/>
       <c r="B256" s="36"/>
       <c r="C256" s="36"/>
@@ -9928,7 +9958,7 @@
       <c r="T256" s="49"/>
       <c r="U256" s="49"/>
     </row>
-    <row r="257" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="36"/>
       <c r="B257" s="36"/>
       <c r="C257" s="36"/>
@@ -9951,7 +9981,7 @@
       <c r="T257" s="49"/>
       <c r="U257" s="49"/>
     </row>
-    <row r="258" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="36"/>
       <c r="B258" s="36"/>
       <c r="C258" s="36"/>
@@ -9974,7 +10004,7 @@
       <c r="T258" s="49"/>
       <c r="U258" s="49"/>
     </row>
-    <row r="259" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="36"/>
       <c r="B259" s="36"/>
       <c r="C259" s="36"/>
@@ -9997,7 +10027,7 @@
       <c r="T259" s="49"/>
       <c r="U259" s="49"/>
     </row>
-    <row r="260" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="36"/>
       <c r="B260" s="36"/>
       <c r="C260" s="36"/>
@@ -10020,7 +10050,7 @@
       <c r="T260" s="49"/>
       <c r="U260" s="49"/>
     </row>
-    <row r="261" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="36"/>
       <c r="B261" s="36"/>
       <c r="C261" s="36"/>
@@ -10043,7 +10073,7 @@
       <c r="T261" s="49"/>
       <c r="U261" s="49"/>
     </row>
-    <row r="262" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="36"/>
       <c r="B262" s="36"/>
       <c r="C262" s="36"/>
@@ -10066,7 +10096,7 @@
       <c r="T262" s="49"/>
       <c r="U262" s="49"/>
     </row>
-    <row r="263" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="36"/>
       <c r="B263" s="36"/>
       <c r="C263" s="36"/>
@@ -10089,7 +10119,7 @@
       <c r="T263" s="49"/>
       <c r="U263" s="49"/>
     </row>
-    <row r="264" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="36"/>
       <c r="B264" s="36"/>
       <c r="C264" s="36"/>
@@ -10112,7 +10142,7 @@
       <c r="T264" s="49"/>
       <c r="U264" s="49"/>
     </row>
-    <row r="265" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="36"/>
       <c r="B265" s="36"/>
       <c r="C265" s="36"/>
@@ -10135,7 +10165,7 @@
       <c r="T265" s="49"/>
       <c r="U265" s="49"/>
     </row>
-    <row r="266" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="36"/>
       <c r="B266" s="36"/>
       <c r="C266" s="36"/>
@@ -10158,7 +10188,7 @@
       <c r="T266" s="49"/>
       <c r="U266" s="49"/>
     </row>
-    <row r="267" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="36"/>
       <c r="B267" s="36"/>
       <c r="C267" s="36"/>
@@ -10181,7 +10211,7 @@
       <c r="T267" s="49"/>
       <c r="U267" s="49"/>
     </row>
-    <row r="268" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="36"/>
       <c r="B268" s="36"/>
       <c r="C268" s="36"/>
@@ -10204,7 +10234,7 @@
       <c r="T268" s="49"/>
       <c r="U268" s="49"/>
     </row>
-    <row r="269" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="36"/>
       <c r="B269" s="36"/>
       <c r="C269" s="36"/>
@@ -10227,7 +10257,7 @@
       <c r="T269" s="49"/>
       <c r="U269" s="49"/>
     </row>
-    <row r="270" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="36"/>
       <c r="B270" s="36"/>
       <c r="C270" s="36"/>
@@ -10250,7 +10280,7 @@
       <c r="T270" s="49"/>
       <c r="U270" s="49"/>
     </row>
-    <row r="271" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="36"/>
       <c r="B271" s="36"/>
       <c r="C271" s="36"/>
@@ -10273,7 +10303,7 @@
       <c r="T271" s="49"/>
       <c r="U271" s="49"/>
     </row>
-    <row r="272" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="36"/>
       <c r="B272" s="36"/>
       <c r="C272" s="36"/>
@@ -10296,7 +10326,7 @@
       <c r="T272" s="49"/>
       <c r="U272" s="49"/>
     </row>
-    <row r="273" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="36"/>
       <c r="B273" s="36"/>
       <c r="C273" s="36"/>
@@ -10319,7 +10349,7 @@
       <c r="T273" s="49"/>
       <c r="U273" s="49"/>
     </row>
-    <row r="274" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="36"/>
       <c r="B274" s="36"/>
       <c r="C274" s="36"/>
@@ -10342,7 +10372,7 @@
       <c r="T274" s="49"/>
       <c r="U274" s="49"/>
     </row>
-    <row r="275" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="36"/>
       <c r="B275" s="36"/>
       <c r="C275" s="36"/>
@@ -10365,7 +10395,7 @@
       <c r="T275" s="49"/>
       <c r="U275" s="49"/>
     </row>
-    <row r="276" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="36"/>
       <c r="B276" s="36"/>
       <c r="C276" s="36"/>
@@ -10388,7 +10418,7 @@
       <c r="T276" s="49"/>
       <c r="U276" s="49"/>
     </row>
-    <row r="277" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="36"/>
       <c r="B277" s="36"/>
       <c r="C277" s="36"/>
@@ -10411,7 +10441,7 @@
       <c r="T277" s="49"/>
       <c r="U277" s="49"/>
     </row>
-    <row r="278" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="36"/>
       <c r="B278" s="36"/>
       <c r="C278" s="36"/>
@@ -10434,7 +10464,7 @@
       <c r="T278" s="49"/>
       <c r="U278" s="49"/>
     </row>
-    <row r="279" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="36"/>
       <c r="B279" s="36"/>
       <c r="C279" s="36"/>
@@ -10457,7 +10487,7 @@
       <c r="T279" s="49"/>
       <c r="U279" s="49"/>
     </row>
-    <row r="280" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="36"/>
       <c r="B280" s="36"/>
       <c r="C280" s="36"/>
@@ -10480,7 +10510,7 @@
       <c r="T280" s="49"/>
       <c r="U280" s="49"/>
     </row>
-    <row r="281" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="36"/>
       <c r="B281" s="36"/>
       <c r="C281" s="36"/>
@@ -10503,7 +10533,7 @@
       <c r="T281" s="49"/>
       <c r="U281" s="49"/>
     </row>
-    <row r="282" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="36"/>
       <c r="B282" s="36"/>
       <c r="C282" s="36"/>
@@ -10526,7 +10556,7 @@
       <c r="T282" s="49"/>
       <c r="U282" s="49"/>
     </row>
-    <row r="283" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="36"/>
       <c r="B283" s="36"/>
       <c r="C283" s="36"/>
@@ -10549,7 +10579,7 @@
       <c r="T283" s="49"/>
       <c r="U283" s="49"/>
     </row>
-    <row r="284" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="36"/>
       <c r="B284" s="36"/>
       <c r="C284" s="36"/>
@@ -10572,7 +10602,7 @@
       <c r="T284" s="49"/>
       <c r="U284" s="49"/>
     </row>
-    <row r="285" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="36"/>
       <c r="B285" s="36"/>
       <c r="C285" s="36"/>
@@ -10595,7 +10625,7 @@
       <c r="T285" s="49"/>
       <c r="U285" s="49"/>
     </row>
-    <row r="286" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="36"/>
       <c r="B286" s="36"/>
       <c r="C286" s="36"/>
@@ -10618,7 +10648,7 @@
       <c r="T286" s="49"/>
       <c r="U286" s="49"/>
     </row>
-    <row r="287" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="36"/>
       <c r="B287" s="36"/>
       <c r="C287" s="36"/>
@@ -10641,7 +10671,7 @@
       <c r="T287" s="49"/>
       <c r="U287" s="49"/>
     </row>
-    <row r="288" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="36"/>
       <c r="B288" s="36"/>
       <c r="C288" s="36"/>
@@ -10664,7 +10694,7 @@
       <c r="T288" s="49"/>
       <c r="U288" s="49"/>
     </row>
-    <row r="289" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="36"/>
       <c r="B289" s="36"/>
       <c r="C289" s="36"/>
@@ -10687,7 +10717,7 @@
       <c r="T289" s="49"/>
       <c r="U289" s="49"/>
     </row>
-    <row r="290" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="36"/>
       <c r="B290" s="36"/>
       <c r="C290" s="36"/>
@@ -10710,7 +10740,7 @@
       <c r="T290" s="49"/>
       <c r="U290" s="49"/>
     </row>
-    <row r="291" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="36"/>
       <c r="B291" s="36"/>
       <c r="C291" s="36"/>
@@ -10733,7 +10763,7 @@
       <c r="T291" s="49"/>
       <c r="U291" s="49"/>
     </row>
-    <row r="292" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="36"/>
       <c r="B292" s="36"/>
       <c r="C292" s="36"/>
@@ -10756,7 +10786,7 @@
       <c r="T292" s="49"/>
       <c r="U292" s="49"/>
     </row>
-    <row r="293" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="36"/>
       <c r="B293" s="36"/>
       <c r="C293" s="36"/>
@@ -10779,7 +10809,7 @@
       <c r="T293" s="49"/>
       <c r="U293" s="49"/>
     </row>
-    <row r="294" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="36"/>
       <c r="B294" s="36"/>
       <c r="C294" s="36"/>
@@ -10802,7 +10832,7 @@
       <c r="T294" s="49"/>
       <c r="U294" s="49"/>
     </row>
-    <row r="295" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="36"/>
       <c r="B295" s="36"/>
       <c r="C295" s="36"/>
@@ -10825,7 +10855,7 @@
       <c r="T295" s="49"/>
       <c r="U295" s="49"/>
     </row>
-    <row r="296" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="36"/>
       <c r="B296" s="36"/>
       <c r="C296" s="36"/>
@@ -10848,7 +10878,7 @@
       <c r="T296" s="49"/>
       <c r="U296" s="49"/>
     </row>
-    <row r="297" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="36"/>
       <c r="B297" s="36"/>
       <c r="C297" s="36"/>
@@ -10871,7 +10901,7 @@
       <c r="T297" s="49"/>
       <c r="U297" s="49"/>
     </row>
-    <row r="298" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="36"/>
       <c r="B298" s="36"/>
       <c r="C298" s="36"/>
@@ -10894,7 +10924,7 @@
       <c r="T298" s="49"/>
       <c r="U298" s="49"/>
     </row>
-    <row r="299" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="36"/>
       <c r="B299" s="36"/>
       <c r="C299" s="36"/>
@@ -10917,7 +10947,7 @@
       <c r="T299" s="49"/>
       <c r="U299" s="49"/>
     </row>
-    <row r="300" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="36"/>
       <c r="B300" s="36"/>
       <c r="C300" s="36"/>
@@ -10940,7 +10970,7 @@
       <c r="T300" s="49"/>
       <c r="U300" s="49"/>
     </row>
-    <row r="301" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="36"/>
       <c r="B301" s="36"/>
       <c r="C301" s="36"/>
@@ -10963,7 +10993,7 @@
       <c r="T301" s="49"/>
       <c r="U301" s="49"/>
     </row>
-    <row r="302" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="36"/>
       <c r="B302" s="36"/>
       <c r="C302" s="36"/>
@@ -10986,7 +11016,7 @@
       <c r="T302" s="49"/>
       <c r="U302" s="49"/>
     </row>
-    <row r="303" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="36"/>
       <c r="B303" s="36"/>
       <c r="C303" s="36"/>
@@ -11009,7 +11039,7 @@
       <c r="T303" s="49"/>
       <c r="U303" s="49"/>
     </row>
-    <row r="304" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="36"/>
       <c r="B304" s="36"/>
       <c r="C304" s="36"/>
@@ -11032,7 +11062,7 @@
       <c r="T304" s="49"/>
       <c r="U304" s="49"/>
     </row>
-    <row r="305" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="36"/>
       <c r="B305" s="36"/>
       <c r="C305" s="36"/>
@@ -11055,7 +11085,7 @@
       <c r="T305" s="49"/>
       <c r="U305" s="49"/>
     </row>
-    <row r="306" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="36"/>
       <c r="B306" s="36"/>
       <c r="C306" s="36"/>
@@ -11078,7 +11108,7 @@
       <c r="T306" s="49"/>
       <c r="U306" s="49"/>
     </row>
-    <row r="307" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="36"/>
       <c r="B307" s="36"/>
       <c r="C307" s="36"/>
@@ -11101,7 +11131,7 @@
       <c r="T307" s="49"/>
       <c r="U307" s="49"/>
     </row>
-    <row r="308" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="36"/>
       <c r="B308" s="36"/>
       <c r="C308" s="36"/>
@@ -11124,7 +11154,7 @@
       <c r="T308" s="49"/>
       <c r="U308" s="49"/>
     </row>
-    <row r="309" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="36"/>
       <c r="B309" s="36"/>
       <c r="C309" s="36"/>
@@ -11147,7 +11177,7 @@
       <c r="T309" s="49"/>
       <c r="U309" s="49"/>
     </row>
-    <row r="310" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="36"/>
       <c r="B310" s="36"/>
       <c r="C310" s="36"/>
@@ -11170,7 +11200,7 @@
       <c r="T310" s="49"/>
       <c r="U310" s="49"/>
     </row>
-    <row r="311" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="36"/>
       <c r="B311" s="36"/>
       <c r="C311" s="36"/>
@@ -11193,7 +11223,7 @@
       <c r="T311" s="49"/>
       <c r="U311" s="49"/>
     </row>
-    <row r="312" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="36"/>
       <c r="B312" s="36"/>
       <c r="C312" s="36"/>
@@ -11216,7 +11246,7 @@
       <c r="T312" s="49"/>
       <c r="U312" s="49"/>
     </row>
-    <row r="313" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="36"/>
       <c r="B313" s="36"/>
       <c r="C313" s="36"/>
@@ -11239,7 +11269,7 @@
       <c r="T313" s="49"/>
       <c r="U313" s="49"/>
     </row>
-    <row r="314" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="36"/>
       <c r="B314" s="36"/>
       <c r="C314" s="36"/>
@@ -11262,7 +11292,7 @@
       <c r="T314" s="49"/>
       <c r="U314" s="49"/>
     </row>
-    <row r="315" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="36"/>
       <c r="B315" s="36"/>
       <c r="C315" s="36"/>
@@ -11285,7 +11315,7 @@
       <c r="T315" s="49"/>
       <c r="U315" s="49"/>
     </row>
-    <row r="316" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="36"/>
       <c r="B316" s="36"/>
       <c r="C316" s="36"/>
@@ -11308,7 +11338,7 @@
       <c r="T316" s="49"/>
       <c r="U316" s="49"/>
     </row>
-    <row r="317" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="36"/>
       <c r="B317" s="36"/>
       <c r="C317" s="36"/>
@@ -11331,7 +11361,7 @@
       <c r="T317" s="49"/>
       <c r="U317" s="49"/>
     </row>
-    <row r="318" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="36"/>
       <c r="B318" s="36"/>
       <c r="C318" s="36"/>
@@ -11354,7 +11384,7 @@
       <c r="T318" s="49"/>
       <c r="U318" s="49"/>
     </row>
-    <row r="319" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="36"/>
       <c r="B319" s="36"/>
       <c r="C319" s="36"/>
@@ -11377,7 +11407,7 @@
       <c r="T319" s="49"/>
       <c r="U319" s="49"/>
     </row>
-    <row r="320" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="36"/>
       <c r="B320" s="36"/>
       <c r="C320" s="36"/>
@@ -11400,7 +11430,7 @@
       <c r="T320" s="49"/>
       <c r="U320" s="49"/>
     </row>
-    <row r="321" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="36"/>
       <c r="B321" s="36"/>
       <c r="C321" s="36"/>
@@ -11423,7 +11453,7 @@
       <c r="T321" s="49"/>
       <c r="U321" s="49"/>
     </row>
-    <row r="322" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="36"/>
       <c r="B322" s="36"/>
       <c r="C322" s="36"/>
@@ -11446,7 +11476,7 @@
       <c r="T322" s="49"/>
       <c r="U322" s="49"/>
     </row>
-    <row r="323" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="36"/>
       <c r="B323" s="36"/>
       <c r="C323" s="36"/>
@@ -11469,7 +11499,7 @@
       <c r="T323" s="49"/>
       <c r="U323" s="49"/>
     </row>
-    <row r="324" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="36"/>
       <c r="B324" s="36"/>
       <c r="C324" s="36"/>
@@ -11492,7 +11522,7 @@
       <c r="T324" s="49"/>
       <c r="U324" s="49"/>
     </row>
-    <row r="325" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="36"/>
       <c r="B325" s="36"/>
       <c r="C325" s="36"/>
@@ -11515,7 +11545,7 @@
       <c r="T325" s="49"/>
       <c r="U325" s="49"/>
     </row>
-    <row r="326" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="36"/>
       <c r="B326" s="36"/>
       <c r="C326" s="36"/>
@@ -11538,7 +11568,7 @@
       <c r="T326" s="49"/>
       <c r="U326" s="49"/>
     </row>
-    <row r="327" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="36"/>
       <c r="B327" s="36"/>
       <c r="C327" s="36"/>
@@ -11561,7 +11591,7 @@
       <c r="T327" s="49"/>
       <c r="U327" s="49"/>
     </row>
-    <row r="328" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="36"/>
       <c r="B328" s="36"/>
       <c r="C328" s="36"/>
@@ -11584,7 +11614,7 @@
       <c r="T328" s="49"/>
       <c r="U328" s="49"/>
     </row>
-    <row r="329" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="33"/>
       <c r="B329" s="33"/>
       <c r="C329" s="33"/>
@@ -11607,7 +11637,7 @@
       <c r="T329" s="65"/>
       <c r="U329" s="65"/>
     </row>
-    <row r="330" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="30"/>
       <c r="B330" s="30"/>
       <c r="C330" s="30"/>
@@ -11624,7 +11654,7 @@
       <c r="P330" s="32"/>
       <c r="Q330" s="32"/>
     </row>
-    <row r="331" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="30"/>
       <c r="B331" s="30"/>
       <c r="C331" s="30"/>
@@ -11641,7 +11671,7 @@
       <c r="P331" s="32"/>
       <c r="Q331" s="32"/>
     </row>
-    <row r="332" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="30"/>
       <c r="B332" s="30"/>
       <c r="C332" s="30"/>
@@ -11658,7 +11688,7 @@
       <c r="P332" s="32"/>
       <c r="Q332" s="32"/>
     </row>
-    <row r="333" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="30"/>
       <c r="B333" s="30"/>
       <c r="C333" s="30"/>
@@ -11675,7 +11705,7 @@
       <c r="P333" s="32"/>
       <c r="Q333" s="32"/>
     </row>
-    <row r="334" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="30"/>
       <c r="B334" s="30"/>
       <c r="C334" s="30"/>
@@ -11719,7 +11749,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
@@ -11776,16 +11806,16 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.46484375" customWidth="1"/>
-    <col min="4" max="4" width="13.796875" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -11808,7 +11838,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -11829,7 +11859,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>35</v>
@@ -11850,7 +11880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>36</v>
@@ -11867,7 +11897,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>37</v>
@@ -11884,7 +11914,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>38</v>
@@ -11899,7 +11929,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>39</v>
@@ -11912,7 +11942,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>40</v>
@@ -11925,7 +11955,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>41</v>
@@ -11938,7 +11968,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>42</v>
@@ -11951,7 +11981,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>43</v>
@@ -11966,7 +11996,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>44</v>
@@ -11981,7 +12011,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>45</v>
@@ -11996,7 +12026,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>46</v>
@@ -12011,7 +12041,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -12024,7 +12054,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -12037,7 +12067,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -12050,7 +12080,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -12063,7 +12093,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
@@ -12076,7 +12106,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
@@ -12089,7 +12119,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -12102,7 +12132,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
@@ -12115,7 +12145,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
@@ -12128,7 +12158,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
@@ -12141,7 +12171,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
@@ -12152,7 +12182,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
@@ -12163,7 +12193,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
@@ -12174,7 +12204,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
@@ -12185,7 +12215,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
@@ -12196,7 +12226,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
@@ -12207,7 +12237,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
@@ -12218,7 +12248,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
@@ -12229,7 +12259,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
@@ -12240,7 +12270,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
@@ -12251,7 +12281,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
@@ -12262,7 +12292,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
@@ -12273,7 +12303,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4" t="s">
@@ -12284,7 +12314,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
@@ -12295,7 +12325,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
@@ -12306,7 +12336,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -12315,7 +12345,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -12324,7 +12354,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -12333,7 +12363,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -12342,7 +12372,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -12351,7 +12381,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -12360,7 +12390,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -12369,7 +12399,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -12378,7 +12408,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -12387,7 +12417,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -12396,7 +12426,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>

--- a/fuentes/contenidos/grado07/guion01/Escaleta_LE_07_01_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion01/Escaleta_LE_07_01_CO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14490"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1111,11 +1111,11 @@
     <t xml:space="preserve"> Refuerza tu aprendizaje: Analiza los fragmentos de un diario</t>
   </si>
   <si>
-    <t>Actividad para leer textos líricos (poemas) en los que reconoce afinidades y distancias con su propia experiencia y efectos posibles a
+    <t>Refuerza tu aprendizaje: Rellena los espacios  con la grafía correcta</t>
+  </si>
+  <si>
+    <t>Actividad para leer textos líricos (poemas) en los que reconoce efectos posibles a
 partir del uso particular del lenguaje</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Rellena los espacios  con la grafía correcta</t>
   </si>
 </sst>
 </file>
@@ -1568,20 +1568,20 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1886,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1918,94 +1918,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="95" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="92" t="s">
+      <c r="K1" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="92" t="s">
+      <c r="L1" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="92" t="s">
+      <c r="M1" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92" t="s">
+      <c r="N1" s="95"/>
+      <c r="O1" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="92" t="s">
+      <c r="P1" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="92" t="s">
+      <c r="Q1" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="92" t="s">
+      <c r="R1" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="92" t="s">
+      <c r="S1" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="92" t="s">
+      <c r="T1" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="92" t="s">
+      <c r="U1" s="95" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
       <c r="J2" s="94"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
       <c r="M2" s="47" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
       <c r="V2" s="52"/>
       <c r="W2" s="52"/>
       <c r="X2" s="52"/>
@@ -4202,7 +4202,7 @@
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H39" s="13">
         <v>37</v>
@@ -4790,7 +4790,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="49" spans="1:52" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:52" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
         <v>68</v>
       </c>
@@ -4808,14 +4808,14 @@
       <c r="G49" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="H49" s="95">
+      <c r="H49" s="92">
         <v>47</v>
       </c>
-      <c r="I49" s="95" t="s">
+      <c r="I49" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="J49" s="96" t="s">
-        <v>310</v>
+      <c r="J49" s="93" t="s">
+        <v>311</v>
       </c>
       <c r="K49" s="13" t="s">
         <v>70</v>
@@ -11727,6 +11727,14 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="U1:U2"/>
@@ -11739,14 +11747,6 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado07/guion01/Escaleta_LE_07_01_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion01/Escaleta_LE_07_01_CO.xlsx
@@ -1575,13 +1575,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1886,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="F29" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1918,94 +1918,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="95" t="s">
+      <c r="H1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="95" t="s">
+      <c r="K1" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="95" t="s">
+      <c r="L1" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="95" t="s">
+      <c r="M1" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95" t="s">
+      <c r="N1" s="94"/>
+      <c r="O1" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="95" t="s">
+      <c r="P1" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="95" t="s">
+      <c r="Q1" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="95" t="s">
+      <c r="R1" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="95" t="s">
+      <c r="S1" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="95" t="s">
+      <c r="T1" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="95" t="s">
+      <c r="U1" s="94" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
       <c r="M2" s="47" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
       <c r="V2" s="52"/>
       <c r="W2" s="52"/>
       <c r="X2" s="52"/>
@@ -11727,14 +11727,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="U1:U2"/>
@@ -11747,6 +11739,14 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
